--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1235.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1235.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.775048945656135</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03875244728280675</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03875244728280675</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.0620039156524908</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06220702089408412</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01220702089408412</v>
+        <v>0.02079791622382401</v>
       </c>
       <c r="B65" t="n">
-        <v>0.009680845736836155</v>
+        <v>0.01649390300528266</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0006318139831504727</v>
+        <v>0.001818851105618711</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007984089365436203</v>
+        <v>0.000801036581968304</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001342460894568673</v>
+        <v>0.002999999999999975</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008104289707016007</v>
+        <v>0.0005969235364396603</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004195799142842183</v>
+        <v>0.007076255159224942</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007256243768798395</v>
+        <v>0.0007877594924957104</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.007186664260919351</v>
+        <v>0.001818851105618711</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000807478457404678</v>
+        <v>0.000801036581968304</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001178275698395029</v>
+        <v>0.003372755616843456</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001596817873087241</v>
+        <v>0.001602073163936608</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003051553495054496</v>
+        <v>0.007038210966854835</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001620857941403201</v>
+        <v>0.001585688250612313</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007978392063600986</v>
+        <v>0.01446483204637378</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001451248753759679</v>
+        <v>0.001575518984991421</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01365854828459706</v>
+        <v>0.003372755616843456</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001614956914809356</v>
+        <v>0.001602073163936608</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004577755671016662</v>
+        <v>0.005352008900551986</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002395226809630861</v>
+        <v>0.002403109745904912</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004700384224211693</v>
+        <v>0.01035965629102387</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002431286912104802</v>
+        <v>0.00237853237591847</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01197879735154564</v>
+        <v>0.02300000000000002</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002176873130639518</v>
+        <v>0.00257943322109989</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01998728468837574</v>
+        <v>0.005352008900551986</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002422435372214034</v>
+        <v>0.002403109745904912</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.006946906323622069</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003226948578945384</v>
+        <v>0.003204146327873216</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005862059504794515</v>
+        <v>0.0134093276584718</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003241715882806403</v>
+        <v>0.003171376501224627</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01652803359594543</v>
+        <v>0.02575423728919018</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002902497507519358</v>
+        <v>0.003151037969982842</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02500000000000002</v>
+        <v>0.006946906323622069</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003050213675213678</v>
+        <v>0.003204146327873216</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003226948578945384</v>
+        <v>0.008882222222222222</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.016</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006779399216375784</v>
+        <v>0.008847743252931452</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003992044682718102</v>
+        <v>0.00400518290984152</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007309685759557163</v>
+        <v>0.01618421181181076</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004052144853508004</v>
+        <v>0.003964220626530783</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01945711938606956</v>
+        <v>0.03198607727564201</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003628121884399197</v>
+        <v>0.003938797462478552</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03115680761380651</v>
+        <v>0.008847743252931452</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004037392287023389</v>
+        <v>0.00400518290984152</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006702180399571836</v>
+        <v>0.01004481505535788</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004790453619261723</v>
+        <v>0.004806219491809824</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008999999999999994</v>
+        <v>0.01988129549365289</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004996249999999996</v>
+        <v>0.00475706475183694</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02399999999999997</v>
+        <v>0.03653247569441881</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004531746031746025</v>
+        <v>0.004726556954974262</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03440748804797594</v>
+        <v>0.01004481505535788</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004844870744428068</v>
+        <v>0.004806219491809824</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006550137949826187</v>
+        <v>0.01132841709777916</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005588862555805343</v>
+        <v>0.005607256073778128</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009780485461298116</v>
+        <v>0.0227975654466103</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005673002794911205</v>
+        <v>0.005549908877143097</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02554674082121419</v>
+        <v>0.04198772314606797</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005079370638158876</v>
+        <v>0.005514316447469973</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03866560753611237</v>
+        <v>0.01132841709777916</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005652349201832746</v>
+        <v>0.005607256073778128</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009336292601137414</v>
+        <v>0.01288884474707298</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006387271492348963</v>
+        <v>0.006408292655746432</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01084522480120011</v>
+        <v>0.02523000841329504</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006483431765612805</v>
+        <v>0.006342753002449253</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02805435074568763</v>
+        <v>0.04744611023113737</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005804995015038716</v>
+        <v>0.006302075939965683</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04418165029754739</v>
+        <v>0.01288884474707298</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006459827659237424</v>
+        <v>0.006408292655746432</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01007366508750413</v>
+        <v>0.01371639337011715</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007185680428892584</v>
+        <v>0.007209329237714736</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01132700937957311</v>
+        <v>0.02877561113631935</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007293860736314407</v>
+        <v>0.007135597127755411</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03076232404102588</v>
+        <v>0.0523019275501746</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006530619391918555</v>
+        <v>0.007089835432461393</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04690610055161254</v>
+        <v>0.01371639337011715</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007267306116642103</v>
+        <v>0.007209329237714736</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01077527614292492</v>
+        <v>0.01490135833378939</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007984089365436204</v>
+        <v>0.00801036581968304</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01234146807136514</v>
+        <v>0.03123136035829524</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008104289707016007</v>
+        <v>0.007928441253061566</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03250697169116321</v>
+        <v>0.05564946570372731</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007256243768798395</v>
+        <v>0.007877594924957104</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05058944251763969</v>
+        <v>0.01490135833378939</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008074784574046779</v>
+        <v>0.00801036581968304</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01045414650139836</v>
+        <v>0.016</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008782498301979825</v>
+        <v>0.008882222222222222</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01320422975152431</v>
+        <v>0.03419424282183495</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008914718677717606</v>
+        <v>0.008721285378367723</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03482460468003398</v>
+        <v>0.06048301529234301</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007981868145678235</v>
+        <v>0.008665354417452814</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05538216041496025</v>
+        <v>0.016</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008882263031451459</v>
+        <v>0.008882222222222222</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01220702089408412</v>
+        <v>0.01633140888744276</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009680845736836155</v>
+        <v>0.009612438983619648</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01363092329499864</v>
+        <v>0.03636124526955051</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009725147648419209</v>
+        <v>0.00951412950367388</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03695153399157269</v>
+        <v>0.0641968669165694</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008707492522558074</v>
+        <v>0.009453113909948524</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05903473846290591</v>
+        <v>0.01633140888744276</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009689741488856136</v>
+        <v>0.009612438983619648</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01280396062195435</v>
+        <v>0.01723810619470939</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01037931617506706</v>
+        <v>0.01041347556558795</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01433717757673621</v>
+        <v>0.03922935444405409</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01053557661912081</v>
+        <v>0.01030697362898004</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03802407060971361</v>
+        <v>0.06778531117695413</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009433116899437913</v>
+        <v>0.01024087340244424</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06219766088080836</v>
+        <v>0.01723810619470939</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01049721994626081</v>
+        <v>0.01041347556558795</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01351087884692882</v>
+        <v>0.01737260850933395</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01117772511161069</v>
+        <v>0.01121451214755626</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01543862147168508</v>
+        <v>0.04089555708795781</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01134600558982241</v>
+        <v>0.01109981775428619</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03987852551839119</v>
+        <v>0.07234263867404483</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01015874127631775</v>
+        <v>0.01102863289493995</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0661214118879993</v>
+        <v>0.01737260850933395</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01130469840366549</v>
+        <v>0.01121451214755626</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01323789888308908</v>
+        <v>0.01815318280522503</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0119761340481543</v>
+        <v>0.01201554872952456</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0158508838547933</v>
+        <v>0.04365683994387376</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01215643456052401</v>
+        <v>0.01189266187959235</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04165120970153968</v>
+        <v>0.07416314000838908</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01088436565319759</v>
+        <v>0.01181639238743566</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06905647570381018</v>
+        <v>0.01815318280522503</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01211217686107017</v>
+        <v>0.01201554872952456</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01397864927094579</v>
+        <v>0.01839809605629132</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01277454298469793</v>
+        <v>0.01281658531149286</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01658959360100894</v>
+        <v>0.04531018975441409</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01296686353122561</v>
+        <v>0.01268550600489851</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04367843414309361</v>
+        <v>0.07884613514074101</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01160999003007743</v>
+        <v>0.01263219505200985</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07455333654757279</v>
+        <v>0.01839809605629132</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01291965531847485</v>
+        <v>0.01281658531149286</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01572675855100961</v>
+        <v>0.01872561523644144</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01357295192124154</v>
+        <v>0.01361762189346117</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01737037958528009</v>
+        <v>0.04775259326219095</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01377729250192721</v>
+        <v>0.01347835013020466</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04609650982698721</v>
+        <v>0.08029042282324905</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01233561440695727</v>
+        <v>0.01339191137242708</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07884613514074101</v>
+        <v>0.01872561523644144</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01374271769394479</v>
+        <v>0.01361762189346117</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01547585526379121</v>
+        <v>0.019354007319584</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01437136085778517</v>
+        <v>0.01441865847542947</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01850887068255475</v>
+        <v>0.0498220256822825</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01458772147262881</v>
+        <v>0.01416187607755043</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04784174773715497</v>
+        <v>0.08414371731136933</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01306123878383711</v>
+        <v>0.01417967086492279</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08320750360469659</v>
+        <v>0.019354007319584</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01453461223328421</v>
+        <v>0.01441865847542947</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01621956794980128</v>
+        <v>0.01990153927962771</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01516976979432879</v>
+        <v>0.01521969505739777</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01942069576778102</v>
+        <v>0.05107758138724175</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01539815044333041</v>
+        <v>0.01506403838081698</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0498220256822825</v>
+        <v>0.08629686972348205</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01343933137971622</v>
+        <v>0.0149674303574185</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08831269610692649</v>
+        <v>0.01990153927962771</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01534209069068888</v>
+        <v>0.01521969505739777</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01595152514955044</v>
+        <v>0.02028647809048115</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01596817873087241</v>
+        <v>0.01602073163936608</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02079791622382401</v>
+        <v>0.05368386187957297</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01649390300528266</v>
+        <v>0.01585688250612313</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05350160625743344</v>
+        <v>0.08914559788418019</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01451248753759679</v>
+        <v>0.01575518984991421</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0940557815995795</v>
+        <v>0.02028647809048115</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01614956914809356</v>
+        <v>0.01602073163936608</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0186653554035494</v>
+        <v>0.02079791622382401</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01676658766741603</v>
+        <v>0.01649390300528266</v>
       </c>
       <c r="J86" t="n">
-        <v>0.021281780331043</v>
+        <v>0.05579754082632452</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01701900838473362</v>
+        <v>0.01664972663142929</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05561095367564195</v>
+        <v>0.09338561961805664</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01523811191447663</v>
+        <v>0.01654294934240992</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1002144077636054</v>
+        <v>0.02079791622382401</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01695704760549824</v>
+        <v>0.01649390300528266</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01835468725230882</v>
+        <v>0.02121061608093508</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01756499660395965</v>
+        <v>0.01762280480330269</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02296628430601505</v>
+        <v>0.05731502941401231</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01782943735543521</v>
+        <v>0.01744257075673545</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05924209000292516</v>
+        <v>0.09641265274970434</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01596373629135647</v>
+        <v>0.01733070883490563</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1057662222799541</v>
+        <v>0.02121061608093508</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01776452606290292</v>
+        <v>0.01762280480330269</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01801314923633935</v>
+        <v>0.02213649275428343</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01836340554050327</v>
+        <v>0.01842384138527099</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0246172148285736</v>
+        <v>0.05943273882915245</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01863986632613682</v>
+        <v>0.0182354148820416</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06274015836904079</v>
+        <v>0.09782241510371631</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01668936066823631</v>
+        <v>0.01811846832740134</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1111888728295757</v>
+        <v>0.02213649275428343</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0185720045203076</v>
+        <v>0.01842384138527099</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02063436989615168</v>
+        <v>0.02279904022363236</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01916181447704689</v>
+        <v>0.0192248779672393</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02665868661707589</v>
+        <v>0.06064708025826085</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01945029529683842</v>
+        <v>0.01902825900734776</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06545030190374657</v>
+        <v>0.1020106245046855</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01741498504511615</v>
+        <v>0.01890622781989705</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1185600070934202</v>
+        <v>0.02279904022363236</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01937948297771227</v>
+        <v>0.0192248779672393</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02121197777225646</v>
+        <v>0.02359458246880262</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01996022341359051</v>
+        <v>0.0200259145492076</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02841481438987911</v>
+        <v>0.0633544648878536</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02026072426754002</v>
+        <v>0.01982110313265392</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06911766373680023</v>
+        <v>0.1043729987772049</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01814060942199599</v>
+        <v>0.01969398731239276</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1244572727524375</v>
+        <v>0.02359458246880262</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02018696143511695</v>
+        <v>0.0200259145492076</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01973960140516436</v>
+        <v>0.02431944346961502</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02075863235013413</v>
+        <v>0.0208269511311759</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0305097128653405</v>
+        <v>0.06535130390444666</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02107115323824162</v>
+        <v>0.02061394725796007</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07298738699795942</v>
+        <v>0.1070052557458674</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01886623379887583</v>
+        <v>0.02048174680488847</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1300583174875776</v>
+        <v>0.02431944346961502</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02099443989252163</v>
+        <v>0.0208269511311759</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02021086933538605</v>
+        <v>0.02486994720589028</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02155704128667775</v>
+        <v>0.02162798771314421</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03266749676181732</v>
+        <v>0.06693400849455602</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02188158220894322</v>
+        <v>0.02140679138326623</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07620461481698187</v>
+        <v>0.109503113235266</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01959185817575566</v>
+        <v>0.02126950629738418</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1345407889797905</v>
+        <v>0.02486994720589028</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02180191834992631</v>
+        <v>0.02162798771314421</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0216194101034322</v>
+        <v>0.0257424176574492</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02235545022322137</v>
+        <v>0.02242902429511251</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03471228079766676</v>
+        <v>0.06909898984469773</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02269201117964482</v>
+        <v>0.02219963550857239</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07941449032362533</v>
+        <v>0.1134622890699937</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0203174825526355</v>
+        <v>0.02205726578987989</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1394823349100261</v>
+        <v>0.0257424176574492</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02260939680733098</v>
+        <v>0.02242902429511251</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02295885224981348</v>
+        <v>0.02643317880411253</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02315385915976499</v>
+        <v>0.02323006087708082</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03626817969124613</v>
+        <v>0.07094265914138775</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02350244015034642</v>
+        <v>0.02299247963387854</v>
       </c>
       <c r="L94" t="n">
-        <v>0.08306215664764749</v>
+        <v>0.1149785010746434</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02104310692951535</v>
+        <v>0.0228450252823756</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1432606029592345</v>
+        <v>0.02643317880411253</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02341687526473566</v>
+        <v>0.02323006087708082</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02122282431504054</v>
+        <v>0.02723855462570103</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02395226809630861</v>
+        <v>0.02403109745904912</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03775930816091258</v>
+        <v>0.07216142757114219</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02431286912104802</v>
+        <v>0.0237853237591847</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08529275691880597</v>
+        <v>0.117447467073808</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02176873130639518</v>
+        <v>0.02363278477487131</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1469532408083657</v>
+        <v>0.02723855462570103</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02422435372214034</v>
+        <v>0.02403109745904912</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02340495483962408</v>
+        <v>0.02805486910203547</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02475067703285223</v>
+        <v>0.02483213404101742</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03910978092502336</v>
+        <v>0.07395170632047687</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02512329809174962</v>
+        <v>0.02457816788449086</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08785143426685857</v>
+        <v>0.1205649048920805</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02249435568327502</v>
+        <v>0.02442054426736702</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1492378961383695</v>
+        <v>0.02805486910203547</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02503183217954502</v>
+        <v>0.02483213404101742</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02349887236407475</v>
+        <v>0.02897844621293665</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02554908596939585</v>
+        <v>0.02563317062298573</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03974371270193572</v>
+        <v>0.07560990657590791</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02593372706245122</v>
+        <v>0.02537101200979701</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09028333182156303</v>
+        <v>0.122926532354054</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02321998006015486</v>
+        <v>0.02520830375986273</v>
       </c>
       <c r="N97" t="n">
-        <v>0.150092216630196</v>
+        <v>0.02897844621293665</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0258393106369497</v>
+        <v>0.02563317062298573</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02350228441055602</v>
+        <v>0.02950560993822528</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02634749490593947</v>
+        <v>0.02643420720495403</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04008590259752046</v>
+        <v>0.07723243952395134</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02674415603315282</v>
+        <v>0.02616385613510317</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09283359271267697</v>
+        <v>0.1257280672843213</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02394560443703471</v>
+        <v>0.02599606325235844</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1505410417367516</v>
+        <v>0.02950560993822528</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02664678909435437</v>
+        <v>0.02643420720495403</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02143819579771016</v>
+        <v>0.03043268425772219</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02714590384248309</v>
+        <v>0.02723524378692234</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04014423123248044</v>
+        <v>0.0794157163511231</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02755458500385443</v>
+        <v>0.02695670026040933</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09434736006995817</v>
+        <v>0.1287652275074754</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02467122881391454</v>
+        <v>0.02678382274485415</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1508315609289875</v>
+        <v>0.03043268425772219</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02745426755175905</v>
+        <v>0.02723524378692234</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02131766252285969</v>
+        <v>0.03155599315124806</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02794431277902671</v>
+        <v>0.02803628036889064</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03993271164658345</v>
+        <v>0.08115614824393921</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02836501397455602</v>
+        <v>0.02774954438571548</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09526977702316433</v>
+        <v>0.1298337308481093</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02539685319079438</v>
+        <v>0.02757158223734987</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1500859279364595</v>
+        <v>0.03155599315124806</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02826174600916373</v>
+        <v>0.02803628036889064</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0231483695383933</v>
+        <v>0.03237186059862376</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02874272171557033</v>
+        <v>0.02883731695085895</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03995920185818504</v>
+        <v>0.0827501463889157</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02917544294525763</v>
+        <v>0.02854238851102164</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09574598670205312</v>
+        <v>0.1333292951308159</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02612247756767422</v>
+        <v>0.02835934172984557</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1487459830571712</v>
+        <v>0.03237186059862376</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02906922446656841</v>
+        <v>0.02883731695085895</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02193800179669961</v>
+        <v>0.03317661057966999</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02954113065211395</v>
+        <v>0.02963835353282725</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03933155988564069</v>
+        <v>0.08419412197256859</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02998587191595923</v>
+        <v>0.0293352326363278</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09524941874759216</v>
+        <v>0.1346476381801882</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02684810194455406</v>
+        <v>0.02914710122234129</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1477535665891256</v>
+        <v>0.03317661057966999</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02987670292397309</v>
+        <v>0.02963835353282725</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02169424425016727</v>
+        <v>0.03386656707420752</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03033953958865757</v>
+        <v>0.03043939011479555</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03945764374730595</v>
+        <v>0.08598448618141383</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03079630088666083</v>
+        <v>0.03012807676163395</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0958310017549388</v>
+        <v>0.1371844778208191</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0275737263214339</v>
+        <v>0.029934860714837</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1469505188303262</v>
+        <v>0.03386656707420752</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03068418138137776</v>
+        <v>0.03043939011479555</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02042478185118492</v>
+        <v>0.03443805406205715</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0311379485252012</v>
+        <v>0.03124042669676386</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03874531146153636</v>
+        <v>0.08741765020196748</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03160672985736243</v>
+        <v>0.03092092088694011</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09522135779272964</v>
+        <v>0.1394355318773015</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02829935069831374</v>
+        <v>0.03072262020733271</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1446786800787763</v>
+        <v>0.03443805406205715</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03149165983878244</v>
+        <v>0.03124042669676386</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02213729955214123</v>
+        <v>0.03508739552303961</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03193635746174481</v>
+        <v>0.03204146327873216</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03860242104668742</v>
+        <v>0.08809002522074547</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03241715882806403</v>
+        <v>0.03171376501224626</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0954277505889804</v>
+        <v>0.1412965181742287</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02902497507519358</v>
+        <v>0.03151037969982842</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1425798906324792</v>
+        <v>0.03508739552303961</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03229913829618711</v>
+        <v>0.03204146327873216</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01983948230542482</v>
+        <v>0.03611091543697569</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03273476639828844</v>
+        <v>0.03284249986070047</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03813683052111469</v>
+        <v>0.08969802242426383</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03322758779876563</v>
+        <v>0.03250660913755242</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09425744387170684</v>
+        <v>0.1433631545361932</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02975059945207342</v>
+        <v>0.03229813919232413</v>
       </c>
       <c r="N106" t="n">
-        <v>0.141495990789438</v>
+        <v>0.03611091543697569</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0331066167535918</v>
+        <v>0.03284249986070047</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02153901506342434</v>
+        <v>0.03650493778368614</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03353317533483206</v>
+        <v>0.03364353644266876</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03785639790317365</v>
+        <v>0.09083805299903866</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03403801676946723</v>
+        <v>0.03329945326285858</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09441770136892472</v>
+        <v>0.1453311587877882</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03047622382895326</v>
+        <v>0.03308589868481984</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1389688208476563</v>
+        <v>0.03650493778368614</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03391409521099648</v>
+        <v>0.03364353644266876</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02124358277852845</v>
+        <v>0.03736578654299173</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03433158427137567</v>
+        <v>0.03444457302463707</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03766898121121987</v>
+        <v>0.09190652813158587</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03484844574016883</v>
+        <v>0.03409229738816474</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09361578680864976</v>
+        <v>0.1461962487536068</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03120184820583309</v>
+        <v>0.03387365817731555</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1384402211051372</v>
+        <v>0.03736578654299173</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03472157366840115</v>
+        <v>0.03444457302463707</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02096087040312579</v>
+        <v>0.03808978569471326</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0351299932079193</v>
+        <v>0.03524560960660537</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03728243846360885</v>
+        <v>0.09269985900842143</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03565887471087043</v>
+        <v>0.03488514151347089</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09285896391889772</v>
+        <v>0.1482541422582417</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03192747258271294</v>
+        <v>0.03466141766981125</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1363520318598841</v>
+        <v>0.03808978569471326</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03552905212580584</v>
+        <v>0.03524560960660537</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01869856288960499</v>
+        <v>0.03837325921867145</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03592840214446292</v>
+        <v>0.03604664618857368</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03690462767869614</v>
+        <v>0.09451445681606152</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03646930368157203</v>
+        <v>0.03567798563877705</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09285449642768434</v>
+        <v>0.149500557126286</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03265309695959278</v>
+        <v>0.03544917716230697</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1351460934099002</v>
+        <v>0.03837325921867145</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03633653058321051</v>
+        <v>0.03604664618857368</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02046434519035472</v>
+        <v>0.03891253109468709</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03672681108100653</v>
+        <v>0.03684768277054198</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03654340687483724</v>
+        <v>0.09554673274102185</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03727973265227363</v>
+        <v>0.0364708297640832</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09180964806302538</v>
+        <v>0.1508312111823324</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03337872133647261</v>
+        <v>0.03623693665480267</v>
       </c>
       <c r="N111" t="n">
-        <v>0.132064246053189</v>
+        <v>0.03891253109468709</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03714400904061519</v>
+        <v>0.03684768277054198</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0192659022577636</v>
+        <v>0.03950392530258096</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03752522001755015</v>
+        <v>0.03764871935251029</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03610663407038768</v>
+        <v>0.09569309796981876</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03809016162297524</v>
+        <v>0.03726367388938936</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09083168255293655</v>
+        <v>0.1521418222509743</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03410434571335245</v>
+        <v>0.03702469614729839</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1318483300877537</v>
+        <v>0.03950392530258096</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03795148749801987</v>
+        <v>0.03764871935251029</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01911091904422031</v>
+        <v>0.04024376582217379</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03832362895409378</v>
+        <v>0.03844975593447859</v>
       </c>
       <c r="J113" t="n">
-        <v>0.035802167283703</v>
+        <v>0.09714996368896806</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03890059059367684</v>
+        <v>0.03805651801469552</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09012786362543368</v>
+        <v>0.1524281081568044</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0348299700902323</v>
+        <v>0.03781245563979409</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1298401858115975</v>
+        <v>0.04024376582217379</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03875896595542454</v>
+        <v>0.03844975593447859</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01800708050211346</v>
+        <v>0.04062837663328638</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0391220378906374</v>
+        <v>0.0392507925164469</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03563786453313873</v>
+        <v>0.09751374108498573</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03971101956437843</v>
+        <v>0.03884936214000168</v>
       </c>
       <c r="L114" t="n">
-        <v>0.0896054550085324</v>
+        <v>0.1543857867244157</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03555559446711214</v>
+        <v>0.03860021513228981</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1292816535227238</v>
+        <v>0.04062837663328638</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03956644441282922</v>
+        <v>0.0392507925164469</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01996207158383172</v>
+        <v>0.04095408171573947</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03992044682718102</v>
+        <v>0.0400518290984152</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03502158383705038</v>
+        <v>0.09788084134438788</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04052144853508004</v>
+        <v>0.03964220626530784</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08917172043024857</v>
+        <v>0.154810575778401</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03628121884399198</v>
+        <v>0.03938797462478552</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1288145735191359</v>
+        <v>0.04095408171573947</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0403739228702339</v>
+        <v>0.0400518290984152</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01797280833833546</v>
+        <v>0.04111720504935384</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04071885576372464</v>
+        <v>0.04085286568038351</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0349611832137935</v>
+        <v>0.09844767565369045</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04133187750578163</v>
+        <v>0.04043505039061399</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08803392361859785</v>
+        <v>0.1562981931433536</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03700684322087181</v>
+        <v>0.04017573411728123</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1286807860988371</v>
+        <v>0.04111720504935384</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04118140132763858</v>
+        <v>0.04085286568038351</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01801951388701889</v>
+        <v>0.04111407061395027</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04151726470026826</v>
+        <v>0.04165390226235181</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03496452068172358</v>
+        <v>0.09871065519940947</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04214230647648324</v>
+        <v>0.04122789451592015</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08749932830159604</v>
+        <v>0.1557443566438662</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03773246759775165</v>
+        <v>0.04096349360977694</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1286954411380495</v>
+        <v>0.04111407061395027</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04198887978504326</v>
+        <v>0.04165390226235181</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01809880028836703</v>
+        <v>0.04159583244764803</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04231567363681188</v>
+        <v>0.04245493884432011</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03503922459117947</v>
+        <v>0.09946619116806096</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04295273544718484</v>
+        <v>0.0420207386412263</v>
       </c>
       <c r="L118" t="n">
-        <v>0.08667519820725886</v>
+        <v>0.1565447841045317</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03845809197463149</v>
+        <v>0.04175125310227265</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1289646082738466</v>
+        <v>0.04159583244764803</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04279635824244793</v>
+        <v>0.04245493884432011</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0192078358043163</v>
+        <v>0.04139432435537234</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04311408257335549</v>
+        <v>0.04325597542628842</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03477997150520314</v>
+        <v>0.099644051364565</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04376316441788643</v>
+        <v>0.04281358276653246</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08566879706360203</v>
+        <v>0.157692270281482</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03918371635151133</v>
+        <v>0.04253901259476836</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1295584671617535</v>
+        <v>0.04139432435537234</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04360383669985261</v>
+        <v>0.04325597542628842</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02034378869680316</v>
+        <v>0.0414885731218268</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04391249150989912</v>
+        <v>0.04405701200825671</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03527771863203157</v>
+        <v>0.09954330866206393</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04457359338858804</v>
+        <v>0.04360642689183862</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08578738859864141</v>
+        <v>0.1561913022046938</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03990934072839117</v>
+        <v>0.04332677208726408</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1298573726949178</v>
+        <v>0.0414885731218268</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04441131515725729</v>
+        <v>0.04405701200825671</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01850382722776404</v>
+        <v>0.0414599247360815</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04471090044644274</v>
+        <v>0.04485804859022503</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03502746173160225</v>
+        <v>0.09962482484474883</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04538402235928964</v>
+        <v>0.04439927101714478</v>
       </c>
       <c r="L121" t="n">
-        <v>0.08443823654039262</v>
+        <v>0.1576828606270051</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04063496510527101</v>
+        <v>0.04411453157975978</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1305416797664871</v>
+        <v>0.0414599247360815</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04521879361466197</v>
+        <v>0.04485804859022503</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01868511965913536</v>
+        <v>0.04121071050783404</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04550930938298636</v>
+        <v>0.04565908517219332</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03532419656385261</v>
+        <v>0.09898210095372589</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04619445132999124</v>
+        <v>0.04519211514245093</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08412860461687147</v>
+        <v>0.1573501216595946</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04136058948215085</v>
+        <v>0.0449022910722555</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1317917432696092</v>
+        <v>0.04121071050783404</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04602627207206664</v>
+        <v>0.04565908517219332</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01988483425285358</v>
+        <v>0.04114219841828927</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04630771831952998</v>
+        <v>0.04646012175416164</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03566291888872006</v>
+        <v>0.0992159165076974</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04700488030069284</v>
+        <v>0.04598495926775709</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08356575655609369</v>
+        <v>0.1575944202269415</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04208621385903069</v>
+        <v>0.0456900505647512</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1330879180974316</v>
+        <v>0.04114219841828927</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04683375052947132</v>
+        <v>0.04646012175416164</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02010013927085513</v>
+        <v>0.0411556564486521</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0471061272560736</v>
+        <v>0.04726115833612993</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03583862446614211</v>
+        <v>0.09912705102536562</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04781530927139444</v>
+        <v>0.04677780339306324</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08325695608607503</v>
+        <v>0.1562162690925674</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04281183823591053</v>
+        <v>0.04647781005724692</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1342105591431023</v>
+        <v>0.0411556564486521</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04764122898687601</v>
+        <v>0.04726115833612993</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02132820297507645</v>
+        <v>0.04115235258012739</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04790453619261722</v>
+        <v>0.04806219491809824</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03644630905605616</v>
+        <v>0.09851628402543286</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04862573824209604</v>
+        <v>0.0475706475183694</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08270946693483122</v>
+        <v>0.1568161810199942</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04353746261279037</v>
+        <v>0.04726556954974263</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1360400212997686</v>
+        <v>0.04115235258012739</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04844870744428068</v>
+        <v>0.04806219491809824</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02156619362745397</v>
+        <v>0.04113355479392</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04870294512916084</v>
+        <v>0.04886323150006654</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03678096841839966</v>
+        <v>0.09878439502660141</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04943616721279764</v>
+        <v>0.04836349164367556</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08233055283037805</v>
+        <v>0.1569946687727435</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04426308698967021</v>
+        <v>0.04805332904223834</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1365566594605784</v>
+        <v>0.04113355479392</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04925618590168536</v>
+        <v>0.04886323150006654</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01981127948992412</v>
+        <v>0.04090053107123481</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04950135406570446</v>
+        <v>0.04966426808203485</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03683759831311005</v>
+        <v>0.09883216354757357</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05024659618349924</v>
+        <v>0.04915633576898171</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08202747750073125</v>
+        <v>0.156452245114337</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04498871136655005</v>
+        <v>0.04884108853473405</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1387408285186794</v>
+        <v>0.04090053107123481</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05006366435909004</v>
+        <v>0.04966426808203485</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02006062882442336</v>
+        <v>0.04045454939327671</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05029976300224808</v>
+        <v>0.05046530466400315</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0375111945001248</v>
+        <v>0.09876036910705166</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05105702515420085</v>
+        <v>0.04994917989428788</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08180750467390654</v>
+        <v>0.1559894228082965</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04571433574342989</v>
+        <v>0.04962884802722976</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1407728833672191</v>
+        <v>0.04045454939327671</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05087114281649471</v>
+        <v>0.05046530466400315</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02131140989288811</v>
+        <v>0.04039687774125053</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0510981719387917</v>
+        <v>0.05126634124597146</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03789675273938133</v>
+        <v>0.09836979122373793</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05186745412490244</v>
+        <v>0.05074202401959402</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08177789807791971</v>
+        <v>0.1560067146181437</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04643996012030973</v>
+        <v>0.05041660751972547</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1422331788993453</v>
+        <v>0.04039687774125053</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05167862127389939</v>
+        <v>0.05126634124597146</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02256079095725481</v>
+        <v>0.04042878409636115</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05189658087533532</v>
+        <v>0.05206737782793976</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03798926879081711</v>
+        <v>0.09836120941633467</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05267788309560405</v>
+        <v>0.05153486814490018</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08134875908921166</v>
+        <v>0.1561046333074005</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04716558449718957</v>
+        <v>0.05120436701222118</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1438020700082057</v>
+        <v>0.04042878409636115</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05248609973130407</v>
+        <v>0.05206737782793976</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0218059402794599</v>
+        <v>0.04025153643981347</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05269498981187894</v>
+        <v>0.05286841440990806</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03838373841436957</v>
+        <v>0.09813540320354419</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05348831206630564</v>
+        <v>0.05232771227020634</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08192733041565797</v>
+        <v>0.1553836916395884</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04789120887406941</v>
+        <v>0.05199212650471689</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1453599115869478</v>
+        <v>0.04025153643981347</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05329357818870874</v>
+        <v>0.05286841440990806</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02104402612143981</v>
+        <v>0.03986640275281235</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05349339874842256</v>
+        <v>0.05366945099187637</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03887515736997613</v>
+        <v>0.09769315210406879</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05429874103700725</v>
+        <v>0.0531205563955125</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08224510339189606</v>
+        <v>0.1547444023782292</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04861683325094925</v>
+        <v>0.0527798859972126</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1475870585287194</v>
+        <v>0.03986640275281235</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05410105664611343</v>
+        <v>0.05366945099187637</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.022272216745131</v>
+        <v>0.03987465101656264</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05429180768496618</v>
+        <v>0.05447048757384467</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03905852141757428</v>
+        <v>0.09733523563661073</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05510917000770885</v>
+        <v>0.05391340052081866</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08277448510681171</v>
+        <v>0.1550872782868448</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04934245762782909</v>
+        <v>0.05356764548970831</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1492638657266682</v>
+        <v>0.03987465101656264</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05490853510351811</v>
+        <v>0.05447048757384467</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02248768041246987</v>
+        <v>0.03957754921226922</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05509021662150981</v>
+        <v>0.05527152415581298</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03982882631710143</v>
+        <v>0.09716243331987237</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05591959897841044</v>
+        <v>0.05470624464612481</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0831878826492907</v>
+        <v>0.1548128321289567</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05006808200470893</v>
+        <v>0.05435540498220402</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1499706880739418</v>
+        <v>0.03957754921226922</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05571601356092279</v>
+        <v>0.05527152415581298</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02268758538539288</v>
+        <v>0.03947636532113699</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05588862555805343</v>
+        <v>0.05607256073778127</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03998106782849505</v>
+        <v>0.09687552467255595</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05673002794911205</v>
+        <v>0.05549908877143097</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08425770310821878</v>
+        <v>0.1542215766680868</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05079370638158876</v>
+        <v>0.05514316447469973</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1519878804636879</v>
+        <v>0.03947636532113699</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05652349201832746</v>
+        <v>0.05607256073778127</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02186909992583647</v>
+        <v>0.03917236732437078</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05668703449459704</v>
+        <v>0.05687359731974958</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04041024171169258</v>
+        <v>0.09607528921336375</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05754045691981365</v>
+        <v>0.05629193289673712</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08575635357248176</v>
+        <v>0.1539140246677568</v>
       </c>
       <c r="M136" t="n">
-        <v>0.0515193307584686</v>
+        <v>0.05593092396719544</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1527957977890542</v>
+        <v>0.03917236732437078</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05733097047573214</v>
+        <v>0.05687359731974958</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02402939229573708</v>
+        <v>0.03916682320317548</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05748544343114067</v>
+        <v>0.05767463390171789</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04061134372663146</v>
+        <v>0.09596250646099813</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05835088589051526</v>
+        <v>0.05708477702204329</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08655624113096544</v>
+        <v>0.1546906888914883</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05224495513534844</v>
+        <v>0.05671868345969115</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1532747949431882</v>
+        <v>0.03916682320317548</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05813844893313682</v>
+        <v>0.05767463390171789</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02316563075703113</v>
+        <v>0.03876100093875597</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05828385236768428</v>
+        <v>0.0584756704836862</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04097936963324912</v>
+        <v>0.09603795593416131</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05916131486121685</v>
+        <v>0.05787762114734944</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0881297728725555</v>
+        <v>0.1530520821028032</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05297057951222828</v>
+        <v>0.05750644295218686</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1557052268192379</v>
+        <v>0.03876100093875597</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0589459273905415</v>
+        <v>0.0584756704836862</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02327498357165505</v>
+        <v>0.03855616851231709</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0590822613042279</v>
+        <v>0.05927670706565449</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04130931519148302</v>
+        <v>0.09520241715155561</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05997174383191845</v>
+        <v>0.0586704652726556</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08924935588613775</v>
+        <v>0.1537987170652233</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05369620388910813</v>
+        <v>0.05829420244468257</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1563674483103508</v>
+        <v>0.03855616851231709</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05975340584794617</v>
+        <v>0.05927670706565449</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02435461900154532</v>
+        <v>0.03855359390506376</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05988067024077153</v>
+        <v>0.0600777436476228</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04109617616127062</v>
+        <v>0.09475666963188334</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06078217280262006</v>
+        <v>0.05946330939796175</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09128739726059801</v>
+        <v>0.1532311065422701</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05442182826598797</v>
+        <v>0.05908196193717828</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1561418143096744</v>
+        <v>0.03855359390506376</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06056088430535084</v>
+        <v>0.0600777436476228</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02441404178816824</v>
+        <v>0.0380545450982008</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06067907917731515</v>
+        <v>0.0608787802295911</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04159583244764803</v>
+        <v>0.0950014928938468</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06159260177332165</v>
+        <v>0.06025615352326791</v>
       </c>
       <c r="L141" t="n">
-        <v>0.091816304084822</v>
+        <v>0.1528497632974655</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05514745264286779</v>
+        <v>0.059869721429674</v>
       </c>
       <c r="N141" t="n">
-        <v>0.157692270281482</v>
+        <v>0.0380545450982008</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06136836276275553</v>
+        <v>0.0608787802295911</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02441397817939155</v>
+        <v>0.0379602900729331</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06147748811385876</v>
+        <v>0.06167981681155941</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04176652555632716</v>
+        <v>0.09483766645614827</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06240303074402326</v>
+        <v>0.06104899764857406</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09300848344769549</v>
+        <v>0.1518552000943312</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05587307701974763</v>
+        <v>0.06065748092216969</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1567721030909497</v>
+        <v>0.0379602900729331</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06217584122016021</v>
+        <v>0.06167981681155941</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02241141396528467</v>
+        <v>0.03757209681046556</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06227589705040239</v>
+        <v>0.06248085339352771</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04149415836682813</v>
+        <v>0.09426596983749</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06321345971472486</v>
+        <v>0.06184184177388023</v>
       </c>
       <c r="L143" t="n">
-        <v>0.09473634243810433</v>
+        <v>0.1511479296963888</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05659870139662748</v>
+        <v>0.06144524041466541</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1571283571704074</v>
+        <v>0.03757209681046556</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06298331967756489</v>
+        <v>0.06248085339352771</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02440523092258599</v>
+        <v>0.03759123329200301</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06307430598694601</v>
+        <v>0.06328188997549601</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04172031227469916</v>
+        <v>0.09378718255657434</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06402388868542645</v>
+        <v>0.06263468589918637</v>
       </c>
       <c r="L144" t="n">
-        <v>0.09537228814493423</v>
+        <v>0.1517284648671603</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05732432577350732</v>
+        <v>0.06223299990716112</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1581773199689549</v>
+        <v>0.03759123329200301</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06379079813496957</v>
+        <v>0.06328188997549601</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02439560583441668</v>
+        <v>0.03721896749875034</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06387271492348963</v>
+        <v>0.06408292655746432</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04174481465385521</v>
+        <v>0.09280208413210356</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06483431765612806</v>
+        <v>0.06342753002449253</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09658872765707097</v>
+        <v>0.1512973183701672</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05804995015038716</v>
+        <v>0.06302075939965683</v>
       </c>
       <c r="N145" t="n">
-        <v>0.159018643152502</v>
+        <v>0.03721896749875034</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06459827659237423</v>
+        <v>0.06408292655746432</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02238271548389798</v>
+        <v>0.0372565674119124</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06467112386003325</v>
+        <v>0.06488396313943262</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04196749287821123</v>
+        <v>0.09251145408277997</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06564474662682966</v>
+        <v>0.06422037414979868</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09795806806340035</v>
+        <v>0.1511550029689314</v>
       </c>
       <c r="M146" t="n">
-        <v>0.058775574527267</v>
+        <v>0.06380851889215255</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1591519783869589</v>
+        <v>0.0372565674119124</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06540575504977891</v>
+        <v>0.06488396313943262</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02436673665415109</v>
+        <v>0.03730530101269411</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06546953279657687</v>
+        <v>0.06568499972140093</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04228817432168223</v>
+        <v>0.09221607192730583</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06645517559753125</v>
+        <v>0.06501321827510484</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09835271645280808</v>
+        <v>0.1507020314269746</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05950119890414684</v>
+        <v>0.06459627838464825</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1597769773382353</v>
+        <v>0.03730530101269411</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0662132335071836</v>
+        <v>0.06568499972140093</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0233478461282972</v>
+        <v>0.03716643628230028</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06626794173312049</v>
+        <v>0.06648603630336923</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04240668635818315</v>
+        <v>0.09201671718438348</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06726560456823286</v>
+        <v>0.06580606240041101</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09874507991418005</v>
+        <v>0.1490389165078184</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06022682328102668</v>
+        <v>0.06538403787714396</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1597932916722413</v>
+        <v>0.03716643628230028</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06702071196458828</v>
+        <v>0.06648603630336923</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02232622068945756</v>
+        <v>0.03704124120193583</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06706635066966411</v>
+        <v>0.06728707288533753</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04242285636162897</v>
+        <v>0.09151416937271517</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06807603353893446</v>
+        <v>0.06659890652571716</v>
       </c>
       <c r="L149" t="n">
-        <v>0.099644051364565</v>
+        <v>0.1494661709749846</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06095244765790652</v>
+        <v>0.06617179736963967</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1589005730548868</v>
+        <v>0.03704124120193583</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06782819042199295</v>
+        <v>0.06728707288533753</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02430203712075334</v>
+        <v>0.03682790692074607</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06786475960620773</v>
+        <v>0.06808810946730584</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04263651170593467</v>
+        <v>0.09160920801100322</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06888646250963605</v>
+        <v>0.06739175065102332</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09874250958914629</v>
+        <v>0.1488843075919951</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06167807203478635</v>
+        <v>0.06695955686213539</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1598984731520817</v>
+        <v>0.03682790692074607</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06863566887939762</v>
+        <v>0.06808810946730584</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02427547220530576</v>
+        <v>0.03642016867624866</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06866316854275134</v>
+        <v>0.06888914604927414</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0428474797650152</v>
+        <v>0.0907026126179499</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06969689148033766</v>
+        <v>0.06818459477632947</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09942948873535706</v>
+        <v>0.1486938391223714</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06240369641166619</v>
+        <v>0.0677473163546311</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1599866436297361</v>
+        <v>0.03642016867624866</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06944314733680231</v>
+        <v>0.06888914604927414</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02324670272623602</v>
+        <v>0.03631753093276191</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06946157747929498</v>
+        <v>0.06969018263124245</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04285558791278553</v>
+        <v>0.09069516271225753</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07050732045103926</v>
+        <v>0.06897743890163563</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09940368339131989</v>
+        <v>0.1476952783296354</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06312932078854604</v>
+        <v>0.0685350758471268</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1599647361537597</v>
+        <v>0.03631753093276191</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07025062579420699</v>
+        <v>0.06969018263124245</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02321590546666532</v>
+        <v>0.03651972149784193</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0702599864158386</v>
+        <v>0.07049121921321075</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04296066352316066</v>
+        <v>0.0903876378126284</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07131774942174085</v>
+        <v>0.06977028302694178</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09916566308995969</v>
+        <v>0.1474891379773088</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06385494516542588</v>
+        <v>0.06932283533962251</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1605324023900626</v>
+        <v>0.03651972149784193</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07105810425161167</v>
+        <v>0.07049121921321075</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02318325720971489</v>
+        <v>0.03622646817904479</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0710583953523822</v>
+        <v>0.07129225579517906</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04296253397005551</v>
+        <v>0.08988081743776474</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07212817839244245</v>
+        <v>0.07056312715224795</v>
       </c>
       <c r="L154" t="n">
-        <v>0.09881599736420152</v>
+        <v>0.1461759308289133</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06458056954230572</v>
+        <v>0.07011059483211823</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1610892940045548</v>
+        <v>0.03622646817904479</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07186558270901634</v>
+        <v>0.07129225579517906</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02214893473850591</v>
+        <v>0.03613749878392658</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07185680428892584</v>
+        <v>0.07209329237714736</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04326102662738511</v>
+        <v>0.08937548110636895</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07293860736314406</v>
+        <v>0.07135597127755411</v>
       </c>
       <c r="L155" t="n">
-        <v>0.09895525574697031</v>
+        <v>0.1455561696479706</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06530619391918556</v>
+        <v>0.07089835432461394</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1620350626631461</v>
+        <v>0.03613749878392658</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07267306116642101</v>
+        <v>0.07209329237714736</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02211311483615962</v>
+        <v>0.03605254112004339</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07265521322546946</v>
+        <v>0.07289432895911566</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04295596886906439</v>
+        <v>0.08837240833714322</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07374903633384566</v>
+        <v>0.07214881540286026</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09878400777119098</v>
+        <v>0.1449303671980025</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0660318182960654</v>
+        <v>0.07168611381710965</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1608693600317465</v>
+        <v>0.03605254112004339</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0734805396238257</v>
+        <v>0.07289432895911566</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02307597428579721</v>
+        <v>0.03587132299495129</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07345362216201307</v>
+        <v>0.07369536554108397</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0434471880690083</v>
+        <v>0.08857237864878995</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07455946530454727</v>
+        <v>0.07294165952816641</v>
       </c>
       <c r="L157" t="n">
-        <v>0.09870282296978858</v>
+        <v>0.1453990362425306</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06675744267294523</v>
+        <v>0.07247387330960535</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1619918377762661</v>
+        <v>0.03587132299495129</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07428801808123038</v>
+        <v>0.07369536554108397</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02203768987053988</v>
+        <v>0.0357935722162064</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0742520310985567</v>
+        <v>0.07449640212305227</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04353451160113185</v>
+        <v>0.08797108614924992</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07536989427524887</v>
+        <v>0.07373450365347256</v>
       </c>
       <c r="L158" t="n">
-        <v>0.09861227087568805</v>
+        <v>0.144062689545077</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06748306704982507</v>
+        <v>0.07326163280210107</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1615021475626147</v>
+        <v>0.0357935722162064</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07509549653863505</v>
+        <v>0.07449640212305227</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02199843837350886</v>
+        <v>0.03611901659136477</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07505044003510031</v>
+        <v>0.07529743870502058</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04351776683934998</v>
+        <v>0.0872346292763595</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07618032324595048</v>
+        <v>0.07452734777877873</v>
       </c>
       <c r="L159" t="n">
-        <v>0.09861292102181438</v>
+        <v>0.143721839869163</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06820869142670491</v>
+        <v>0.07404939229459678</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1614999410567021</v>
+        <v>0.03611901659136477</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07590297499603973</v>
+        <v>0.07529743870502058</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02195839657782533</v>
+        <v>0.03584738392798251</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07584884897164393</v>
+        <v>0.07609847528698888</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0435967811575777</v>
+        <v>0.08745863993867209</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07699075221665207</v>
+        <v>0.07532019190408488</v>
       </c>
       <c r="L160" t="n">
-        <v>0.09880534294109256</v>
+        <v>0.1437769999783106</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06893431580358475</v>
+        <v>0.07483715178709249</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1626848699244385</v>
+        <v>0.03584738392798251</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0767104534534444</v>
+        <v>0.07609847528698888</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02391774126661051</v>
+        <v>0.0359784020336157</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07664725790818756</v>
+        <v>0.07689951186895719</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04337138192972996</v>
+        <v>0.08664558566650393</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07780118118735367</v>
+        <v>0.07611303602939104</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09829010616644754</v>
+        <v>0.1435286826360414</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06965994018046459</v>
+        <v>0.07562491127958819</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1627565858317338</v>
+        <v>0.0359784020336157</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07751793191084909</v>
+        <v>0.07689951186895719</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02287664922298562</v>
+        <v>0.03581179871582044</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07744566684473117</v>
+        <v>0.07770054845092549</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0434413965297217</v>
+        <v>0.08619793399017142</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07861161015805528</v>
+        <v>0.0769058801546972</v>
       </c>
       <c r="L162" t="n">
-        <v>0.09786778023080428</v>
+        <v>0.1421774006058772</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07038556455734443</v>
+        <v>0.07641267077208391</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1631147404444978</v>
+        <v>0.03581179871582044</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07832541036825376</v>
+        <v>0.07770054845092549</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02383529723007185</v>
+        <v>0.03544730178215279</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07824407578127479</v>
+        <v>0.0785015850328938</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04370665233146794</v>
+        <v>0.08591815243999079</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07942203912875687</v>
+        <v>0.07769872428000335</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09843893466708778</v>
+        <v>0.1414236666513398</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07111118893422427</v>
+        <v>0.07720043026457962</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1631589854286407</v>
+        <v>0.03544730178215279</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07913288882565844</v>
+        <v>0.0785015850328938</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0237938620709904</v>
+        <v>0.03568463904016883</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07904248471781841</v>
+        <v>0.0793026216148621</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0437669767088836</v>
+        <v>0.08510870854627839</v>
       </c>
       <c r="K164" t="n">
-        <v>0.08023246809945847</v>
+        <v>0.07849156840530952</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09830413900822305</v>
+        <v>0.1417679935359508</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07183681331110411</v>
+        <v>0.07798818975707533</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1636889724500721</v>
+        <v>0.03568463904016883</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07994036728306313</v>
+        <v>0.0793026216148621</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02175252052886249</v>
+        <v>0.03542353829742469</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07984089365436203</v>
+        <v>0.08010365819683039</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04362219703588371</v>
+        <v>0.08437206983935047</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08104289707016007</v>
+        <v>0.07928441253061567</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09756396278713503</v>
+        <v>0.140010894023232</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07256243768798395</v>
+        <v>0.07877594924957104</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1631043531747023</v>
+        <v>0.03542353829742469</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0807478457404678</v>
+        <v>0.08010365819683039</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02171144938680934</v>
+        <v>0.0356637273614764</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08063930259090565</v>
+        <v>0.08090469477879871</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0437721406863832</v>
+        <v>0.08321070384952342</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08185332604086167</v>
+        <v>0.08007725665592183</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09771897553674866</v>
+        <v>0.1395528808767051</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07328806206486378</v>
+        <v>0.07956370874206675</v>
       </c>
       <c r="N166" t="n">
-        <v>0.162804779268441</v>
+        <v>0.0356637273614764</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08155532419787248</v>
+        <v>0.08090469477879871</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02367082542795213</v>
+        <v>0.03530493403988012</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08143771152744927</v>
+        <v>0.08170573136076702</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04411663503429701</v>
+        <v>0.08312707810711348</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08266375501156327</v>
+        <v>0.08087010078122799</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09716974678998894</v>
+        <v>0.139594466859892</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07401368644174362</v>
+        <v>0.08035146823456246</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1634899023971982</v>
+        <v>0.03530493403988012</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08236280265527715</v>
+        <v>0.08170573136076702</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02163082543541208</v>
+        <v>0.03534688614019185</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0822361204639929</v>
+        <v>0.08250676794273532</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04415550745354016</v>
+        <v>0.08172366014243695</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08347418398226487</v>
+        <v>0.08166294490653414</v>
       </c>
       <c r="L168" t="n">
-        <v>0.09731684607978092</v>
+        <v>0.1387361647363142</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07473931081862346</v>
+        <v>0.08113922772705817</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1632593742268839</v>
+        <v>0.03534688614019185</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08317028111268183</v>
+        <v>0.08250676794273532</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0225916261923104</v>
+        <v>0.03508931146996777</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08303452940053652</v>
+        <v>0.08330780452470361</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04418858531802762</v>
+        <v>0.08170291748581013</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08428461295296648</v>
+        <v>0.0824557890318403</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09726084293904944</v>
+        <v>0.1390784872694935</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0754649351955033</v>
+        <v>0.08192698721955388</v>
       </c>
       <c r="N169" t="n">
-        <v>0.163812846423408</v>
+        <v>0.03508931146996777</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08397775957008652</v>
+        <v>0.08330780452470361</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02155261327617952</v>
+        <v>0.03513193783676388</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08383293833708012</v>
+        <v>0.08410884110667191</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04401569600167432</v>
+        <v>0.08026731766754938</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08509504192366807</v>
+        <v>0.08324863315714645</v>
       </c>
       <c r="L170" t="n">
-        <v>0.09680230690071961</v>
+        <v>0.1374219472229517</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07619055957238315</v>
+        <v>0.08271474671204959</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1626499706526806</v>
+        <v>0.03513193783676388</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08478523802749119</v>
+        <v>0.08410884110667191</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02251257879926406</v>
+        <v>0.03497449304813632</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08463134727362376</v>
+        <v>0.08490987768864022</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04383666687839528</v>
+        <v>0.08001932821797098</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08590547089436967</v>
+        <v>0.08404147728245261</v>
       </c>
       <c r="L171" t="n">
-        <v>0.09704180749771629</v>
+        <v>0.1379670573602105</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07691618394926299</v>
+        <v>0.0835025062045453</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1631703985806114</v>
+        <v>0.03497449304813632</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08559271648489586</v>
+        <v>0.08490987768864022</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02147151284145244</v>
+        <v>0.03521670491164115</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08542975621016738</v>
+        <v>0.08571091427060853</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04405132532210543</v>
+        <v>0.07956141666739122</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08671589986507128</v>
+        <v>0.08483432140775876</v>
       </c>
       <c r="L172" t="n">
-        <v>0.09657991426296453</v>
+        <v>0.136313934966376</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07764180832614283</v>
+        <v>0.08429026569704101</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1632705113693613</v>
+        <v>0.03521670491164115</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08640019494230054</v>
+        <v>0.08571091427060853</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02242942297023337</v>
+        <v>0.03525830123483446</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08622816514671099</v>
+        <v>0.08651195085257683</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04405949870671974</v>
+        <v>0.07819605054612638</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08752632883577287</v>
+        <v>0.08562716553306492</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09661719672938929</v>
+        <v>0.136646469158228</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07836743270302265</v>
+        <v>0.08507802518953672</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1629005241595264</v>
+        <v>0.03525830123483446</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08720767339970523</v>
+        <v>0.08651195085257683</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02338631675309558</v>
+        <v>0.03519900982527238</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08702657408325462</v>
+        <v>0.08731298743454513</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04416030464117446</v>
+        <v>0.07802569738449286</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08833675780647447</v>
+        <v>0.08642000965837107</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09675422442991552</v>
+        <v>0.1355558444889313</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0790930570799025</v>
+        <v>0.08586578468203243</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1627467356935173</v>
+        <v>0.03519900982527238</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08801515185710991</v>
+        <v>0.08731298743454513</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0223422017575278</v>
+        <v>0.03473855849051093</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08782498301979824</v>
+        <v>0.08811402401651343</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04414078877941061</v>
+        <v>0.07645282471280682</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08914718677717608</v>
+        <v>0.08721285378367724</v>
       </c>
       <c r="L175" t="n">
-        <v>0.09619156689746824</v>
+        <v>0.1347418124840756</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07981868145678234</v>
+        <v>0.08665354417452815</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1631130879451177</v>
+        <v>0.03473855849051093</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08882263031451458</v>
+        <v>0.08811402401651343</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02129708555101874</v>
+        <v>0.03487667503810622</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08862339195634185</v>
+        <v>0.08891506059848175</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0439970511282138</v>
+        <v>0.07637990006138468</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08995761574787768</v>
+        <v>0.0880056979089834</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09572979366497236</v>
+        <v>0.1342041246692511</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08054430583366218</v>
+        <v>0.08744130366702385</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1630035228881112</v>
+        <v>0.03487667503810622</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08963010877191925</v>
+        <v>0.08891506059848175</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02125097570105713</v>
+        <v>0.03501308727561435</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08942180089288548</v>
+        <v>0.08971609718045005</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04403024967634124</v>
+        <v>0.07540939096054269</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09076804471857929</v>
+        <v>0.08879854203428955</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09586947426535294</v>
+        <v>0.1340425325700477</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08126993021054202</v>
+        <v>0.08822906315951956</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1616219824962812</v>
+        <v>0.03501308727561435</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09043758722932393</v>
+        <v>0.08971609718045005</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0212038797751317</v>
+        <v>0.0349475230105914</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09022020982942909</v>
+        <v>0.09051713376241835</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04364154241255011</v>
+        <v>0.07414376494059721</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09157847368928089</v>
+        <v>0.08959138615959571</v>
       </c>
       <c r="L178" t="n">
-        <v>0.09561117823153489</v>
+        <v>0.1335567877120555</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08199555458742186</v>
+        <v>0.08901682265201527</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1620724087434116</v>
+        <v>0.0349475230105914</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09124506568672862</v>
+        <v>0.09051713376241835</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02315580534073116</v>
+        <v>0.03477971005059345</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09101861876597271</v>
+        <v>0.09131817034438665</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04383208732559754</v>
+        <v>0.07428548953186451</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09238890265998248</v>
+        <v>0.09038423028490186</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09535547509644318</v>
+        <v>0.1323466416208642</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0827211789643017</v>
+        <v>0.08980458214451099</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1616587436032855</v>
+        <v>0.03477971005059345</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09205254414413329</v>
+        <v>0.09131817034438665</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02310675996534425</v>
+        <v>0.03460937620317658</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09181702770251635</v>
+        <v>0.09211920692635496</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04370304240424075</v>
+        <v>0.07303703226466085</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09319933163068408</v>
+        <v>0.09117707441020802</v>
       </c>
       <c r="L180" t="n">
-        <v>0.09600293439300286</v>
+        <v>0.131611845822064</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08344680334118154</v>
+        <v>0.0905923416370067</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1608849290496868</v>
+        <v>0.03460937620317658</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09286002260153797</v>
+        <v>0.09211920692635496</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02305675121645968</v>
+        <v>0.03453624927589691</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09261543663905995</v>
+        <v>0.09292024350832327</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04365556563723688</v>
+        <v>0.07230086066930261</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09400976060138569</v>
+        <v>0.09196991853551417</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09575412565413885</v>
+        <v>0.130152151841245</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08417242771806138</v>
+        <v>0.0913801011295024</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1593549070563989</v>
+        <v>0.03453624927589691</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09366750105894264</v>
+        <v>0.09292024350832327</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02300578666156619</v>
+        <v>0.03446005707631049</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09341384557560357</v>
+        <v>0.09372128009029157</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04349081501334315</v>
+        <v>0.07157944227610605</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09482018957208728</v>
+        <v>0.09276276266082033</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0955094473228166</v>
+        <v>0.130267311203997</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08489805209494121</v>
+        <v>0.09216786062199811</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1590726195972056</v>
+        <v>0.03446005707631049</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09447497951634733</v>
+        <v>0.09372128009029157</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02295387386815248</v>
+        <v>0.03458052741197344</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09421225451214721</v>
+        <v>0.09452231667225987</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04290994852131669</v>
+        <v>0.07117524461538746</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09563061854278888</v>
+        <v>0.09355560678612648</v>
       </c>
       <c r="L183" t="n">
-        <v>0.09556619868538144</v>
+        <v>0.1295570754359101</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08562367647182105</v>
+        <v>0.09295562011449383</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1585420086458901</v>
+        <v>0.03458052741197344</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09528245797375201</v>
+        <v>0.09452231667225987</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02090102040370729</v>
+        <v>0.0344973880904418</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09501066344869082</v>
+        <v>0.09532335325422818</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0427141241499147</v>
+        <v>0.07029073521746321</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09644104751349049</v>
+        <v>0.09434845091143264</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09482312551504007</v>
+        <v>0.1275211960625741</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08634930084870089</v>
+        <v>0.09374337960698954</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1571670161762364</v>
+        <v>0.0344973880904418</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09608993643115668</v>
+        <v>0.09532335325422818</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02284723383571935</v>
+        <v>0.0341103669192717</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09580907238523444</v>
+        <v>0.09612438983619648</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04250449988789434</v>
+        <v>0.06912838161264956</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09725147648419208</v>
+        <v>0.09514129503673879</v>
       </c>
       <c r="L185" t="n">
-        <v>0.09458004020935559</v>
+        <v>0.1266594246095792</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08707492522558073</v>
+        <v>0.09453113909948525</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1576515841620277</v>
+        <v>0.0341103669192717</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09689741488856136</v>
+        <v>0.09612438983619648</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02279252173167737</v>
+        <v>0.0339191917060192</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09660748132177806</v>
+        <v>0.09692542641816479</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04248223372401277</v>
+        <v>0.0690906513312628</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09806190545489368</v>
+        <v>0.09593413916204496</v>
       </c>
       <c r="L186" t="n">
-        <v>0.09423675516589092</v>
+        <v>0.1261715126025154</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08780054960246057</v>
+        <v>0.09531889859198095</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1558996545770476</v>
+        <v>0.0339191917060192</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09770489334596603</v>
+        <v>0.09692542641816479</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02173689165907006</v>
+        <v>0.03392359025824039</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09740589025832168</v>
+        <v>0.09772646300013309</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04234848364702722</v>
+        <v>0.06858001190361926</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09887233442559529</v>
+        <v>0.09672698328735112</v>
       </c>
       <c r="L187" t="n">
-        <v>0.09449308278220916</v>
+        <v>0.1253572115669724</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08852617397934041</v>
+        <v>0.09610665808447667</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1555151693950799</v>
+        <v>0.03392359025824039</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09851237180337072</v>
+        <v>0.09772646300013309</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02268035118538619</v>
+        <v>0.03392329038349137</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0982042991948653</v>
+        <v>0.09852749958210139</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04220440764569482</v>
+        <v>0.06739893086003526</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09968276339629689</v>
+        <v>0.09751982741265727</v>
       </c>
       <c r="L188" t="n">
-        <v>0.09444883545587321</v>
+        <v>0.1243162730285405</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08925179835622025</v>
+        <v>0.09689441757697238</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1539020705899079</v>
+        <v>0.03392329038349137</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09931985026077539</v>
+        <v>0.09852749958210139</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02062290787811443</v>
+        <v>0.03371801988932822</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09900270813140892</v>
+        <v>0.0993285361640697</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04185116370877275</v>
+        <v>0.06714987573082706</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1004931923669985</v>
+        <v>0.09831267153796343</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09410382558444619</v>
+        <v>0.1234484485128096</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0899774227331001</v>
+        <v>0.09768217706946809</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1532643001353154</v>
+        <v>0.03371801988932822</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1001273287181801</v>
+        <v>0.0993285361640697</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02256456930474355</v>
+        <v>0.03370750658330703</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09980111706795254</v>
+        <v>0.100129572746038</v>
       </c>
       <c r="J190" t="n">
-        <v>0.0413899098250182</v>
+        <v>0.06683531404631102</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1013036213377001</v>
+        <v>0.09910551566326958</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09425786556549096</v>
+        <v>0.1221534895453696</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09070304710997994</v>
+        <v>0.0984699365619638</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1530058000050858</v>
+        <v>0.03370750658330703</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1009348071755848</v>
+        <v>0.100129572746038</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02150534303276225</v>
+        <v>0.03349147827298386</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1005995260044962</v>
+        <v>0.1009306093280063</v>
       </c>
       <c r="J191" t="n">
-        <v>0.0414218039831883</v>
+        <v>0.06575771333680333</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1021140503084017</v>
+        <v>0.09989835978857575</v>
       </c>
       <c r="L191" t="n">
-        <v>0.09421076779657064</v>
+        <v>0.1220311476518106</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09142867148685978</v>
+        <v>0.09925769605445951</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1520305121730027</v>
+        <v>0.03349147827298386</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1017422856329894</v>
+        <v>0.1009306093280063</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02044523662965924</v>
+        <v>0.03366966276591485</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1013979349410398</v>
+        <v>0.1017316459099746</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04094800417204029</v>
+        <v>0.06621954113262044</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1029244792791033</v>
+        <v>0.1006912039138819</v>
       </c>
       <c r="L192" t="n">
-        <v>0.09366234467524814</v>
+        <v>0.120179930604972</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09215429586373962</v>
+        <v>0.1000454555469552</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1504423786128498</v>
+        <v>0.03366966276591485</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1025497640903941</v>
+        <v>0.1017316459099746</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02138425766292328</v>
+        <v>0.03334178786965603</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1021963438775834</v>
+        <v>0.1025326824919429</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0407696683803313</v>
+        <v>0.06502326496407859</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1037349082498049</v>
+        <v>0.101484048039188</v>
       </c>
       <c r="L193" t="n">
-        <v>0.09401240859908655</v>
+        <v>0.1200238298323331</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09287992024061946</v>
+        <v>0.1008332150394509</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1496453412984105</v>
+        <v>0.03334178786965603</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1033572425477988</v>
+        <v>0.1025326824919429</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02032241370004306</v>
+        <v>0.03340758139176353</v>
       </c>
       <c r="G194" t="n">
-        <v>0.102994752814127</v>
+        <v>0.1033337190739112</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04058795459681852</v>
+        <v>0.06487135236149408</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1045453372205065</v>
+        <v>0.1022768921644942</v>
       </c>
       <c r="L194" t="n">
-        <v>0.09396077196564884</v>
+        <v>0.1178273193986727</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0936055446174993</v>
+        <v>0.1016209745319466</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1486433422034683</v>
+        <v>0.03340758139176353</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1041647210052035</v>
+        <v>0.1033337190739112</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02125971230850732</v>
+        <v>0.03306677113979338</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1037931617506706</v>
+        <v>0.1041347556558795</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04000402081025914</v>
+        <v>0.06436627085518321</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1053557661912081</v>
+        <v>0.1030697362898004</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0934072471724979</v>
+        <v>0.1160033414685969</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09433116899437914</v>
+        <v>0.1024087340244424</v>
       </c>
       <c r="N195" t="n">
-        <v>0.147140323301807</v>
+        <v>0.03306677113979338</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1049721994626081</v>
+        <v>0.1041347556558795</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02019616105580479</v>
+        <v>0.03281908492130173</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1045915706872143</v>
+        <v>0.1049357922378478</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0398190250094103</v>
+        <v>0.06430743675374029</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1061661951619097</v>
+        <v>0.1038625804151065</v>
       </c>
       <c r="L196" t="n">
-        <v>0.09315164661719694</v>
+        <v>0.1153648382067118</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09505679337125898</v>
+        <v>0.1031964935169381</v>
       </c>
       <c r="N196" t="n">
-        <v>0.14674022656721</v>
+        <v>0.03281908492130173</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1057796779200128</v>
+        <v>0.1049357922378478</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02213176750942417</v>
+        <v>0.03256425054384464</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1053899796237579</v>
+        <v>0.1057368288198161</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0394341251830292</v>
+        <v>0.06457299483645429</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1069766241326113</v>
+        <v>0.1046554245404127</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09279378269730881</v>
+        <v>0.1139247517776233</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09578241774813882</v>
+        <v>0.1039842530094338</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1452469939734609</v>
+        <v>0.03256425054384464</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1065871563774175</v>
+        <v>0.1057368288198161</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02206653923685422</v>
+        <v>0.03240199581497819</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1061883885603015</v>
+        <v>0.1065378654017844</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03925047931987299</v>
+        <v>0.0642567914392585</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1077870531033129</v>
+        <v>0.1054482686657188</v>
       </c>
       <c r="L198" t="n">
-        <v>0.09263346781039661</v>
+        <v>0.1112960243459376</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09650804212501865</v>
+        <v>0.1047720125019295</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1451645674943433</v>
+        <v>0.03240199581497819</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1073946348348222</v>
+        <v>0.1065378654017844</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02200048380558362</v>
+        <v>0.03223204854225849</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1069867974968451</v>
+        <v>0.1073389019837527</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03876924540869889</v>
+        <v>0.06375715385819253</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1085974820740145</v>
+        <v>0.106241112791025</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09297051435402323</v>
+        <v>0.1102915980762605</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09723366650189849</v>
+        <v>0.1055597719944252</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1436968891036408</v>
+        <v>0.03223204854225849</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1082021132922269</v>
+        <v>0.1073389019837527</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02093360878310113</v>
+        <v>0.03241830061053994</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1077852064333887</v>
+        <v>0.108139938565721</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03869158143826401</v>
+        <v>0.06357240938929587</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1094079110447161</v>
+        <v>0.1070339569163312</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0930047347257518</v>
+        <v>0.1086244151331983</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09795929087877833</v>
+        <v>0.1063475314869209</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1419479007751368</v>
+        <v>0.03241830061053994</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1090095917496315</v>
+        <v>0.108139938565721</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01986592173689546</v>
+        <v>0.03195567984007293</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1085836153699324</v>
+        <v>0.1089409751476893</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03831864539732559</v>
+        <v>0.06350088532860801</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1102183400154177</v>
+        <v>0.1078268010416373</v>
       </c>
       <c r="L201" t="n">
-        <v>0.09283594132314515</v>
+        <v>0.1061074176813568</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09868491525565817</v>
+        <v>0.1071352909794166</v>
       </c>
       <c r="N201" t="n">
-        <v>0.142221544482615</v>
+        <v>0.03195567984007293</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1098170702070362</v>
+        <v>0.1089409751476893</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01979743023445533</v>
+        <v>0.0315596885920643</v>
       </c>
       <c r="G202" t="n">
-        <v>0.109382024306476</v>
+        <v>0.1097420117296576</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03835159527464074</v>
+        <v>0.06294090897216856</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1110287689861193</v>
+        <v>0.1086196451669435</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09176394654376649</v>
+        <v>0.1039535478853422</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09941053963253801</v>
+        <v>0.1079230504719123</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1401217621998589</v>
+        <v>0.0315596885920643</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1106245486644409</v>
+        <v>0.1097420117296576</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02072808246092145</v>
+        <v>0.03085525487885526</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1101804332430196</v>
+        <v>0.110543048311626</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03809158905896672</v>
+        <v>0.06289080761601695</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1118391979568209</v>
+        <v>0.1094124892922496</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09248856278517867</v>
+        <v>0.1020757479097605</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1001361640094179</v>
+        <v>0.108710809964408</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1400524959006522</v>
+        <v>0.03085525487885526</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1114320271218456</v>
+        <v>0.110543048311626</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02065760660534856</v>
+        <v>0.02986730671278708</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1109788421795632</v>
+        <v>0.1113440848935943</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03763978473906061</v>
+        <v>0.0634489085561927</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1126496269275225</v>
+        <v>0.1102053334175558</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09140960244494475</v>
+        <v>0.1001869599192176</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1008617883862977</v>
+        <v>0.1094985694569038</v>
       </c>
       <c r="N204" t="n">
-        <v>0.138603379451285</v>
+        <v>0.02986730671278708</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1122395055792502</v>
+        <v>0.1113440848935943</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02158597114622906</v>
+        <v>0.02932077210620097</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1117772511161069</v>
+        <v>0.1121451214755625</v>
       </c>
       <c r="J205" t="n">
-        <v>0.037194717893689</v>
+        <v>0.06241353908873537</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1134600558982241</v>
+        <v>0.1109981775428619</v>
       </c>
       <c r="L205" t="n">
-        <v>0.09172687792062773</v>
+        <v>0.09810012607831964</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1015874127631775</v>
+        <v>0.1102863289493995</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1388497179972815</v>
+        <v>0.02932077210620097</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1130469840366549</v>
+        <v>0.1121451214755625</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01951317972632233</v>
+        <v>0.02864057907143815</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1125756600526505</v>
+        <v>0.1129461580575309</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03704849702910924</v>
+        <v>0.06278302650968451</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1142704848689257</v>
+        <v>0.1117910216681681</v>
       </c>
       <c r="L206" t="n">
-        <v>0.09104020160979059</v>
+        <v>0.09612818855167271</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1023130371400574</v>
+        <v>0.1110740884418952</v>
       </c>
       <c r="N206" t="n">
-        <v>0.137390934720398</v>
+        <v>0.02864057907143815</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1138544624940596</v>
+        <v>0.1129461580575309</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01943923598838777</v>
+        <v>0.0275516556208399</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1133740689891941</v>
+        <v>0.1137471946394992</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03710048664480278</v>
+        <v>0.06235569811507954</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1150809138396273</v>
+        <v>0.1125838657934742</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0912493859099964</v>
+        <v>0.09478408950388273</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1030386615169372</v>
+        <v>0.1118618479343909</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1360270153571653</v>
+        <v>0.0275516556208399</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1146619409514643</v>
+        <v>0.1137471946394992</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02036414357518478</v>
+        <v>0.02687892976674741</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1141724779257377</v>
+        <v>0.1145482312214675</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03645068310490042</v>
+        <v>0.06262988120096005</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1158913428103289</v>
+        <v>0.1133767099187804</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09115424321880802</v>
+        <v>0.09218077109955586</v>
       </c>
       <c r="M208" t="n">
-        <v>0.103764285893817</v>
+        <v>0.1126496074268866</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1351579456441143</v>
+        <v>0.02687892976674741</v>
       </c>
       <c r="O208" t="n">
-        <v>0.115469419408869</v>
+        <v>0.1145482312214675</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02128790612947275</v>
+        <v>0.02634732952150193</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1149708868622813</v>
+        <v>0.1153492678034358</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03649908277353285</v>
+        <v>0.06200390306336548</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1167017717810305</v>
+        <v>0.1141695540440866</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09095458593378863</v>
+        <v>0.09073117550329801</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1044899102706969</v>
+        <v>0.1134373669193823</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1340837113177759</v>
+        <v>0.02634732952150193</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1162768978662736</v>
+        <v>0.1153492678034358</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02121052729401105</v>
+        <v>0.02548178289744472</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1157692957988249</v>
+        <v>0.1161503043854041</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03604568201483087</v>
+        <v>0.06177609099833542</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1175122007517321</v>
+        <v>0.1149623981693927</v>
       </c>
       <c r="L210" t="n">
-        <v>0.09065022645250109</v>
+        <v>0.08924824487971528</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1052155346475767</v>
+        <v>0.114225126411878</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1333042981146807</v>
+        <v>0.02548178289744472</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1170843763236783</v>
+        <v>0.1161503043854041</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02013201071155909</v>
+        <v>0.02520721790691696</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1165677047353686</v>
+        <v>0.1169513409673724</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03569047719292517</v>
+        <v>0.06234477230190938</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1183226297224337</v>
+        <v>0.1157552422946989</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09064097717250852</v>
+        <v>0.0869449213934137</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1059411590244566</v>
+        <v>0.1150128859043737</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1323196917713596</v>
+        <v>0.02520721790691696</v>
       </c>
       <c r="O211" t="n">
-        <v>0.117891854781083</v>
+        <v>0.1169513409673724</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01905236002487626</v>
+        <v>0.02474856256225993</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1173661136719122</v>
+        <v>0.1177523775493407</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03553346467194653</v>
+        <v>0.06170827427012687</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1191330586931353</v>
+        <v>0.116548086420005</v>
       </c>
       <c r="L212" t="n">
-        <v>0.09002665049137379</v>
+        <v>0.08593414720899922</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1066667834013364</v>
+        <v>0.1158006453968694</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1320298780243435</v>
+        <v>0.02474856256225993</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1186993332384877</v>
+        <v>0.1177523775493407</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01897157887672195</v>
+        <v>0.02403074487581486</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1181645226084558</v>
+        <v>0.118553414131309</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03527464081602569</v>
+        <v>0.0615649241990274</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1199434876638369</v>
+        <v>0.1173409305453112</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08980705880665998</v>
+        <v>0.08392886449107811</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1073924077782163</v>
+        <v>0.1165884048893651</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1320348426101631</v>
+        <v>0.02403074487581486</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1195068116958923</v>
+        <v>0.118553414131309</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01888967090985556</v>
+        <v>0.02427869285992294</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1189629315449994</v>
+        <v>0.1193544507132773</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03511400198929338</v>
+        <v>0.06151304938465055</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1207539166345385</v>
+        <v>0.1181337746706174</v>
       </c>
       <c r="L214" t="n">
-        <v>0.0899820145159301</v>
+        <v>0.08204201540425604</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1081180321550961</v>
+        <v>0.1173761643818609</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1304345712653495</v>
+        <v>0.02427869285992294</v>
       </c>
       <c r="O214" t="n">
-        <v>0.120314290153297</v>
+        <v>0.1193544507132773</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01880663976703646</v>
+        <v>0.02423076604993991</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1197613404815431</v>
+        <v>0.1201554872952456</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03485154455588038</v>
+        <v>0.06145097712303568</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1215643456052401</v>
+        <v>0.1189266187959235</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08955133001674717</v>
+        <v>0.0807865421131394</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1088436565319759</v>
+        <v>0.1181639238743566</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1295290497264331</v>
+        <v>0.02423076604993991</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1211217686107017</v>
+        <v>0.1201554872952456</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01872248909102407</v>
+        <v>0.02398460927983799</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1205597494180867</v>
+        <v>0.1209565238772139</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03438726487991742</v>
+        <v>0.06107703471022247</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1223747745759417</v>
+        <v>0.1197194629212297</v>
       </c>
       <c r="L216" t="n">
-        <v>0.08941481770667409</v>
+        <v>0.08047538678233407</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1095692809088558</v>
+        <v>0.1189516833668523</v>
       </c>
       <c r="N216" t="n">
-        <v>0.127818263729945</v>
+        <v>0.02398460927983799</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1219292470681064</v>
+        <v>0.1209565238772139</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01863722252457777</v>
+        <v>0.02403978338432196</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1213581583546303</v>
+        <v>0.1217575604591822</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03432115932553523</v>
+        <v>0.0612895494422504</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1231852035466433</v>
+        <v>0.1205123070465358</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08937228998327398</v>
+        <v>0.07982149157644597</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1102949052857356</v>
+        <v>0.119739442859348</v>
       </c>
       <c r="N217" t="n">
-        <v>0.127902199012416</v>
+        <v>0.02403978338432196</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1227367255255111</v>
+        <v>0.1217575604591822</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02055084371045694</v>
+        <v>0.0239962723969783</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1221565672911739</v>
+        <v>0.1225585970411505</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03385322425686457</v>
+        <v>0.06058684861515892</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1239956325173449</v>
+        <v>0.121305151171842</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08852355924410979</v>
+        <v>0.07846995083421165</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1110205296626154</v>
+        <v>0.1205272023518437</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1265808413103769</v>
+        <v>0.0239962723969783</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1235442039829157</v>
+        <v>0.1225585970411505</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01946335629142099</v>
+        <v>0.02375406035139349</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1229549762277175</v>
+        <v>0.1233596336231188</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03368345603803619</v>
+        <v>0.06096725952498763</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1248060614880465</v>
+        <v>0.1220979952971481</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08886786390094689</v>
+        <v>0.07722400556283138</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1117461540394953</v>
+        <v>0.1213149618443394</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1264541763603586</v>
+        <v>0.02375406035139349</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1243516824403204</v>
+        <v>0.1233596336231188</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0193747639102293</v>
+        <v>0.02361313128115397</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1237533851642612</v>
+        <v>0.1241606702050871</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03361185103318082</v>
+        <v>0.06042910946777597</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1256164904587481</v>
+        <v>0.1228908394224543</v>
       </c>
       <c r="L220" t="n">
-        <v>0.08870089620744678</v>
+        <v>0.07608325077100403</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1124717784163751</v>
+        <v>0.1221027213368351</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1246221898988916</v>
+        <v>0.02361313128115397</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1251591608977251</v>
+        <v>0.1241606702050871</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01828507020964126</v>
+        <v>0.02367346921984625</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1245517941008048</v>
+        <v>0.1249617067870554</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03303840560642922</v>
+        <v>0.06027147163928781</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1264269194294497</v>
+        <v>0.1236836835477605</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08842194276742296</v>
+        <v>0.07614828880820462</v>
       </c>
       <c r="M221" t="n">
-        <v>0.113197402793255</v>
+        <v>0.1228904808293308</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1235848676625071</v>
+        <v>0.02367346921984625</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1259666393551298</v>
+        <v>0.1249617067870554</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01819427883241627</v>
+        <v>0.02353505820105679</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1253502030373484</v>
+        <v>0.1257627433690237</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03276311612191213</v>
+        <v>0.05989472169957238</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1272373484001513</v>
+        <v>0.1244765276730666</v>
       </c>
       <c r="L222" t="n">
-        <v>0.08803116752966464</v>
+        <v>0.07481972202390791</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1139230271701348</v>
+        <v>0.1236782403218265</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1222421953877357</v>
+        <v>0.02353505820105679</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1267741178125344</v>
+        <v>0.1257627433690237</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02010239342131372</v>
+        <v>0.02349788225837207</v>
       </c>
       <c r="G223" t="n">
-        <v>0.126148611973892</v>
+        <v>0.126563779950992</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0327859789437603</v>
+        <v>0.05959908813390821</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1280477773708529</v>
+        <v>0.1252693717983727</v>
       </c>
       <c r="L223" t="n">
-        <v>0.08772873444296111</v>
+        <v>0.07359815276758896</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1146486515470146</v>
+        <v>0.1244659998143222</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1219941588111083</v>
+        <v>0.02349788225837207</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1275815962699391</v>
+        <v>0.126563779950992</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01800941761909299</v>
+        <v>0.02356192542537854</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1269470209104356</v>
+        <v>0.1273648165329603</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03230699043610448</v>
+        <v>0.058984799252219</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1288582063415545</v>
+        <v>0.1260622159236789</v>
       </c>
       <c r="L224" t="n">
-        <v>0.08751480745610152</v>
+        <v>0.07298418338872237</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1153742759238945</v>
+        <v>0.125253759306818</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1208407436691558</v>
+        <v>0.02356192542537854</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1283890747273438</v>
+        <v>0.1273648165329603</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0189153550685135</v>
+        <v>0.02342717173566269</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1277454298469793</v>
+        <v>0.1281658531149286</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03192614696307537</v>
+        <v>0.05855208336442849</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1296686353122561</v>
+        <v>0.1268550600489851</v>
       </c>
       <c r="L225" t="n">
-        <v>0.08718955051787505</v>
+        <v>0.07287841623678321</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1160999003007743</v>
+        <v>0.1260415187993137</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1207819356984089</v>
+        <v>0.02342717173566269</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1291965531847485</v>
+        <v>0.1281658531149286</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01982020941233461</v>
+        <v>0.023593605222811</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1285438387835229</v>
+        <v>0.128966889696897</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03184344488880378</v>
+        <v>0.05890116878046048</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1304790642829577</v>
+        <v>0.1276479041742912</v>
       </c>
       <c r="L226" t="n">
-        <v>0.08605312757707095</v>
+        <v>0.07208145366124613</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1168255246776541</v>
+        <v>0.1268292782918094</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1199177206353985</v>
+        <v>0.023593605222811</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1300040316421532</v>
+        <v>0.128966889696897</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01872398429331574</v>
+        <v>0.02336120992040992</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1293422477200665</v>
+        <v>0.1297679262788652</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03155888057742044</v>
+        <v>0.05823228381023865</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1312894932536593</v>
+        <v>0.1284407482995974</v>
       </c>
       <c r="L227" t="n">
-        <v>0.08580570258247847</v>
+        <v>0.07159389801158617</v>
       </c>
       <c r="M227" t="n">
-        <v>0.117551149054534</v>
+        <v>0.1276170377843051</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1176480842166553</v>
+        <v>0.02336120992040992</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1308115100995578</v>
+        <v>0.1297679262788652</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01862668335421625</v>
+        <v>0.02372996986204595</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1301406566566101</v>
+        <v>0.1305689628608336</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03127245039305607</v>
+        <v>0.05794565676368676</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1320999222243609</v>
+        <v>0.1292335924249035</v>
       </c>
       <c r="L228" t="n">
-        <v>0.08614743948288683</v>
+        <v>0.07041635163727822</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1182767734314138</v>
+        <v>0.1284047972768008</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1170730121787102</v>
+        <v>0.02372996986204595</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1316189885569625</v>
+        <v>0.1305689628608336</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01952831023779556</v>
+        <v>0.02339986908130558</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1309390655931537</v>
+        <v>0.1313699994428019</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03098415069984145</v>
+        <v>0.05764151595072858</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1329103511950625</v>
+        <v>0.1300264365502097</v>
       </c>
       <c r="L229" t="n">
-        <v>0.08527850222708519</v>
+        <v>0.06884941688779694</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1190023978082937</v>
+        <v>0.1291925567692965</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1158924902580941</v>
+        <v>0.02339986908130558</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1324264670143672</v>
+        <v>0.1313699994428019</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01742886858681305</v>
+        <v>0.02347089161177521</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1317374745296974</v>
+        <v>0.1321710360247701</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03049397786190729</v>
+        <v>0.05682008968128785</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1337207801657641</v>
+        <v>0.1308192806755158</v>
       </c>
       <c r="L230" t="n">
-        <v>0.08539905476386278</v>
+        <v>0.06809369611261734</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1197280221851735</v>
+        <v>0.1299803162617922</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1151065041913377</v>
+        <v>0.02347089161177521</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1332339454717719</v>
+        <v>0.1321710360247701</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01932836204402812</v>
+        <v>0.02344302148704139</v>
       </c>
       <c r="G231" t="n">
-        <v>0.132535883466241</v>
+        <v>0.1329720726067385</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03050192824338437</v>
+        <v>0.05688160626528824</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1345312091364657</v>
+        <v>0.131612124800822</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08480926104200881</v>
+        <v>0.06814979166121427</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1204536465620534</v>
+        <v>0.1307680757542879</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1149150397149719</v>
+        <v>0.02344302148704139</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1340414239291766</v>
+        <v>0.1329720726067385</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01822679425220014</v>
+        <v>0.02351624274069056</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1333342924027846</v>
+        <v>0.1337731091887067</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03020799820840341</v>
+        <v>0.0560262940126536</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1353416381071673</v>
+        <v>0.1324049689261282</v>
       </c>
       <c r="L232" t="n">
-        <v>0.08410928501031253</v>
+        <v>0.06731830588306242</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1211792709389332</v>
+        <v>0.1315558352467836</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1131180825655275</v>
+        <v>0.02351624274069056</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1348489023865812</v>
+        <v>0.1337731091887067</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01812416885408852</v>
+        <v>0.02349053940630919</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1341327013393282</v>
+        <v>0.1345741457706751</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02991218412109514</v>
+        <v>0.05585438123330758</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1361520670778689</v>
+        <v>0.1331978130514343</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08349929061756312</v>
+        <v>0.0659998411276369</v>
       </c>
       <c r="M233" t="n">
-        <v>0.121904895315813</v>
+        <v>0.1323435947392793</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1123156184795353</v>
+        <v>0.02349053940630919</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1356563808439859</v>
+        <v>0.1345741457706751</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01702048949245265</v>
+        <v>0.02346589551748374</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1349311102758718</v>
+        <v>0.1353751823526434</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02931448234559038</v>
+        <v>0.05486609623717395</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1369624960485705</v>
+        <v>0.1339906571767405</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08367944181254985</v>
+        <v>0.06629499974441255</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1226305196926929</v>
+        <v>0.1331313542317751</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1116076331935261</v>
+        <v>0.02346589551748374</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1364638593013906</v>
+        <v>0.1353751823526434</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01791575981005192</v>
+        <v>0.02334229510780071</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1357295192124155</v>
+        <v>0.1361762189346117</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0290148892460198</v>
+        <v>0.05436166733417647</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1377729250192721</v>
+        <v>0.1347835013020466</v>
       </c>
       <c r="L235" t="n">
-        <v>0.08304990254406186</v>
+        <v>0.06520438408286405</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1233561440695727</v>
+        <v>0.1339191137242708</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1104941124440309</v>
+        <v>0.02334229510780071</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1372713377587952</v>
+        <v>0.1361762189346117</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01680998344964572</v>
+        <v>0.02321972221084659</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1365279281489591</v>
+        <v>0.13697725551658</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02871340118651418</v>
+        <v>0.05464132283423886</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1385833539899737</v>
+        <v>0.1355763454273528</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08271083676088842</v>
+        <v>0.06442859649246635</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1240817684464526</v>
+        <v>0.1347068732167665</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1094750419675802</v>
+        <v>0.02321972221084659</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1380788162161999</v>
+        <v>0.13697725551658</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01670316405399345</v>
+        <v>0.0234981608602078</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1373263370855027</v>
+        <v>0.1377782920985483</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02851001453120425</v>
+        <v>0.05370529104728489</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1393937829606753</v>
+        <v>0.1363691895526589</v>
       </c>
       <c r="L237" t="n">
-        <v>0.08246240841181871</v>
+        <v>0.0634682393226943</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1248073928233324</v>
+        <v>0.1354946327092622</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1076504075007051</v>
+        <v>0.0234981608602078</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1388862946736046</v>
+        <v>0.1377782920985483</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0185953052658545</v>
+        <v>0.02317759508947086</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1381247460220463</v>
+        <v>0.1385793286805166</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02830472564422075</v>
+        <v>0.05345380028323829</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1402042119313769</v>
+        <v>0.1371620336779651</v>
       </c>
       <c r="L238" t="n">
-        <v>0.08200478144564197</v>
+        <v>0.06282391492302292</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1255330172002122</v>
+        <v>0.1362823922017579</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1071201947799362</v>
+        <v>0.02317759508947086</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1396937731310093</v>
+        <v>0.1385793286805166</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01748641072798825</v>
+        <v>0.02315800893222222</v>
       </c>
       <c r="G239" t="n">
-        <v>0.13892315495859</v>
+        <v>0.1393803652624849</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02819753088969447</v>
+        <v>0.05268707885202276</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1410146409020785</v>
+        <v>0.1379548778032713</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08093811981114743</v>
+        <v>0.06269622564292676</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1262586415770921</v>
+        <v>0.1370701516942536</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1064843895418047</v>
+        <v>0.02315800893222222</v>
       </c>
       <c r="O239" t="n">
-        <v>0.140501251588414</v>
+        <v>0.1393803652624849</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01737648408315409</v>
+        <v>0.02303938642204834</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1397215638951335</v>
+        <v>0.1401814018444532</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0278884266317561</v>
+        <v>0.05200535506356208</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1418250698727801</v>
+        <v>0.1387477219285774</v>
       </c>
       <c r="L240" t="n">
-        <v>0.08056258745712425</v>
+        <v>0.06228577383188089</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1269842659539719</v>
+        <v>0.1378579111867493</v>
       </c>
       <c r="N240" t="n">
-        <v>0.105342977522841</v>
+        <v>0.02303938642204834</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1413087300458186</v>
+        <v>0.1401814018444532</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01826552897411143</v>
+        <v>0.02342171159253575</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1405199728316772</v>
+        <v>0.1409824384264215</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02727740923453643</v>
+        <v>0.05110885722778</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1426354988434817</v>
+        <v>0.1395405660538836</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07977834833236166</v>
+        <v>0.06169316183936019</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1277098903308518</v>
+        <v>0.138645670679245</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1039959444595761</v>
+        <v>0.02342171159253575</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1421162085032233</v>
+        <v>0.1409824384264215</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01815354904361965</v>
+        <v>0.02320496847727084</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1413183817682208</v>
+        <v>0.1417834750083898</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0269644750621662</v>
+        <v>0.05089781365460022</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1434459278141833</v>
+        <v>0.1403334101791897</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07968556638564894</v>
+        <v>0.06071899201483938</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1284355147077316</v>
+        <v>0.1394334301717407</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1036432760885408</v>
+        <v>0.02320496847727084</v>
       </c>
       <c r="O242" t="n">
-        <v>0.142923686960628</v>
+        <v>0.1417834750083898</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01604054793443815</v>
+        <v>0.02308914110984016</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1421167907047644</v>
+        <v>0.1425845115903581</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02674962047877612</v>
+        <v>0.05007245265394655</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1442563567848849</v>
+        <v>0.1411262543044959</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07878440556577523</v>
+        <v>0.05986386670779342</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1291611390846114</v>
+        <v>0.1402211896642365</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1012849581462659</v>
+        <v>0.02308914110984016</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1437311654180327</v>
+        <v>0.1425845115903581</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01592652928932631</v>
+        <v>0.02297421352383014</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1429151996413081</v>
+        <v>0.1433855481723264</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02643284184849695</v>
+        <v>0.04943300253574268</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1450667857555865</v>
+        <v>0.141919098429802</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07907502982152981</v>
+        <v>0.0604283882676972</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1298867634614913</v>
+        <v>0.1410089491567322</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1014209763692823</v>
+        <v>0.02297421352383014</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1445386438754374</v>
+        <v>0.1433855481723264</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01781149675104353</v>
+        <v>0.02326016975282726</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1437136085778517</v>
+        <v>0.1441865847542947</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02611413553545947</v>
+        <v>0.04927969160991233</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1458772147262881</v>
+        <v>0.1427119425551082</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07775760310170179</v>
+        <v>0.05881315904402551</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1306123878383711</v>
+        <v>0.1417967086492279</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09935131649412088</v>
+        <v>0.02326016975282726</v>
       </c>
       <c r="O245" t="n">
-        <v>0.145346122332842</v>
+        <v>0.1441865847542947</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0176954539623492</v>
+        <v>0.02324699383041799</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1445120175143953</v>
+        <v>0.144987621336263</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02589349790379437</v>
+        <v>0.04851274818637932</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1466876436969897</v>
+        <v>0.1435047866804144</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07803228935508053</v>
+        <v>0.05821878138625314</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1313380122152509</v>
+        <v>0.1425844681417236</v>
       </c>
       <c r="N246" t="n">
-        <v>0.0984759642573122</v>
+        <v>0.02324699383041799</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1461536007902467</v>
+        <v>0.144987621336263</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0175784045660027</v>
+        <v>0.02323466979018883</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1453104264509389</v>
+        <v>0.1457886579182313</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02527092531763246</v>
+        <v>0.0473324005750673</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1474980726676913</v>
+        <v>0.1442976308057205</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07679925253045511</v>
+        <v>0.05884585764385519</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1320636365921308</v>
+        <v>0.1433722276342193</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0979949053953873</v>
+        <v>0.02323466979018883</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1469610792476514</v>
+        <v>0.1457886579182313</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01546035220476344</v>
+        <v>0.02292318166572622</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1461088353874825</v>
+        <v>0.1465896945001996</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02504641414110444</v>
+        <v>0.04673887708590005</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1483085016383929</v>
+        <v>0.1450904749310267</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07655865657661481</v>
+        <v>0.05729499016630629</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1327892609690106</v>
+        <v>0.144159987126715</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09720812564487702</v>
+        <v>0.02292318166572622</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1477685577050561</v>
+        <v>0.1465896945001996</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01734130052139081</v>
+        <v>0.02311251349061665</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1469072443240261</v>
+        <v>0.1473907310821679</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02501996073834108</v>
+        <v>0.04653240602880132</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1491189306090945</v>
+        <v>0.1458833190563328</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07621066544234889</v>
+        <v>0.05696678130308142</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1335148853458905</v>
+        <v>0.1449477466192107</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09511561074231206</v>
+        <v>0.02311251349061665</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1485760361624608</v>
+        <v>0.1473907310821679</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01522125315864419</v>
+        <v>0.02320264929844659</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1477056532605698</v>
+        <v>0.1481917676641362</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02469156147347309</v>
+        <v>0.04511321571369487</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1499293595797961</v>
+        <v>0.146676163181639</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07585544307644648</v>
+        <v>0.0563618334036553</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1342405097227703</v>
+        <v>0.1457355061117064</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09411734642422326</v>
+        <v>0.02320264929844659</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1493835146198654</v>
+        <v>0.1481917676641362</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01710021375928298</v>
+        <v>0.02299357312280254</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1485040621971134</v>
+        <v>0.1489928042461045</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02426121271063125</v>
+        <v>0.04458153445050442</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1507397885504977</v>
+        <v>0.1474690073069451</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07539315342769684</v>
+        <v>0.05658074881750297</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1349661340996501</v>
+        <v>0.1465232656042021</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0940133184271415</v>
+        <v>0.02299357312280254</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1501909930772701</v>
+        <v>0.1489928042461045</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01497818596606658</v>
+        <v>0.02328526899727092</v>
       </c>
       <c r="G252" t="n">
-        <v>0.149302471133657</v>
+        <v>0.1497938408280728</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0236289108139463</v>
+        <v>0.04363759054915367</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1515502175211993</v>
+        <v>0.1482618514322513</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07462396044488911</v>
+        <v>0.05562412989409921</v>
       </c>
       <c r="M252" t="n">
-        <v>0.13569175847653</v>
+        <v>0.1473110250966979</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09170351248759756</v>
+        <v>0.02328526899727092</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1509984715346748</v>
+        <v>0.1497938408280728</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01685517342175436</v>
+        <v>0.02287772095543822</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1501008800702006</v>
+        <v>0.1505948774100412</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02349465214754896</v>
+        <v>0.04328161231956643</v>
       </c>
       <c r="K253" t="n">
-        <v>0.152360646491901</v>
+        <v>0.1490546955575575</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07384802807681265</v>
+        <v>0.05559257898291897</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1364173828534098</v>
+        <v>0.1480987845891936</v>
       </c>
       <c r="N253" t="n">
-        <v>0.09148791434212217</v>
+        <v>0.02287772095543822</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1518059499920795</v>
+        <v>0.1505948774100412</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01673117976910573</v>
+        <v>0.02297091303089094</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1508992890067443</v>
+        <v>0.1513959139920095</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02325843307557005</v>
+        <v>0.04281382807166642</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1531710754626025</v>
+        <v>0.1498475396828636</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07306552027225657</v>
+        <v>0.05558669843343689</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1371430072302897</v>
+        <v>0.1488865440816893</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08936650972724641</v>
+        <v>0.02297091303089094</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1526134284494841</v>
+        <v>0.1513959139920095</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01560620865088008</v>
+        <v>0.02326482925721553</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1516976979432879</v>
+        <v>0.1521969505739778</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02272024996214021</v>
+        <v>0.04143446611537735</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1539815044333041</v>
+        <v>0.1506403838081698</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07307660098001012</v>
+        <v>0.05610709059512803</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1378686316071695</v>
+        <v>0.149674303574185</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0887392843795009</v>
+        <v>0.02326482925721553</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1534209069068888</v>
+        <v>0.1521969505739778</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01448026370983678</v>
+        <v>0.02325945366799846</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1524961068798315</v>
+        <v>0.1529979871559461</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02258009917139027</v>
+        <v>0.04074375476062297</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1547919334040057</v>
+        <v>0.1514332279334759</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07168143414886252</v>
+        <v>0.05435435781746717</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1385942559840493</v>
+        <v>0.1504620630666807</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08760622403541651</v>
+        <v>0.02325945366799846</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1542283853642935</v>
+        <v>0.1529979871559461</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01435334858873525</v>
+        <v>0.02295477029682623</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1532945158163751</v>
+        <v>0.1537990237379144</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02213797706745092</v>
+        <v>0.03984192231732708</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1556023623747073</v>
+        <v>0.1522260720587821</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07098018372760292</v>
+        <v>0.05562910244992919</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1393198803609292</v>
+        <v>0.1512498225591764</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08586731443152407</v>
+        <v>0.02295477029682623</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1550358638216982</v>
+        <v>0.1537990237379144</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01622546693033488</v>
+        <v>0.02325076317728528</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1540929247529187</v>
+        <v>0.1546000603198827</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02179388001445295</v>
+        <v>0.03932919709541335</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1564127913454089</v>
+        <v>0.1530189161840882</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07107301366502061</v>
+        <v>0.05523192684198897</v>
       </c>
       <c r="M258" t="n">
-        <v>0.140045504737809</v>
+        <v>0.1520375820516721</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08612254130435443</v>
+        <v>0.02325076317728528</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1558433422791029</v>
+        <v>0.1546000603198827</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01409662237739503</v>
+        <v>0.02324741634296211</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1548913336894623</v>
+        <v>0.155401096901851</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02144780437652709</v>
+        <v>0.03880580740480555</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1572232203161106</v>
+        <v>0.1538117603093944</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0701600879099048</v>
+        <v>0.05466343334312135</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1407711291146889</v>
+        <v>0.1528253415441678</v>
       </c>
       <c r="N259" t="n">
-        <v>0.0843718903904383</v>
+        <v>0.02324741634296211</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1566508207365075</v>
+        <v>0.155401096901851</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01396681857267514</v>
+        <v>0.02284471382744319</v>
       </c>
       <c r="G260" t="n">
-        <v>0.155689742626006</v>
+        <v>0.1562021334838193</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02099974651780408</v>
+        <v>0.03757198155542743</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1580336492868122</v>
+        <v>0.1546046044347006</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06944157041104468</v>
+        <v>0.05492422430280119</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1414967534915687</v>
+        <v>0.1536131010366635</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08331534742630659</v>
+        <v>0.02284471382744319</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1574582991939122</v>
+        <v>0.1562021334838193</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01483605915893455</v>
+        <v>0.02314263966431497</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1564881515625496</v>
+        <v>0.1570031700657876</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02094970280241465</v>
+        <v>0.03652794785720273</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1588440782575137</v>
+        <v>0.1553974485600067</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06851762511722947</v>
+        <v>0.05471490207050322</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1422223778684485</v>
+        <v>0.1544008605291592</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08245289814849016</v>
+        <v>0.02314263966431497</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1582657776513169</v>
+        <v>0.1570031700657876</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01370434777893269</v>
+        <v>0.02304117788716395</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1572865604990932</v>
+        <v>0.1578042066477559</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02029766959448959</v>
+        <v>0.03567393462005516</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1596545072282153</v>
+        <v>0.1561902926853128</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06838841597724837</v>
+        <v>0.05393606899570258</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1429480022453284</v>
+        <v>0.155188620021655</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08018452829351974</v>
+        <v>0.02304117788716395</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1590732561087216</v>
+        <v>0.1578042066477559</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01357168807542895</v>
+        <v>0.02294031252957661</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1580849694356368</v>
+        <v>0.1586052432297242</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0198436432581596</v>
+        <v>0.03491017015390846</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1604649361989169</v>
+        <v>0.156983136810619</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06815410693989063</v>
+        <v>0.05398832742787391</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1436736266222082</v>
+        <v>0.1559763795141507</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07881022359792622</v>
+        <v>0.02294031252957661</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1598807345661263</v>
+        <v>0.1586052432297242</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.0134380836911827</v>
+        <v>0.02324002762513937</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1588833783721804</v>
+        <v>0.1594062798116925</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01958762015755545</v>
+        <v>0.03453688276868644</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1612753651696185</v>
+        <v>0.1577759809359252</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06731486195394545</v>
+        <v>0.05477227971649229</v>
       </c>
       <c r="M264" t="n">
-        <v>0.144399250999088</v>
+        <v>0.1567641390066464</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0785299697982404</v>
+        <v>0.02324002762513937</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1606882130235309</v>
+        <v>0.1594062798116925</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1235.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1235.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.775048945656135</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03875244728280675</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03875244728280675</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.0620039156524908</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08125146836968405</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02079791622382401</v>
+        <v>0.03125146836968406</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01649390300528266</v>
+        <v>0.01556429752714555</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001818851105618711</v>
+        <v>0.0005755839181313949</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000801036581968304</v>
+        <v>0.0006618868437085411</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002999999999999975</v>
+        <v>0.001276656175428027</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005969235364396603</v>
+        <v>0.000801036581968304</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007076255159224942</v>
+        <v>0.004620846169864773</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007877594924957104</v>
+        <v>0.0007882511257226631</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001818851105618711</v>
+        <v>0.006791060818277572</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000801036581968304</v>
+        <v>0.000791456244309393</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003372755616843456</v>
+        <v>0.001243354959369572</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001602073163936608</v>
+        <v>0.001323773687417082</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.007038210966854835</v>
+        <v>0.002725021476732405</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001585688250612313</v>
+        <v>0.001602073163936608</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01446483204637378</v>
+        <v>0.008959187202397217</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001575518984991421</v>
+        <v>0.001576502251445326</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003372755616843456</v>
+        <v>0.01518331922501881</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001602073163936608</v>
+        <v>0.001582912488618786</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005352008900551986</v>
+        <v>0.001998938372633832</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002403109745904912</v>
+        <v>0.001985660531125623</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01035965629102387</v>
+        <v>0.004201801594648016</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00237853237591847</v>
+        <v>0.002403109745904912</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02300000000000002</v>
+        <v>0.01399999999999998</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00257943322109989</v>
+        <v>0.002515192376842859</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005352008900551986</v>
+        <v>0.02240450458016602</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002403109745904912</v>
+        <v>0.002374368732928179</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006946906323622069</v>
+        <v>0.002837959406843497</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003204146327873216</v>
+        <v>0.002647547374834164</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.0134093276584718</v>
+        <v>0.005863702219909783</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003171376501224627</v>
+        <v>0.003204146327873216</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02575423728919018</v>
+        <v>0.0161325581005429</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003151037969982842</v>
+        <v>0.003153004502890652</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006946906323622069</v>
+        <v>0.02938234624366126</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003204146327873216</v>
+        <v>0.003165824977237572</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.008882222222222222</v>
+        <v>0.01290779431578155</v>
       </c>
       <c r="B70" t="n">
-        <v>0.016</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008847743252931452</v>
+        <v>0.003756043310917841</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00400518290984152</v>
+        <v>0.003309434218542705</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01618421181181076</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003964220626530783</v>
+        <v>0.003885972222222222</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03198607727564201</v>
+        <v>0.01983296346224084</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003938797462478552</v>
+        <v>0.003941255628613316</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.008847743252931452</v>
+        <v>0.03654457357544705</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00400518290984152</v>
+        <v>0.003957281221546965</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01004481505535788</v>
+        <v>0.004748815333776205</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004806219491809824</v>
+        <v>0.003971321062251247</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01988129549365289</v>
+        <v>0.007977363488940292</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.00475706475183694</v>
+        <v>0.004806219491809824</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03653247569441881</v>
+        <v>0.02281948510453172</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004726556954974262</v>
+        <v>0.004729506754335979</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.01004481505535788</v>
+        <v>0.04121891593546534</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004806219491809824</v>
+        <v>0.004748737465856358</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01132841709777916</v>
+        <v>0.005811900724337848</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005607256073778128</v>
+        <v>0.004633207905959787</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0227975654466103</v>
+        <v>0.009239592117678053</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005549908877143097</v>
+        <v>0.005607256073778128</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04198772314606797</v>
+        <v>0.02588886951894356</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005514316447469973</v>
+        <v>0.005517757880058642</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01132841709777916</v>
+        <v>0.04643310268365858</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005607256073778128</v>
+        <v>0.005540193710165751</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01288884474707298</v>
+        <v>0.006940924731522108</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006408292655746432</v>
+        <v>0.005295094749668328</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02523000841329504</v>
+        <v>0.01025883583709086</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006342753002449253</v>
+        <v>0.006408292655746432</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04744611023113737</v>
+        <v>0.02943786319700425</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006302075939965683</v>
+        <v>0.006306009005781305</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01288884474707298</v>
+        <v>0.05299999999999999</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006408292655746432</v>
+        <v>0.006466452991452991</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01371639337011715</v>
+        <v>0.008131512604248291</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007209329237714736</v>
+        <v>0.005956981593376869</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02877561113631935</v>
+        <v>0.01113817983256141</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007135597127755411</v>
+        <v>0.007209329237714736</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0523019275501746</v>
+        <v>0.03246321263024182</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007089835432461393</v>
+        <v>0.007094260131503968</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01371639337011715</v>
+        <v>0.0553393862800628</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007209329237714736</v>
+        <v>0.007123106198784536</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01490135833378939</v>
+        <v>0.009379289591435677</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00801036581968304</v>
+        <v>0.00661886843708541</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03123136035829524</v>
+        <v>0.01208070928947244</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007928441253061566</v>
+        <v>0.00801036581968304</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05564946570372731</v>
+        <v>0.03466166431018419</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007877594924957104</v>
+        <v>0.007882511257226632</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01490135833378939</v>
+        <v>0.05958153074534567</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00801036581968304</v>
+        <v>0.00791456244309393</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.016</v>
+        <v>0.0106798809420036</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008882222222222222</v>
+        <v>0.00728075528079395</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03419424282183495</v>
+        <v>0.01288950939320666</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008721285378367723</v>
+        <v>0.008811402401651344</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06048301529234301</v>
+        <v>0.03752996472835937</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008665354417452814</v>
+        <v>0.008670762382949296</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.016</v>
+        <v>0.06140431735995</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008882222222222222</v>
+        <v>0.008706018687403323</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01633140888744276</v>
+        <v>0.01202891190487133</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007942642124502493</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01386766532914677</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009612438983619648</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03636124526955051</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.00951412950367388</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.0641968669165694</v>
+        <v>0.04016486037629532</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009453113909948524</v>
+        <v>0.009459013508671957</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01633140888744276</v>
+        <v>0.06496517961351844</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009612438983619648</v>
+        <v>0.009497474931712716</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01723810619470939</v>
+        <v>0.01342200772895819</v>
       </c>
       <c r="G78" t="n">
+        <v>0.008604528968211034</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01451826228267551</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01041347556558795</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.03922935444405409</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01030697362898004</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.06778531117695413</v>
+        <v>0.04236309774552002</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01024087340244424</v>
+        <v>0.01024726463439462</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01723810619470939</v>
+        <v>0.06692155099569363</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01041347556558795</v>
+        <v>0.01028893117602211</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01737260850933395</v>
+        <v>0.01485479366318349</v>
       </c>
       <c r="G79" t="n">
+        <v>0.009266415811919573</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0153443854391756</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01121451214755626</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.04089555708795781</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01109981775428619</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.07234263867404483</v>
+        <v>0.04512142332756142</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01102863289493995</v>
+        <v>0.01103551576011728</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01737260850933395</v>
+        <v>0.07003086499611827</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01121451214755626</v>
+        <v>0.0110803874203315</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01815318280522503</v>
+        <v>0.01632289495646653</v>
       </c>
       <c r="G80" t="n">
+        <v>0.009928302655628116</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01624911998402974</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01201554872952456</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.04365683994387376</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01189266187959235</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.07416314000838908</v>
+        <v>0.04733658361394757</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01181639238743566</v>
+        <v>0.01182376688583995</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01815318280522503</v>
+        <v>0.07265055510443463</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01201554872952456</v>
+        <v>0.01187184366464089</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01839809605629132</v>
+        <v>0.0178219368577266</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01059018949933666</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01733555110262068</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01281658531149286</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04531018975441409</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01268550600489851</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.07884613514074101</v>
+        <v>0.0498220256822825</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01263219505200985</v>
+        <v>0.01278693665254553</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01839809605629132</v>
+        <v>0.07473805481028556</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01281658531149286</v>
+        <v>0.01266329990895029</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01872561523644144</v>
+        <v>0.01934754461588301</v>
       </c>
       <c r="G82" t="n">
+        <v>0.0112520763430452</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01770676398033111</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01361762189346117</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04775259326219095</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01347835013020466</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.08029042282324905</v>
+        <v>0.0506718973785846</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01339191137242708</v>
+        <v>0.01340026913728527</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01872561523644144</v>
+        <v>0.07884613514074101</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01361762189346117</v>
+        <v>0.01374271769394479</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.019354007319584</v>
+        <v>0.02089534347985509</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01191396318675374</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01846584380254375</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01441865847542947</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.0498220256822825</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01416187607755043</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.08414371731136933</v>
+        <v>0.05223884537463808</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01417967086492279</v>
+        <v>0.01418852026300794</v>
       </c>
       <c r="N83" t="n">
-        <v>0.019354007319584</v>
+        <v>0.07963708091220018</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01441865847542947</v>
+        <v>0.01424621239756907</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01990153927962771</v>
+        <v>0.02246095869856211</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01257585003046228</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01941587575464132</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01521969505739777</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.05107758138724175</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01506403838081698</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.08629686972348205</v>
+        <v>0.05470723332593339</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0149674303574185</v>
+        <v>0.0149767713887306</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01990153927962771</v>
+        <v>0.08239239665647569</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01521969505739777</v>
+        <v>0.01503766864187847</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02028647809048115</v>
+        <v>0.02325146836968405</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01290779431578155</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.02025994502200656</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01602073163936608</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.05368386187957297</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01585688250612313</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.08914559788418019</v>
+        <v>0.05617426554097155</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01575518984991421</v>
+        <v>0.01576502251445326</v>
       </c>
       <c r="N85" t="n">
-        <v>0.02028647809048115</v>
+        <v>0.0848078094695715</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01602073163936608</v>
+        <v>0.01582912488618786</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
+        <v>0.02640808104151943</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.01389962371787936</v>
+      </c>
+      <c r="J86" t="n">
         <v>0.02079791622382401</v>
       </c>
-      <c r="G86" t="n">
+      <c r="K86" t="n">
         <v>0.01649390300528266</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.05579754082632452</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01664972663142929</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.09338561961805664</v>
+        <v>0.05783714632825349</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01654294934240992</v>
+        <v>0.01655327364017593</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02079791622382401</v>
+        <v>0.08807594247195538</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01649390300528266</v>
+        <v>0.01662058113049725</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02121061608093508</v>
+        <v>0.02877642605678996</v>
       </c>
       <c r="G87" t="n">
+        <v>0.0145615105615879</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02156305843407424</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01762280480330269</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.05731502941401231</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01744257075673545</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.09641265274970434</v>
+        <v>0.06009307999628022</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01733070883490563</v>
+        <v>0.01734152476589859</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02121061608093508</v>
+        <v>0.09078941878409452</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01762280480330269</v>
+        <v>0.01741203737480665</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02213649275428343</v>
+        <v>0.03066239504119454</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01522339740529644</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02254166929669819</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01842384138527099</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.05943273882915245</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0182354148820416</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.09782241510371631</v>
+        <v>0.0623392708535527</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01811846832740134</v>
+        <v>0.01812977589162125</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02213649275428343</v>
+        <v>0.09314086152645651</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01842384138527099</v>
+        <v>0.01820349361911604</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02279904022363236</v>
+        <v>0.03125146836968406</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01556429752714555</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02303622097660964</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.0192248779672393</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.06064708025826085</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01902825900734776</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1020106245046855</v>
+        <v>0.06357292320857186</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01890622781989705</v>
+        <v>0.01891802701734391</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02279904022363236</v>
+        <v>0.09552289381950874</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0192248779672393</v>
+        <v>0.01899494986342543</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02359458246880262</v>
+        <v>0.03240528515380379</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01654717109271352</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.02394407421913945</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.0200259145492076</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.0633544648878536</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01982110313265392</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1043729987772049</v>
+        <v>0.06609124136983874</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01969398731239276</v>
+        <v>0.01970627814306658</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02359458246880262</v>
+        <v>0.09782813878371871</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0200259145492076</v>
+        <v>0.01978640610773482</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02431944346961502</v>
+        <v>0.03312214994587783</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01720905793642207</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0247625897696185</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.0208269511311759</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.06535130390444666</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02061394725796007</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1070052557458674</v>
+        <v>0.06709142964585429</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02048174680488847</v>
+        <v>0.02049452926878924</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02431944346961502</v>
+        <v>0.1018492195395537</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0208269511311759</v>
+        <v>0.02057786235204422</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02486994720589028</v>
+        <v>0.03379307543598156</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01787094478013061</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02558912837337772</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02162798771314421</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.06693400849455602</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02140679138326623</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.109503113235266</v>
+        <v>0.06937069234511944</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02126950629738418</v>
+        <v>0.0212827803945119</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02486994720589028</v>
+        <v>0.1045787592074815</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02162798771314421</v>
+        <v>0.02136931859635361</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0257424176574492</v>
+        <v>0.03442018176483717</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01853283162383915</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02662105077574795</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02242902429511251</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.06909898984469773</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02219963550857239</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1134622890699937</v>
+        <v>0.07132623377613523</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02205726578987989</v>
+        <v>0.02207103152023457</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0257424176574492</v>
+        <v>0.1071093809079694</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02242902429511251</v>
+        <v>0.022160774840663</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02643317880411253</v>
+        <v>0.03500558907316682</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01919471846754769</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02745571772206011</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02323006087708082</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.07094265914138775</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02299247963387854</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1149785010746434</v>
+        <v>0.07285525824740258</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0228450252823756</v>
+        <v>0.02285928264595723</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02643317880411253</v>
+        <v>0.1106337077614847</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02323006087708082</v>
+        <v>0.0229522310849724</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02723855462570103</v>
+        <v>0.03555141750169267</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01985660531125623</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02839048995764509</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02403109745904912</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.07216142757114219</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.0237853237591847</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.117447467073808</v>
+        <v>0.07405497006742248</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02363278477487131</v>
+        <v>0.0236475337716799</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02723855462570103</v>
+        <v>0.1121443628884951</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02403109745904912</v>
+        <v>0.02374368732928179</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02805486910203547</v>
+        <v>0.03605978719113689</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02051849215496477</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02912272822783374</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02483213404101742</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.07395170632047687</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02457816788449086</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1205649048920805</v>
+        <v>0.07592257354469592</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02442054426736702</v>
+        <v>0.02443578489740256</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02805486910203547</v>
+        <v>0.114733969409468</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02483213404101742</v>
+        <v>0.02453514357359118</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02897844621293665</v>
+        <v>0.03653281828222165</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02118037899867331</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.03004979327795698</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02563317062298573</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.07560990657590791</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02537101200979701</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.122926532354054</v>
+        <v>0.07765527298772384</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02520830375986273</v>
+        <v>0.02522403602312522</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02897844621293665</v>
+        <v>0.1185951504448707</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02563317062298573</v>
+        <v>0.02532659981790058</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02950560993822528</v>
+        <v>0.03697263091566911</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02184226584238185</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.03046904585334569</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02643420720495403</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.07723243952395134</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02616385613510317</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1257280672843213</v>
+        <v>0.07915027270500727</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02599606325235844</v>
+        <v>0.02601228714884788</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02950560993822528</v>
+        <v>0.1211205291151708</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02643420720495403</v>
+        <v>0.02611805606220997</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03043268425772219</v>
+        <v>0.03738134523220141</v>
       </c>
       <c r="G99" t="n">
+        <v>0.0225041526860904</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.03157784669933072</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02723524378692234</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.0794157163511231</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02695670026040933</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1287652275074754</v>
+        <v>0.08110477700504715</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02678382274485415</v>
+        <v>0.02680053827457055</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03043268425772219</v>
+        <v>0.1235027285408358</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02723524378692234</v>
+        <v>0.02690951230651936</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03155599315124806</v>
+        <v>0.03776108137254076</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02316603952979894</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.03227355656124299</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02803628036889064</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.08115614824393921</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02774954438571548</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1298337308481093</v>
+        <v>0.08261599019634444</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02757158223734987</v>
+        <v>0.02758878940029321</v>
       </c>
       <c r="N100" t="n">
-        <v>0.03155599315124806</v>
+        <v>0.1265343718423331</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02803628036889064</v>
+        <v>0.02770096855082875</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03237186059862376</v>
+        <v>0.03811395947740929</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02382792637350748</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.0330535361844134</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02883731695085895</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.0827501463889157</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02854238851102164</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1333292951308159</v>
+        <v>0.08368111658740013</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02835934172984557</v>
+        <v>0.02837704052601587</v>
       </c>
       <c r="N101" t="n">
-        <v>0.03237186059862376</v>
+        <v>0.12930808214013</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02883731695085895</v>
+        <v>0.02849242479513815</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03317661057966999</v>
+        <v>0.03844209968752919</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02448981321721602</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03371514631417281</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02963835353282725</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.08419412197256859</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.0293352326363278</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1346476381801882</v>
+        <v>0.08549736048671516</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02914710122234129</v>
+        <v>0.02916529165173853</v>
       </c>
       <c r="N102" t="n">
-        <v>0.03317661057966999</v>
+        <v>0.1318164825546942</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02963835353282725</v>
+        <v>0.02928388103944754</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03386656707420752</v>
+        <v>0.03874762214362262</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02515170006092456</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03465574769585208</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03043939011479555</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.08598448618141383</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.03012807676163395</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1371844778208191</v>
+        <v>0.08686192620279057</v>
       </c>
       <c r="M103" t="n">
-        <v>0.029934860714837</v>
+        <v>0.0299535427774612</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03386656707420752</v>
+        <v>0.134152196206493</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03043939011479555</v>
+        <v>0.03007533728375693</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03443805406205715</v>
+        <v>0.03903264698641171</v>
       </c>
       <c r="G104" t="n">
+        <v>0.0258135869046331</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.03517270107478215</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03124042669676386</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.08741765020196748</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03092092088694011</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1394355318773015</v>
+        <v>0.08827201804412727</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03072262020733271</v>
+        <v>0.03074179390318386</v>
       </c>
       <c r="N104" t="n">
-        <v>0.03443805406205715</v>
+        <v>0.135707846215994</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03124042669676386</v>
+        <v>0.03086679352806632</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03508739552303961</v>
+        <v>0.03929929435661864</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02647547374834164</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.0360633671962939</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03204146327873216</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.08809002522074547</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03171376501224626</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1412965181742287</v>
+        <v>0.08892484031922632</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03151037969982842</v>
+        <v>0.03153004502890653</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03508739552303961</v>
+        <v>0.1377760557036646</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03204146327873216</v>
+        <v>0.03165824977237572</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03611091543697569</v>
+        <v>0.03954968439496562</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02713736059205018</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03662510680571818</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03284249986070047</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.08969802242426383</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03250660913755242</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1433631545361932</v>
+        <v>0.09031759733658853</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03229813919232413</v>
+        <v>0.03231829615462919</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03611091543697569</v>
+        <v>0.1400494477899721</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03284249986070047</v>
+        <v>0.03244970601668511</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03650493778368614</v>
+        <v>0.03978593724217478</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02779924743575872</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.03715528064838591</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03364353644266876</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.09083805299903866</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03329945326285858</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1453311587877882</v>
+        <v>0.09124749340471502</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03308589868481984</v>
+        <v>0.03310654728035185</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03650493778368614</v>
+        <v>0.1423206455953842</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03364353644266876</v>
+        <v>0.03324116226099451</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03736578654299173</v>
+        <v>0.04001017303896828</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02846113427946726</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03765124946962795</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03444457302463707</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.09190652813158587</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03409229738816474</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1461962487536068</v>
+        <v>0.09301173283210676</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03387365817731555</v>
+        <v>0.03389479840607451</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03736578654299173</v>
+        <v>0.1450822722403681</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03444457302463707</v>
+        <v>0.0340326185053039</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03808978569471326</v>
+        <v>0.04022451192606829</v>
       </c>
       <c r="G109" t="n">
+        <v>0.0291230211231758</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.0386103740147752</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03524560960660537</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.09269985900842143</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03488514151347089</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1482541422582417</v>
+        <v>0.09390751992726459</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03466141766981125</v>
+        <v>0.03468304953179718</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03808978569471326</v>
+        <v>0.1465269508453915</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03524560960660537</v>
+        <v>0.03482407474961329</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03837325921867145</v>
+        <v>0.04043107404419698</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02978490796688435</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03913001502915855</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03604664618857368</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.09451445681606152</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03567798563877705</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.149500557126286</v>
+        <v>0.09423205899868967</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03544917716230697</v>
+        <v>0.03547130065751984</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03837325921867145</v>
+        <v>0.1485473045309217</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03604664618857368</v>
+        <v>0.03561553099392269</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03891253109468709</v>
+        <v>0.04063198268414654</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03044679481059289</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.03930753325810887</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03684768277054198</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.09554673274102185</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.0364708297640832</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1508312111823324</v>
+        <v>0.09548255435488284</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03623693665480267</v>
+        <v>0.03625955178324251</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03891253109468709</v>
+        <v>0.1490359564174263</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03684768277054198</v>
+        <v>0.03640698723823207</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03950392530258096</v>
+        <v>0.04083002755265983</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03110868165430143</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.04004028944695706</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03764871935251029</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.09569309796981876</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03726367388938936</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1521418222509743</v>
+        <v>0.09585621030434507</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03702469614729839</v>
+        <v>0.03704780290896516</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03950392530258096</v>
+        <v>0.1519855296253727</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03764871935251029</v>
+        <v>0.03719844348254147</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04024376582217379</v>
+        <v>0.04102632277524854</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03177056849800997</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.04012564434103401</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03844975593447859</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.09714996368896806</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03805651801469552</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1524281081568044</v>
+        <v>0.09665023115557744</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03781245563979409</v>
+        <v>0.03783605403468783</v>
       </c>
       <c r="N113" t="n">
-        <v>0.04024376582217379</v>
+        <v>0.1532886472752282</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03844975593447859</v>
+        <v>0.03798989972685086</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04062837663328638</v>
+        <v>0.04122078980047083</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03243245534171851</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.04056095868567057</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.0392507925164469</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.09751374108498573</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03884936214000168</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1543857867244157</v>
+        <v>0.09786182121708079</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03860021513228981</v>
+        <v>0.0386243051604105</v>
       </c>
       <c r="N114" t="n">
-        <v>0.04062837663328638</v>
+        <v>0.1532379324874604</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0392507925164469</v>
+        <v>0.03878135597116025</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04095408171573947</v>
+        <v>0.04141335007688484</v>
       </c>
       <c r="G115" t="n">
+        <v>0.03309434218542705</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04074359322619768</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.0400518290984152</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.09788084134438788</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03964220626530784</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.154810575778401</v>
+        <v>0.09838818479735617</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03938797462478552</v>
+        <v>0.03941255628613315</v>
       </c>
       <c r="N115" t="n">
-        <v>0.04095408171573947</v>
+        <v>0.1554260083825368</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0400518290984152</v>
+        <v>0.03957281221546965</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04111720504935384</v>
+        <v>0.04160392505304871</v>
       </c>
       <c r="G116" t="n">
+        <v>0.0337562290291356</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.0408709087079462</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04085286568038351</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.09844767565369045</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04043505039061399</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1562981931433536</v>
+        <v>0.09842652620490458</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04017573411728123</v>
+        <v>0.04020080741185582</v>
       </c>
       <c r="N116" t="n">
-        <v>0.04111720504935384</v>
+        <v>0.1553454980809247</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04085286568038351</v>
+        <v>0.04036426845977904</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04111407061395027</v>
+        <v>0.04179243617752063</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03441811587284414</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.041440265876247</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04165390226235181</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.09871065519940947</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04122789451592015</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1557443566438662</v>
+        <v>0.09847404974822696</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04096349360977694</v>
+        <v>0.04098905853757848</v>
       </c>
       <c r="N117" t="n">
-        <v>0.04111407061395027</v>
+        <v>0.1556890247030918</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04165390226235181</v>
+        <v>0.04115572470408844</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
+        <v>0.0419788048988587</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.03508000271655267</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.04159583244764803</v>
       </c>
-      <c r="G118" t="n">
+      <c r="K118" t="n">
         <v>0.04245493884432011</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.09946619116806096</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.0420207386412263</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1565447841045317</v>
+        <v>0.09932795973582431</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04175125310227265</v>
+        <v>0.04177730966330115</v>
       </c>
       <c r="N118" t="n">
-        <v>0.04159583244764803</v>
+        <v>0.1564492113695052</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04245493884432011</v>
+        <v>0.04194718094839783</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04139432435537234</v>
+        <v>0.04216295266562111</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03574188956026122</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.04129454825382904</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04325597542628842</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.099644051364565</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.04281358276653246</v>
-      </c>
-      <c r="L119" t="n">
+      <c r="M119" t="n">
+        <v>0.04256556078902381</v>
+      </c>
+      <c r="N119" t="n">
         <v>0.157692270281482</v>
       </c>
-      <c r="M119" t="n">
-        <v>0.04253901259476836</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.04139432435537234</v>
-      </c>
       <c r="O119" t="n">
-        <v>0.04325597542628842</v>
+        <v>0.04273863719270722</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0414885731218268</v>
+        <v>0.04234480092636599</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03640377640396976</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.04129360066255273</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04405701200825671</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.09954330866206393</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04360642689183862</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1561913022046938</v>
+        <v>0.09914375627784766</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04332677208726408</v>
+        <v>0.04335381191474647</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0414885731218268</v>
+        <v>0.1568918428177191</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04405701200825671</v>
+        <v>0.04353009343701662</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0414599247360815</v>
+        <v>0.04252427112965151</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03706566324767829</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.04128469372140475</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04485804859022503</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.09962482484474883</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04439927101714478</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1576828606270051</v>
+        <v>0.09872960078044385</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04411453157975978</v>
+        <v>0.04414206304046914</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0414599247360815</v>
+        <v>0.1570665433323661</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04485804859022503</v>
+        <v>0.044321549681326</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04121071050783404</v>
+        <v>0.04270128472403582</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03772755009138684</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.04126918250624879</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04565908517219332</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.09898210095372589</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04519211514245093</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1573501216595946</v>
+        <v>0.09928222688946578</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0449022910722555</v>
+        <v>0.0449303141661918</v>
       </c>
       <c r="N122" t="n">
-        <v>0.04121071050783404</v>
+        <v>0.1563031472792149</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04565908517219332</v>
+        <v>0.0451130059256354</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04114219841828927</v>
+        <v>0.04287576315807704</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03838943693509538</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.04144727345051338</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04646012175416164</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.0992159165076974</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04598495926775709</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1575944202269415</v>
+        <v>0.09880317726641169</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0456900505647512</v>
+        <v>0.04571856529191446</v>
       </c>
       <c r="N123" t="n">
-        <v>0.04114219841828927</v>
+        <v>0.1564029781011388</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04646012175416164</v>
+        <v>0.04590446216994479</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0411556564486521</v>
+        <v>0.04304762788033335</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03905132377880392</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.0411191729876271</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04726115833612993</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.09912705102536562</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04677780339306324</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1562162690925674</v>
+        <v>0.09869379858034893</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04647781005724692</v>
+        <v>0.04650681641763713</v>
       </c>
       <c r="N124" t="n">
-        <v>0.0411556564486521</v>
+        <v>0.1564673592410108</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04726115833612993</v>
+        <v>0.04669591841425418</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04115235258012739</v>
+        <v>0.04321680033936288</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03971321062251246</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.04108508755101849</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04806219491809824</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.09851628402543286</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.0475706475183694</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1568161810199942</v>
+        <v>0.09915543750034475</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04726556954974263</v>
+        <v>0.04729506754335979</v>
       </c>
       <c r="N125" t="n">
-        <v>0.04115235258012739</v>
+        <v>0.1557976141417039</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04806219491809824</v>
+        <v>0.04748737465856358</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04113355479392</v>
+        <v>0.04338320198372381</v>
       </c>
       <c r="G126" t="n">
+        <v>0.040375097466221</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.04114522357411608</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04886323150006654</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.09878439502660141</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04836349164367556</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1569946687727435</v>
+        <v>0.09878944069546644</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04805332904223834</v>
+        <v>0.04808331866908246</v>
       </c>
       <c r="N126" t="n">
-        <v>0.04113355479392</v>
+        <v>0.1568950662460913</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04886323150006654</v>
+        <v>0.04827883090287297</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04090053107123481</v>
+        <v>0.04354675426197428</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04103698430992955</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.04129978749034846</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04966426808203485</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.09883216354757357</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04915633576898171</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.156452245114337</v>
+        <v>0.09889715483478129</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04884108853473405</v>
+        <v>0.04887156979480511</v>
       </c>
       <c r="N127" t="n">
-        <v>0.04090053107123481</v>
+        <v>0.156461038997046</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04966426808203485</v>
+        <v>0.04907028714718237</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04045454939327671</v>
+        <v>0.04370737862267243</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04169887115363809</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.04114898573314414</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05046530466400315</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.09876036910705166</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04994917989428788</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1559894228082965</v>
+        <v>0.09807992658735659</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04962884802722976</v>
+        <v>0.04965982092052778</v>
       </c>
       <c r="N128" t="n">
-        <v>0.04045454939327671</v>
+        <v>0.1553968558374412</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05046530466400315</v>
+        <v>0.04986174339149176</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04039687774125053</v>
+        <v>0.0438649965143764</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04236075799734663</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.04129302473593173</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05126634124597146</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.09836979122373793</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05074202401959402</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1560067146181437</v>
+        <v>0.09833910262225964</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05041660751972547</v>
+        <v>0.05044807204625044</v>
       </c>
       <c r="N129" t="n">
-        <v>0.04039687774125053</v>
+        <v>0.15580384021015</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05126634124597146</v>
+        <v>0.05065319963580115</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04042878409636115</v>
+        <v>0.04401952938564437</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04302264484105517</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.04123211093213973</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05206737782793976</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.09836120941633467</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05153486814490018</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1561046333074005</v>
+        <v>0.09777602960855766</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05120436701222118</v>
+        <v>0.0512363231719731</v>
       </c>
       <c r="N130" t="n">
-        <v>0.04042878409636115</v>
+        <v>0.1555833155580453</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05206737782793976</v>
+        <v>0.05144465588011055</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04025153643981347</v>
+        <v>0.04417089868503449</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04368453168476371</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.04076645075519672</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05286841440990806</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.09813540320354419</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05232771227020634</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1553836916395884</v>
+        <v>0.09739205421531805</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05199212650471689</v>
+        <v>0.05202457429769577</v>
       </c>
       <c r="N131" t="n">
-        <v>0.04025153643981347</v>
+        <v>0.1545366053240004</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05286841440990806</v>
+        <v>0.05223611212441993</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03986640275281235</v>
+        <v>0.04431902586110487</v>
       </c>
       <c r="G132" t="n">
+        <v>0.04434641852847225</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.04089625063853124</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05366945099187637</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.09769315210406879</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.0531205563955125</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1547444023782292</v>
+        <v>0.097188523111608</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0527798859972126</v>
+        <v>0.05281282542341843</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03986640275281235</v>
+        <v>0.1543650329508883</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05366945099187637</v>
+        <v>0.05302756836872933</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03987465101656264</v>
+        <v>0.04446383236241371</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04500830537218079</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.04072171701557185</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05447048757384467</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.09733523563661073</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05391340052081866</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1550872782868448</v>
+        <v>0.09646678296649486</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05356764548970831</v>
+        <v>0.05360107654914109</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03987465101656264</v>
+        <v>0.1534699218815821</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05447048757384467</v>
+        <v>0.05381902461303872</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03957754921226922</v>
+        <v>0.04460523963751915</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04567019221588933</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.0405430563197471</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05527152415581298</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.09716243331987237</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05470624464612481</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1548128321289567</v>
+        <v>0.09682818044904587</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05435540498220402</v>
+        <v>0.05438932767486376</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03957754921226922</v>
+        <v>0.153652595558955</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05527152415581298</v>
+        <v>0.05461048085734812</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03947636532113699</v>
+        <v>0.04474316913497933</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04633207905959787</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.04056047498448555</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05607256073778127</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.09687552467255595</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05549908877143097</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1542215766680868</v>
+        <v>0.09587406222832834</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05514316447469973</v>
+        <v>0.05517757880058641</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03947636532113699</v>
+        <v>0.1539143774258798</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05607256073778127</v>
+        <v>0.05540193710165751</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03917236732437078</v>
+        <v>0.04487754230335238</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04699396590330641</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.04077417944321571</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05687359731974958</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.09607528921336375</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05629193289673712</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1539140246677568</v>
+        <v>0.09570577497340954</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05593092396719544</v>
+        <v>0.05596582992630909</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03917236732437078</v>
+        <v>0.1523565909252299</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05687359731974958</v>
+        <v>0.0561933933459669</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03916682320317548</v>
+        <v>0.0450082805911965</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04765585274701496</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0403843761293662</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05767463390171789</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.09596250646099813</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05708477702204329</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1546906888914883</v>
+        <v>0.09582466535335682</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05671868345969115</v>
+        <v>0.05675408105203174</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03916682320317548</v>
+        <v>0.1517805594998782</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05767463390171789</v>
+        <v>0.05698484959027629</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03876100093875597</v>
+        <v>0.04513530544706981</v>
       </c>
       <c r="G138" t="n">
+        <v>0.0483177395907235</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04019127147636552</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.0584756704836862</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.09603795593416131</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05787762114734944</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1530520821028032</v>
+        <v>0.09483208003723737</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05750644295218686</v>
+        <v>0.05754233217775441</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03876100093875597</v>
+        <v>0.1524876065926979</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0584756704836862</v>
+        <v>0.05777630583458569</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03855616851231709</v>
+        <v>0.04525853831953045</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04897962643443204</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.04009507191764225</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05927670706565449</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.09520241715155561</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.0586704652726556</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1537987170652233</v>
+        <v>0.09452936569411852</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05829420244468257</v>
+        <v>0.05833058330347707</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03855616851231709</v>
+        <v>0.1508790556465621</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05927670706565449</v>
+        <v>0.05856776207889508</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03855359390506376</v>
+        <v>0.04537790065713661</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04964151327814058</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.04029598388662491</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.0600777436476228</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.09475666963188334</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05946330939796175</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1532311065422701</v>
+        <v>0.09371786899306755</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05908196193717828</v>
+        <v>0.05911883442919974</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03855359390506376</v>
+        <v>0.1502562301043437</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0600777436476228</v>
+        <v>0.05935921832320448</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0380545450982008</v>
+        <v>0.04549331390844642</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05030340012184912</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03999421381674209</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.0608787802295911</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.0950014928938468</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.06025615352326791</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1528497632974655</v>
+        <v>0.0935989366031518</v>
       </c>
       <c r="M141" t="n">
-        <v>0.059869721429674</v>
+        <v>0.0599070855549224</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0380545450982008</v>
+        <v>0.1503204534089161</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0608787802295911</v>
+        <v>0.06015067456751386</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0379602900729331</v>
+        <v>0.04560469952201802</v>
       </c>
       <c r="G142" t="n">
+        <v>0.05096528696555766</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03978996814142234</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06167981681155941</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.09483766645614827</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06104899764857406</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1518552000943312</v>
+        <v>0.09357391519343849</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06065748092216969</v>
+        <v>0.06069533668064506</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0379602900729331</v>
+        <v>0.1496730490031521</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06167981681155941</v>
+        <v>0.06094213081182326</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03757209681046556</v>
+        <v>0.04571197894640957</v>
       </c>
       <c r="G143" t="n">
+        <v>0.0516271738092662</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03968345329409419</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06248085339352771</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.09426596983749</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06184184177388023</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1511479296963888</v>
+        <v>0.09264415143299493</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06144524041466541</v>
+        <v>0.06148358780636772</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03757209681046556</v>
+        <v>0.1498153403299249</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06248085339352771</v>
+        <v>0.06173358705613265</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03759123329200301</v>
+        <v>0.04581507363017922</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05228906065297474</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.0395748757081862</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06328188997549601</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.09378718255657434</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06263468589918637</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1517284648671603</v>
+        <v>0.0929109919908884</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06223299990716112</v>
+        <v>0.06227183893209039</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03759123329200301</v>
+        <v>0.1492486508321076</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06328188997549601</v>
+        <v>0.06252504330044203</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03721896749875034</v>
+        <v>0.04591390502188512</v>
       </c>
       <c r="G145" t="n">
+        <v>0.05295094749668328</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.03966444181712692</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06408292655746432</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.09280208413210356</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06342753002449253</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1512973183701672</v>
+        <v>0.09237578353618622</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06302075939965683</v>
+        <v>0.06306009005781306</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03721896749875034</v>
+        <v>0.1485743039525734</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06408292655746432</v>
+        <v>0.06331649954475144</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0372565674119124</v>
+        <v>0.04600839457008542</v>
       </c>
       <c r="G146" t="n">
+        <v>0.05361283434039182</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03965235805434492</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06488396313943262</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.09251145408277997</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06422037414979868</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1511550029689314</v>
+        <v>0.09173987273795564</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06380851889215255</v>
+        <v>0.06384834118353572</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0372565674119124</v>
+        <v>0.1470936231341953</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06488396313943262</v>
+        <v>0.06410795578906082</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03730530101269411</v>
+        <v>0.04609846372333829</v>
       </c>
       <c r="G147" t="n">
+        <v>0.05427472118410036</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.03933883085326872</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06568499972140093</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.09221607192730583</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06501321827510484</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1507020314269746</v>
+        <v>0.09100460626526397</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06459627838464825</v>
+        <v>0.06463659230925838</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03730530101269411</v>
+        <v>0.1468079318198462</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06568499972140093</v>
+        <v>0.06489941203337023</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03716643628230028</v>
+        <v>0.04618403393020187</v>
       </c>
       <c r="G148" t="n">
+        <v>0.05493660802780891</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.0395240666473269</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06648603630336923</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.09201671718438348</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06580606240041101</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1490389165078184</v>
+        <v>0.09117133078717843</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06538403787714396</v>
+        <v>0.06542484343498103</v>
       </c>
       <c r="N148" t="n">
-        <v>0.03716643628230028</v>
+        <v>0.1463185534523995</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06648603630336923</v>
+        <v>0.06569086827767961</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03704124120193583</v>
+        <v>0.04626502663923428</v>
       </c>
       <c r="G149" t="n">
+        <v>0.05559849487151745</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03940827186994801</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06728707288533753</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.09151416937271517</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06659890652571716</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1494661709749846</v>
+        <v>0.09054139297276642</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06617179736963967</v>
+        <v>0.06621309456070371</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03704124120193583</v>
+        <v>0.1448268114747281</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06728707288533753</v>
+        <v>0.06648232452198902</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03682790692074607</v>
+        <v>0.04634136329899371</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05626038171522599</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.03909165295456057</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06808810946730584</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.09160920801100322</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06739175065102332</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1488843075919951</v>
+        <v>0.08961613949109512</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06695955686213539</v>
+        <v>0.06700134568642636</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03682790692074607</v>
+        <v>0.1450340293297053</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06808810946730584</v>
+        <v>0.06727378076629839</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03642016867624866</v>
+        <v>0.04641296535803831</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05692226855893453</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.03917441633459319</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06888914604927414</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.0907026126179499</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06818459477632947</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1486938391223714</v>
+        <v>0.0890969170112319</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0677473163546311</v>
+        <v>0.06778959681214902</v>
       </c>
       <c r="N151" t="n">
-        <v>0.03642016867624866</v>
+        <v>0.1443415304602038</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06888914604927414</v>
+        <v>0.06806523701060779</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03631753093276191</v>
+        <v>0.0464797542649262</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05758415540264307</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.03865676844347438</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06969018263124245</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.09069516271225753</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06897743890163563</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1476952783296354</v>
+        <v>0.08898507220224403</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0685350758471268</v>
+        <v>0.06857784793787169</v>
       </c>
       <c r="N152" t="n">
-        <v>0.03631753093276191</v>
+        <v>0.1430506383090971</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06969018263124245</v>
+        <v>0.06885669325491718</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03651972149784193</v>
+        <v>0.04654165146821556</v>
       </c>
       <c r="G153" t="n">
+        <v>0.0582460422463516</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.0389389157146327</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.07049121921321075</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.0903876378126284</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06977028302694178</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1474891379773088</v>
+        <v>0.08828195173319875</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06932283533962251</v>
+        <v>0.06936609906359437</v>
       </c>
       <c r="N153" t="n">
-        <v>0.03651972149784193</v>
+        <v>0.1425626763192581</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07049121921321075</v>
+        <v>0.06964814949922658</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03622646817904479</v>
+        <v>0.04659857841646454</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05890792909006016</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0388210645814967</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07129225579517906</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.08988081743776474</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.07056312715224795</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1461759308289133</v>
+        <v>0.08818890227316337</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07011059483211823</v>
+        <v>0.07015435018931702</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03622646817904479</v>
+        <v>0.1423789679335598</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07129225579517906</v>
+        <v>0.07043960574353597</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03613749878392658</v>
+        <v>0.04665045655823127</v>
       </c>
       <c r="G155" t="n">
+        <v>0.0595698159337687</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03830342147749495</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07209329237714736</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.08937548110636895</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07135597127755411</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1455561696479706</v>
+        <v>0.0874072704912052</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07089835432461394</v>
+        <v>0.07094260131503968</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03613749878392658</v>
+        <v>0.1418008365948755</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07209329237714736</v>
+        <v>0.07123106198784537</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03605254112004339</v>
+        <v>0.04669720734207392</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06023170277747723</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.03858619283605597</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07289432895911566</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.08837240833714322</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07214881540286026</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1449303671980025</v>
+        <v>0.0877384030563915</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07168611381710965</v>
+        <v>0.07173085244076234</v>
       </c>
       <c r="N156" t="n">
-        <v>0.03605254112004339</v>
+        <v>0.1419296057460782</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07289432895911566</v>
+        <v>0.07202251823215475</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03587132299495129</v>
+        <v>0.04673875221655063</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06089358962118577</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03836958509060834</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07369536554108397</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.08857237864878995</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07294165952816641</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1453990362425306</v>
+        <v>0.08718364663778955</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07247387330960535</v>
+        <v>0.07251910356648501</v>
       </c>
       <c r="N157" t="n">
-        <v>0.03587132299495129</v>
+        <v>0.1404665988300409</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07369536554108397</v>
+        <v>0.07281397447646415</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0357935722162064</v>
+        <v>0.04677501263021955</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06155547646489432</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03834983949540866</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07449640212305227</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.08797108614924992</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07373450365347256</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.144062689545077</v>
+        <v>0.0867382404152926</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07326163280210107</v>
+        <v>0.07330735469220767</v>
       </c>
       <c r="N158" t="n">
-        <v>0.0357935722162064</v>
+        <v>0.1397027973755094</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07449640212305227</v>
+        <v>0.07360543072077354</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03611901659136477</v>
+        <v>0.04680591003163884</v>
       </c>
       <c r="G159" t="n">
+        <v>0.06221736330860286</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03792081827107087</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07529743870502058</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.0872346292763595</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07452734777877873</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.143721839869163</v>
+        <v>0.08619258149601441</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07404939229459678</v>
+        <v>0.07409560581793033</v>
       </c>
       <c r="N159" t="n">
-        <v>0.03611901659136477</v>
+        <v>0.139921668002728</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07529743870502058</v>
+        <v>0.07439688696508294</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03584738392798251</v>
+        <v>0.04683136586936667</v>
       </c>
       <c r="G160" t="n">
+        <v>0.0628792501523114</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03798289998501383</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07609847528698888</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.08745863993867209</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07532019190408488</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1437769999783106</v>
+        <v>0.08574645099781428</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07483715178709249</v>
+        <v>0.074883856943653</v>
       </c>
       <c r="N160" t="n">
-        <v>0.03584738392798251</v>
+        <v>0.1398233993328567</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07609847528698888</v>
+        <v>0.07518834320939233</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.0359784020336157</v>
+        <v>0.04685130159196114</v>
       </c>
       <c r="G161" t="n">
+        <v>0.06354113699601995</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03773655784549494</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07689951186895719</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.08664558566650393</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07611303602939104</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1435286826360414</v>
+        <v>0.08559977881604114</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07562491127958819</v>
+        <v>0.07567210806937566</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0359784020336157</v>
+        <v>0.1382084519171937</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07689951186895719</v>
+        <v>0.07597979945370173</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03581179871582044</v>
+        <v>0.04686563864798043</v>
       </c>
       <c r="G162" t="n">
+        <v>0.06420302383972848</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.03748226506077158</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07770054845092549</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.08619793399017142</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.0769058801546972</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1421774006058772</v>
+        <v>0.08495249484604395</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07641267077208391</v>
+        <v>0.07646035919509833</v>
       </c>
       <c r="N162" t="n">
-        <v>0.03581179871582044</v>
+        <v>0.1380772863070368</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07770054845092549</v>
+        <v>0.07677125569801112</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03544730178215279</v>
+        <v>0.0468742984859827</v>
       </c>
       <c r="G163" t="n">
+        <v>0.06486491068343703</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.03732049483910109</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.0785015850328938</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.08591815243999079</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07769872428000335</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1414236666513398</v>
+        <v>0.08460452898317172</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07720043026457962</v>
+        <v>0.07724861032082099</v>
       </c>
       <c r="N163" t="n">
-        <v>0.03544730178215279</v>
+        <v>0.1372303630536839</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0785015850328938</v>
+        <v>0.07756271194232051</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03568463904016883</v>
+        <v>0.04687720255452609</v>
       </c>
       <c r="G164" t="n">
+        <v>0.06552679752714556</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.03715172038874086</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.0793026216148621</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.08510870854627839</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07849156840530952</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1417679935359508</v>
+        <v>0.08435581112277343</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07798818975707533</v>
+        <v>0.07803686144654365</v>
       </c>
       <c r="N164" t="n">
-        <v>0.03568463904016883</v>
+        <v>0.1367681427084328</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0793026216148621</v>
+        <v>0.07835416818662989</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03542353829742469</v>
+        <v>0.04687720255452609</v>
       </c>
       <c r="G165" t="n">
+        <v>0.06552679752714556</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.0369764149179483</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.08010365819683039</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.08437206983935047</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07928441253061567</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.140010894023232</v>
+        <v>0.08470627116019805</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07877594924957104</v>
+        <v>0.07882511257226631</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03542353829742469</v>
+        <v>0.1365910858225817</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08010365819683039</v>
+        <v>0.0791456244309393</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0356637273614764</v>
+        <v>0.04607401717233685</v>
       </c>
       <c r="G166" t="n">
+        <v>0.06552652899868154</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.03689505163498073</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08090469477879871</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.08321070384952342</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.08007725665592183</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1395528808767051</v>
+        <v>0.0844558389907944</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07956370874206675</v>
+        <v>0.07961336369798898</v>
       </c>
       <c r="N166" t="n">
-        <v>0.0356637273614764</v>
+        <v>0.1349996529474282</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08090469477879871</v>
+        <v>0.07993708067524868</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03530493403988012</v>
+        <v>0.04527988234370647</v>
       </c>
       <c r="G167" t="n">
+        <v>0.06552626047021753</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.03690810374809556</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08170573136076702</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.08312707810711348</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08087010078122799</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.139594466859892</v>
+        <v>0.08360444450991164</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08035146823456246</v>
+        <v>0.08040161482371164</v>
       </c>
       <c r="N167" t="n">
-        <v>0.03530493403988012</v>
+        <v>0.1349943046342703</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08170573136076702</v>
+        <v>0.08072853691955809</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03534688614019185</v>
+        <v>0.04449523589550933</v>
       </c>
       <c r="G168" t="n">
+        <v>0.0655259919417535</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.03641604446555015</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08250676794273532</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.08172366014243695</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08166294490653414</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1387361647363142</v>
+        <v>0.08295201761289858</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08113922772705817</v>
+        <v>0.0811898659494343</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03534688614019185</v>
+        <v>0.1339755014344058</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08250676794273532</v>
+        <v>0.08151999316386747</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03508931146996777</v>
+        <v>0.04372051565472224</v>
       </c>
       <c r="G169" t="n">
+        <v>0.06552572341328949</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.03621934699560189</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08330780452470361</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.08170291748581013</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.0824557890318403</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1390784872694935</v>
+        <v>0.08339848819510431</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08192698721955388</v>
+        <v>0.08197811707515697</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03508931146996777</v>
+        <v>0.1334437038991327</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08330780452470361</v>
+        <v>0.08231144940817688</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03513193783676388</v>
+        <v>0.0429561594482192</v>
       </c>
       <c r="G170" t="n">
+        <v>0.06552545488482547</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.03601848454650816</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08410884110667191</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.08026731766754938</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08324863315714645</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1374219472229517</v>
+        <v>0.08274378615187775</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08271474671204959</v>
+        <v>0.08276636820087964</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03513193783676388</v>
+        <v>0.1318993725797489</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08410884110667191</v>
+        <v>0.08310290565248625</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03497449304813632</v>
+        <v>0.04220260510290862</v>
       </c>
       <c r="G171" t="n">
+        <v>0.06552518635636147</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.03611393032652632</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08490987768864022</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.08001932821797098</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08404147728245261</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1379670573602105</v>
+        <v>0.0821878413785678</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0835025062045453</v>
+        <v>0.0835546193266023</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03497449304813632</v>
+        <v>0.1308429680275523</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08490987768864022</v>
+        <v>0.08389436189679565</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03521670491164115</v>
+        <v>0.04146029044566688</v>
       </c>
       <c r="G172" t="n">
+        <v>0.06552491782789743</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.03560615754391376</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08571091427060853</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.07956141666739122</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08483432140775876</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.136313934966376</v>
+        <v>0.08193058377052354</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08429026569704101</v>
+        <v>0.08434287045232496</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03521670491164115</v>
+        <v>0.1305749507938406</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08571091427060853</v>
+        <v>0.08468581814110504</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03525830123483446</v>
+        <v>0.04072965330346701</v>
       </c>
       <c r="G173" t="n">
+        <v>0.06552464929943343</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.03529563940692784</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08651195085257683</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.07819605054612638</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08562716553306492</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.136646469158228</v>
+        <v>0.08107194322309386</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08507802518953672</v>
+        <v>0.08513112157804761</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03525830123483446</v>
+        <v>0.129795781429912</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08651195085257683</v>
+        <v>0.08547727438541444</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03519900982527238</v>
+        <v>0.04001113150318484</v>
       </c>
       <c r="G174" t="n">
+        <v>0.06552438077096941</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.03548284912382597</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08731298743454513</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.07802569738449286</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08642000965837107</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1355558444889313</v>
+        <v>0.08131184963162774</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08586578468203243</v>
+        <v>0.08591937270377029</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03519900982527238</v>
+        <v>0.1295059204870642</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08731298743454513</v>
+        <v>0.08626873062972383</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03473855849051093</v>
+        <v>0.0393051628717288</v>
       </c>
       <c r="G175" t="n">
+        <v>0.06552411224250539</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.03506825990286547</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08811402401651343</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.07645282471280682</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08721285378367724</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1347418124840756</v>
+        <v>0.08125023289147415</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08665354417452815</v>
+        <v>0.08670762382949294</v>
       </c>
       <c r="N175" t="n">
-        <v>0.03473855849051093</v>
+        <v>0.127905828516595</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08811402401651343</v>
+        <v>0.08706018687403323</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03487667503810622</v>
+        <v>0.03861218523597743</v>
       </c>
       <c r="G176" t="n">
+        <v>0.06552384371404137</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.03495234495230376</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08891506059848175</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.07637990006138468</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.0880056979089834</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1342041246692511</v>
+        <v>0.07998702289798207</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08744130366702385</v>
+        <v>0.0874958749552156</v>
       </c>
       <c r="N176" t="n">
-        <v>0.03487667503810622</v>
+        <v>0.1273959660698026</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08891506059848175</v>
+        <v>0.08785164311834262</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03501308727561435</v>
+        <v>0.03793263642289946</v>
       </c>
       <c r="G177" t="n">
+        <v>0.06552357518557735</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.03453557748039823</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08971609718045005</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.07540939096054269</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08879854203428955</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1340425325700477</v>
+        <v>0.08032214954650049</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08822906315951956</v>
+        <v>0.08828412608093827</v>
       </c>
       <c r="N177" t="n">
-        <v>0.03501308727561435</v>
+        <v>0.1263767936979847</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08971609718045005</v>
+        <v>0.08864309936265201</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0349475230105914</v>
+        <v>0.03726695425937287</v>
       </c>
       <c r="G178" t="n">
+        <v>0.06552330665711334</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.03461843069540621</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09051713376241835</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.07414376494059721</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08959138615959571</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1335567877120555</v>
+        <v>0.07945554273237831</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08901682265201527</v>
+        <v>0.08907237720666093</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0349475230105914</v>
+        <v>0.126648771952439</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09051713376241835</v>
+        <v>0.0894345556069614</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03477971005059345</v>
+        <v>0.03661557657230605</v>
       </c>
       <c r="G179" t="n">
+        <v>0.06552303812864932</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.0344013778055851</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09131817034438665</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.07428548953186451</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.09038423028490186</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1323466416208642</v>
+        <v>0.07958713235096451</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08980458214451099</v>
+        <v>0.0898606283323836</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03477971005059345</v>
+        <v>0.1255123613844638</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09131817034438665</v>
+        <v>0.0902260118512708</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03460937620317658</v>
+        <v>0.03597894118858003</v>
       </c>
       <c r="G180" t="n">
+        <v>0.0655227696001853</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.03378489201919227</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09211920692635496</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.07303703226466085</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09117707441020802</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.131611845822064</v>
+        <v>0.07901684829760808</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0905923416370067</v>
+        <v>0.09064887945810626</v>
       </c>
       <c r="N180" t="n">
-        <v>0.03460937620317658</v>
+        <v>0.1240680225453567</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09211920692635496</v>
+        <v>0.09101746809558019</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03453624927589691</v>
+        <v>0.03535748593515867</v>
       </c>
       <c r="G181" t="n">
+        <v>0.06552250107172128</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.0335694465444851</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09292024350832327</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.07230086066930261</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09196991853551417</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.130152151841245</v>
+        <v>0.07874462046765801</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0913801011295024</v>
+        <v>0.09143713058382892</v>
       </c>
       <c r="N181" t="n">
-        <v>0.03453624927589691</v>
+        <v>0.1233162159864157</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09292024350832327</v>
+        <v>0.09180892433988959</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03446005707631049</v>
+        <v>0.03475164863892233</v>
       </c>
       <c r="G182" t="n">
+        <v>0.06552223254325727</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.03345551458972096</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09372128009029157</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.07157944227610605</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09276276266082033</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.130267311203997</v>
+        <v>0.07857037875646322</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09216786062199811</v>
+        <v>0.09222538170955158</v>
       </c>
       <c r="N182" t="n">
-        <v>0.03446005707631049</v>
+        <v>0.1232574022589388</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09372128009029157</v>
+        <v>0.09260038058419898</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03458052741197344</v>
+        <v>0.03416186712677941</v>
       </c>
       <c r="G183" t="n">
+        <v>0.06552196401479325</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.03324356936315727</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09452231667225987</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.07117524461538746</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09355560678612648</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1295570754359101</v>
+        <v>0.07749405305937268</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09295562011449383</v>
+        <v>0.09301363283527425</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03458052741197344</v>
+        <v>0.1209920419142237</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09452231667225987</v>
+        <v>0.09339183682850836</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0344973880904418</v>
+        <v>0.03358857922561376</v>
       </c>
       <c r="G184" t="n">
+        <v>0.06552169548632923</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.03313408407305132</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09532335325422818</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.07029073521746321</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09434845091143264</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1275211960625741</v>
+        <v>0.07781557327173538</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09374337960698954</v>
+        <v>0.09380188396099691</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0344973880904418</v>
+        <v>0.1210205955035683</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09532335325422818</v>
+        <v>0.09418329307281775</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0341103669192717</v>
+        <v>0.03303222276238369</v>
       </c>
       <c r="G185" t="n">
+        <v>0.06552142695786521</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.03272753192766056</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09612438983619648</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.06912838161264956</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09514129503673879</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1266594246095792</v>
+        <v>0.07683486928890026</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09453113909948525</v>
+        <v>0.09459013508671958</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0341103669192717</v>
+        <v>0.1201435235782706</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09612438983619648</v>
+        <v>0.09497474931712716</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0339191917060192</v>
+        <v>0.03249323556397229</v>
       </c>
       <c r="G186" t="n">
+        <v>0.06552115842940121</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.03282438613524233</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09692542641816479</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.0690906513312628</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09593413916204496</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1261715126025154</v>
+        <v>0.07695187100621628</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09531889859198095</v>
+        <v>0.09537838621244224</v>
       </c>
       <c r="N186" t="n">
-        <v>0.0339191917060192</v>
+        <v>0.1184612866896285</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09692542641816479</v>
+        <v>0.09576620556143654</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03392359025824039</v>
+        <v>0.03197205545728798</v>
       </c>
       <c r="G187" t="n">
+        <v>0.06552088990093718</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.03232511990405403</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09772646300013309</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.06858001190361926</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09672698328735112</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1253572115669724</v>
+        <v>0.07616650831903246</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09610665808447667</v>
+        <v>0.09616663733816491</v>
       </c>
       <c r="N187" t="n">
-        <v>0.03392359025824039</v>
+        <v>0.1176743453889398</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09772646300013309</v>
+        <v>0.09655766180574595</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03392329038349137</v>
+        <v>0.03146912026921766</v>
       </c>
       <c r="G188" t="n">
+        <v>0.06552062137247316</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.032430206442353</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09852749958210139</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.06739893086003526</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09751982741265727</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1243162730285405</v>
+        <v>0.07547871112269772</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09689441757697238</v>
+        <v>0.09695488846388757</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03392329038349137</v>
+        <v>0.1175831602275025</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09852749958210139</v>
+        <v>0.09734911805005533</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03371801988932822</v>
+        <v>0.03098486782671358</v>
       </c>
       <c r="G189" t="n">
+        <v>0.06552035284400914</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.03214011895839665</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.0993285361640697</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.06714987573082706</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09831267153796343</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1234484485128096</v>
+        <v>0.07548840931256107</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09768217706946809</v>
+        <v>0.09774313958961023</v>
       </c>
       <c r="N189" t="n">
-        <v>0.03371801988932822</v>
+        <v>0.1171881917566144</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0993285361640697</v>
+        <v>0.09814057429436474</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03370750658330703</v>
+        <v>0.0305179481634523</v>
       </c>
       <c r="G190" t="n">
+        <v>0.06552008431554512</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.03185533066044235</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.100129572746038</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.06683531404631102</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09910551566326958</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1221534895453696</v>
+        <v>0.07469553278397142</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0984699365619638</v>
+        <v>0.09853139071533289</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03370750658330703</v>
+        <v>0.1158899005275734</v>
       </c>
       <c r="O190" t="n">
-        <v>0.100129572746038</v>
+        <v>0.09893203053867411</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03349147827298386</v>
+        <v>0.03005807234708615</v>
       </c>
       <c r="G191" t="n">
+        <v>0.06551981578708112</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.03157631475674749</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1009306093280063</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.06575771333680333</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09989835978857575</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.1220311476518106</v>
+        <v>0.07460001143227774</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09925769605445951</v>
+        <v>0.09931964184105556</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03349147827298386</v>
+        <v>0.1146887470916775</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1009306093280063</v>
+        <v>0.09972348678298351</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03366966276591485</v>
+        <v>0.02960389041129471</v>
       </c>
       <c r="G192" t="n">
+        <v>0.06551954725861708</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.0317035444555694</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1017316459099746</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.06621954113262044</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.1006912039138819</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.120179930604972</v>
+        <v>0.07400177515282905</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1000454555469552</v>
+        <v>0.1001078929667782</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03366966276591485</v>
+        <v>0.1139851920002244</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1017316459099746</v>
+        <v>0.1005149430272929</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03334178786965603</v>
+        <v>0.02915584018302592</v>
       </c>
       <c r="G193" t="n">
+        <v>0.06551927873015308</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.03143531213508959</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1025326824919429</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.06502326496407859</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.101484048039188</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1200238298323331</v>
+        <v>0.07400151140998881</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1008332150394509</v>
+        <v>0.1008961440925009</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03334178786965603</v>
+        <v>0.1120469202076755</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1025326824919429</v>
+        <v>0.1013063992716023</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03340758139176353</v>
+        <v>0.0287143594891683</v>
       </c>
       <c r="G194" t="n">
+        <v>0.06551901020168906</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.03106908690442568</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1033337190739112</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.06487135236149408</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1022768921644942</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1178273193986727</v>
+        <v>0.07320007418091695</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1016209745319466</v>
+        <v>0.1016843952182235</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03340758139176353</v>
+        <v>0.1114370553403398</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1033337190739112</v>
+        <v>0.1020978555159117</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03306677113979338</v>
+        <v>0.02827988615663028</v>
       </c>
       <c r="G195" t="n">
+        <v>0.06551874167322505</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.03110477110763618</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1041347556558795</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.06436627085518321</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1030697362898004</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1160033414685969</v>
+        <v>0.07349737230132655</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1024087340244424</v>
+        <v>0.1024726463439462</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03306677113979338</v>
+        <v>0.1101608064398266</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1041347556558795</v>
+        <v>0.1028893117602211</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03281908492130173</v>
+        <v>0.0278528580123018</v>
       </c>
       <c r="G196" t="n">
+        <v>0.06551847314476102</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.03114227289441912</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1049357922378478</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.06430743675374029</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1038625804151065</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.1153648382067118</v>
+        <v>0.07299331195677711</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1031964935169381</v>
+        <v>0.1032608974696689</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03281908492130173</v>
+        <v>0.1094234927472085</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1049357922378478</v>
+        <v>0.1036807680045305</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03256425054384464</v>
+        <v>0.02743371288312851</v>
       </c>
       <c r="G197" t="n">
+        <v>0.06551820461629701</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.03058150041447244</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1057368288198161</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.06457299483645429</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1046554245404127</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.1139247517776233</v>
+        <v>0.07238779933282821</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1039842530094338</v>
+        <v>0.1040491485953915</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03256425054384464</v>
+        <v>0.1090304335035585</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1057368288198161</v>
+        <v>0.1044722242488399</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03240199581497819</v>
+        <v>0.02702288859600002</v>
       </c>
       <c r="G198" t="n">
+        <v>0.06551793608783299</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.03072236181749417</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1065378654017844</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.0642567914392585</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1054482686657188</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1112960243459376</v>
+        <v>0.07228074061503958</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1047720125019295</v>
+        <v>0.1048373997211142</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03240199581497819</v>
+        <v>0.1064869479499493</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1065378654017844</v>
+        <v>0.1052636804931493</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03223204854225849</v>
+        <v>0.02662082297782476</v>
       </c>
       <c r="G199" t="n">
+        <v>0.06551766755936898</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.03066476525318228</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1073389019837527</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.06375715385819253</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.106241112791025</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.1102915980762605</v>
+        <v>0.07167204198897065</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1055597719944252</v>
+        <v>0.1056256508468369</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03223204854225849</v>
+        <v>0.1050983553274539</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1073389019837527</v>
+        <v>0.1060551367374587</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03241830061053994</v>
+        <v>0.02622795385549422</v>
       </c>
       <c r="G200" t="n">
+        <v>0.06551739903090495</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03010861887123475</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.108139938565721</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.06357240938929587</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1070339569163312</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1086244151331983</v>
+        <v>0.07066160964018101</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1063475314869209</v>
+        <v>0.1064139019725595</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03241830061053994</v>
+        <v>0.1044699748771451</v>
       </c>
       <c r="O200" t="n">
-        <v>0.108139938565721</v>
+        <v>0.106846592981768</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03195567984007293</v>
+        <v>0.02584471905595107</v>
       </c>
       <c r="G201" t="n">
+        <v>0.06551713050244094</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.03025383082134958</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1089409751476893</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.06350088532860801</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1078268010416373</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1061074176813568</v>
+        <v>0.07074934975423028</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1071352909794166</v>
+        <v>0.1072021530982822</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03195567984007293</v>
+        <v>0.1026071258400958</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1089409751476893</v>
+        <v>0.1076380492260774</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0315596885920643</v>
+        <v>0.02547155640608637</v>
       </c>
       <c r="G202" t="n">
+        <v>0.06551686197397692</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03000030925322476</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1097420117296576</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.06294090897216856</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1086196451669435</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.1039535478853422</v>
+        <v>0.07073516851667808</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1079230504719123</v>
+        <v>0.1079904042240049</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0315596885920643</v>
+        <v>0.1024151274573787</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1097420117296576</v>
+        <v>0.1084295054703868</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03085525487885526</v>
+        <v>0.02510890373280856</v>
       </c>
       <c r="G203" t="n">
+        <v>0.0655165934455129</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.03004796231655829</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.110543048311626</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.06289080761601695</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1094124892922496</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.1020757479097605</v>
+        <v>0.06951897211308389</v>
       </c>
       <c r="M203" t="n">
-        <v>0.108710809964408</v>
+        <v>0.1087786553497275</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03085525487885526</v>
+        <v>0.1001992989700667</v>
       </c>
       <c r="O203" t="n">
-        <v>0.110543048311626</v>
+        <v>0.1092209617146962</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02986730671278708</v>
+        <v>0.02475719886301096</v>
       </c>
       <c r="G204" t="n">
+        <v>0.06551632491704888</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02989669816104813</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1113440848935943</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.0634489085561927</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1102053334175558</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.1001869599192176</v>
+        <v>0.06970066672900729</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1094985694569038</v>
+        <v>0.1095669064754502</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02986730671278708</v>
+        <v>0.09846495961923285</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1113440848935943</v>
+        <v>0.1100124179590056</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02932077210620097</v>
+        <v>0.02441687962363261</v>
       </c>
       <c r="G205" t="n">
+        <v>0.06551605638858486</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02954642493639228</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1121451214755625</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.06241353908873537</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1109981775428619</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.09810012607831964</v>
+        <v>0.06938015855000798</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1102863289493995</v>
+        <v>0.1103551576011728</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02932077210620097</v>
+        <v>0.0980174286459497</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1121451214755625</v>
+        <v>0.110803874203315</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02864057907143815</v>
+        <v>0.02408838384156637</v>
       </c>
       <c r="G206" t="n">
+        <v>0.06551578786012086</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02949705079228876</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1129461580575309</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.06278302650968451</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1117910216681681</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.09612818855167271</v>
+        <v>0.06905735376164543</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1110740884418952</v>
+        <v>0.1111434087268955</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02864057907143815</v>
+        <v>0.09556202529129026</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1129461580575309</v>
+        <v>0.1115953304476244</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0275516556208399</v>
+        <v>0.02377214934372065</v>
       </c>
       <c r="G207" t="n">
+        <v>0.06551551933165684</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02944848387843554</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1137471946394992</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.06235569811507954</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1125838657934742</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.09478408950388273</v>
+        <v>0.06863215854947921</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1118618479343909</v>
+        <v>0.1119316598526182</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0275516556208399</v>
+        <v>0.09480406879632736</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1137471946394992</v>
+        <v>0.1123867866919338</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02687892976674741</v>
+        <v>0.02346861395699093</v>
       </c>
       <c r="G208" t="n">
+        <v>0.06551525080319281</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02910063234453057</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1145482312214675</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.06262988120096005</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1133767099187804</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.09218077109955586</v>
+        <v>0.067604479099069</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1126496074268866</v>
+        <v>0.1127199109783408</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02687892976674741</v>
+        <v>0.09364887840213371</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1145482312214675</v>
+        <v>0.1131782429362432</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02634732952150193</v>
+        <v>0.02317821550831205</v>
       </c>
       <c r="G209" t="n">
+        <v>0.06551498227472879</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.0291534043402719</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1153492678034358</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.06200390306336548</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1141695540440866</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.09073117550329801</v>
+        <v>0.06707422159597426</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1134373669193823</v>
+        <v>0.1135081621040635</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02634732952150193</v>
+        <v>0.0913017733497824</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1153492678034358</v>
+        <v>0.1139696991805526</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02548178289744472</v>
+        <v>0.02290139182457893</v>
       </c>
       <c r="G210" t="n">
+        <v>0.06551471374626479</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02870670801535749</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1161503043854041</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.06177609099833542</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1149623981693927</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.08924824487971528</v>
+        <v>0.06684129222575466</v>
       </c>
       <c r="M210" t="n">
-        <v>0.114225126411878</v>
+        <v>0.1142964132297862</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02548178289744472</v>
+        <v>0.09056807288034607</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1161503043854041</v>
+        <v>0.114761155424862</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02520721790691696</v>
+        <v>0.02263858073269998</v>
       </c>
       <c r="G211" t="n">
+        <v>0.06551444521780077</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02886045151948531</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1169513409673724</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.06234477230190938</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1157552422946989</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.0869449213934137</v>
+        <v>0.06670559717396971</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1150128859043737</v>
+        <v>0.1150846643555088</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02520721790691696</v>
+        <v>0.08905309623489771</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1169513409673724</v>
+        <v>0.1155526116691714</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02474856256225993</v>
+        <v>0.02239022005957312</v>
       </c>
       <c r="G212" t="n">
+        <v>0.06551417668933675</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.02851454300235338</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1177523775493407</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.06170827427012687</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.116548086420005</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.08593414720899922</v>
+        <v>0.06616704262617903</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1158006453968694</v>
+        <v>0.1158729154812315</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02474856256225993</v>
+        <v>0.08776216265451003</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1177523775493407</v>
+        <v>0.1163440679134808</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02403074487581486</v>
+        <v>0.02215674763212838</v>
       </c>
       <c r="G213" t="n">
+        <v>0.06551390816087273</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.02856889061365968</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.118553414131309</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.0615649241990274</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1173409305453112</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.08392886449107811</v>
+        <v>0.06572553476794218</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1165884048893651</v>
+        <v>0.1166611666069541</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02403074487581486</v>
+        <v>0.08540059138025607</v>
       </c>
       <c r="O213" t="n">
-        <v>0.118553414131309</v>
+        <v>0.1171355241577902</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02427869285992294</v>
+        <v>0.02193860127726304</v>
       </c>
       <c r="G214" t="n">
+        <v>0.06551363963240871</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02812340250310222</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1193544507132773</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.06151304938465055</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1181337746706174</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.08204201540425604</v>
+        <v>0.06508097978481878</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1173761643818609</v>
+        <v>0.1174494177326768</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02427869285992294</v>
+        <v>0.08427370165320858</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1193544507132773</v>
+        <v>0.1179269804020995</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02423076604993991</v>
+        <v>0.02193860127726305</v>
       </c>
       <c r="G215" t="n">
+        <v>0.06551363963240871</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02807798682037893</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1201554872952456</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.06145097712303568</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1189266187959235</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.0807865421131394</v>
+        <v>0.06423328386236826</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1181639238743566</v>
+        <v>0.1182376688583995</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02423076604993991</v>
+        <v>0.08298681271444019</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1201554872952456</v>
+        <v>0.118718436646409</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02398460927983799</v>
+        <v>0.02138282917826247</v>
       </c>
       <c r="G216" t="n">
+        <v>0.06543120945530784</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02803255171518784</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1209565238772139</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.06107703471022247</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1197194629212297</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.08047538678233407</v>
+        <v>0.06448235318615042</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1189516833668523</v>
+        <v>0.1190259199841221</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02398460927983799</v>
+        <v>0.08284524380502406</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1209565238772139</v>
+        <v>0.1195098928907183</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02403978338432196</v>
+        <v>0.02083340330107566</v>
       </c>
       <c r="G217" t="n">
+        <v>0.06534877927820697</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02798700533722698</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1217575604591822</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.0612895494422504</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1205123070465358</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.07982149157644597</v>
+        <v>0.06392809394172469</v>
       </c>
       <c r="M217" t="n">
-        <v>0.119739442859348</v>
+        <v>0.1198141711098448</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02403978338432196</v>
+        <v>0.08155431416603293</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1217575604591822</v>
+        <v>0.1203013491350277</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0239962723969783</v>
+        <v>0.02029065207981982</v>
       </c>
       <c r="G218" t="n">
+        <v>0.0652663491011061</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02744125583619425</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1225585970411505</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.06058684861515892</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.121305151171842</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.07846995083421165</v>
+        <v>0.06287041231465068</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1205272023518437</v>
+        <v>0.1206024222355675</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0239962723969783</v>
+        <v>0.07911934303853968</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1225585970411505</v>
+        <v>0.1210928053793371</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02375406035139349</v>
+        <v>0.01975490394861216</v>
       </c>
       <c r="G219" t="n">
+        <v>0.06518391892400521</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02759521136178771</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1233596336231188</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.06096725952498763</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1220979952971481</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.07722400556283138</v>
+        <v>0.06290921449048797</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1213149618443394</v>
+        <v>0.1213906733612901</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02375406035139349</v>
+        <v>0.07834564966361701</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1233596336231188</v>
+        <v>0.1218842616236465</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02361313128115397</v>
+        <v>0.01922648734156995</v>
       </c>
       <c r="G220" t="n">
+        <v>0.06510148874690436</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02734878006370528</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1241606702050871</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.06042910946777597</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1228908394224543</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.07608325077100403</v>
+        <v>0.06214440665479615</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1221027213368351</v>
+        <v>0.1221789244870128</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02361313128115397</v>
+        <v>0.07833855328233791</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1241606702050871</v>
+        <v>0.1226757178679559</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02367346921984625</v>
+        <v>0.01870573069281023</v>
       </c>
       <c r="G221" t="n">
+        <v>0.06501905856980349</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02720187009164503</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1249617067870554</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.06027147163928781</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1236836835477605</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.07614828880820462</v>
+        <v>0.06237589499313481</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1228904808293308</v>
+        <v>0.1229671756127354</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02367346921984625</v>
+        <v>0.07690337313577522</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1249617067870554</v>
+        <v>0.1234671741122653</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02353505820105679</v>
+        <v>0.01819296243645029</v>
       </c>
       <c r="G222" t="n">
+        <v>0.0649366283927026</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02705438959530491</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1257627433690237</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.05989472169957238</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1244765276730666</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.07481972202390791</v>
+        <v>0.06130358569106348</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1236782403218265</v>
+        <v>0.1237554267384581</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02353505820105679</v>
+        <v>0.07624542846500171</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1257627433690237</v>
+        <v>0.1242586303565747</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02349788225837207</v>
+        <v>0.01768851100660734</v>
       </c>
       <c r="G223" t="n">
+        <v>0.06485419821560173</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02680624672438292</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.126563779950992</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.05959908813390821</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1252693717983727</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.07359815276758896</v>
+        <v>0.06102738493414175</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1244659998143222</v>
+        <v>0.1245436778641808</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02349788225837207</v>
+        <v>0.07577003851109032</v>
       </c>
       <c r="O223" t="n">
-        <v>0.126563779950992</v>
+        <v>0.1250500866008841</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02356192542537854</v>
+        <v>0.01719270483739858</v>
       </c>
       <c r="G224" t="n">
+        <v>0.06477176803850086</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02675734962857701</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1273648165329603</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.058984799252219</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1260622159236789</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.07298418338872237</v>
+        <v>0.06024719890792923</v>
       </c>
       <c r="M224" t="n">
-        <v>0.125253759306818</v>
+        <v>0.1253319289899034</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02356192542537854</v>
+        <v>0.07428252251511386</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1273648165329603</v>
+        <v>0.1258415428451935</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02342717173566269</v>
+        <v>0.01670587236294119</v>
       </c>
       <c r="G225" t="n">
+        <v>0.06468933786139999</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02670760645758523</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1281658531149286</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.05855208336442849</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1268550600489851</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.07287841623678321</v>
+        <v>0.05966293379798548</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1260415187993137</v>
+        <v>0.1261201801156261</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02342717173566269</v>
+        <v>0.07358819971814506</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1281658531149286</v>
+        <v>0.1266329990895029</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.023593605222811</v>
+        <v>0.0162283420173524</v>
       </c>
       <c r="G226" t="n">
+        <v>0.06460690768429911</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02635692536110552</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.128966889696897</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.05890116878046048</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1276479041742912</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.07208145366124613</v>
+        <v>0.0594744957898701</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1268292782918094</v>
+        <v>0.1269084312413488</v>
       </c>
       <c r="N226" t="n">
-        <v>0.023593605222811</v>
+        <v>0.07419238936125694</v>
       </c>
       <c r="O226" t="n">
-        <v>0.128966889696897</v>
+        <v>0.1274244553338123</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02336120992040992</v>
+        <v>0.0157604422347494</v>
       </c>
       <c r="G227" t="n">
+        <v>0.06452447750719824</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02610521448883588</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1297679262788652</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.05823228381023865</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1284407482995974</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.07159389801158617</v>
+        <v>0.05868179106914267</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1276170377843051</v>
+        <v>0.1276966823670714</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02336120992040992</v>
+        <v>0.07230041068552229</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1297679262788652</v>
+        <v>0.1282159115781216</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02372996986204595</v>
+        <v>0.01530250144924945</v>
       </c>
       <c r="G228" t="n">
+        <v>0.06444204733009738</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02615238199047432</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1305689628608336</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.05794565676368676</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1292335924249035</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.07041635163727822</v>
+        <v>0.05808472582136268</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1284047972768008</v>
+        <v>0.1284849334927941</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02372996986204595</v>
+        <v>0.07221758293201397</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1305689628608336</v>
+        <v>0.1290073678224311</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02339986908130558</v>
+        <v>0.01485484809496963</v>
       </c>
       <c r="G229" t="n">
+        <v>0.0643596171529965</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.0261983360157188</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1313699994428019</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.05764151595072858</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1300264365502097</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.06884941688779694</v>
+        <v>0.05808320623208976</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1291925567692965</v>
+        <v>0.1292731846185168</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02339986908130558</v>
+        <v>0.07234922534180471</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1313699994428019</v>
+        <v>0.1297988240667405</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02347089161177521</v>
+        <v>0.01441781060602722</v>
       </c>
       <c r="G230" t="n">
+        <v>0.06427718697589563</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02584299230681718</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1321710360247701</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.05682008968128785</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1308192806755158</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.06809369611261734</v>
+        <v>0.05787713290997273</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1299803162617922</v>
+        <v>0.1300614357442394</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02347089161177521</v>
+        <v>0.07199997041160261</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1321710360247701</v>
+        <v>0.1305902803110498</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02344302148704139</v>
+        <v>0.01399171741653939</v>
       </c>
       <c r="G231" t="n">
+        <v>0.06419475679879476</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02568695118677718</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1329720726067385</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.05688160626528824</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.131612124800822</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.06814979166121427</v>
+        <v>0.05656579729986366</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1307680757542879</v>
+        <v>0.1308496868699621</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02344302148704139</v>
+        <v>0.07260006183730111</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1329720726067385</v>
+        <v>0.1313817365553592</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02351624274069056</v>
+        <v>0.01357689696062338</v>
       </c>
       <c r="G232" t="n">
+        <v>0.06411232662169389</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02543063718649045</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1337731091887067</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.0560262940126536</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1324049689261282</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.06731830588306242</v>
+        <v>0.05694880348855774</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1315558352467836</v>
+        <v>0.1316379379956848</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02351624274069056</v>
+        <v>0.07280060295425744</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1337731091887067</v>
+        <v>0.1321731927996686</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02349053940630919</v>
+        <v>0.01317367767239637</v>
       </c>
       <c r="G233" t="n">
+        <v>0.064029896444593</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02557405170964352</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1345741457706751</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.05585438123330758</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1331978130514343</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.0659998411276369</v>
+        <v>0.05552622077968994</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1323435947392793</v>
+        <v>0.1324261891214074</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02349053940630919</v>
+        <v>0.07250200074503121</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1345741457706751</v>
+        <v>0.132964649043978</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02346589551748374</v>
+        <v>0.01278238798597556</v>
       </c>
       <c r="G234" t="n">
+        <v>0.06394746626749213</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02531719615992296</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1353751823526434</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.05486609623717395</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1339906571767405</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.06629499974441255</v>
+        <v>0.05509811847689533</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1331313542317751</v>
+        <v>0.1332144402471301</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02346589551748374</v>
+        <v>0.07200466219218188</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1353751823526434</v>
+        <v>0.1337561052882874</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02334229510780071</v>
+        <v>0.01240335633547816</v>
       </c>
       <c r="G235" t="n">
+        <v>0.06386503609039126</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02516007194101536</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1361762189346117</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.05436166733417647</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1347835013020466</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.06520438408286405</v>
+        <v>0.05506456588380887</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1339191137242708</v>
+        <v>0.1340026913728527</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02334229510780071</v>
+        <v>0.07180899427826892</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1361762189346117</v>
+        <v>0.1345475615325968</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02321972221084659</v>
+        <v>0.01203691115502144</v>
       </c>
       <c r="G236" t="n">
+        <v>0.06378260591329039</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.02510268045660723</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.13697725551658</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.05464132283423886</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1355763454273528</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.06442859649246635</v>
+        <v>0.05472563230406555</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1347068732167665</v>
+        <v>0.1347909424985754</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02321972221084659</v>
+        <v>0.07191540398585183</v>
       </c>
       <c r="O236" t="n">
-        <v>0.13697725551658</v>
+        <v>0.1353390177769062</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.0234981608602078</v>
+        <v>0.01168338087872246</v>
       </c>
       <c r="G237" t="n">
+        <v>0.06370017573618952</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.02454502311038516</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1377782920985483</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.05370529104728489</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1363691895526589</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.0634682393226943</v>
+        <v>0.05358138704130039</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1354946327092622</v>
+        <v>0.135579193624298</v>
       </c>
       <c r="N237" t="n">
-        <v>0.0234981608602078</v>
+        <v>0.07182429829749015</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1377782920985483</v>
+        <v>0.1361304740212156</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02317759508947086</v>
+        <v>0.0113430939406985</v>
       </c>
       <c r="G238" t="n">
+        <v>0.06361774555908865</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02478710130603567</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1385793286805166</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.05345380028323829</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1371620336779651</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.06282391492302292</v>
+        <v>0.05373189939914838</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1362823922017579</v>
+        <v>0.1363674447500207</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02317759508947086</v>
+        <v>0.07283608419574333</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1385793286805166</v>
+        <v>0.136921930265525</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02315800893222222</v>
+        <v>0.01101637877506676</v>
       </c>
       <c r="G239" t="n">
+        <v>0.06353531538198778</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02462891644724538</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1393803652624849</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.05268707885202276</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1379548778032713</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.06269622564292676</v>
+        <v>0.05237723868124455</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1370701516942536</v>
+        <v>0.1371556958757434</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02315800893222222</v>
+        <v>0.07235116866317093</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1393803652624849</v>
+        <v>0.1377133865098344</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02303938642204834</v>
+        <v>0.01070222270996587</v>
       </c>
       <c r="G240" t="n">
+        <v>0.0634528852048869</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02427046993770081</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1401814018444532</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.05200535506356208</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1387477219285774</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.06228577383188089</v>
+        <v>0.05211747419122392</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1378579111867493</v>
+        <v>0.1379439470014661</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02303938642204834</v>
+        <v>0.07286995868233243</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1401814018444532</v>
+        <v>0.1385048427541438</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02342171159253575</v>
+        <v>0.01039290754364157</v>
       </c>
       <c r="G241" t="n">
+        <v>0.06337045502778603</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.0242117631810885</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1409824384264215</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.05110885722778</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1395405660538836</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.06169316183936019</v>
+        <v>0.0518526752327215</v>
       </c>
       <c r="M241" t="n">
-        <v>0.138645670679245</v>
+        <v>0.1387321981271887</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02342171159253575</v>
+        <v>0.07269286123578728</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1409824384264215</v>
+        <v>0.1392962989984532</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02320496847727084</v>
+        <v>0.01008742060423248</v>
       </c>
       <c r="G242" t="n">
+        <v>0.06328802485068516</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02395279758109507</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1417834750083898</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.05089781365460022</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1403334101791897</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.06071899201483938</v>
+        <v>0.05098291110937225</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1394334301717407</v>
+        <v>0.1395204492529114</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02320496847727084</v>
+        <v>0.07282028330609502</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1417834750083898</v>
+        <v>0.1400877552427625</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02308914110984016</v>
+        <v>0.009786090325855812</v>
       </c>
       <c r="G243" t="n">
+        <v>0.06320559467358429</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02359357454140702</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1425845115903581</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.05007245265394655</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1411262543044959</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.05986386670779342</v>
+        <v>0.05000825112481119</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1402211896642365</v>
+        <v>0.140308700378634</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02308914110984016</v>
+        <v>0.07335263187581514</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1425845115903581</v>
+        <v>0.1408792114870719</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02297421352383014</v>
+        <v>0.009489245142628805</v>
       </c>
       <c r="G244" t="n">
+        <v>0.06312316449648342</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02363409546571094</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1433855481723264</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.04943300253574268</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.141919098429802</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.0604283882676972</v>
+        <v>0.05022876458267342</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1410089491567322</v>
+        <v>0.1410969515043567</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02297421352383014</v>
+        <v>0.07199031392750715</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1433855481723264</v>
+        <v>0.1416706677313813</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02326016975282726</v>
+        <v>0.009197213488668587</v>
       </c>
       <c r="G245" t="n">
+        <v>0.06304073431938255</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.02337436175769339</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1441865847542947</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.04927969160991233</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1427119425551082</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.05881315904402551</v>
+        <v>0.04904452078659374</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1417967086492279</v>
+        <v>0.1418852026300794</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02326016975282726</v>
+        <v>0.07243373644373052</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1441865847542947</v>
+        <v>0.1424621239756907</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02324699383041799</v>
+        <v>0.008910323798092395</v>
       </c>
       <c r="G246" t="n">
+        <v>0.06295830414228168</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02351437482104092</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.144987621336263</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.04851274818637932</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1435047866804144</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.05821878138625314</v>
+        <v>0.04835558904020734</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1425844681417236</v>
+        <v>0.142673453755802</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02324699383041799</v>
+        <v>0.07268330640704479</v>
       </c>
       <c r="O246" t="n">
-        <v>0.144987621336263</v>
+        <v>0.1432535802200001</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02323466979018883</v>
+        <v>0.008628904505017423</v>
       </c>
       <c r="G247" t="n">
+        <v>0.0628758739651808</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02295413605944008</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1457886579182313</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.0473324005750673</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1442976308057205</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.05884585764385519</v>
+        <v>0.04776203864714915</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1433722276342193</v>
+        <v>0.1434617048815247</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02323466979018883</v>
+        <v>0.07243943080000953</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1457886579182313</v>
+        <v>0.1440450364643095</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02292318166572622</v>
+        <v>0.008353284043560893</v>
       </c>
       <c r="G248" t="n">
+        <v>0.06279344378807993</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02319364687657745</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1465896945001996</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.04673887708590005</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1450904749310267</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.05729499016630629</v>
+        <v>0.04726393891105418</v>
       </c>
       <c r="M248" t="n">
-        <v>0.144159987126715</v>
+        <v>0.1442499560072474</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02292318166572622</v>
+        <v>0.07290251660518404</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1465896945001996</v>
+        <v>0.1448364927086189</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02311251349061665</v>
+        <v>0.008083790847839986</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06271101361097906</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02303290867613957</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1473907310821679</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.04653240602880132</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1458833190563328</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.05696678130308142</v>
+        <v>0.04666135913555744</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1449477466192107</v>
+        <v>0.14503820713297</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02311251349061665</v>
+        <v>0.07317297080512797</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1473907310821679</v>
+        <v>0.1456279489529283</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02320264929844659</v>
+        <v>0.007820753351971917</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06262858343387818</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.022871922861813</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1481917676641362</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.04511321571369487</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.146676163181639</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.0563618334036553</v>
+        <v>0.04645436862429397</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1457355061117064</v>
+        <v>0.1458264582586927</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02320264929844659</v>
+        <v>0.07325120038240079</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1481917676641362</v>
+        <v>0.1464194051972377</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02299357312280254</v>
+        <v>0.007564499990073886</v>
       </c>
       <c r="G251" t="n">
+        <v>0.0625461532567773</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02231069083728431</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1489928042461045</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.04458153445050442</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1474690073069451</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.05658074881750297</v>
+        <v>0.04544303668089875</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1465232656042021</v>
+        <v>0.1466147093844153</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02299357312280254</v>
+        <v>0.073737612319562</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1489928042461045</v>
+        <v>0.1472108614415471</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02328526899727092</v>
+        <v>0.007315359196263131</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06246372307967644</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02254921400624006</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1497938408280728</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.04363759054915367</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1482618514322513</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.05562412989409921</v>
+        <v>0.04522743260900677</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1473110250966979</v>
+        <v>0.147402960510138</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02328526899727092</v>
+        <v>0.07293261359917108</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1497938408280728</v>
+        <v>0.1480023176858565</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02287772095543822</v>
+        <v>0.007073659404656783</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06238129290257557</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02208749377236681</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1505948774100412</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.04328161231956643</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1490546955575575</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.05559257898291897</v>
+        <v>0.04440762571225301</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1480987845891936</v>
+        <v>0.1481912116358607</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02287772095543822</v>
+        <v>0.07413661120378756</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1505948774100412</v>
+        <v>0.1487937739301659</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02297091303089094</v>
+        <v>0.006839729049372079</v>
       </c>
       <c r="G254" t="n">
+        <v>0.0622988627254747</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02212553153935108</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1513959139920095</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.04281382807166642</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1498475396828636</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.05558669843343689</v>
+        <v>0.04398368529427255</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1488865440816893</v>
+        <v>0.1489794627615833</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02297091303089094</v>
+        <v>0.07295001211597091</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1513959139920095</v>
+        <v>0.1495852301744753</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02326482925721553</v>
+        <v>0.006613896564526212</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06221643254837382</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.0220633287108795</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1521969505739778</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.04143446611537735</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1506403838081698</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.05610709059512803</v>
+        <v>0.04365568065870037</v>
       </c>
       <c r="M255" t="n">
-        <v>0.149674303574185</v>
+        <v>0.149767713887306</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02326482925721553</v>
+        <v>0.07437322331828067</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1521969505739778</v>
+        <v>0.1503766864187847</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02325945366799846</v>
+        <v>0.006396490384236404</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06213400237127295</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02170088669063855</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1529979871559461</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.04074375476062297</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1514332279334759</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.05435435781746717</v>
+        <v>0.04272368110917146</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1504620630666807</v>
+        <v>0.1505559650130286</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02325945366799846</v>
+        <v>0.07430665179327628</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1529979871559461</v>
+        <v>0.1511681426630941</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02295477029682623</v>
+        <v>0.006187838942619851</v>
       </c>
       <c r="G257" t="n">
+        <v>0.06205157219417207</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.02173820688231487</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1537990237379144</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.03984192231732708</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1522260720587821</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.05562910244992919</v>
+        <v>0.04148775594932083</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1512498225591764</v>
+        <v>0.1513442161387513</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02295477029682623</v>
+        <v>0.07385070452351722</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1537990237379144</v>
+        <v>0.1519595989074035</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02325076317728528</v>
+        <v>0.005988270673793747</v>
       </c>
       <c r="G258" t="n">
+        <v>0.0619691420170712</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.02127529068959495</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1546000603198827</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.03932919709541335</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1530189161840882</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.05523192684198897</v>
+        <v>0.04104797448278344</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1520375820516721</v>
+        <v>0.152132467264474</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02325076317728528</v>
+        <v>0.07390578849156315</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1546000603198827</v>
+        <v>0.1527510551517128</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02324741634296211</v>
+        <v>0.005798114011875299</v>
       </c>
       <c r="G259" t="n">
+        <v>0.06188671183997033</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.0210121395161654</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.155401096901851</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.03880580740480555</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1538117603093944</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.05466343334312135</v>
+        <v>0.0403044060131944</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1528253415441678</v>
+        <v>0.1529207183901967</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02324741634296211</v>
+        <v>0.07467231067997337</v>
       </c>
       <c r="O259" t="n">
-        <v>0.155401096901851</v>
+        <v>0.1535425113960222</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02284471382744319</v>
+        <v>0.005617697390981731</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06180428166286946</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.02114875476571274</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1562021334838193</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.03757198155542743</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1546046044347006</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.05492422430280119</v>
+        <v>0.04045711984418862</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1536131010366635</v>
+        <v>0.1537089695159193</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02284471382744319</v>
+        <v>0.07435067807130752</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1562021334838193</v>
+        <v>0.1543339676403316</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02314263966431497</v>
+        <v>0.005447349245230201</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06172185148576859</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.02098513784192353</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1570031700657876</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.03652794785720273</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1553974485600067</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.05471490207050322</v>
+        <v>0.03950618527940117</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1544008605291592</v>
+        <v>0.154497220641642</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02314263966431497</v>
+        <v>0.07384129764812508</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1570031700657876</v>
+        <v>0.155125423884641</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02304117788716395</v>
+        <v>0.005287398008737933</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06163942130866772</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.02062129014848438</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1578042066477559</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.03567393462005516</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1561902926853128</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.05393606899570258</v>
+        <v>0.03835167162246703</v>
       </c>
       <c r="M262" t="n">
-        <v>0.155188620021655</v>
+        <v>0.1552854717673646</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02304117788716395</v>
+        <v>0.07404457639298551</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1578042066477559</v>
+        <v>0.1559168801289504</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02294031252957661</v>
+        <v>0.005138172115622133</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06155699113156685</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.02065721308908178</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1586052432297242</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.03491017015390846</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.156983136810619</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.05398832742787391</v>
+        <v>0.03789364817702121</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1559763795141507</v>
+        <v>0.1560737228930873</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02294031252957661</v>
+        <v>0.0747609212884483</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1586052432297242</v>
+        <v>0.1567083363732598</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02324002762513937</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06147456095446597</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.02039290806740235</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1594062798116925</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.03453688276868644</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1577759809359252</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.05477227971649229</v>
+        <v>0.03773218424669869</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1567641390066464</v>
+        <v>0.15686197401881</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02324002762513937</v>
+        <v>0.07579073931707297</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1594062798116925</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1574997926175692</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06146140305972912</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005599030407872373</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06146167158819314</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006194610741225598</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06146194011665716</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006786699630651316</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06146220864512118</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007375255706663912</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0614624771735852</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.007960237599855188</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06146274570204921</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008541603940791044</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06146301423051322</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009119313360062498</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06146328275897725</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.009693324488185197</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06146355128744126</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.0102635959557503</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06146381981590528</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01083008639332374</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.06146408834436929</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01139275443149585</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06146435687283332</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01195155870078359</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06146462540129733</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01250645783177746</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06146489392976134</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01305741045504343</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06146516245822536</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.0136043752011711</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.06146543098668938</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01414731070067884</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0614656995151534</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01468617558415644</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06146596804361742</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01522092848216985</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06146623657208143</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01575152802530802</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06146650510054546</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01627793284409068</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06146677362900947</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01680010156910695</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06146704215747349</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01731799283092278</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0614673106859375</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01783156526012634</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06146757921440153</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01834077748723887</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06146784774286554</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01884575706803787</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06146811627132955</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01934747618422388</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06146838479979357</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01984606239157355</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.06146865332825759</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02034147432060941</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06146892185672161</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02083367060191916</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06146919038518563</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02132260986606874</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06146945891364964</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02180825074364516</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06146972744211367</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02229055186517206</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06146999597057768</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.0227694718612366</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.06147026449904169</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02324496936240471</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06147053302750571</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0237170029992628</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06147080155596973</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02418553140233568</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06147107008443375</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02465051320220995</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06147133861289776</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02511190702945152</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06147160714136177</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02556967151464618</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.0614718756698258</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02602376528832003</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06147214419828981</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02647414698105898</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06147241272675383</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02692077522342897</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06147268125521785</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02736360864601513</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06147294978368188</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02780260587934486</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06147321831214589</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.02823772555400342</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0614734868406099</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.02866892630055676</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06147375536907392</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02909616674958936</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06147402389753794</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.02951940553162991</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06147429242600196</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.02993860127726305</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06147456095446597</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.02993860127726305</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06146140305972912</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0303869556855559</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.06154437029375803</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03083106401750674</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06162733752778694</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03127080592636603</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06171030476181585</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03170606106538445</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06179327199584474</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03213670908781272</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06187623922987366</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03256262964690129</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06195920646390256</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03298370239590091</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06204217369793148</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03339980698806207</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06212514093196038</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03381082307663546</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06220810816598928</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03421663031487176</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06229107540001819</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03461710835602144</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0623740426340471</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03501213685333523</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.062457009868076</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03540159546006374</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06253997710210492</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03578536382945751</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06262294433613382</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03616332161476721</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06270591157016273</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03653534846924349</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.06278887880419164</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03690132404613691</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.06287184603822053</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03726112799869812</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.06295481327224946</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.0376146399801777</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.06303778050627835</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.03796173964382626</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.06312074774030725</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.03830230664289452</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.06320371497433618</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.03863622063063297</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.06328668220836507</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.03896336126029225</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.06336964944239398</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.03928360818512309</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.06345261667642289</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.03959733247426927</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.06353558391045179</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.0399073622763414</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.06361855114448071</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04021406866048336</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.06370151837850961</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04051733127994576</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.06378448561253851</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0408170297879793</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.06386745284656743</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04111304383783449</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.06395042008059633</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.041405253082762</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.06403338731462523</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04169353717601248</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.06411635454865415</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04197777577083647</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.06419932178268305</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04225784852048466</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.06428228901671196</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04253363507820757</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.06436525625074087</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04280501509725591</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.06444822348476976</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04307186823088028</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.06453119071879869</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04333407413233126</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.06461415795282759</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04359151245485948</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.06469712518685648</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0438440628517156</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.06478009242088541</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04409160497615016</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0648630596549143</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04433401848141382</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0649460268889432</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04457118302075722</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.06502899412297213</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04480297824743095</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.06511196135700102</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04502928381468563</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.06519492859102993</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04524997937577185</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.06527789582505884</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04546494458394026</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.06536086305908774</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04567405909244147</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.06544383029311666</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.0458772025545261</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.06552679752714556</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.03925146836968407</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.06552679752714556</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04598674465642889</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06733280809265153</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04608797996420556</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06913881865815751</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04618123602050001</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.07094482922366348</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.04626684036795619</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.07275083978916945</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.04634512054921806</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07455685035467544</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04641640410692951</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07636286092018139</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04648101858373451</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07816887148568737</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04653929152227699</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07997488205119334</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04659155046520089</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08178089261669931</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.04663812295515014</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.0835869031822053</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.0466793365347687</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08539291374771127</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.04671551874670047</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08719892431321723</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04674699713358942</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08900493487872321</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.04677409923807945</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09081094544422917</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04679715260281455</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09261695600973514</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04681648477043861</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09442296657524113</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04683242328359561</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.0962289771407471</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04684529568492945</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.09803498770625307</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04685542951708407</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.09984099827175905</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.04686315232270343</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.101647008837265</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.04686879164443145</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.103453019402771</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.04687267502491207</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.105259029968277</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.04687513000678923</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1070650405337829</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.04687648413270686</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1088710510992889</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.04687706494530893</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1106770616647949</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.04687719998723932</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1124830722303009</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04686741858355872</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1142890827958068</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.04681409186236028</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1160950933613128</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.0467168362915231</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1179011039268188</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04657844794144107</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1197071144923248</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04640172288250801</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1215131250578307</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04618945718511785</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1233191356233367</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04594444691966438</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1251251461888427</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04566948815654152</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1269311567543486</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04536737696614312</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1287371673198546</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04504090941886304</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1305431778853606</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04469288158509515</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1323491884508665</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04432608953523331</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1341551990163725</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04394332933967138</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1359612095818785</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04354739706880325</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1377672201473845</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04314108879302276</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1395732307128904</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.0427272005827238</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1413792412783964</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04230852850830021</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1431852518439024</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04188786864014588</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1449912624094084</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04146801704865464</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1467972729749144</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04105176980422039</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1486032835404203</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04064192297723699</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04024127263809828</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1522153046714323</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03985261485719816</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1540213152369382</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03947874570493045</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1558273258024442</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03909678747993987</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1576333363679502</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0386740650248115</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1594393469334562</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03821491759395056</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1612453574989621</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03772396194350398</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1630513680644681</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03720581482961869</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1648573786299741</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03666509300844164</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.16666338919548</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03610641323611969</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.168469399760986</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03553439226879985</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.170275410326492</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03495364686262902</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.172081420891998</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03436879377375413</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1738874314575039</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03378444975832213</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1756934420230099</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03320523157247991</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1774994525885159</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03263575597237441</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1793054631540218</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03208063971415259</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1811114737195278</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03154449955396136</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1829174842850338</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03103195224794764</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1847234948505398</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03054761455225839</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1865295054160457</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03009610322304051</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1883355159815517</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02968203501644095</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1901415265470577</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02931002668860664</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1919475371125637</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02898469499568449</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1937535476780697</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02871065669382147</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1955595582435756</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02849252853916447</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1973655688090816</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02833492728786043</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1991715793745875</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02824246969605628</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2009775899400935</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02821850228515214</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2027836005055995</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02821861404859318</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2045896110711055</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02821920474230388</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2063956216366115</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02822067833591769</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2082016322021174</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02822343879906806</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2100076427676234</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02822789010138848</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2118136533331294</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02823443621251239</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2136196638986353</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02824348110207326</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2154256744641413</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02825542873970454</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2172316850296473</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02827068309503971</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2190376955951533</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02828964813771221</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2208437061606592</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02831272783735551</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2226497167261652</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02834032616360307</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2244557272916712</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02837284708608834</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2262617378571771</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.0284106945744448</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2280677484226831</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02845427259830591</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2298737589881891</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02850398512730511</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2316797695536951</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02856023613107588</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.233485780119201</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02862342957925167</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.235291790684707</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02869396944146595</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.237097801250213</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02877225968735218</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.238903811815719</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02885870428654381</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.240709822381225</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.0289537072086743</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2425158329467309</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02905767242337712</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2443218435122369</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1235.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1235.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08125146836968405</v>
+        <v>0.06220702089408412</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03125146836968406</v>
+        <v>0.01220702089408412</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01556429752714555</v>
+        <v>0.009680845736836155</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0005755839181313949</v>
+        <v>0.002241400778878314</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006618868437085411</v>
+        <v>0.001630869619367269</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001276656175428027</v>
+        <v>0.003042332834699839</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000801036581968304</v>
+        <v>0.001644989113152012</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004620846169864773</v>
+        <v>0.008481400569788577</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007882511257226631</v>
+        <v>0.001651963219796345</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006791060818277572</v>
+        <v>0.01505688770640357</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000791456244309393</v>
+        <v>0.001647604403143637</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001243354959369572</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001323773687417082</v>
+        <v>0.003226948578945384</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002725021476732405</v>
+        <v>0.005989159281749507</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001602073163936608</v>
+        <v>0.003289978226304025</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.008959187202397217</v>
+        <v>0.0164736134220792</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001576502251445326</v>
+        <v>0.003303926439592691</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01518331922501881</v>
+        <v>0.02941931390242747</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001582912488618786</v>
+        <v>0.003295208806287274</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.001998938372633832</v>
+        <v>0.005868930351696541</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001985660531125623</v>
+        <v>0.004892608858101808</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004201801594648016</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002403109745904912</v>
+        <v>0.004163541666666662</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01399999999999998</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002515192376842859</v>
+        <v>0.004626157407407404</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02240450458016602</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002374368732928179</v>
+        <v>0.004337022569444442</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.002837959406843497</v>
+        <v>0.009605563691785425</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002647547374834164</v>
+        <v>0.006523478477469077</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005863702219909783</v>
+        <v>0.01163742813079483</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003204146327873216</v>
+        <v>0.00657995645260805</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0161325581005429</v>
+        <v>0.02926165278068313</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003153004502890652</v>
+        <v>0.006607852879185382</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02938234624366126</v>
+        <v>0.0496310243519088</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003165824977237572</v>
+        <v>0.006590417612574549</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01290779431578155</v>
+        <v>0.003226948578945384</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.003756043310917841</v>
+        <v>0.009073149346876828</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003309434218542705</v>
+        <v>0.008154348096836347</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.01460541568675179</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003885972222222222</v>
+        <v>0.008224945565760063</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01983296346224084</v>
+        <v>0.03465682709785217</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003941255628613316</v>
+        <v>0.008259816098981727</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03654457357544705</v>
+        <v>0.05743477238597106</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003957281221546965</v>
+        <v>0.008238022015718185</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.004748815333776205</v>
+        <v>0.01220702089408412</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003971321062251247</v>
+        <v>0.009680845736836155</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.007977363488940292</v>
+        <v>0.0171860817250826</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004806219491809824</v>
+        <v>0.009869934678912074</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02281948510453172</v>
+        <v>0.03878903053530885</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004729506754335979</v>
+        <v>0.009911779318778072</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04121891593546534</v>
+        <v>0.06487404869837365</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004748737465856358</v>
+        <v>0.009885626418861823</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.005811900724337848</v>
+        <v>0.01134346996409492</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004633207905959787</v>
+        <v>0.01141608733557089</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009239592117678053</v>
+        <v>0.01952910444441586</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005607256073778128</v>
+        <v>0.01151492379206409</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02588886951894356</v>
+        <v>0.04392844537383145</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005517757880058642</v>
+        <v>0.01156374253857442</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04643310268365858</v>
+        <v>0.072754888110309</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005540193710165751</v>
+        <v>0.01153323082200546</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.006940924731522108</v>
+        <v>0.01336858598833652</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005295094749668328</v>
+        <v>0.01304695695493815</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01025883583709086</v>
+        <v>0.02079791622382401</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006408292655746432</v>
+        <v>0.01249062499999999</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02943786319700425</v>
+        <v>0.0498220256822825</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006306009005781305</v>
+        <v>0.01387847222222221</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05299999999999999</v>
+        <v>0.07884613514074101</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006466452991452991</v>
+        <v>0.01301106770833332</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008131512604248291</v>
+        <v>0.01334827813457113</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005956981593376869</v>
+        <v>0.01467782657430542</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01113817983256141</v>
+        <v>0.02319246775326111</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007209329237714736</v>
+        <v>0.01480490201836811</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03246321263024182</v>
+        <v>0.0517524194492075</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007094260131503968</v>
+        <v>0.01486766897816711</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0553393862800628</v>
+        <v>0.08449067003052679</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007123106198784536</v>
+        <v>0.01482843962829273</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009379289591435677</v>
+        <v>0.01527884633732353</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00661886843708541</v>
+        <v>0.01630869619367269</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01208070928947244</v>
+        <v>0.02459707668492668</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00801036581968304</v>
+        <v>0.01644989113152013</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03466166431018419</v>
+        <v>0.05585042468226062</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007882511257226632</v>
+        <v>0.01651963219796345</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05958153074534567</v>
+        <v>0.09036782907233221</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00791456244309393</v>
+        <v>0.01647604403143637</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0106798809420036</v>
+        <v>0.01515659053111852</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00728075528079395</v>
+        <v>0.01793956581303996</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01288950939320666</v>
+        <v>0.02643477372649319</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008811402401651344</v>
+        <v>0.01809488024467214</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03752996472835937</v>
+        <v>0.05942280340229658</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008670762382949296</v>
+        <v>0.0181715954177598</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06140431735995</v>
+        <v>0.09685828416819997</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008706018687403323</v>
+        <v>0.01812364843458001</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01202891190487133</v>
+        <v>0.01697781065048091</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007942642124502493</v>
+        <v>0.01957043543240723</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01386766532914677</v>
+        <v>0.02799677491408302</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009612438983619648</v>
+        <v>0.01973986935782415</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04016486037629532</v>
+        <v>0.06323096674326123</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009459013508671957</v>
+        <v>0.01982355863755614</v>
       </c>
       <c r="N77" t="n">
-        <v>0.06496517961351844</v>
+        <v>0.1030039564056908</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009497474931712716</v>
+        <v>0.01977125283772365</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01342200772895819</v>
+        <v>0.01673880662993545</v>
       </c>
       <c r="G78" t="n">
-        <v>0.008604528968211034</v>
+        <v>0.0212013050517745</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01451826228267551</v>
+        <v>0.02957429628381851</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01041347556558795</v>
+        <v>0.02138485847097616</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04236309774552002</v>
+        <v>0.06653632583910041</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01024726463439462</v>
+        <v>0.02147552185735249</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06692155099569363</v>
+        <v>0.1087467668723656</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01028893117602211</v>
+        <v>0.02141885724086728</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01485479366318349</v>
+        <v>0.01843587840400698</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009266415811919573</v>
+        <v>0.02283217467114177</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0153443854391756</v>
+        <v>0.03065855387182191</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01121451214755626</v>
+        <v>0.02302984758412817</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04512142332756142</v>
+        <v>0.07070029182376017</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01103551576011728</v>
+        <v>0.02312748507714884</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07003086499611827</v>
+        <v>0.1149286366557851</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0110803874203315</v>
+        <v>0.02306646164401092</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01632289495646653</v>
+        <v>0.01906532590722028</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009928302655628116</v>
+        <v>0.02446304429050904</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01624911998402974</v>
+        <v>0.03234076371421558</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01201554872952456</v>
+        <v>0.02467483669728019</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04733658361394757</v>
+        <v>0.07368427583118622</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01182376688583995</v>
+        <v>0.02477944829694518</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07265055510443463</v>
+        <v>0.1202914868435102</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01187184366464089</v>
+        <v>0.02471406604715456</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0178219368577266</v>
+        <v>0.02062344907410014</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01059018949933666</v>
+        <v>0.02609391390987631</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01733555110262068</v>
+        <v>0.03321214184712186</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01281658531149286</v>
+        <v>0.0263198258104322</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0498220256822825</v>
+        <v>0.07744968899532453</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01278693665254553</v>
+        <v>0.02643141151674153</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07473805481028556</v>
+        <v>0.1245772385231016</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01266329990895029</v>
+        <v>0.02636167045029819</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01934754461588301</v>
+        <v>0.02010654783917135</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0112520763430452</v>
+        <v>0.02772478352924358</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01770676398033111</v>
+        <v>0.03416390430666304</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01361762189346117</v>
+        <v>0.02796481492358421</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0506718973785846</v>
+        <v>0.07995794245012094</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01340026913728527</v>
+        <v>0.02808337473653787</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07884613514074101</v>
+        <v>0.1288278127821201</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01374271769394479</v>
+        <v>0.02800927485344184</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02089534347985509</v>
+        <v>0.02151092213695871</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01191396318675374</v>
+        <v>0.02935565314861085</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01846584380254375</v>
+        <v>0.03548726712896144</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01441865847542947</v>
+        <v>0.02960980403673622</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05223884537463808</v>
+        <v>0.08227044732952143</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01418852026300794</v>
+        <v>0.02973533795633421</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07963708091220018</v>
+        <v>0.1326851307081265</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01424621239756907</v>
+        <v>0.02965687925658547</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02246095869856211</v>
+        <v>0.02183399197131233</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01257585003046228</v>
+        <v>0.03098652276797811</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01941587575464132</v>
+        <v>0.03587344635013942</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01521969505739777</v>
+        <v>0.03125479314988824</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05470723332593339</v>
+        <v>0.08474861476747178</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0149767713887306</v>
+        <v>0.03138730117613056</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08239239665647569</v>
+        <v>0.1353911133886819</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01503766864187847</v>
+        <v>0.03130448365972911</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02325146836968405</v>
+        <v>0.02112314853275962</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01290779431578155</v>
+        <v>0.03261739238734539</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02025994502200656</v>
+        <v>0.03681365800631925</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01602073163936608</v>
+        <v>0.03289978226304025</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05617426554097155</v>
+        <v>0.08665385589791791</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01576502251445326</v>
+        <v>0.03303926439592691</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0848078094695715</v>
+        <v>0.1381876819113466</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01582912488618786</v>
+        <v>0.03295208806287274</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02640808104151943</v>
+        <v>0.02240369436254817</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01389962371787936</v>
+        <v>0.03424826200671266</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02079791622382401</v>
+        <v>0.03742774429744668</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01649390300528266</v>
+        <v>0.03454477137619226</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05783714632825349</v>
+        <v>0.08784758185480571</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01655327364017593</v>
+        <v>0.03469122761572325</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08807594247195538</v>
+        <v>0.1400550091779361</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01662058113049725</v>
+        <v>0.03459969246601638</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02877642605678996</v>
+        <v>0.02167374111467463</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0145615105615879</v>
+        <v>0.03587913162607993</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02156305843407424</v>
+        <v>0.03751821067847644</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01762280480330269</v>
+        <v>0.03618976048934427</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06009307999628022</v>
+        <v>0.08915578160675333</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01734152476589859</v>
+        <v>0.0363431908355196</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09078941878409452</v>
+        <v>0.1425327163217202</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01741203737480665</v>
+        <v>0.03624729686916001</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03066239504119454</v>
+        <v>0.02093140044313563</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01522339740529644</v>
+        <v>0.03751000124544719</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02254166929669819</v>
+        <v>0.03809222069409005</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01842384138527099</v>
+        <v>0.03783474960249628</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0623392708535527</v>
+        <v>0.09052646991113186</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01812977589162125</v>
+        <v>0.03799515405531594</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09314086152645651</v>
+        <v>0.1435513712833562</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01820349361911604</v>
+        <v>0.03789490127230365</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03125146836968406</v>
+        <v>0.02317478400192786</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01556429752714555</v>
+        <v>0.03914087086481446</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02303622097660964</v>
+        <v>0.03854647275484989</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0192248779672393</v>
+        <v>0.0394797387156483</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06357292320857186</v>
+        <v>0.09145537692188241</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01891802701734391</v>
+        <v>0.03964711727511229</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09552289381950874</v>
+        <v>0.1456983977480468</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01899494986342543</v>
+        <v>0.03954250567544729</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03240528515380379</v>
+        <v>0.02340200344504795</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01654717109271352</v>
+        <v>0.04077174048418173</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02394407421913945</v>
+        <v>0.0388776652713184</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0200259145492076</v>
+        <v>0.04112472782880031</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06609124136983874</v>
+        <v>0.09293449256257033</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01970627814306658</v>
+        <v>0.04129908049490863</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09782813878371871</v>
+        <v>0.1475612194009947</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01978640610773482</v>
+        <v>0.04119011007859093</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03312214994587783</v>
+        <v>0.02261117042649254</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01720905793642207</v>
+        <v>0.042402610103549</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0247625897696185</v>
+        <v>0.03938249665405796</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0208269511311759</v>
+        <v>0.04276971694195233</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06709142964585429</v>
+        <v>0.09375580675676123</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02049452926878924</v>
+        <v>0.04295104371470498</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1018492195395537</v>
+        <v>0.1488272599274029</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02057786235204422</v>
+        <v>0.04283771448173457</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03379307543598156</v>
+        <v>0.02280039660025831</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01787094478013061</v>
+        <v>0.04403347972291628</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02558912837337772</v>
+        <v>0.03965766531363099</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02162798771314421</v>
+        <v>0.04441470605510434</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06937069234511944</v>
+        <v>0.09461130942802048</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0212827803945119</v>
+        <v>0.04460300693450132</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1045787592074815</v>
+        <v>0.151483943012474</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02136931859635361</v>
+        <v>0.0444853188848782</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03442018176483717</v>
+        <v>0.0239677936203419</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01853283162383915</v>
+        <v>0.04566434934228354</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02662105077574795</v>
+        <v>0.04009986966059986</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02242902429511251</v>
+        <v>0.04605969516825634</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07132623377613523</v>
+        <v>0.09559299049991352</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02207103152023457</v>
+        <v>0.04625497015429767</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1071093809079694</v>
+        <v>0.1523186923414109</v>
       </c>
       <c r="O93" t="n">
-        <v>0.022160774840663</v>
+        <v>0.04613292328802184</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03500558907316682</v>
+        <v>0.02411147314073993</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01919471846754769</v>
+        <v>0.04729521896165081</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02745571772206011</v>
+        <v>0.04050580810552695</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02323006087708082</v>
+        <v>0.04770468428140836</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07285525824740258</v>
+        <v>0.09649283989600577</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02285928264595723</v>
+        <v>0.04790693337409401</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1106337077614847</v>
+        <v>0.1530189315994163</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0229522310849724</v>
+        <v>0.04778052769116548</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03555141750169267</v>
+        <v>0.02422954681544908</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01985660531125623</v>
+        <v>0.04892608858101808</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02839048995764509</v>
+        <v>0.04087217905897475</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02403109745904912</v>
+        <v>0.04934967339456037</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07405497006742248</v>
+        <v>0.09690284753986278</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0236475337716799</v>
+        <v>0.04955889659389037</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1121443628884951</v>
+        <v>0.154572084471693</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02374368732928179</v>
+        <v>0.04942813209430912</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03605978719113689</v>
+        <v>0.02332012629846602</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02051849215496477</v>
+        <v>0.05055695820038535</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02912272822783374</v>
+        <v>0.04099568093150556</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02483213404101742</v>
+        <v>0.05099466250771239</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07592257354469592</v>
+        <v>0.09831500335504989</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02443578489740256</v>
+        <v>0.05121085981368671</v>
       </c>
       <c r="N96" t="n">
-        <v>0.114733969409468</v>
+        <v>0.1548655746434439</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02453514357359118</v>
+        <v>0.05107573649745275</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03653281828222165</v>
+        <v>0.02441404178816824</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02118037899867331</v>
+        <v>0.05218782781975262</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03004979327795698</v>
+        <v>0.04097301213368186</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02563317062298573</v>
+        <v>0.0526396516208644</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07765527298772384</v>
+        <v>0.09882129726513267</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02522403602312522</v>
+        <v>0.05286282303348305</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1185951504448707</v>
+        <v>0.1552868257998717</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02532659981790058</v>
+        <v>0.05272334090059639</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03697263091566911</v>
+        <v>0.0224112493054098</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02184226584238185</v>
+        <v>0.05381869743911988</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03046904585334569</v>
+        <v>0.041500871076066</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02643420720495403</v>
+        <v>0.05428464073401642</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07915027270500727</v>
+        <v>0.09871371919367641</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02601228714884788</v>
+        <v>0.05451478625327939</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1211205291151708</v>
+        <v>0.1571232616261792</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02611805606220997</v>
+        <v>0.05437094530374003</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03738134523220141</v>
+        <v>0.02441115508794223</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0225041526860904</v>
+        <v>0.05544956705848716</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03157784669933072</v>
+        <v>0.04159583244764803</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02723524378692234</v>
+        <v>0.05592962984716842</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08110477700504715</v>
+        <v>0.09868425906424674</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02680053827457055</v>
+        <v>0.05616674947307574</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1235027285408358</v>
+        <v>0.157692270281482</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02690951230651936</v>
+        <v>0.05601854970688367</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03776108137254076</v>
+        <v>0.02339361924807124</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02316603952979894</v>
+        <v>0.05708043667785442</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03227355656124299</v>
+        <v>0.04159541050549745</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02803628036889064</v>
+        <v>0.05757461896032044</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08261599019634444</v>
+        <v>0.099644051364565</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02758878940029321</v>
+        <v>0.05781871269287208</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1265343718423331</v>
+        <v>0.1571913820292445</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02770096855082875</v>
+        <v>0.0576661541100273</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03811395947740929</v>
+        <v>0.02236103917072708</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02382792637350748</v>
+        <v>0.0587113062972217</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0330535361844134</v>
+        <v>0.04127652198603357</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02883731695085895</v>
+        <v>0.05921960807347244</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08368111658740013</v>
+        <v>0.09943616226449331</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02837704052601587</v>
+        <v>0.05947067591266843</v>
       </c>
       <c r="N101" t="n">
-        <v>0.12930808214013</v>
+        <v>0.1570476341005249</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02849242479513815</v>
+        <v>0.05931375851317094</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03844209968752919</v>
+        <v>0.02331441006871039</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02448981321721602</v>
+        <v>0.06034217591658897</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03371514631417281</v>
+        <v>0.04113084649639748</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02963835353282725</v>
+        <v>0.06086459718662446</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08549736048671516</v>
+        <v>0.09927023008885016</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02916529165173853</v>
+        <v>0.06112263913246478</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1318164825546942</v>
+        <v>0.1565998457267671</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02928388103944754</v>
+        <v>0.06096136291631458</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03874762214362262</v>
+        <v>0.02425472715482182</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02515170006092456</v>
+        <v>0.06197304553595623</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03465574769585208</v>
+        <v>0.04146012406943533</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03043939011479555</v>
+        <v>0.06250958629977647</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08686192620279057</v>
+        <v>0.09924090021161913</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0299535427774612</v>
+        <v>0.06277460235226112</v>
       </c>
       <c r="N103" t="n">
-        <v>0.134152196206493</v>
+        <v>0.1563550963667025</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03007533728375693</v>
+        <v>0.06260896731945821</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03903264698641171</v>
+        <v>0.02218298564186203</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0258135869046331</v>
+        <v>0.0636039151553235</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03517270107478215</v>
+        <v>0.04116609473799333</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03124042669676386</v>
+        <v>0.06415457541292849</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08827201804412727</v>
+        <v>0.09915239417407912</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03074179390318386</v>
+        <v>0.06442656557205746</v>
       </c>
       <c r="N104" t="n">
-        <v>0.135707846215994</v>
+        <v>0.1566200141009101</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03086679352806632</v>
+        <v>0.06425657172260184</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03929929435661864</v>
+        <v>0.02310018074263163</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02647547374834164</v>
+        <v>0.06523478477469077</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0360633671962939</v>
+        <v>0.04085049853491766</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03204146327873216</v>
+        <v>0.0657995645260805</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08892484031922632</v>
+        <v>0.0981089335175088</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03153004502890653</v>
+        <v>0.06607852879185382</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1377760557036646</v>
+        <v>0.1563012270099687</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03165824977237572</v>
+        <v>0.06590417612574548</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03954968439496562</v>
+        <v>0.02200730766993129</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02713736059205018</v>
+        <v>0.06686565439405805</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03662510680571818</v>
+        <v>0.04081507549305446</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03284249986070047</v>
+        <v>0.0674445536392325</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09031759733658853</v>
+        <v>0.09831473978318706</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03231829615462919</v>
+        <v>0.06773049201165016</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1400494477899721</v>
+        <v>0.1549053631744574</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03244970601668511</v>
+        <v>0.06755178052888912</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03978593724217478</v>
+        <v>0.02290536163656164</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02779924743575872</v>
+        <v>0.06849652401342532</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03715528064838591</v>
+        <v>0.04076156564524994</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03364353644266876</v>
+        <v>0.06908954275238452</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09124749340471502</v>
+        <v>0.09837403451239271</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03310654728035185</v>
+        <v>0.0693824552314465</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1423206455953842</v>
+        <v>0.154039050674955</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03324116226099451</v>
+        <v>0.06919938493203276</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04001017303896828</v>
+        <v>0.02379533785532335</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02846113427946726</v>
+        <v>0.07012739363279259</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03765124946962795</v>
+        <v>0.04049170902435027</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03444457302463707</v>
+        <v>0.07073453186553653</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09301173283210676</v>
+        <v>0.09739103924640455</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03389479840607451</v>
+        <v>0.07103441845124285</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1450822722403681</v>
+        <v>0.1537089175920405</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0340326185053039</v>
+        <v>0.0708469893351764</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04022451192606829</v>
+        <v>0.02167823153901703</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0291230211231758</v>
+        <v>0.07175826325215985</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0386103740147752</v>
+        <v>0.0405072456632016</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03524560960660537</v>
+        <v>0.07237952097868855</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09390751992726459</v>
+        <v>0.09756997552650129</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03468304953179718</v>
+        <v>0.0726863816710392</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1465269508453915</v>
+        <v>0.1532215920062928</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03482407474961329</v>
+        <v>0.07249459373832003</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04043107404419698</v>
+        <v>0.02255503790044335</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02978490796688435</v>
+        <v>0.07338913287152712</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03913001502915855</v>
+        <v>0.04020991559465015</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03604664618857368</v>
+        <v>0.07402451009184056</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09423205899868967</v>
+        <v>0.09631506489396188</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03547130065751984</v>
+        <v>0.07433834489083554</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1485473045309217</v>
+        <v>0.1520837019982909</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03561553099392269</v>
+        <v>0.07414219814146367</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04063198268414654</v>
+        <v>0.02242675215240294</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03044679481059289</v>
+        <v>0.07502000249089438</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03930753325810887</v>
+        <v>0.04010145885154205</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03684768277054198</v>
+        <v>0.07566949920499257</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09548255435488284</v>
+        <v>0.095730528890065</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03625955178324251</v>
+        <v>0.07599030811063189</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1490359564174263</v>
+        <v>0.1524018756486137</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03640698723823207</v>
+        <v>0.07578980254460731</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04083002755265983</v>
+        <v>0.02129436950769645</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03110868165430143</v>
+        <v>0.07665087211026166</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04004028944695706</v>
+        <v>0.03968361546672351</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03764871935251029</v>
+        <v>0.07731448831814458</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09585621030434507</v>
+        <v>0.09582058905608959</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03704780290896516</v>
+        <v>0.07764227133042823</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1519855296253727</v>
+        <v>0.1514827410378402</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03719844348254147</v>
+        <v>0.07743740694775095</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04102632277524854</v>
+        <v>0.02215888517912452</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03177056849800997</v>
+        <v>0.07828174172962893</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04012564434103401</v>
+        <v>0.03965812547304069</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03844975593447859</v>
+        <v>0.0789594774312966</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09665023115557744</v>
+        <v>0.09488946693331432</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03783605403468783</v>
+        <v>0.07929423455022458</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1532886472752282</v>
+        <v>0.1498329262465493</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03798989972685086</v>
+        <v>0.07908501135089459</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04122078980047083</v>
+        <v>0.02102129437948779</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03243245534171851</v>
+        <v>0.07991261134899619</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04056095868567057</v>
+        <v>0.03932672890333976</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0392507925164469</v>
+        <v>0.08060446654444861</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09786182121708079</v>
+        <v>0.09494138406301808</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0386243051604105</v>
+        <v>0.08094619777002092</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1532379324874604</v>
+        <v>0.14985905935532</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03878135597116025</v>
+        <v>0.08073261575403821</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04141335007688484</v>
+        <v>0.02288259232158692</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03309434218542705</v>
+        <v>0.08154348096836346</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04074359322619768</v>
+        <v>0.03929116579046692</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0400518290984152</v>
+        <v>0.08224945565760063</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09838818479735617</v>
+        <v>0.09368056198647962</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03941255628613315</v>
+        <v>0.08259816098981726</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1554260083825368</v>
+        <v>0.148267768444731</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03957281221546965</v>
+        <v>0.08238022015718185</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04160392505304871</v>
+        <v>0.02074377421822254</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0337562290291356</v>
+        <v>0.08317435058773075</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0408709087079462</v>
+        <v>0.03905317616726829</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04085286568038351</v>
+        <v>0.08389444477075263</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09842652620490458</v>
+        <v>0.09321122224497777</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04020080741185582</v>
+        <v>0.0842501242096136</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1553454980809247</v>
+        <v>0.1479656815953615</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04036426845977904</v>
+        <v>0.0840278245603255</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04179243617752063</v>
+        <v>0.02260583528219531</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03441811587284414</v>
+        <v>0.08480522020709801</v>
       </c>
       <c r="J117" t="n">
-        <v>0.041440265876247</v>
+        <v>0.03841450006659011</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04165390226235181</v>
+        <v>0.08553943388390466</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09847404974822696</v>
+        <v>0.09303758637979137</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04098905853757848</v>
+        <v>0.08590208742940995</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1556890247030918</v>
+        <v>0.1460594268877903</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04115572470408844</v>
+        <v>0.08567542896346914</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0419788048988587</v>
+        <v>0.0224686581606163</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03508000271655267</v>
+        <v>0.08643608982646528</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04159583244764803</v>
+        <v>0.03857687752127854</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04245493884432011</v>
+        <v>0.08718442299705666</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09932795973582431</v>
+        <v>0.09256387593219914</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04177730966330115</v>
+        <v>0.08755405064920631</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1564492113695052</v>
+        <v>0.1461556324025965</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04194718094839783</v>
+        <v>0.08732303336661276</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04216295266562111</v>
+        <v>0.02231583938842908</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03574188956026122</v>
+        <v>0.08806695944583255</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04129454825382904</v>
+        <v>0.03814201306867303</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04325597542628842</v>
+        <v>0.08882941211020867</v>
       </c>
       <c r="L119" t="n">
-        <v>0.099644051364565</v>
+        <v>0.09149431244347994</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04256556078902381</v>
+        <v>0.08920601386900265</v>
       </c>
       <c r="N119" t="n">
-        <v>0.157692270281482</v>
+        <v>0.1449609262203589</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04273863719270722</v>
+        <v>0.0889706377697564</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04234480092636599</v>
+        <v>0.02014412211256941</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03640377640396976</v>
+        <v>0.08969782906519981</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04129360066255273</v>
+        <v>0.03808842318270141</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04405701200825671</v>
+        <v>0.09047440122336069</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09914375627784766</v>
+        <v>0.09112341010068839</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04335381191474647</v>
+        <v>0.09085797708879899</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1568918428177191</v>
+        <v>0.1438277717761361</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04353009343701662</v>
+        <v>0.09061824217290004</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04252427112965151</v>
+        <v>0.01995674885530479</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03706566324767829</v>
+        <v>0.09132869868456708</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04128469372140475</v>
+        <v>0.03740068810993699</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04485804859022503</v>
+        <v>0.09211939033651269</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09872960078044385</v>
+        <v>0.09047956425977424</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04414206304046914</v>
+        <v>0.09250994030859534</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1570665433323661</v>
+        <v>0.1423629036466649</v>
       </c>
       <c r="O121" t="n">
-        <v>0.044321549681326</v>
+        <v>0.09226584657604368</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04270128472403582</v>
+        <v>0.01975696213890268</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03772755009138684</v>
+        <v>0.09295956830393436</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04126918250624879</v>
+        <v>0.03708447708538784</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04565908517219332</v>
+        <v>0.09376437944966472</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09928222688946578</v>
+        <v>0.08975862027428266</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0449303141661918</v>
+        <v>0.09416190352839168</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1563031472792149</v>
+        <v>0.1416848361343194</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0451130059256354</v>
+        <v>0.09391345097918732</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04287576315807704</v>
+        <v>0.01954800448563059</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03838943693509538</v>
+        <v>0.09459043792330162</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04144727345051338</v>
+        <v>0.03714545934406205</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04646012175416164</v>
+        <v>0.09540936856281672</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09880317726641169</v>
+        <v>0.08917433243032291</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04571856529191446</v>
+        <v>0.09581386674818802</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1564029781011388</v>
+        <v>0.141115164317915</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04590446216994479</v>
+        <v>0.09556105538233095</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04304762788033335</v>
+        <v>0.02133311841775598</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03905132377880392</v>
+        <v>0.09622130754266889</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0411191729876271</v>
+        <v>0.03668930412096763</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04726115833612993</v>
+        <v>0.09705435767596873</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09869379858034893</v>
+        <v>0.08824045501400424</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04650681641763713</v>
+        <v>0.09746582996798436</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1564673592410108</v>
+        <v>0.1396754832762671</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04669591841425418</v>
+        <v>0.09720865978547459</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04321680033936288</v>
+        <v>0.01911554645754634</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03971321062251246</v>
+        <v>0.09785217716203616</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04108508755101849</v>
+        <v>0.03622168065111268</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04806219491809824</v>
+        <v>0.09869934678912075</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09915543750034475</v>
+        <v>0.08727074231143583</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04729506754335979</v>
+        <v>0.09911779318778073</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1557976141417039</v>
+        <v>0.1374873880881908</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04748737465856358</v>
+        <v>0.09885626418861823</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04338320198372381</v>
+        <v>0.02089853112726917</v>
       </c>
       <c r="G126" t="n">
-        <v>0.040375097466221</v>
+        <v>0.09948304678140343</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04114522357411608</v>
+        <v>0.03594825816950525</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04886323150006654</v>
+        <v>0.1003443359022728</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09878944069546644</v>
+        <v>0.08677894860872698</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04808331866908246</v>
+        <v>0.1007697564075771</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1568950662460913</v>
+        <v>0.1359724738325015</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04827883090287297</v>
+        <v>0.1005038685917619</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04354675426197428</v>
+        <v>0.01868531494919193</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04103698430992955</v>
+        <v>0.1011139164007707</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04129978749034846</v>
+        <v>0.03567470591115339</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04966426808203485</v>
+        <v>0.1019893250154248</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09889715483478129</v>
+        <v>0.08577882819198684</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04887156979480511</v>
+        <v>0.1024217196273734</v>
       </c>
       <c r="N127" t="n">
-        <v>0.156461038997046</v>
+        <v>0.1342523355880144</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04907028714718237</v>
+        <v>0.1021514729949055</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04370737862267243</v>
+        <v>0.01947914044558212</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04169887115363809</v>
+        <v>0.102744786020138</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04114898573314414</v>
+        <v>0.03500669311106513</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05046530466400315</v>
+        <v>0.1036343141285768</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09807992658735659</v>
+        <v>0.08498413534732471</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04965982092052778</v>
+        <v>0.1040736828471698</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1553968558374412</v>
+        <v>0.1332485684335449</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04986174339149176</v>
+        <v>0.1037990773980491</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0438649965143764</v>
+        <v>0.01828259342148855</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04236075799734663</v>
+        <v>0.1043756556395052</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04129302473593173</v>
+        <v>0.03454988900424856</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05126634124597146</v>
+        <v>0.1052793032417288</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09833910262225964</v>
+        <v>0.08420862436084978</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05044807204625044</v>
+        <v>0.1057256460669661</v>
       </c>
       <c r="N129" t="n">
-        <v>0.15580384021015</v>
+        <v>0.1327827674479082</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05065319963580115</v>
+        <v>0.1054466818011928</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04401952938564437</v>
+        <v>0.01907578437496803</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04302264484105517</v>
+        <v>0.1060065252588725</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04123211093213973</v>
+        <v>0.03420993280074228</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05206737782793976</v>
+        <v>0.1069242923548808</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09777602960855766</v>
+        <v>0.08246604951867126</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0512363231719731</v>
+        <v>0.1073776092867625</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1555833155580453</v>
+        <v>0.1309765277099197</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05144465588011055</v>
+        <v>0.1070942862043364</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04417089868503449</v>
+        <v>0.01785148989443867</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04368453168476371</v>
+        <v>0.1076373948782398</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04076645075519672</v>
+        <v>0.0339599333433559</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05286841440990806</v>
+        <v>0.1085692814680328</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09739205421531805</v>
+        <v>0.08175398600659253</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05202457429769577</v>
+        <v>0.1090295725065588</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1545366053240004</v>
+        <v>0.1292730085928683</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05223611212441993</v>
+        <v>0.1087418906074801</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04431902586110487</v>
+        <v>0.01961435165147625</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04434641852847225</v>
+        <v>0.109268264497607</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04089625063853124</v>
+        <v>0.03357840602845952</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05366945099187637</v>
+        <v>0.1102142705811848</v>
       </c>
       <c r="L132" t="n">
-        <v>0.097188523111608</v>
+        <v>0.08147636127346566</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05281282542341843</v>
+        <v>0.1106815357263551</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1543650329508883</v>
+        <v>0.1277469768542022</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05302756836872933</v>
+        <v>0.1103894950106237</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04446383236241371</v>
+        <v>0.0183690113176566</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04500830537218079</v>
+        <v>0.1108991341169743</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04072171701557185</v>
+        <v>0.03347346636762802</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05447048757384467</v>
+        <v>0.1118592596943368</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09646678296649486</v>
+        <v>0.08073120285868837</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05360107654914109</v>
+        <v>0.1123334989461515</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1534699218815821</v>
+        <v>0.126825427878324</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05381902461303872</v>
+        <v>0.1120370994137673</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04460523963751915</v>
+        <v>0.0181201105645555</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04567019221588933</v>
+        <v>0.1125300037363416</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0405430563197471</v>
+        <v>0.03305322987243622</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05527152415581298</v>
+        <v>0.1135042488074888</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09682818044904587</v>
+        <v>0.07953820002685538</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05438932767486376</v>
+        <v>0.1139854621659478</v>
       </c>
       <c r="N134" t="n">
-        <v>0.153652595558955</v>
+        <v>0.1242392750268839</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05461048085734812</v>
+        <v>0.113684703816911</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04474316913497933</v>
+        <v>0.01687229106374877</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04633207905959787</v>
+        <v>0.1141608733557088</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04056047498448555</v>
+        <v>0.03262581205445896</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05607256073778127</v>
+        <v>0.1151492379206409</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09587406222832834</v>
+        <v>0.07851704204256138</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05517757880058641</v>
+        <v>0.1156374253857442</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1539143774258798</v>
+        <v>0.1230194316615326</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05540193710165751</v>
+        <v>0.1153323082200546</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04487754230335238</v>
+        <v>0.01663019448681223</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04699396590330641</v>
+        <v>0.1157917429750761</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04077417944321571</v>
+        <v>0.03179932842527108</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05687359731974958</v>
+        <v>0.1167942270337929</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09570577497340954</v>
+        <v>0.07768741817040101</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05596582992630909</v>
+        <v>0.1172893886055405</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1523565909252299</v>
+        <v>0.1208968111439201</v>
       </c>
       <c r="O136" t="n">
-        <v>0.0561933933459669</v>
+        <v>0.1169799126231982</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0450082805911965</v>
+        <v>0.01639846250532165</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04765585274701496</v>
+        <v>0.1174226125944434</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0403843761293662</v>
+        <v>0.03168189449644743</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05767463390171789</v>
+        <v>0.1184392161469449</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09582466535335682</v>
+        <v>0.07626901767496902</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05675408105203174</v>
+        <v>0.1189413518253369</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1517805594998782</v>
+        <v>0.1206023268356973</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05698484959027629</v>
+        <v>0.1186275170263419</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04513530544706981</v>
+        <v>0.01818173679085285</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0483177395907235</v>
+        <v>0.1190534822138107</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04019127147636552</v>
+        <v>0.03128162577956285</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0584756704836862</v>
+        <v>0.1200842052600969</v>
       </c>
       <c r="L138" t="n">
-        <v>0.09483208003723737</v>
+        <v>0.0748815298208601</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05754233217775441</v>
+        <v>0.1205933150451332</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1524876065926979</v>
+        <v>0.1191668920985142</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05777630583458569</v>
+        <v>0.1202751214294855</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04525853831953045</v>
+        <v>0.01598465901498164</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04897962643443204</v>
+        <v>0.1206843518331779</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04009507191764225</v>
+        <v>0.03070663778619219</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05927670706565449</v>
+        <v>0.1217291943732489</v>
       </c>
       <c r="L139" t="n">
-        <v>0.09452936569411852</v>
+        <v>0.07394464387266891</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05833058330347707</v>
+        <v>0.1222452782649296</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1508790556465621</v>
+        <v>0.1177214202940213</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05856776207889508</v>
+        <v>0.1219227258326292</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04537790065713661</v>
+        <v>0.01781187084928382</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04964151327814058</v>
+        <v>0.1223152214525452</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04029598388662491</v>
+        <v>0.03066504602791027</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0600777436476228</v>
+        <v>0.1233741834864009</v>
       </c>
       <c r="L140" t="n">
-        <v>0.09371786899306755</v>
+        <v>0.07347804909499017</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05911883442919974</v>
+        <v>0.1238972414847259</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1502562301043437</v>
+        <v>0.1149968247838689</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05935921832320448</v>
+        <v>0.1235703302357728</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04549331390844642</v>
+        <v>0.01566801396533518</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05030340012184912</v>
+        <v>0.1239460910719125</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03999421381674209</v>
+        <v>0.03026496601629194</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0608787802295911</v>
+        <v>0.1250191725995529</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0935989366031518</v>
+        <v>0.07270143475241858</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0599070855549224</v>
+        <v>0.1255492047045222</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1503204534089161</v>
+        <v>0.1147240189297075</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06015067456751386</v>
+        <v>0.1252179346389164</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04560469952201802</v>
+        <v>0.01755773003471155</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05096528696555766</v>
+        <v>0.1255769606912797</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03978996814142234</v>
+        <v>0.03001451326291209</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06167981681155941</v>
+        <v>0.126664161712705</v>
       </c>
       <c r="L142" t="n">
-        <v>0.09357391519343849</v>
+        <v>0.07223449010954888</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06069533668064506</v>
+        <v>0.1272011679243186</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1496730490031521</v>
+        <v>0.1143339160931875</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06094213081182326</v>
+        <v>0.1268655390420601</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04571197894640957</v>
+        <v>0.01648566072898873</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0516271738092662</v>
+        <v>0.127207830310647</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03968345329409419</v>
+        <v>0.02972180327934548</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06248085339352771</v>
+        <v>0.128309150825857</v>
       </c>
       <c r="L143" t="n">
-        <v>0.09264415143299493</v>
+        <v>0.07109690443097572</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06148358780636772</v>
+        <v>0.1288531311441149</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1498153403299249</v>
+        <v>0.1132574296359593</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06173358705613265</v>
+        <v>0.1285131434452037</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04581507363017922</v>
+        <v>0.01745644771974251</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05228906065297474</v>
+        <v>0.1288386999300143</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0395748757081862</v>
+        <v>0.02959495157716704</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06328188997549601</v>
+        <v>0.129954139939009</v>
       </c>
       <c r="L144" t="n">
-        <v>0.0929109919908884</v>
+        <v>0.07090836698129374</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06227183893209039</v>
+        <v>0.1305050943639113</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1492486508321076</v>
+        <v>0.1118254729196732</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06252504330044203</v>
+        <v>0.1301607478483473</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04591390502188512</v>
+        <v>0.01645865412478097</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05295094749668328</v>
+        <v>0.1304695695493815</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03966444181712692</v>
+        <v>0.02944207366795155</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06408292655746432</v>
+        <v>0.131599129052161</v>
       </c>
       <c r="L145" t="n">
-        <v>0.09237578353618622</v>
+        <v>0.07088856702509772</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06306009005781306</v>
+        <v>0.1321570575837076</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1485743039525734</v>
+        <v>0.1116689593059796</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06331649954475144</v>
+        <v>0.131808352251491</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04600839457008542</v>
+        <v>0.01546792641075138</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05361283434039182</v>
+        <v>0.1321004391687488</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03965235805434492</v>
+        <v>0.02954525720238964</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06488396313943262</v>
+        <v>0.133244118165313</v>
       </c>
       <c r="L146" t="n">
-        <v>0.09173987273795564</v>
+        <v>0.07044717437492393</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06384834118353572</v>
+        <v>0.133809020803504</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1470936231341953</v>
+        <v>0.1123596966933207</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06410795578906082</v>
+        <v>0.1334559566546346</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04609846372333829</v>
+        <v>0.01648357551626007</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05427472118410036</v>
+        <v>0.1337313087881161</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03933883085326872</v>
+        <v>0.02956099691713028</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06568499972140093</v>
+        <v>0.134889107278465</v>
       </c>
       <c r="L147" t="n">
-        <v>0.09100460626526397</v>
+        <v>0.07087124759399988</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06463659230925838</v>
+        <v>0.1354609840233003</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1468079318198462</v>
+        <v>0.1117113644627462</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06489941203337023</v>
+        <v>0.1351035610577782</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04618403393020187</v>
+        <v>0.01750526037297045</v>
       </c>
       <c r="G148" t="n">
-        <v>0.05493660802780891</v>
+        <v>0.1353621784074834</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0395240666473269</v>
+        <v>0.02958779783625388</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06648603630336923</v>
+        <v>0.136534096391617</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09117133078717843</v>
+        <v>0.07052275802268329</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06542484343498103</v>
+        <v>0.1371129472430967</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1463185534523995</v>
+        <v>0.1125055212151195</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06569086827767961</v>
+        <v>0.1367511654609219</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04626502663923428</v>
+        <v>0.01553263991254595</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05559849487151745</v>
+        <v>0.1369930480268506</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03940827186994801</v>
+        <v>0.02972506363492614</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06728707288533753</v>
+        <v>0.138179085504769</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09054139297276642</v>
+        <v>0.0713002589009839</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06621309456070371</v>
+        <v>0.138764910462893</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1448268114747281</v>
+        <v>0.1115398954478872</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06648232452198902</v>
+        <v>0.1383987698640655</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04634136329899371</v>
+        <v>0.01656537306664999</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05626038171522599</v>
+        <v>0.1386239176462179</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03909165295456057</v>
+        <v>0.02977219798831274</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06808810946730584</v>
+        <v>0.139824074617921</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08961613949109512</v>
+        <v>0.07090230346891144</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06700134568642636</v>
+        <v>0.1404168736826893</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1450340293297053</v>
+        <v>0.1128122156584961</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06727378076629839</v>
+        <v>0.1400463742672092</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04641296535803831</v>
+        <v>0.016603118766946</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05692226855893453</v>
+        <v>0.1402547872655852</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03917441633459319</v>
+        <v>0.02982860457157936</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06888914604927414</v>
+        <v>0.1414690637310731</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0890969170112319</v>
+        <v>0.07072744496647565</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06778959681214902</v>
+        <v>0.1420688369024857</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1443415304602038</v>
+        <v>0.1128202103443929</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06806523701060779</v>
+        <v>0.1416939786703528</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0464797542649262</v>
+        <v>0.01764553594509739</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05758415540264307</v>
+        <v>0.1418856568849524</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03865676844347438</v>
+        <v>0.02989368705989176</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06969018263124245</v>
+        <v>0.1431140528442251</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08898507220224403</v>
+        <v>0.0708742366336863</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06857784793787169</v>
+        <v>0.1437208001222821</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1430506383090971</v>
+        <v>0.1122616080030241</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06885669325491718</v>
+        <v>0.1433415830734964</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04654165146821556</v>
+        <v>0.0156922835327676</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0582460422463516</v>
+        <v>0.1435165265043197</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0389389157146327</v>
+        <v>0.02996684912841563</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07049121921321075</v>
+        <v>0.1447590419573771</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08828195173319875</v>
+        <v>0.07164123171055323</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06936609906359437</v>
+        <v>0.1453727633420784</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1425626763192581</v>
+        <v>0.1137341371318366</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06964814949922658</v>
+        <v>0.1449891874766401</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04659857841646454</v>
+        <v>0.01674302046162005</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05890792909006016</v>
+        <v>0.145147396123687</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0388210645814967</v>
+        <v>0.02994749445231665</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07129225579517906</v>
+        <v>0.1464040310705291</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08818890227316337</v>
+        <v>0.07152698343708608</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07015435018931702</v>
+        <v>0.1470247265618747</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1423789679335598</v>
+        <v>0.1129355262282769</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07043960574353597</v>
+        <v>0.1466367918797837</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04665045655823127</v>
+        <v>0.01679740566331814</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0595698159337687</v>
+        <v>0.1467782657430542</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03830342147749495</v>
+        <v>0.03013502670676052</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07209329237714736</v>
+        <v>0.1480490201836811</v>
       </c>
       <c r="L155" t="n">
-        <v>0.0874072704912052</v>
+        <v>0.07193004505329456</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07094260131503968</v>
+        <v>0.1486766897816711</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1418008365948755</v>
+        <v>0.1132635037897918</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07123106198784537</v>
+        <v>0.1482843962829273</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04669720734207392</v>
+        <v>0.01585509806952531</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06023170277747723</v>
+        <v>0.1484091353624215</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03858619283605597</v>
+        <v>0.03032884956691297</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07289432895911566</v>
+        <v>0.1496940092968331</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0877384030563915</v>
+        <v>0.0725489697991886</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07173085244076234</v>
+        <v>0.1503286530014674</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1419296057460782</v>
+        <v>0.1149157983138279</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07202251823215475</v>
+        <v>0.149932000686071</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04673875221655063</v>
+        <v>0.01793506817675281</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06089358962118577</v>
+        <v>0.1500400049817888</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03836958509060834</v>
+        <v>0.03042836670793966</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07369536554108397</v>
+        <v>0.1513389984099851</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08718364663778955</v>
+        <v>0.0719823109147778</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07251910356648501</v>
+        <v>0.1519806162212638</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1404665988300409</v>
+        <v>0.114690138297832</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07281397447646415</v>
+        <v>0.1515796050892146</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04677501263021955</v>
+        <v>0.01806955328595464</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06155547646489432</v>
+        <v>0.1516708746011561</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03834983949540866</v>
+        <v>0.03037269062922525</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07449640212305227</v>
+        <v>0.1529839875231372</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0867382404152926</v>
+        <v>0.07235243453262008</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07330735469220767</v>
+        <v>0.1536325794410601</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1397027973755094</v>
+        <v>0.1142840394704284</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07360543072077354</v>
+        <v>0.1532272094923583</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04680591003163884</v>
+        <v>0.01824932998473375</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06221736330860286</v>
+        <v>0.1533017442205233</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03792081827107087</v>
+        <v>0.03061123460923651</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07529743870502058</v>
+        <v>0.1546289766362892</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08619258149601441</v>
+        <v>0.07282953495794656</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07409560581793033</v>
+        <v>0.1552845426608565</v>
       </c>
       <c r="N159" t="n">
-        <v>0.139921668002728</v>
+        <v>0.1159341417619813</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07439688696508294</v>
+        <v>0.1548748138955019</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04683136586936667</v>
+        <v>0.01846410224320664</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0628792501523114</v>
+        <v>0.1549326138398906</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03798289998501383</v>
+        <v>0.03082666369412346</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07609847528698888</v>
+        <v>0.1562739657494412</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08574645099781428</v>
+        <v>0.07421174081887441</v>
       </c>
       <c r="M160" t="n">
-        <v>0.074883856943653</v>
+        <v>0.1569365058806528</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1398233993328567</v>
+        <v>0.1170880763212396</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07518834320939233</v>
+        <v>0.1565224182986455</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04685130159196114</v>
+        <v>0.01670357403148982</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06354113699601995</v>
+        <v>0.1565634834592579</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03773655784549494</v>
+        <v>0.03140097627641984</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07689951186895719</v>
+        <v>0.1579189548625932</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08559977881604114</v>
+        <v>0.07505537792317771</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07567210806937566</v>
+        <v>0.1585884691004492</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1382084519171937</v>
+        <v>0.1183772719685855</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07597979945370173</v>
+        <v>0.1581700227017892</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04686563864798043</v>
+        <v>0.01895744931969982</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06420302383972848</v>
+        <v>0.1581943530786251</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03748226506077158</v>
+        <v>0.03191617074865964</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07770054845092549</v>
+        <v>0.1595639439757452</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08495249484604395</v>
+        <v>0.07591677207863068</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07646035919509833</v>
+        <v>0.1602404323202455</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1380772863070368</v>
+        <v>0.1204331575244011</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07677125569801112</v>
+        <v>0.1598176271049328</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0468742984859827</v>
+        <v>0.01721543207795311</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06486491068343703</v>
+        <v>0.1598252226979924</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03732049483910109</v>
+        <v>0.03205424550337663</v>
       </c>
       <c r="K163" t="n">
-        <v>0.0785015850328938</v>
+        <v>0.1612089330888972</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08460452898317172</v>
+        <v>0.07625224909300737</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07724861032082099</v>
+        <v>0.1618923955400418</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1372303630536839</v>
+        <v>0.1218871618090689</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07756271194232051</v>
+        <v>0.1614652315080764</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04687720255452609</v>
+        <v>0.01846722627636625</v>
       </c>
       <c r="G164" t="n">
-        <v>0.06552679752714556</v>
+        <v>0.1614560923173597</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03715172038874086</v>
+        <v>0.0324971989331047</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0793026216148621</v>
+        <v>0.1628539222020492</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08435581112277343</v>
+        <v>0.07751813477408206</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07803686144654365</v>
+        <v>0.1635443587598382</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1367681427084328</v>
+        <v>0.1237707136429706</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07835416818662989</v>
+        <v>0.1631128359112201</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04687720255452609</v>
+        <v>0.01870253588505572</v>
       </c>
       <c r="G165" t="n">
-        <v>0.06552679752714556</v>
+        <v>0.1630869619367269</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0369764149179483</v>
+        <v>0.03292702943037767</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08010365819683039</v>
+        <v>0.1644989113152013</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08470627116019805</v>
+        <v>0.07877075492962882</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07882511257226631</v>
+        <v>0.1651963219796345</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1365910858225817</v>
+        <v>0.1256152418464887</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0791456244309393</v>
+        <v>0.1647604403143637</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04607401717233685</v>
+        <v>0.01891106487413804</v>
       </c>
       <c r="G166" t="n">
-        <v>0.06552652899868154</v>
+        <v>0.1647178315560942</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03689505163498073</v>
+        <v>0.03332573538772945</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08090469477879871</v>
+        <v>0.1661439004283533</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0844558389907944</v>
+        <v>0.07946643536742184</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07961336369798898</v>
+        <v>0.1668482851994309</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1349996529474282</v>
+        <v>0.1260521752400052</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07993708067524868</v>
+        <v>0.1664080447175074</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04527988234370647</v>
+        <v>0.01909367369353821</v>
       </c>
       <c r="G167" t="n">
-        <v>0.06552626047021753</v>
+        <v>0.1663487011754615</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03690810374809556</v>
+        <v>0.03397531519769387</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08170573136076702</v>
+        <v>0.1677888895415053</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08360444450991164</v>
+        <v>0.08036150189523528</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08040161482371164</v>
+        <v>0.1685002484192272</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1349943046342703</v>
+        <v>0.1284129426439022</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08072853691955809</v>
+        <v>0.168055649120651</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04449523589550933</v>
+        <v>0.02027085062569672</v>
       </c>
       <c r="G168" t="n">
-        <v>0.0655259919417535</v>
+        <v>0.1679795707948287</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03641604446555015</v>
+        <v>0.03408643838219351</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08250676794273532</v>
+        <v>0.1694338786546573</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08295201761289858</v>
+        <v>0.08143330286611208</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0811898659494343</v>
+        <v>0.1701522116390236</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1339755014344058</v>
+        <v>0.1287039475330679</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08151999316386747</v>
+        <v>0.1697032535237946</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04372051565472224</v>
+        <v>0.0194437925734477</v>
       </c>
       <c r="G169" t="n">
-        <v>0.06552572341328949</v>
+        <v>0.169610440414196</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03621934699560189</v>
+        <v>0.03448961973998682</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08330780452470361</v>
+        <v>0.1710788677678093</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08339848819510431</v>
+        <v>0.08197010544412867</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08197811707515697</v>
+        <v>0.1718041748588199</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1334437038991327</v>
+        <v>0.1306595174948202</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08231144940817688</v>
+        <v>0.1713508579269383</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0429561594482192</v>
+        <v>0.02061282615784787</v>
       </c>
       <c r="G170" t="n">
-        <v>0.06552545488482547</v>
+        <v>0.1712413100335633</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03601848454650816</v>
+        <v>0.03478556070148235</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08410884110667191</v>
+        <v>0.1727238568809613</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08274378615187775</v>
+        <v>0.08318886039521464</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08276636820087964</v>
+        <v>0.1734561380786163</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1318993725797489</v>
+        <v>0.1308872233113025</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08310290565248625</v>
+        <v>0.1729984623300819</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04220260510290862</v>
+        <v>0.02077827799995396</v>
       </c>
       <c r="G171" t="n">
-        <v>0.06552518635636147</v>
+        <v>0.1728721796529306</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03611393032652632</v>
+        <v>0.03497483233184986</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08490987768864022</v>
+        <v>0.1743688459941133</v>
       </c>
       <c r="L171" t="n">
-        <v>0.0821878413785678</v>
+        <v>0.08329095319619725</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0835546193266023</v>
+        <v>0.1751081012984126</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1308429680275523</v>
+        <v>0.1317892402667167</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08389436189679565</v>
+        <v>0.1746460667332255</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04146029044566688</v>
+        <v>0.02094047472082269</v>
       </c>
       <c r="G172" t="n">
-        <v>0.06552491782789743</v>
+        <v>0.1745030492722978</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03560615754391376</v>
+        <v>0.03525800569625918</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08571091427060853</v>
+        <v>0.1760138351072653</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08193058377052354</v>
+        <v>0.08407776932390384</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08434287045232496</v>
+        <v>0.1767600645182089</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1305749507938406</v>
+        <v>0.1337677436452648</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08468581814110504</v>
+        <v>0.1762936711363692</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04072965330346701</v>
+        <v>0.01909974294151078</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06552464929943343</v>
+        <v>0.1761339188916651</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03529563940692784</v>
+        <v>0.03533565185988005</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08651195085257683</v>
+        <v>0.1776588242204173</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08107194322309386</v>
+        <v>0.08525069425516166</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08513112157804761</v>
+        <v>0.1784120277380053</v>
       </c>
       <c r="N173" t="n">
-        <v>0.129795781429912</v>
+        <v>0.1343249087311485</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08547727438541444</v>
+        <v>0.1779412755395128</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04001113150318484</v>
+        <v>0.02025640928307496</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06552438077096941</v>
+        <v>0.1777647885110324</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03548284912382597</v>
+        <v>0.03600834188788223</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08731298743454513</v>
+        <v>0.1793038133335693</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08131184963162774</v>
+        <v>0.08541111346679792</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08591937270377029</v>
+        <v>0.1800639909578016</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1295059204870642</v>
+        <v>0.1359629108085698</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08626873062972383</v>
+        <v>0.1795888799426565</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0393051628717288</v>
+        <v>0.02041080036657197</v>
       </c>
       <c r="G175" t="n">
-        <v>0.06552411224250539</v>
+        <v>0.1793956581303996</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03506825990286547</v>
+        <v>0.03597664684543549</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08811402401651343</v>
+        <v>0.1809488024467214</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08125023289147415</v>
+        <v>0.08616041243563996</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08670762382949294</v>
+        <v>0.181715954177598</v>
       </c>
       <c r="N175" t="n">
-        <v>0.127905828516595</v>
+        <v>0.1371839251617307</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08706018687403323</v>
+        <v>0.1812364843458001</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03861218523597743</v>
+        <v>0.02156324281305853</v>
       </c>
       <c r="G176" t="n">
-        <v>0.06552384371404137</v>
+        <v>0.1810265277497669</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03495234495230376</v>
+        <v>0.03624113779770959</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08891506059848175</v>
+        <v>0.1825937915598734</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07998702289798207</v>
+        <v>0.08669997663851503</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0874958749552156</v>
+        <v>0.1833679173973943</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1273959660698026</v>
+        <v>0.1368901270748328</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08785164311834262</v>
+        <v>0.1828840887489437</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03793263642289946</v>
+        <v>0.02171406324359136</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06552357518557735</v>
+        <v>0.1826573973691342</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03453557748039823</v>
+        <v>0.03650238580987433</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08971609718045005</v>
+        <v>0.1842387806730254</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08032214954650049</v>
+        <v>0.08703119155225036</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08828412608093827</v>
+        <v>0.1850198806171907</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1263767936979847</v>
+        <v>0.1392836918320783</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08864309936265201</v>
+        <v>0.1845316931520874</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03726695425937287</v>
+        <v>0.01986506309727665</v>
       </c>
       <c r="G178" t="n">
-        <v>0.06552330665711334</v>
+        <v>0.1842882669885015</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03461843069540621</v>
+        <v>0.03706096194709946</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09051713376241835</v>
+        <v>0.1858837697861774</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07945554273237831</v>
+        <v>0.08805544265367335</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08907237720666093</v>
+        <v>0.186671843836987</v>
       </c>
       <c r="N178" t="n">
-        <v>0.126648771952439</v>
+        <v>0.139266794717669</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0894345556069614</v>
+        <v>0.186179297555231</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03661557657230605</v>
+        <v>0.02102472602678992</v>
       </c>
       <c r="G179" t="n">
-        <v>0.06552303812864932</v>
+        <v>0.1859191366078687</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0344013778055851</v>
+        <v>0.03702339300416055</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09131817034438665</v>
+        <v>0.1875287588993294</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07958713235096451</v>
+        <v>0.08897788360962358</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0898606283323836</v>
+        <v>0.1883238070567834</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1255123613844638</v>
+        <v>0.14115682750751</v>
       </c>
       <c r="O179" t="n">
-        <v>0.0902260118512708</v>
+        <v>0.1878269019583746</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03597894118858003</v>
+        <v>0.0201897010752641</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0655227696001853</v>
+        <v>0.187550006227236</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03378489201919227</v>
+        <v>0.0373011667544542</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09211920692635496</v>
+        <v>0.1891737480124814</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07901684829760808</v>
+        <v>0.08953472049883465</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09064887945810626</v>
+        <v>0.1899757702765797</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1240680225453567</v>
+        <v>0.1420053714561576</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09101746809558019</v>
+        <v>0.1894745063615183</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03535748593515867</v>
+        <v>0.02235437746901545</v>
       </c>
       <c r="G181" t="n">
-        <v>0.06552250107172128</v>
+        <v>0.1891808758466032</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0335694465444851</v>
+        <v>0.03788549575232596</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09292024350832327</v>
+        <v>0.1908187371256334</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07874462046765801</v>
+        <v>0.09051583416813014</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09143713058382892</v>
+        <v>0.191627733496376</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1233162159864157</v>
+        <v>0.1427838282452848</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09180892433988959</v>
+        <v>0.1911221107646619</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03475164863892233</v>
+        <v>0.02051314443436018</v>
       </c>
       <c r="G182" t="n">
-        <v>0.06552223254325727</v>
+        <v>0.1908117454659705</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03345551458972096</v>
+        <v>0.03776657010536297</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09372128009029157</v>
+        <v>0.1924637262387855</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07857037875646322</v>
+        <v>0.09039742456922217</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09222538170955158</v>
+        <v>0.1932796967161724</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1232574022589388</v>
+        <v>0.1437548303289133</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09260038058419898</v>
+        <v>0.1927697151678055</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03416186712677941</v>
+        <v>0.02266039119761455</v>
       </c>
       <c r="G183" t="n">
-        <v>0.06552196401479325</v>
+        <v>0.1924426150853378</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03324356936315727</v>
+        <v>0.03813457992115236</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09452231667225987</v>
+        <v>0.1941087153519375</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07749405305937268</v>
+        <v>0.09165569165382292</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09301363283527425</v>
+        <v>0.1949316599359687</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1209920419142237</v>
+        <v>0.1441810101610649</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09339183682850836</v>
+        <v>0.1944173195709492</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03358857922561376</v>
+        <v>0.02179050698509478</v>
       </c>
       <c r="G184" t="n">
-        <v>0.06552169548632923</v>
+        <v>0.1940734847047051</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03313408407305132</v>
+        <v>0.03837971530728133</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09532335325422818</v>
+        <v>0.1957537044650895</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07781557327173538</v>
+        <v>0.09166683537364448</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09380188396099691</v>
+        <v>0.1965836231557651</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1210205955035683</v>
+        <v>0.1451250001957615</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09418329307281775</v>
+        <v>0.1960649239740928</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03303222276238369</v>
+        <v>0.0228978810231171</v>
       </c>
       <c r="G185" t="n">
-        <v>0.06552142695786521</v>
+        <v>0.1957043543240723</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03272753192766056</v>
+        <v>0.038692166371337</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09612438983619648</v>
+        <v>0.1973986935782415</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07683486928890026</v>
+        <v>0.09300705568039894</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09459013508671958</v>
+        <v>0.1982355863755615</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1201435235782706</v>
+        <v>0.1458494328870247</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09497474931712716</v>
+        <v>0.1977125283772365</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03249323556397229</v>
+        <v>0.02097690253799776</v>
       </c>
       <c r="G186" t="n">
-        <v>0.06552115842940121</v>
+        <v>0.1973352239434396</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03282438613524233</v>
+        <v>0.03906212322090653</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09692542641816479</v>
+        <v>0.1990436826913935</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07695187100621628</v>
+        <v>0.09325255252579848</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09537838621244224</v>
+        <v>0.1998875495953578</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1184612866896285</v>
+        <v>0.1467169406888764</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09576620556143654</v>
+        <v>0.1993601327803801</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03197205545728798</v>
+        <v>0.02203716199333051</v>
       </c>
       <c r="G187" t="n">
-        <v>0.06552088990093718</v>
+        <v>0.1989660935628069</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03232511990405403</v>
+        <v>0.03918183090007925</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09772646300013309</v>
+        <v>0.2006886718045455</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07616650831903246</v>
+        <v>0.09287952586155521</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09616663733816491</v>
+        <v>0.2015395128151541</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1176743453889398</v>
+        <v>0.1471924079313775</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09655766180574595</v>
+        <v>0.2010077371835237</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03146912026921766</v>
+        <v>0.02309605418724514</v>
       </c>
       <c r="G188" t="n">
-        <v>0.06552062137247316</v>
+        <v>0.2005969631821741</v>
       </c>
       <c r="J188" t="n">
-        <v>0.032430206442353</v>
+        <v>0.03908451857998814</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09852749958210139</v>
+        <v>0.2023336609176976</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07547871112269772</v>
+        <v>0.09332855670427334</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09695488846388757</v>
+        <v>0.2031914760349505</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1175831602275025</v>
+        <v>0.1485833566630428</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09734911805005533</v>
+        <v>0.2026553415866674</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03098486782671358</v>
+        <v>0.02315362851648007</v>
       </c>
       <c r="G189" t="n">
-        <v>0.06552035284400914</v>
+        <v>0.2022278328015414</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03214011895839665</v>
+        <v>0.03928494542933596</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0993285361640697</v>
+        <v>0.2039786500308496</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07548840931256107</v>
+        <v>0.09407190249076133</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09774313958961023</v>
+        <v>0.2048434392547468</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1171881917566144</v>
+        <v>0.1488657237668089</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09814057429436474</v>
+        <v>0.204302945989811</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0305179481634523</v>
+        <v>0.02320986433262894</v>
       </c>
       <c r="G190" t="n">
-        <v>0.06552008431554512</v>
+        <v>0.2038587024209087</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03185533066044235</v>
+        <v>0.03918307534639121</v>
       </c>
       <c r="K190" t="n">
-        <v>0.100129572746038</v>
+        <v>0.2056236391440016</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07469553278397142</v>
+        <v>0.09390972688572805</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09853139071533289</v>
+        <v>0.2064954024745431</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1158899005275734</v>
+        <v>0.14913937172505</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09893203053867411</v>
+        <v>0.2059505503929546</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03005807234708615</v>
+        <v>0.02226474098728533</v>
       </c>
       <c r="G191" t="n">
-        <v>0.06551981578708112</v>
+        <v>0.2054895720402759</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03157631475674749</v>
+        <v>0.03917887222942236</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1009306093280063</v>
+        <v>0.2072686282571536</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07460001143227774</v>
+        <v>0.09444194230177524</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09931964184105556</v>
+        <v>0.2081473656943395</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1146887470916775</v>
+        <v>0.1497041630201404</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09972348678298351</v>
+        <v>0.2075981547960983</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02960389041129471</v>
+        <v>0.02331823783204288</v>
       </c>
       <c r="G192" t="n">
-        <v>0.06551954725861708</v>
+        <v>0.2071204416596432</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0317035444555694</v>
+        <v>0.03967229997669788</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1017316459099746</v>
+        <v>0.2089136173703056</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07400177515282905</v>
+        <v>0.09426846115150464</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1001078929667782</v>
+        <v>0.2097993289141359</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1139851920002244</v>
+        <v>0.1501599601344548</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1005149430272929</v>
+        <v>0.2092457591992419</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02915584018302592</v>
+        <v>0.02237033421849518</v>
       </c>
       <c r="G193" t="n">
-        <v>0.06551927873015308</v>
+        <v>0.2087513112790105</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03143531213508959</v>
+        <v>0.03956332248648624</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1025326824919429</v>
+        <v>0.2105586064834576</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07400151140998881</v>
+        <v>0.09478919584751799</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1008961440925009</v>
+        <v>0.2114512921339322</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1120469202076755</v>
+        <v>0.1497066255503671</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1013063992716023</v>
+        <v>0.2108933636023856</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0287143594891683</v>
+        <v>0.02142100949823584</v>
       </c>
       <c r="G194" t="n">
-        <v>0.06551901020168906</v>
+        <v>0.2103821808983778</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03106908690442568</v>
+        <v>0.03965190365705593</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1033337190739112</v>
+        <v>0.2122035955966096</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07320007418091695</v>
+        <v>0.09510405880241707</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1016843952182235</v>
+        <v>0.2131032553537286</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1114370553403398</v>
+        <v>0.1505440217502518</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1020978555159117</v>
+        <v>0.2125409680055292</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02827988615663028</v>
+        <v>0.02347024302285849</v>
       </c>
       <c r="G195" t="n">
-        <v>0.06551874167322505</v>
+        <v>0.212013050517745</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03110477110763618</v>
+        <v>0.03983800738667542</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1041347556558795</v>
+        <v>0.2138485847097616</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07349737230132655</v>
+        <v>0.09551296242880364</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1024726463439462</v>
+        <v>0.2147552185735249</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1101608064398266</v>
+        <v>0.1512720112164833</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1028893117602211</v>
+        <v>0.2141885724086728</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0278528580123018</v>
+        <v>0.02251801414395672</v>
       </c>
       <c r="G196" t="n">
-        <v>0.06551847314476102</v>
+        <v>0.2136439201371123</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03114227289441912</v>
+        <v>0.03982159757361318</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1049357922378478</v>
+        <v>0.2154935738229136</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07299331195677711</v>
+        <v>0.0957158191392794</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1032608974696689</v>
+        <v>0.2164071817933212</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1094234927472085</v>
+        <v>0.1513904564314357</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1036807680045305</v>
+        <v>0.2158361768118164</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02743371288312851</v>
+        <v>0.02156430221312416</v>
       </c>
       <c r="G197" t="n">
-        <v>0.06551820461629701</v>
+        <v>0.2152747897564795</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03058150041447244</v>
+        <v>0.0399026381161377</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1057368288198161</v>
+        <v>0.2171385629360657</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07238779933282821</v>
+        <v>0.09591254134644611</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1040491485953915</v>
+        <v>0.2180591450131176</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1090304335035585</v>
+        <v>0.1515992198774836</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1044722242488399</v>
+        <v>0.2174837812149601</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02702288859600002</v>
+        <v>0.0236090865819544</v>
       </c>
       <c r="G198" t="n">
-        <v>0.06551793608783299</v>
+        <v>0.2169056593758469</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03072236181749417</v>
+        <v>0.03988109291251744</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1065378654017844</v>
+        <v>0.2187835520492176</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07228074061503958</v>
+        <v>0.09570304146290554</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1048373997211142</v>
+        <v>0.2197111082329139</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1064869479499493</v>
+        <v>0.1516981640370013</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1052636804931493</v>
+        <v>0.2191313856181037</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02662082297782476</v>
+        <v>0.02265234660204107</v>
       </c>
       <c r="G199" t="n">
-        <v>0.06551766755936898</v>
+        <v>0.2185365289952141</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03066476525318228</v>
+        <v>0.04025692586102088</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1073389019837527</v>
+        <v>0.2204285411623697</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07167204198897065</v>
+        <v>0.09628723190125946</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1056256508468369</v>
+        <v>0.2213630714527103</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1050983553274539</v>
+        <v>0.151787151392363</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1060551367374587</v>
+        <v>0.2207789900212474</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02622795385549422</v>
+        <v>0.02169406162497776</v>
       </c>
       <c r="G200" t="n">
-        <v>0.06551739903090495</v>
+        <v>0.2201673986145813</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03010861887123475</v>
+        <v>0.0399301008599165</v>
       </c>
       <c r="K200" t="n">
-        <v>0.108139938565721</v>
+        <v>0.2220735302755217</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07066160964018101</v>
+        <v>0.09596502507410953</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1064139019725595</v>
+        <v>0.2230150346725066</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1044699748771451</v>
+        <v>0.1520660444259432</v>
       </c>
       <c r="O200" t="n">
-        <v>0.106846592981768</v>
+        <v>0.222426594424391</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02584471905595107</v>
+        <v>0.0217342110023581</v>
       </c>
       <c r="G201" t="n">
-        <v>0.06551713050244094</v>
+        <v>0.2217982682339486</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03025383082134958</v>
+        <v>0.04010058180747275</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1089409751476893</v>
+        <v>0.2237185193886737</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07074934975423028</v>
+        <v>0.09643633339405761</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1072021530982822</v>
+        <v>0.224666997892303</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1026071258400958</v>
+        <v>0.1526347056201161</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1076380492260774</v>
+        <v>0.2240741988275347</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02547155640608637</v>
+        <v>0.02377277408577568</v>
       </c>
       <c r="G202" t="n">
-        <v>0.06551686197397692</v>
+        <v>0.2234291378533159</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03000030925322476</v>
+        <v>0.04046833260195816</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1097420117296576</v>
+        <v>0.2253635085018257</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07073516851667808</v>
+        <v>0.09670106927370536</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1079904042240049</v>
+        <v>0.2263189611120993</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1024151274573787</v>
+        <v>0.152192997457256</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1084295054703868</v>
+        <v>0.2257218032306783</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02510890373280856</v>
+        <v>0.02280973022682414</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0655165934455129</v>
+        <v>0.2250600074726832</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03004796231655829</v>
+        <v>0.04023331714164113</v>
       </c>
       <c r="K203" t="n">
-        <v>0.110543048311626</v>
+        <v>0.2270084976149777</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06951897211308389</v>
+        <v>0.09625914512565462</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1087786553497275</v>
+        <v>0.2279709243318957</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1001992989700667</v>
+        <v>0.1531407824197374</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1092209617146962</v>
+        <v>0.2273694076338219</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02475719886301096</v>
+        <v>0.02384505877709705</v>
       </c>
       <c r="G204" t="n">
-        <v>0.06551632491704888</v>
+        <v>0.2266908770920504</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02989669816104813</v>
+        <v>0.0404954993247902</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1113440848935943</v>
+        <v>0.2286534867281297</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06970066672900729</v>
+        <v>0.09701047336250704</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1095669064754502</v>
+        <v>0.229622887551692</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09846495961923285</v>
+        <v>0.1534779229899345</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1100124179590056</v>
+        <v>0.2290170120369656</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02441687962363261</v>
+        <v>0.02387873908818806</v>
       </c>
       <c r="G205" t="n">
-        <v>0.06551605638858486</v>
+        <v>0.2283217467114177</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02954642493639228</v>
+        <v>0.04045484304967381</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1121451214755625</v>
+        <v>0.2302984758412817</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06938015855000798</v>
+        <v>0.09665496639686444</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1103551576011728</v>
+        <v>0.2312748507714883</v>
       </c>
       <c r="N205" t="n">
-        <v>0.0980174286459497</v>
+        <v>0.1530042816502217</v>
       </c>
       <c r="O205" t="n">
-        <v>0.110803874203315</v>
+        <v>0.2306646164401092</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02408838384156637</v>
+        <v>0.02391075051169077</v>
       </c>
       <c r="G206" t="n">
-        <v>0.06551578786012086</v>
+        <v>0.229952616330785</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02949705079228876</v>
+        <v>0.04071131221456045</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1129461580575309</v>
+        <v>0.2319434649544337</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06905735376164543</v>
+        <v>0.09699253664132851</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1111434087268955</v>
+        <v>0.2329268139912847</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09556202529129026</v>
+        <v>0.1530197208829733</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1115953304476244</v>
+        <v>0.2323122208432528</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02377214934372065</v>
+        <v>0.02294107239919877</v>
       </c>
       <c r="G207" t="n">
-        <v>0.06551551933165684</v>
+        <v>0.2315834859501522</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02944848387843554</v>
+        <v>0.04076487071771863</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1137471946394992</v>
+        <v>0.2335884540675858</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06863215854947921</v>
+        <v>0.09762309650850104</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1119316598526182</v>
+        <v>0.234578777211081</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09480406879632736</v>
+        <v>0.1541241031705637</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1123867866919338</v>
+        <v>0.2339598252463965</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02346861395699093</v>
+        <v>0.0239696841023057</v>
       </c>
       <c r="G208" t="n">
-        <v>0.06551525080319281</v>
+        <v>0.2332143555695195</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02910063234453057</v>
+        <v>0.04041548245741675</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1145482312214675</v>
+        <v>0.2352334431807378</v>
       </c>
       <c r="L208" t="n">
-        <v>0.067604479099069</v>
+        <v>0.09744655841098379</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1127199109783408</v>
+        <v>0.2362307404308774</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09364887840213371</v>
+        <v>0.1540172909953673</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1131782429362432</v>
+        <v>0.2356074296495401</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02317821550831205</v>
+        <v>0.02199656497260514</v>
       </c>
       <c r="G209" t="n">
-        <v>0.06551498227472879</v>
+        <v>0.2348452251888868</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0291534043402719</v>
+        <v>0.04046311133192332</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1153492678034358</v>
+        <v>0.2368784322938898</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06707422159597426</v>
+        <v>0.09736283476137847</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1135081621040635</v>
+        <v>0.2378827036506737</v>
       </c>
       <c r="N209" t="n">
-        <v>0.0913017733497824</v>
+        <v>0.1547991468397582</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1139696991805526</v>
+        <v>0.2372550340526837</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02290139182457893</v>
+        <v>0.02202169436169071</v>
       </c>
       <c r="G210" t="n">
-        <v>0.06551471374626479</v>
+        <v>0.236476094808254</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02870670801535749</v>
+        <v>0.04060772123950683</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1161503043854041</v>
+        <v>0.2385234214070418</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06684129222575466</v>
+        <v>0.09727183797228683</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1142964132297862</v>
+        <v>0.2395346668704701</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09056807288034607</v>
+        <v>0.1535695331861108</v>
       </c>
       <c r="O210" t="n">
-        <v>0.114761155424862</v>
+        <v>0.2389026384558274</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02263858073269998</v>
+        <v>0.02304505162115605</v>
       </c>
       <c r="G211" t="n">
-        <v>0.06551444521780077</v>
+        <v>0.2381069644276213</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02886045151948531</v>
+        <v>0.04054927607843574</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1169513409673724</v>
+        <v>0.2401684105201938</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06670559717396971</v>
+        <v>0.09777348045631068</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1150846643555088</v>
+        <v>0.2411866300902664</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08905309623489771</v>
+        <v>0.1538283125167996</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1155526116691714</v>
+        <v>0.240550242858971</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02239022005957312</v>
+        <v>0.02406661610259474</v>
       </c>
       <c r="G212" t="n">
-        <v>0.06551417668933675</v>
+        <v>0.2397378340469886</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02851454300235338</v>
+        <v>0.04088773974697853</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1177523775493407</v>
+        <v>0.2418133996333458</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06616704262617903</v>
+        <v>0.0978676746260517</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1158729154812315</v>
+        <v>0.2428385933100628</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08776216265451003</v>
+        <v>0.1550753473141988</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1163440679134808</v>
+        <v>0.2421978472621146</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02215674763212838</v>
+        <v>0.02208636715760041</v>
       </c>
       <c r="G213" t="n">
-        <v>0.06551390816087273</v>
+        <v>0.2413687036663559</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02856889061365968</v>
+        <v>0.04062307614340366</v>
       </c>
       <c r="K213" t="n">
-        <v>0.118553414131309</v>
+        <v>0.2434583887464978</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06572553476794218</v>
+        <v>0.09805433289411167</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1166611666069541</v>
+        <v>0.2444905565298591</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08540059138025607</v>
+        <v>0.1540105000606827</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1171355241577902</v>
+        <v>0.2438454516652583</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02193860127726304</v>
+        <v>0.02410428413776663</v>
       </c>
       <c r="G214" t="n">
-        <v>0.06551363963240871</v>
+        <v>0.2429995732857231</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02812340250310222</v>
+        <v>0.04095524916597963</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1193544507132773</v>
+        <v>0.2451033778596499</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06508097978481878</v>
+        <v>0.09743336767309232</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1174494177326768</v>
+        <v>0.2461425197496554</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08427370165320858</v>
+        <v>0.1549336332386257</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1179269804020995</v>
+        <v>0.2454930560684019</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02193860127726305</v>
+        <v>0.02212034639468704</v>
       </c>
       <c r="G215" t="n">
-        <v>0.06551363963240871</v>
+        <v>0.2446304429050904</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02807798682037893</v>
+        <v>0.0408842227129749</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1201554872952456</v>
+        <v>0.2467483669728019</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06423328386236826</v>
+        <v>0.09750469137559545</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1182376688583995</v>
+        <v>0.2477944829694518</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08298681271444019</v>
+        <v>0.1553446093304022</v>
       </c>
       <c r="O215" t="n">
-        <v>0.118718436646409</v>
+        <v>0.2471406604715456</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02138282917826247</v>
+        <v>0.02413453327995527</v>
       </c>
       <c r="G216" t="n">
-        <v>0.06543120945530784</v>
+        <v>0.2462613125244577</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02803255171518784</v>
+        <v>0.04080996068265795</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1209565238772139</v>
+        <v>0.2483933560859539</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06448235318615042</v>
+        <v>0.09756821641422272</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1190259199841221</v>
+        <v>0.2494464461892481</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08284524380502406</v>
+        <v>0.1555432908183864</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1195098928907183</v>
+        <v>0.2487882648746892</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02083340330107566</v>
+        <v>0.02414682414516491</v>
       </c>
       <c r="G217" t="n">
-        <v>0.06534877927820697</v>
+        <v>0.2478921821438249</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02798700533722698</v>
+        <v>0.04083242697329728</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1217575604591822</v>
+        <v>0.2500383451991059</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06392809394172469</v>
+        <v>0.09792385520157601</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1198141711098448</v>
+        <v>0.2510984094090445</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08155431416603293</v>
+        <v>0.1550295401849527</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1203013491350277</v>
+        <v>0.2504358692778328</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02029065207981982</v>
+        <v>0.02415719834190957</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0652663491011061</v>
+        <v>0.2495230517631922</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02744125583619425</v>
+        <v>0.0407515854831613</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1225585970411505</v>
+        <v>0.2516833343122579</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06287041231465068</v>
+        <v>0.09837152015025688</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1206024222355675</v>
+        <v>0.2527503726288409</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07911934303853968</v>
+        <v>0.1553032199124756</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1210928053793371</v>
+        <v>0.2520834736809765</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01975490394861216</v>
+        <v>0.02316563522178285</v>
       </c>
       <c r="G219" t="n">
-        <v>0.06518391892400521</v>
+        <v>0.2511539213825595</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02759521136178771</v>
+        <v>0.04106740011051856</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1233596336231188</v>
+        <v>0.25332832342541</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06290921449048797</v>
+        <v>0.09811112367286728</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1213906733612901</v>
+        <v>0.2544023358486371</v>
       </c>
       <c r="N219" t="n">
-        <v>0.07834564966361701</v>
+        <v>0.1556641924833291</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1218842616236465</v>
+        <v>0.2537310780841202</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01922648734156995</v>
+        <v>0.02217211413637837</v>
       </c>
       <c r="G220" t="n">
-        <v>0.06510148874690436</v>
+        <v>0.2527847910019267</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02734878006370528</v>
+        <v>0.04077983475363747</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1241606702050871</v>
+        <v>0.254973312538562</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06214440665479615</v>
+        <v>0.09774257818200882</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1221789244870128</v>
+        <v>0.2560542990684335</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07833855328233791</v>
+        <v>0.1554123203798878</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1226757178679559</v>
+        <v>0.2553786824872638</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01870573069281023</v>
+        <v>0.02317661443728975</v>
       </c>
       <c r="G221" t="n">
-        <v>0.06501905856980349</v>
+        <v>0.254415660621294</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02720187009164503</v>
+        <v>0.04108885331078654</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1249617067870554</v>
+        <v>0.256618301651714</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06237589499313481</v>
+        <v>0.09856579609028332</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1229671756127354</v>
+        <v>0.2577062622882298</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07690337313577522</v>
+        <v>0.1557474660845259</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1234671741122653</v>
+        <v>0.2570262868904074</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01819296243645029</v>
+        <v>0.02417911547611059</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0649366283927026</v>
+        <v>0.2560465302406613</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02705438959530491</v>
+        <v>0.04109441968023426</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1257627433690237</v>
+        <v>0.258263290764866</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06130358569106348</v>
+        <v>0.09828068981029253</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1237554267384581</v>
+        <v>0.2593582255080262</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07624542846500171</v>
+        <v>0.1558694920796179</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1242586303565747</v>
+        <v>0.2586738912935511</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01768851100660734</v>
+        <v>0.02317746121837429</v>
       </c>
       <c r="G223" t="n">
-        <v>0.06485419821560173</v>
+        <v>0.2576773998600286</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02680624672438292</v>
+        <v>0.04109649776024908</v>
       </c>
       <c r="K223" t="n">
-        <v>0.126563779950992</v>
+        <v>0.259908279878018</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06102738493414175</v>
+        <v>0.09828717175463811</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1245436778641808</v>
+        <v>0.2610101887278226</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07577003851109032</v>
+        <v>0.1550782608475379</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1250500866008841</v>
+        <v>0.2603214956966947</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01719270483739858</v>
+        <v>0.0221304721681894</v>
       </c>
       <c r="G224" t="n">
-        <v>0.06477176803850086</v>
+        <v>0.2593082694793958</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02675734962857701</v>
+        <v>0.0408518296587676</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1273648165329603</v>
+        <v>0.26155326899117</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06024719890792923</v>
+        <v>0.09771623683858141</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1253319289899034</v>
+        <v>0.2626621519476189</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07428252251511386</v>
+        <v>0.1552315863023997</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1258415428451935</v>
+        <v>0.2619691000998383</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01670587236294119</v>
+        <v>0.02302721113372757</v>
       </c>
       <c r="G225" t="n">
-        <v>0.06468933786139999</v>
+        <v>0.2609391390987631</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02670760645758523</v>
+        <v>0.04060620782945223</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1281658531149286</v>
+        <v>0.263198258104322</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05966293379798548</v>
+        <v>0.09810489165556127</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1261201801156261</v>
+        <v>0.2643141151674153</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07358819971814506</v>
+        <v>0.1552015762749333</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1266329990895029</v>
+        <v>0.2636167045029819</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.0162283420173524</v>
+        <v>0.02287411511903998</v>
       </c>
       <c r="G226" t="n">
-        <v>0.06460690768429911</v>
+        <v>0.2625700087181304</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02635692536110552</v>
+        <v>0.04077043482431379</v>
       </c>
       <c r="K226" t="n">
-        <v>0.128966889696897</v>
+        <v>0.264843247217474</v>
       </c>
       <c r="L226" t="n">
-        <v>0.0594744957898701</v>
+        <v>0.09727125596210012</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1269084312413488</v>
+        <v>0.2659660783872116</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07419238936125694</v>
+        <v>0.1542260562853843</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1274244553338123</v>
+        <v>0.2652643089061256</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0157604422347494</v>
+        <v>0.02267762112817791</v>
       </c>
       <c r="G227" t="n">
-        <v>0.06452447750719824</v>
+        <v>0.2642008783374976</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02610521448883588</v>
+        <v>0.04045576511925215</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1297679262788652</v>
+        <v>0.266488236330626</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05868179106914267</v>
+        <v>0.09644263454999369</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1276966823670714</v>
+        <v>0.267618041607008</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07230041068552229</v>
+        <v>0.152247896543532</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1282159115781216</v>
+        <v>0.2669119133092692</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01530250144924945</v>
+        <v>0.02244416616519256</v>
       </c>
       <c r="G228" t="n">
-        <v>0.06444204733009738</v>
+        <v>0.2658317479568649</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02615238199047432</v>
+        <v>0.03977345319016722</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1305689628608336</v>
+        <v>0.268133225443778</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05808472582136268</v>
+        <v>0.09564633221103777</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1284849334927941</v>
+        <v>0.2692700048268042</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07221758293201397</v>
+        <v>0.1520099672591553</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1290073678224311</v>
+        <v>0.2685595177124129</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01485484809496963</v>
+        <v>0.02118018723413517</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0643596171529965</v>
+        <v>0.2674626175762322</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0261983360157188</v>
+        <v>0.03963475351295886</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1313699994428019</v>
+        <v>0.26977821455693</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05808320623208976</v>
+        <v>0.09440965373702817</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1292731846185168</v>
+        <v>0.2709219680466006</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07234922534180471</v>
+        <v>0.1497551386420335</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1297988240667405</v>
+        <v>0.2702071221155565</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01441781060602722</v>
+        <v>0.02289212133905698</v>
       </c>
       <c r="G230" t="n">
-        <v>0.06427718697589563</v>
+        <v>0.2690934871955994</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02584299230681718</v>
+        <v>0.03915092056352695</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1321710360247701</v>
+        <v>0.271423203670082</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05787713290997273</v>
+        <v>0.09375990391976072</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1300614357442394</v>
+        <v>0.272573931266397</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07199997041160261</v>
+        <v>0.1482262809019458</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1305902803110498</v>
+        <v>0.2718547265187001</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01399171741653939</v>
+        <v>0.02258640548400923</v>
       </c>
       <c r="G231" t="n">
-        <v>0.06419475679879476</v>
+        <v>0.2707243568149667</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02568695118677718</v>
+        <v>0.03863320881777141</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1329720726067385</v>
+        <v>0.2730681927832341</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05656579729986366</v>
+        <v>0.09242438755103119</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1308496868699621</v>
+        <v>0.2742258944861933</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07260006183730111</v>
+        <v>0.1461662642486712</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1313817365553592</v>
+        <v>0.2735023309218438</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01357689696062338</v>
+        <v>0.02126947667304312</v>
       </c>
       <c r="G232" t="n">
-        <v>0.06411232662169389</v>
+        <v>0.272355226434334</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02543063718649045</v>
+        <v>0.0379928727515921</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1337731091887067</v>
+        <v>0.274713181896386</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05694880348855774</v>
+        <v>0.09113040942263542</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1316379379956848</v>
+        <v>0.2758778577059897</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07280060295425744</v>
+        <v>0.1431179588919892</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1321731927996686</v>
+        <v>0.2751499353249874</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01317367767239637</v>
+        <v>0.01994777191020989</v>
       </c>
       <c r="G233" t="n">
-        <v>0.064029896444593</v>
+        <v>0.2739860960537013</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02557405170964352</v>
+        <v>0.03744116684088891</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1345741457706751</v>
+        <v>0.2763581710095381</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05552622077968994</v>
+        <v>0.09000527432636915</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1324261891214074</v>
+        <v>0.277529820925786</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07250200074503121</v>
+        <v>0.1421242350416786</v>
       </c>
       <c r="O233" t="n">
-        <v>0.132964649043978</v>
+        <v>0.276797539728131</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01278238798597556</v>
+        <v>0.02062772819956079</v>
       </c>
       <c r="G234" t="n">
-        <v>0.06394746626749213</v>
+        <v>0.2756169656730685</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02531719615992296</v>
+        <v>0.03668934556156174</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1353751823526434</v>
+        <v>0.2780031601226901</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05509811847689533</v>
+        <v>0.0880762870540282</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1332144402471301</v>
+        <v>0.2791817841455824</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07200466219218188</v>
+        <v>0.1399279629075189</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1337561052882874</v>
+        <v>0.2784451441312747</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01240335633547816</v>
+        <v>0.02131578254514703</v>
       </c>
       <c r="G235" t="n">
-        <v>0.06386503609039126</v>
+        <v>0.2772478352924358</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02516007194101536</v>
+        <v>0.03634866338951045</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1361762189346117</v>
+        <v>0.2796481492358421</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05506456588380887</v>
+        <v>0.0866707523974084</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1340026913728527</v>
+        <v>0.2808337473653787</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07180899427826892</v>
+        <v>0.1382720126992888</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1345475615325968</v>
+        <v>0.2800927485344183</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01203691115502144</v>
+        <v>0.02101837195101986</v>
       </c>
       <c r="G236" t="n">
-        <v>0.06378260591329039</v>
+        <v>0.2788787049118031</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02510268045660723</v>
+        <v>0.03563037480063497</v>
       </c>
       <c r="K236" t="n">
-        <v>0.13697725551658</v>
+        <v>0.2812931383489941</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05472563230406555</v>
+        <v>0.08551597514830553</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1347909424985754</v>
+        <v>0.2824857105851751</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07191540398585183</v>
+        <v>0.1357992546267681</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1353390177769062</v>
+        <v>0.2817403529375619</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01168338087872246</v>
+        <v>0.02074193342123049</v>
       </c>
       <c r="G237" t="n">
-        <v>0.06370017573618952</v>
+        <v>0.2805095745311704</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02454502311038516</v>
+        <v>0.03514573427083512</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1377782920985483</v>
+        <v>0.2829381274621461</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05358138704130039</v>
+        <v>0.08433926009851536</v>
       </c>
       <c r="M237" t="n">
-        <v>0.135579193624298</v>
+        <v>0.2841376738049714</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07182429829749015</v>
+        <v>0.1332525588997353</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1361304740212156</v>
+        <v>0.2833879573407056</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0113430939406985</v>
+        <v>0.01848721448991764</v>
       </c>
       <c r="G238" t="n">
-        <v>0.06361774555908865</v>
+        <v>0.2821404441505376</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02478710130603567</v>
+        <v>0.03490231272551696</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1385793286805166</v>
+        <v>0.2845831165752982</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05373189939914838</v>
+        <v>0.08336363664960325</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1363674447500207</v>
+        <v>0.2857896370247677</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07283608419574333</v>
+        <v>0.1324638394976191</v>
       </c>
       <c r="O238" t="n">
-        <v>0.136921930265525</v>
+        <v>0.2850355617438492</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01101637877506676</v>
+        <v>0.01823402748841795</v>
       </c>
       <c r="G239" t="n">
-        <v>0.06353531538198778</v>
+        <v>0.2837713137699048</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02462891644724538</v>
+        <v>0.03416756768811095</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1393803652624849</v>
+        <v>0.2862281056884502</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05237723868124455</v>
+        <v>0.08281820477640817</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1371556958757434</v>
+        <v>0.2874416002445641</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07235116866317093</v>
+        <v>0.130313328463258</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1377133865098344</v>
+        <v>0.2866831661469929</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01070222270996587</v>
+        <v>0.01797987904337693</v>
       </c>
       <c r="G240" t="n">
-        <v>0.0634528852048869</v>
+        <v>0.2854021833892721</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02427046993770081</v>
+        <v>0.03383116180991329</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1401814018444532</v>
+        <v>0.2878730948016022</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05211747419122392</v>
+        <v>0.08186876733008439</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1379439470014661</v>
+        <v>0.2890935634643604</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07286995868233243</v>
+        <v>0.1286565050766894</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1385048427541438</v>
+        <v>0.2883307705501365</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01039290754364157</v>
+        <v>0.01872475390529332</v>
       </c>
       <c r="G241" t="n">
-        <v>0.06337045502778603</v>
+        <v>0.2870330530086394</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0242117631810885</v>
+        <v>0.03339306842865317</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1409824384264215</v>
+        <v>0.2895180839147542</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0518526752327215</v>
+        <v>0.08071525962456763</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1387321981271887</v>
+        <v>0.2907455266841568</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07269286123578728</v>
+        <v>0.1267932677767966</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1392962989984532</v>
+        <v>0.2899783749532801</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01008742060423248</v>
+        <v>0.0174686368246658</v>
       </c>
       <c r="G242" t="n">
-        <v>0.06328802485068516</v>
+        <v>0.2886639226280067</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02395279758109507</v>
+        <v>0.03325326088205988</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1417834750083898</v>
+        <v>0.2911630730279062</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05098291110937225</v>
+        <v>0.0796576169737935</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1395204492529114</v>
+        <v>0.2923974899039531</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07282028330609502</v>
+        <v>0.1250235150024626</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1400877552427625</v>
+        <v>0.2916259793564238</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.009786090325855812</v>
+        <v>0.01721151255199307</v>
       </c>
       <c r="G243" t="n">
-        <v>0.06320559467358429</v>
+        <v>0.2902947922473739</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02359357454140702</v>
+        <v>0.03261171250786264</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1425845115903581</v>
+        <v>0.2928080621410582</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05000825112481119</v>
+        <v>0.07819577469169769</v>
       </c>
       <c r="M243" t="n">
-        <v>0.140308700378634</v>
+        <v>0.2940494531237495</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07335263187581514</v>
+        <v>0.124447145192571</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1408792114870719</v>
+        <v>0.2932735837595674</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009489245142628805</v>
+        <v>0.01895336583777382</v>
       </c>
       <c r="G244" t="n">
-        <v>0.06312316449648342</v>
+        <v>0.2919256618667412</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02363409546571094</v>
+        <v>0.0323683966437907</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1433855481723264</v>
+        <v>0.2944530512542102</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05022876458267342</v>
+        <v>0.07702966809221595</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1410969515043567</v>
+        <v>0.2957014163435458</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07199031392750715</v>
+        <v>0.1216640567860048</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1416706677313813</v>
+        <v>0.2949211881627111</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009197213488668587</v>
+        <v>0.01769418143250675</v>
       </c>
       <c r="G245" t="n">
-        <v>0.06304073431938255</v>
+        <v>0.2935565314861085</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02337436175769339</v>
+        <v>0.03192328662757328</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1441865847542947</v>
+        <v>0.2960980403673623</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04904452078659374</v>
+        <v>0.07565923248928386</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1418852026300794</v>
+        <v>0.2973533795633422</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07243373644373052</v>
+        <v>0.1208741482216474</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1424621239756907</v>
+        <v>0.2965687925658547</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.008910323798092395</v>
+        <v>0.01843394408669055</v>
       </c>
       <c r="G246" t="n">
-        <v>0.06295830414228168</v>
+        <v>0.2951874011054758</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02351437482104092</v>
+        <v>0.03117635579693964</v>
       </c>
       <c r="K246" t="n">
-        <v>0.144987621336263</v>
+        <v>0.2977430294805142</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04835558904020734</v>
+        <v>0.07528440319683721</v>
       </c>
       <c r="M246" t="n">
-        <v>0.142673453755802</v>
+        <v>0.2990053427831385</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07268330640704479</v>
+        <v>0.118177317938382</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1432535802200001</v>
+        <v>0.2982163969689983</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008628904505017423</v>
+        <v>0.01717263855082393</v>
       </c>
       <c r="G247" t="n">
-        <v>0.0628758739651808</v>
+        <v>0.296818270724843</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02295413605944008</v>
+        <v>0.03082757748961898</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1457886579182313</v>
+        <v>0.2993880185936663</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04776203864714915</v>
+        <v>0.07430511552881156</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1434617048815247</v>
+        <v>0.3006573060029348</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07243943080000953</v>
+        <v>0.1163734643750919</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1440450364643095</v>
+        <v>0.299864001372142</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008353284043560893</v>
+        <v>0.01691024957540557</v>
       </c>
       <c r="G248" t="n">
-        <v>0.06279344378807993</v>
+        <v>0.2984491403442103</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02319364687657745</v>
+        <v>0.03037692504334059</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1465896945001996</v>
+        <v>0.3010330077068183</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04726393891105418</v>
+        <v>0.07242130479914263</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1442499560072474</v>
+        <v>0.3023092692227312</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07290251660518404</v>
+        <v>0.1157624859706603</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1448364927086189</v>
+        <v>0.3015116057752856</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008083790847839986</v>
+        <v>0.01664676191093418</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06271101361097906</v>
+        <v>0.3000800099635775</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02303290867613957</v>
+        <v>0.02982437179583368</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1473907310821679</v>
+        <v>0.3026779968199703</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04666135913555744</v>
+        <v>0.07193290632176613</v>
       </c>
       <c r="M249" t="n">
-        <v>0.14503820713297</v>
+        <v>0.3039612324425275</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07317297080512797</v>
+        <v>0.1134442811639704</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1456279489529283</v>
+        <v>0.3031592101784292</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007820753351971917</v>
+        <v>0.01538216030790843</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06262858343387818</v>
+        <v>0.3017108795829448</v>
       </c>
       <c r="J250" t="n">
-        <v>0.022871922861813</v>
+        <v>0.02966989108482747</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1481917676641362</v>
+        <v>0.3043229859331223</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04645436862429397</v>
+        <v>0.07103985541061777</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1458264582586927</v>
+        <v>0.3056131956623239</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07325120038240079</v>
+        <v>0.1115187483939056</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1464194051972377</v>
+        <v>0.3048068145815728</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.007564499990073886</v>
+        <v>0.01511642951682706</v>
       </c>
       <c r="G251" t="n">
-        <v>0.0625461532567773</v>
+        <v>0.3033417492023121</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02231069083728431</v>
+        <v>0.02921345624805123</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1489928042461045</v>
+        <v>0.3059679750462743</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04544303668089875</v>
+        <v>0.06924208737963314</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1466147093844153</v>
+        <v>0.3072651588821202</v>
       </c>
       <c r="N251" t="n">
-        <v>0.073737612319562</v>
+        <v>0.1106857860993491</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1472108614415471</v>
+        <v>0.3064544189847165</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007315359196263131</v>
+        <v>0.01684955428818872</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06246372307967644</v>
+        <v>0.3049726188216794</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02254921400624006</v>
+        <v>0.02835504062323418</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1497938408280728</v>
+        <v>0.3076129641594263</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04522743260900677</v>
+        <v>0.06863953754274796</v>
       </c>
       <c r="M252" t="n">
-        <v>0.147402960510138</v>
+        <v>0.3089171221019166</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07293261359917108</v>
+        <v>0.1081452927191842</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1480023176858565</v>
+        <v>0.3081020233878601</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007073659404656783</v>
+        <v>0.01558151937249214</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06238129290257557</v>
+        <v>0.3066034884410466</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02208749377236681</v>
+        <v>0.02809461754810555</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1505948774100412</v>
+        <v>0.3092579532725783</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04440762571225301</v>
+        <v>0.06713214121389788</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1481912116358607</v>
+        <v>0.3105690853217129</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07413661120378756</v>
+        <v>0.106497166692294</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1487937739301659</v>
+        <v>0.3097496277910038</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006839729049372079</v>
+        <v>0.01431230952023601</v>
       </c>
       <c r="G254" t="n">
-        <v>0.0622988627254747</v>
+        <v>0.3082343580604139</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02212553153935108</v>
+        <v>0.02783216036039461</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1513959139920095</v>
+        <v>0.3109029423857304</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04398368529427255</v>
+        <v>0.06621983370701864</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1489794627615833</v>
+        <v>0.3122210485415093</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07295001211597091</v>
+        <v>0.1046413064575619</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1495852301744753</v>
+        <v>0.3113972321941474</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006613896564526212</v>
+        <v>0.01504190948191901</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06221643254837382</v>
+        <v>0.3098652276797812</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0220633287108795</v>
+        <v>0.02706764239783059</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1521969505739778</v>
+        <v>0.3125479314988824</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04365568065870037</v>
+        <v>0.06510255033604592</v>
       </c>
       <c r="M255" t="n">
-        <v>0.149767713887306</v>
+        <v>0.3138730117613056</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07437322331828067</v>
+        <v>0.1030776104538711</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1503766864187847</v>
+        <v>0.3130448365972911</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006396490384236404</v>
+        <v>0.01577030400803986</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06213400237127295</v>
+        <v>0.3114960972991485</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02170088669063855</v>
+        <v>0.02670103699814268</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1529979871559461</v>
+        <v>0.3141929206120344</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04272368110917146</v>
+        <v>0.0644802264149153</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1505559650130286</v>
+        <v>0.3155249749811019</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07430665179327628</v>
+        <v>0.1006059771201049</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1511681426630941</v>
+        <v>0.3146924410004347</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006187838942619851</v>
+        <v>0.01449747784909722</v>
       </c>
       <c r="G257" t="n">
-        <v>0.06205157219417207</v>
+        <v>0.3131269669185157</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02173820688231487</v>
+        <v>0.0261323174990602</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1537990237379144</v>
+        <v>0.3158379097251864</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04148775594932083</v>
+        <v>0.06245279725756253</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1513442161387513</v>
+        <v>0.3171769382008983</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07385070452351722</v>
+        <v>0.09952630489514647</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1519595989074035</v>
+        <v>0.3163400454035784</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005988270673793747</v>
+        <v>0.01322341575558983</v>
       </c>
       <c r="G258" t="n">
-        <v>0.0619691420170712</v>
+        <v>0.314757836537883</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02127529068959495</v>
+        <v>0.02596145723831231</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1546000603198827</v>
+        <v>0.3174828988383384</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04104797448278344</v>
+        <v>0.06162019817792336</v>
       </c>
       <c r="M258" t="n">
-        <v>0.152132467264474</v>
+        <v>0.3188289014206946</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07390578849156315</v>
+        <v>0.09783849221787921</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1527510551517128</v>
+        <v>0.317987649806722</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005798114011875299</v>
+        <v>0.01394810247801635</v>
       </c>
       <c r="G259" t="n">
-        <v>0.06188671183997033</v>
+        <v>0.3163887061572503</v>
       </c>
       <c r="J259" t="n">
-        <v>0.0210121395161654</v>
+        <v>0.02538842955362827</v>
       </c>
       <c r="K259" t="n">
-        <v>0.155401096901851</v>
+        <v>0.3191278879514904</v>
       </c>
       <c r="L259" t="n">
-        <v>0.0403044060131944</v>
+        <v>0.06028236448993329</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1529207183901967</v>
+        <v>0.320480864640491</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07467231067997337</v>
+        <v>0.09594243752718629</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1535425113960222</v>
+        <v>0.3196352542098656</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005617697390981731</v>
+        <v>0.01467152276687549</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06180428166286946</v>
+        <v>0.3180195757766175</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02114875476571274</v>
+        <v>0.02501320778273738</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1562021334838193</v>
+        <v>0.3207728770646424</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04045711984418862</v>
+        <v>0.05973923150752819</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1537089695159193</v>
+        <v>0.3221328278602873</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07435067807130752</v>
+        <v>0.09473803926195096</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1543339676403316</v>
+        <v>0.3212828586130093</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005447349245230201</v>
+        <v>0.01239366137266595</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06172185148576859</v>
+        <v>0.3196504453959848</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02098513784192353</v>
+        <v>0.02453576526336879</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1570031700657876</v>
+        <v>0.3224178661777944</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03950618527940117</v>
+        <v>0.05839073454464358</v>
       </c>
       <c r="M261" t="n">
-        <v>0.154497220641642</v>
+        <v>0.3237847910800837</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07384129764812508</v>
+        <v>0.09252519586105651</v>
       </c>
       <c r="O261" t="n">
-        <v>0.155125423884641</v>
+        <v>0.3229304630161529</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005287398008737933</v>
+        <v>0.01211450304588642</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06163942130866772</v>
+        <v>0.3212813150153521</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02062129014848438</v>
+        <v>0.02385607533325175</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1578042066477559</v>
+        <v>0.3240628552909465</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03835167162246703</v>
+        <v>0.05703680891521526</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1552854717673646</v>
+        <v>0.32543675429988</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07404457639298551</v>
+        <v>0.09100380576338607</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1559168801289504</v>
+        <v>0.3245780674192965</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005138172115622133</v>
+        <v>0.01183403253703561</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06155699113156685</v>
+        <v>0.3229121846347193</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02065721308908178</v>
+        <v>0.02337411133011558</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1586052432297242</v>
+        <v>0.3257078444040984</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03789364817702121</v>
+        <v>0.05617738993317883</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1560737228930873</v>
+        <v>0.3270887175196764</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0747609212884483</v>
+        <v>0.08867376740782312</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1567083363732598</v>
+        <v>0.3262256718224402</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01355223459661219</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06147456095446597</v>
+        <v>0.3245430542540866</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02039290806740235</v>
+        <v>0.02268984659168943</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1594062798116925</v>
+        <v>0.3273528335172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03773218424669869</v>
+        <v>0.05471241291247003</v>
       </c>
       <c r="M264" t="n">
-        <v>0.15686197401881</v>
+        <v>0.3287406807394727</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07579073931707297</v>
+        <v>0.08623497923325063</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1574997926175692</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06146140305972912</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005599030407872373</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06146167158819314</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006194610741225598</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06146194011665716</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006786699630651316</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06146220864512118</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007375255706663912</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.0614624771735852</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.007960237599855188</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06146274570204921</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008541603940791044</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06146301423051322</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009119313360062498</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06146328275897725</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.009693324488185197</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06146355128744126</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.0102635959557503</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06146381981590528</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01083008639332374</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.06146408834436929</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01139275443149585</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06146435687283332</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01195155870078359</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06146462540129733</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01250645783177746</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06146489392976134</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01305741045504343</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06146516245822536</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.0136043752011711</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.06146543098668938</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01414731070067884</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0614656995151534</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01468617558415644</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06146596804361742</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01522092848216985</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06146623657208143</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01575152802530802</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06146650510054546</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01627793284409068</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06146677362900947</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01680010156910695</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06146704215747349</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01731799283092278</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.0614673106859375</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01783156526012634</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06146757921440153</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01834077748723887</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06146784774286554</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01884575706803787</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06146811627132955</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.01934747618422388</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06146838479979357</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.01984606239157355</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.06146865332825759</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02034147432060941</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06146892185672161</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02083367060191916</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06146919038518563</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02132260986606874</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06146945891364964</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02180825074364516</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06146972744211367</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02229055186517206</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06146999597057768</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.0227694718612366</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.06147026449904169</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02324496936240471</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06147053302750571</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.0237170029992628</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06147080155596973</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02418553140233568</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06147107008443375</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02465051320220995</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06147133861289776</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02511190702945152</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06147160714136177</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02556967151464618</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.0614718756698258</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02602376528832003</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06147214419828981</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02647414698105898</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06147241272675383</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02692077522342897</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06147268125521785</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02736360864601513</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06147294978368188</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02780260587934486</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06147321831214589</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.02823772555400342</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.0614734868406099</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.02866892630055676</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06147375536907392</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.02909616674958936</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06147402389753794</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.02951940553162991</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06147429242600196</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.02993860127726305</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06147456095446597</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.02993860127726305</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06146140305972912</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.0303869556855559</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.06154437029375803</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03083106401750674</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06162733752778694</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03127080592636603</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06171030476181585</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03170606106538445</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06179327199584474</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03213670908781272</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06187623922987366</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03256262964690129</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06195920646390256</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03298370239590091</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06204217369793148</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03339980698806207</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06212514093196038</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03381082307663546</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06220810816598928</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03421663031487176</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06229107540001819</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03461710835602144</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.0623740426340471</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03501213685333523</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.062457009868076</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03540159546006374</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06253997710210492</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03578536382945751</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06262294433613382</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03616332161476721</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06270591157016273</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03653534846924349</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.06278887880419164</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03690132404613691</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.06287184603822053</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03726112799869812</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.06295481327224946</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.0376146399801777</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.06303778050627835</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.03796173964382626</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.06312074774030725</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.03830230664289452</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.06320371497433618</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.03863622063063297</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.06328668220836507</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.03896336126029225</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.06336964944239398</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.03928360818512309</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.06345261667642289</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.03959733247426927</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.06353558391045179</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.0399073622763414</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.06361855114448071</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04021406866048336</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.06370151837850961</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04051733127994576</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.06378448561253851</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.0408170297879793</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.06386745284656743</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04111304383783449</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.06395042008059633</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.041405253082762</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.06403338731462523</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04169353717601248</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.06411635454865415</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04197777577083647</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.06419932178268305</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04225784852048466</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.06428228901671196</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04253363507820757</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.06436525625074087</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04280501509725591</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.06444822348476976</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04307186823088028</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.06453119071879869</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04333407413233126</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.06461415795282759</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04359151245485948</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.06469712518685648</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.0438440628517156</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.06478009242088541</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04409160497615016</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.0648630596549143</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04433401848141382</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.0649460268889432</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04457118302075722</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.06502899412297213</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04480297824743095</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.06511196135700102</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04502928381468563</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.06519492859102993</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04524997937577185</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.06527789582505884</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04546494458394026</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.06536086305908774</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04567405909244147</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.06544383029311666</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.0458772025545261</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.06552679752714556</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.03925146836968407</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.06552679752714556</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04598674465642889</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06733280809265153</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04608797996420556</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06913881865815751</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04618123602050001</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.07094482922366348</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.04626684036795619</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.07275083978916945</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.04634512054921806</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.07455685035467544</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.04641640410692951</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.07636286092018139</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.04648101858373451</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07816887148568737</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04653929152227699</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07997488205119334</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04659155046520089</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.08178089261669931</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.04663812295515014</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.0835869031822053</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.0466793365347687</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.08539291374771127</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.04671551874670047</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.08719892431321723</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04674699713358942</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.08900493487872321</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.04677409923807945</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.09081094544422917</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04679715260281455</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.09261695600973514</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04681648477043861</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.09442296657524113</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.04683242328359561</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.0962289771407471</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.04684529568492945</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.09803498770625307</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.04685542951708407</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.09984099827175905</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.04686315232270343</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.101647008837265</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.04686879164443145</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.103453019402771</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.04687267502491207</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.105259029968277</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.04687513000678923</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1070650405337829</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.04687648413270686</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1088710510992889</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.04687706494530893</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1106770616647949</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.04687719998723932</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1124830722303009</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04686741858355872</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1142890827958068</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.04681409186236028</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1160950933613128</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.0467168362915231</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1179011039268188</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.04657844794144107</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1197071144923248</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04640172288250801</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1215131250578307</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04618945718511785</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1233191356233367</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04594444691966438</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1251251461888427</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04566948815654152</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1269311567543486</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04536737696614312</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1287371673198546</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04504090941886304</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1305431778853606</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04469288158509515</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1323491884508665</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04432608953523331</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1341551990163725</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04394332933967138</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1359612095818785</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04354739706880325</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1377672201473845</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04314108879302276</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1395732307128904</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.0427272005827238</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1413792412783964</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04230852850830021</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1431852518439024</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04188786864014588</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1449912624094084</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04146801704865464</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1467972729749144</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04105176980422039</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1486032835404203</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04064192297723699</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04024127263809828</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1522153046714323</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03985261485719816</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1540213152369382</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03947874570493045</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1558273258024442</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03909678747993987</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1576333363679502</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.0386740650248115</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1594393469334562</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03821491759395056</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1612453574989621</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03772396194350398</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1630513680644681</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03720581482961869</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1648573786299741</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03666509300844164</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.16666338919548</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03610641323611969</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.168469399760986</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03553439226879985</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.170275410326492</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03495364686262902</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.172081420891998</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03436879377375413</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1738874314575039</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03378444975832213</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1756934420230099</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03320523157247991</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1774994525885159</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03263575597237441</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1793054631540218</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03208063971415259</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1811114737195278</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03154449955396136</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1829174842850338</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03103195224794764</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1847234948505398</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03054761455225839</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1865295054160457</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03009610322304051</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1883355159815517</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.02968203501644095</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1901415265470577</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.02931002668860664</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1919475371125637</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.02898469499568449</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1937535476780697</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.02871065669382147</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1955595582435756</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.02849252853916447</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1973655688090816</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.02833492728786043</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1991715793745875</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.02824246969605628</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2009775899400935</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.02821850228515214</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2027836005055995</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.02821861404859318</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2045896110711055</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.02821920474230388</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2063956216366115</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.02822067833591769</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2082016322021174</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.02822343879906806</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2100076427676234</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.02822789010138848</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2118136533331294</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.02823443621251239</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2136196638986353</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.02824348110207326</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2154256744641413</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.02825542873970454</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2172316850296473</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.02827068309503971</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2190376955951533</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.02828964813771221</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2208437061606592</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.02831272783735551</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2226497167261652</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.02834032616360307</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2244557272916712</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.02837284708608834</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2262617378571771</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.0284106945744448</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2280677484226831</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.02845427259830591</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2298737589881891</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.02850398512730511</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2316797695536951</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.02856023613107588</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.233485780119201</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.02862342957925167</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.235291790684707</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.02869396944146595</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.237097801250213</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.02877225968735218</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.238903811815719</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.02885870428654381</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.240709822381225</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.0289537072086743</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2425158329467309</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.02905767242337712</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2443218435122369</v>
-      </c>
-    </row>
+        <v>0.3278732762255838</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1235.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1235.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002241400778878314</v>
+        <v>0.001031707143660625</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001630869619367269</v>
+        <v>0.0005015236943114763</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003042332834699839</v>
+        <v>0.001423313022792638</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001644989113152012</v>
+        <v>0.0008700804453658548</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008481400569788577</v>
+        <v>0.005102651198643143</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001651963219796345</v>
+        <v>0.0008520824341663946</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01505688770640357</v>
+        <v>0.008354405143126464</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001647604403143637</v>
+        <v>0.000851322616201219</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005812867092421008</v>
+        <v>0.002038778619266574</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003226948578945384</v>
+        <v>0.001003047388622953</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005989159281749507</v>
+        <v>0.00310894573397226</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003289978226304025</v>
+        <v>0.00174016089073171</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0164736134220792</v>
+        <v>0.01001885957358542</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003303926439592691</v>
+        <v>0.001704164868332789</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02941931390242747</v>
+        <v>0.01649804821446804</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003295208806287274</v>
+        <v>0.001702645232402438</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005868930351696541</v>
+        <v>0.003005939235234338</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004892608858101808</v>
+        <v>0.001504571082934429</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.005008706926572744</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004163541666666662</v>
+        <v>0.002610241336097564</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01490539395090903</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004626157407407404</v>
+        <v>0.002556247302499183</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.02371972923665772</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004337022569444442</v>
+        <v>0.002553967848603657</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.009605563691785425</v>
+        <v>0.00391791379998041</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006523478477469077</v>
+        <v>0.002006094777245905</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01163742813079483</v>
+        <v>0.006274405393627974</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00657995645260805</v>
+        <v>0.003480321781463419</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02926165278068313</v>
+        <v>0.0190190231566959</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006607852879185382</v>
+        <v>0.003408329736665578</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0496310243519088</v>
+        <v>0.03060824823232833</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006590417612574549</v>
+        <v>0.003405290464804876</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.005812867092421008</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009073149346876828</v>
+        <v>0.004759427121921268</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008154348096836347</v>
+        <v>0.002507618471557382</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01460541568675179</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008224945565760063</v>
+        <v>0.004163541666666662</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03465682709785217</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008259816098981727</v>
+        <v>0.00408190359477124</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.05743477238597106</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008238022015718185</v>
+        <v>0.004248511904761902</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01220702089408412</v>
+        <v>0.005812867092421008</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009680845736836155</v>
+        <v>0.003226948578945384</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0171860817250826</v>
+        <v>0.008934144132707891</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009869934678912074</v>
+        <v>0.005220482672195129</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03878903053530885</v>
+        <v>0.02593987799254877</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009911779318778072</v>
+        <v>0.005112494604998367</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06487404869837365</v>
+        <v>0.04134113478126239</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009885626418861823</v>
+        <v>0.005107935697207315</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01134346996409492</v>
+        <v>0.006187580776806909</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01141608733557089</v>
+        <v>0.003510665860180335</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01952910444441586</v>
+        <v>0.009640528437710384</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01151492379206409</v>
+        <v>0.006090563117560984</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04392844537383145</v>
+        <v>0.02901742983162237</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01156374253857442</v>
+        <v>0.005964577039164761</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.072754888110309</v>
+        <v>0.04622725679421563</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01153323082200546</v>
+        <v>0.005959258313408533</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01336858598833652</v>
+        <v>0.006847076260692142</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01304695695493815</v>
+        <v>0.00401218955449181</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02079791622382401</v>
+        <v>0.01078786164091119</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01249062499999999</v>
+        <v>0.006960643562926839</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0498220256822825</v>
+        <v>0.03229033554784566</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01387847222222221</v>
+        <v>0.006816659473331156</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07884613514074101</v>
+        <v>0.05126547215054467</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01301106770833332</v>
+        <v>0.006810580929609752</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01334827813457113</v>
+        <v>0.007497619500802973</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01467782657430542</v>
+        <v>0.004513713248803287</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02319246775326111</v>
+        <v>0.01208357642296799</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01480490201836811</v>
+        <v>0.007830724008292694</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0517524194492075</v>
+        <v>0.03428947500235224</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01486766897816711</v>
+        <v>0.00766874190749755</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.08449067003052679</v>
+        <v>0.05551045019649414</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01482843962829273</v>
+        <v>0.007661903545810971</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01527884633732353</v>
+        <v>0.008133046692827529</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01630869619367269</v>
+        <v>0.005015236943114764</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02459707668492668</v>
+        <v>0.01303510546453841</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01644989113152013</v>
+        <v>0.008700804453658548</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05585042468226062</v>
+        <v>0.03744572805627563</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01651963219796345</v>
+        <v>0.008520824341663945</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.09036782907233221</v>
+        <v>0.06041686027830895</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01647604403143637</v>
+        <v>0.008513226162012189</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01515659053111852</v>
+        <v>0.008747194032453921</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01793956581303996</v>
+        <v>0.005516760637426239</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02643477372649319</v>
+        <v>0.01384988144628012</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01809488024467214</v>
+        <v>0.009570884899024404</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05942280340229658</v>
+        <v>0.03998997457074943</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.0181715954177598</v>
+        <v>0.00937290677583034</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.09685828416819997</v>
+        <v>0.0642393717422336</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01812364843458001</v>
+        <v>0.009364548778213409</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01697781065048091</v>
+        <v>0.009333897715370285</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01957043543240723</v>
+        <v>0.006018284331737716</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02799677491408302</v>
+        <v>0.0147353370488508</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01973986935782415</v>
+        <v>0.01044096534439026</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06323096674326123</v>
+        <v>0.04235309440690715</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01982355863755614</v>
+        <v>0.01022498920999673</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1030039564056908</v>
+        <v>0.0680326539345128</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01977125283772365</v>
+        <v>0.01021587139441463</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01673880662993545</v>
+        <v>0.009886993937264714</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0212013050517745</v>
+        <v>0.006519808026049193</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02957429628381851</v>
+        <v>0.01549890495290807</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02138485847097616</v>
+        <v>0.01131104578975611</v>
       </c>
       <c r="L78" t="n">
-        <v>0.06653632583910041</v>
+        <v>0.04436596742588242</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02147552185735249</v>
+        <v>0.01107707164416313</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1087467668723656</v>
+        <v>0.07155137620139135</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02141885724086728</v>
+        <v>0.01106719401061585</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01843587840400698</v>
+        <v>0.01040031889382535</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02283217467114177</v>
+        <v>0.007021331720360669</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03065855387182191</v>
+        <v>0.01634801783910961</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02302984758412817</v>
+        <v>0.01218112623512197</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07070029182376017</v>
+        <v>0.04715947348880875</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02312748507714884</v>
+        <v>0.01192915407832952</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1149286366557851</v>
+        <v>0.07475020788911374</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02306646164401092</v>
+        <v>0.01191851662681707</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01906532590722028</v>
+        <v>0.01086770878074028</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02446304429050904</v>
+        <v>0.007522855414672146</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03234076371421558</v>
+        <v>0.01729010838811305</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02467483669728019</v>
+        <v>0.01305120668048782</v>
       </c>
       <c r="L80" t="n">
-        <v>0.07368427583118622</v>
+        <v>0.0498220256822825</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02477944829694518</v>
+        <v>0.0129122987765901</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1202914868435102</v>
+        <v>0.07884613514074101</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02471406604715456</v>
+        <v>0.01276109500152016</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02062344907410014</v>
+        <v>0.01128299979369767</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02609391390987631</v>
+        <v>0.008024379108983621</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03321214184712186</v>
+        <v>0.0182326092805761</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0263198258104322</v>
+        <v>0.01392128712585368</v>
       </c>
       <c r="L81" t="n">
-        <v>0.07744968899532453</v>
+        <v>0.05153069936645668</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02643141151674153</v>
+        <v>0.01363331894666231</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1245772385231016</v>
+        <v>0.08213974752097719</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02636167045029819</v>
+        <v>0.0136211618592195</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02010654783917135</v>
+        <v>0.01164002812838558</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02772478352924358</v>
+        <v>0.008525902803295097</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03416390430666304</v>
+        <v>0.01878295319715634</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02796481492358421</v>
+        <v>0.01479136757121953</v>
       </c>
       <c r="L82" t="n">
-        <v>0.07995794245012094</v>
+        <v>0.05419497498136291</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02808337473653787</v>
+        <v>0.01448540138082871</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1288278127821201</v>
+        <v>0.08504944620774729</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02800927485344184</v>
+        <v>0.01447248447542072</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02151092213695871</v>
+        <v>0.01193262998049219</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02935565314861085</v>
+        <v>0.009027426497606574</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03548726712896144</v>
+        <v>0.01994857281851148</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02960980403673622</v>
+        <v>0.01566144801658539</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08227044732952143</v>
+        <v>0.05654133572291686</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02973533795633421</v>
+        <v>0.0153374838149951</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1326851307081265</v>
+        <v>0.08958629205917112</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02965687925658547</v>
+        <v>0.01532380709162194</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02183399197131233</v>
+        <v>0.01220702089408412</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03098652276797811</v>
+        <v>0.009680845736836155</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03587344635013942</v>
+        <v>0.02079791622382401</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03125479314988824</v>
+        <v>0.01649390300528266</v>
       </c>
       <c r="L84" t="n">
-        <v>0.08474861476747178</v>
+        <v>0.05865298901211166</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03138730117613056</v>
+        <v>0.0161895662491615</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1353911133886819</v>
+        <v>0.09442365790298934</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03130448365972911</v>
+        <v>0.01617512970782316</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02112314853275962</v>
+        <v>0.01231878794472179</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03261739238734539</v>
+        <v>0.01003047388622953</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03681365800631925</v>
+        <v>0.02157116349730116</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03289978226304025</v>
+        <v>0.0174016089073171</v>
       </c>
       <c r="L85" t="n">
-        <v>0.08665385589791791</v>
+        <v>0.06161314226994047</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03303926439592691</v>
+        <v>0.01704164868332789</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1381876819113466</v>
+        <v>0.09843491656694264</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03295208806287274</v>
+        <v>0.01702645232402438</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02240369436254817</v>
+        <v>0.01247714709145772</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03424826200671266</v>
+        <v>0.010531997580541</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03742774429744668</v>
+        <v>0.02256097788227712</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03454477137619226</v>
+        <v>0.01827168935268295</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08784758185480571</v>
+        <v>0.06480500291739646</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03469122761572325</v>
+        <v>0.01789373111749428</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1400550091779361</v>
+        <v>0.1025934408787716</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03459969246601638</v>
+        <v>0.0178777749402256</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02167374111467463</v>
+        <v>0.0126331973668752</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03587913162607993</v>
+        <v>0.01103352127485248</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03751821067847644</v>
+        <v>0.02339797429851223</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03618976048934427</v>
+        <v>0.01914176979804881</v>
       </c>
       <c r="L87" t="n">
-        <v>0.08915578160675333</v>
+        <v>0.06671177837547274</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0363431908355196</v>
+        <v>0.01874581355166068</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1425327163217202</v>
+        <v>0.1063726036662168</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03624729686916001</v>
+        <v>0.01872909755642682</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02093140044313563</v>
+        <v>0.01278694629513787</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03751000124544719</v>
+        <v>0.01153504496916396</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03809222069409005</v>
+        <v>0.02447375099265835</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03783474960249628</v>
+        <v>0.02001185024341466</v>
       </c>
       <c r="L88" t="n">
-        <v>0.09052646991113186</v>
+        <v>0.06931667606516242</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03799515405531594</v>
+        <v>0.01959789598582707</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1435513712833562</v>
+        <v>0.111545777757019</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03789490127230365</v>
+        <v>0.01958042017262804</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02317478400192786</v>
+        <v>0.01293840140040938</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03914087086481446</v>
+        <v>0.01203656866347543</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03854647275484989</v>
+        <v>0.02587990621136738</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0394797387156483</v>
+        <v>0.02088193068878052</v>
       </c>
       <c r="L89" t="n">
-        <v>0.09145537692188241</v>
+        <v>0.07250290340745869</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03964711727511229</v>
+        <v>0.02044997841999347</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1456983977480468</v>
+        <v>0.1144863359789188</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03954250567544729</v>
+        <v>0.02043174278882926</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02340200344504795</v>
+        <v>0.01308757020685337</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04077174048418173</v>
+        <v>0.01253809235778691</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0388776652713184</v>
+        <v>0.02690803820129119</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04112472782880031</v>
+        <v>0.02175201113414637</v>
       </c>
       <c r="L90" t="n">
-        <v>0.09293449256257033</v>
+        <v>0.07525366782335471</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04129908049490863</v>
+        <v>0.02130206085415986</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1475612194009947</v>
+        <v>0.1196676511596567</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04119011007859093</v>
+        <v>0.02128306540503047</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02261117042649254</v>
+        <v>0.01323446023863346</v>
       </c>
       <c r="G91" t="n">
-        <v>0.042402610103549</v>
+        <v>0.01303961605209839</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03938249665405796</v>
+        <v>0.02794974520908167</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04276971694195233</v>
+        <v>0.02262209157951222</v>
       </c>
       <c r="L91" t="n">
-        <v>0.09375580675676123</v>
+        <v>0.07745217673384353</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04295104371470498</v>
+        <v>0.02215414328832626</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1488272599274029</v>
+        <v>0.1232630961269735</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04283771448173457</v>
+        <v>0.02213438802123169</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02280039660025831</v>
+        <v>0.0133790790199133</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04403347972291628</v>
+        <v>0.01354113974640986</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03965766531363099</v>
+        <v>0.02939662548139069</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04441470605510434</v>
+        <v>0.02349217202487808</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09461130942802048</v>
+        <v>0.08018163755991839</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04460300693450132</v>
+        <v>0.02300622572249265</v>
       </c>
       <c r="N92" t="n">
-        <v>0.151483943012474</v>
+        <v>0.1275460437086099</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0444853188848782</v>
+        <v>0.02298571063743291</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0239677936203419</v>
+        <v>0.01352143407485654</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04566434934228354</v>
+        <v>0.01404266344072134</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04009986966059986</v>
+        <v>0.03014027726487015</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04605969516825634</v>
+        <v>0.02436225247024393</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09559299049991352</v>
+        <v>0.08262525772257234</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04625497015429767</v>
+        <v>0.02385830815665905</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1523186923414109</v>
+        <v>0.1319898667323063</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04613292328802184</v>
+        <v>0.02383703325363413</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02411147314073993</v>
+        <v>0.01366153292762679</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04729521896165081</v>
+        <v>0.01454418713503281</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04050580810552695</v>
+        <v>0.03167229880617191</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04770468428140836</v>
+        <v>0.02523233291560979</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09649283989600577</v>
+        <v>0.0848662446427986</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04790693337409401</v>
+        <v>0.02471039059082544</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1530189315994163</v>
+        <v>0.1343679380258035</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04778052769116548</v>
+        <v>0.02468835586983535</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02422954681544908</v>
+        <v>0.01379938310238772</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04892608858101808</v>
+        <v>0.01504571082934429</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04087217905897475</v>
+        <v>0.03278428835194784</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04934967339456037</v>
+        <v>0.02610241336097564</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09690284753986278</v>
+        <v>0.0867878057415902</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04955889659389037</v>
+        <v>0.02556247302499184</v>
       </c>
       <c r="N95" t="n">
-        <v>0.154572084471693</v>
+        <v>0.1377536304168422</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04942813209430912</v>
+        <v>0.02553967848603657</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02332012629846602</v>
+        <v>0.01393499212330296</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05055695820038535</v>
+        <v>0.01554723452365576</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04099568093150556</v>
+        <v>0.03376784414884987</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05099466250771239</v>
+        <v>0.0269724938063415</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09831500335504989</v>
+        <v>0.08927314843994039</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05121085981368671</v>
+        <v>0.02641455545915823</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1548655746434439</v>
+        <v>0.1410203167331629</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05107573649745275</v>
+        <v>0.02639100110223779</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02441404178816824</v>
+        <v>0.01406836751453613</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05218782781975262</v>
+        <v>0.01604875821796724</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04097301213368186</v>
+        <v>0.03451456444352984</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0526396516208644</v>
+        <v>0.02784257425170735</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09882129726513267</v>
+        <v>0.09120548015884231</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05286282303348305</v>
+        <v>0.02726663789332463</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1552868257998717</v>
+        <v>0.1441413698025063</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05272334090059639</v>
+        <v>0.02724232371843901</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0224112493054098</v>
+        <v>0.0141995168002509</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05381869743911988</v>
+        <v>0.01655028191227872</v>
       </c>
       <c r="J98" t="n">
-        <v>0.041500871076066</v>
+        <v>0.03591604748263966</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05428464073401642</v>
+        <v>0.02871265469707321</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09871371919367641</v>
+        <v>0.09276800831928897</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05451478625327939</v>
+        <v>0.02811872032749102</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1571232616261792</v>
+        <v>0.147990162452613</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05437094530374003</v>
+        <v>0.02809364633464023</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02441115508794223</v>
+        <v>0.01432844750461088</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05544956705848716</v>
+        <v>0.01705180560659019</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04159583244764803</v>
+        <v>0.03656389151283118</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05592962984716842</v>
+        <v>0.02958273514243906</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09868425906424674</v>
+        <v>0.0948439403422737</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05616674947307574</v>
+        <v>0.02897080276165741</v>
       </c>
       <c r="N99" t="n">
-        <v>0.157692270281482</v>
+        <v>0.1496400675112237</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05601854970688367</v>
+        <v>0.02894496895084145</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02339361924807124</v>
+        <v>0.01445516715177972</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05708043667785442</v>
+        <v>0.01755332930090167</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04159541050549745</v>
+        <v>0.03734969478075631</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05757461896032044</v>
+        <v>0.03045281558780492</v>
       </c>
       <c r="L100" t="n">
-        <v>0.099644051364565</v>
+        <v>0.0956164836487895</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05781871269287208</v>
+        <v>0.02982288519582381</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1571913820292445</v>
+        <v>0.151664457806079</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0576661541100273</v>
+        <v>0.02979629156704267</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02236103917072708</v>
+        <v>0.01457968326592105</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0587113062972217</v>
+        <v>0.01805485299521315</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04127652198603357</v>
+        <v>0.0385650555330669</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05921960807347244</v>
+        <v>0.03132289603317077</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09943616226449331</v>
+        <v>0.09696884565982952</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05947067591266843</v>
+        <v>0.0306749676299902</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1570476341005249</v>
+        <v>0.1539367061649196</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05931375851317094</v>
+        <v>0.03064761418324389</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02331441006871039</v>
+        <v>0.01470200337119854</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06034217591658897</v>
+        <v>0.01855637668952462</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04113084649639748</v>
+        <v>0.03930157201641486</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06086459718662446</v>
+        <v>0.03219297647853663</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09927023008885016</v>
+        <v>0.09838423379638694</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06112263913246478</v>
+        <v>0.0315270500641566</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1565998457267671</v>
+        <v>0.1554301854154859</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06096136291631458</v>
+        <v>0.0314989367994451</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02425472715482182</v>
+        <v>0.01482213499177579</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06197304553595623</v>
+        <v>0.0190579003838361</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04146012406943533</v>
+        <v>0.03995084247745205</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06250958629977647</v>
+        <v>0.03306305692390248</v>
       </c>
       <c r="L103" t="n">
-        <v>0.09924090021161913</v>
+        <v>0.09834585547945485</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06277460235226112</v>
+        <v>0.03237913249832299</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1563550963667025</v>
+        <v>0.1556182683855189</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06260896731945821</v>
+        <v>0.03235025941564632</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02218298564186203</v>
+        <v>0.01494008565181647</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0636039151553235</v>
+        <v>0.01955942407814758</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04116609473799333</v>
+        <v>0.04010446516283038</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06415457541292849</v>
+        <v>0.03393313736926834</v>
       </c>
       <c r="L104" t="n">
-        <v>0.09915239417407912</v>
+        <v>0.099644051364565</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06442656557205746</v>
+        <v>0.03323121493248939</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1566200141009101</v>
+        <v>0.157692270281482</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06425657172260184</v>
+        <v>0.03320158203184755</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02310018074263163</v>
+        <v>0.01505586287548419</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06523478477469077</v>
+        <v>0.02006094777245905</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04085049853491766</v>
+        <v>0.04075403831920171</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0657995645260805</v>
+        <v>0.03480321781463419</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0981089335175088</v>
+        <v>0.09944405136456499</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06607852879185382</v>
+        <v>0.03408329736665578</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1563012270099687</v>
+        <v>0.157192270281482</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06590417612574548</v>
+        <v>0.03405290464804876</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02200730766993129</v>
+        <v>0.01516947418694262</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06686565439405805</v>
+        <v>0.02056247146677053</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04081507549305446</v>
+        <v>0.04129116019321791</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0674445536392325</v>
+        <v>0.03567329826000004</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09831473978318706</v>
+        <v>0.09934405136456501</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06773049201165016</v>
+        <v>0.03493537980082217</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1549053631744574</v>
+        <v>0.156292270281482</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06755178052888912</v>
+        <v>0.03490422726424998</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02290536163656164</v>
+        <v>0.01528092711035536</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06849652401342532</v>
+        <v>0.02106399516108201</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04076156564524994</v>
+        <v>0.04140742903153088</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06908954275238452</v>
+        <v>0.0365433787053659</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09837403451239271</v>
+        <v>0.09934405136456501</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0693824552314465</v>
+        <v>0.03578746223498857</v>
       </c>
       <c r="N107" t="n">
-        <v>0.154039050674955</v>
+        <v>0.156192270281482</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06919938493203276</v>
+        <v>0.0357555498804512</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02379533785532335</v>
+        <v>0.01539022916988608</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07012739363279259</v>
+        <v>0.02156551885539348</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04049170902435027</v>
+        <v>0.04159583244764803</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07073453186553653</v>
+        <v>0.03741345915073176</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09739103924640455</v>
+        <v>0.09884405136456501</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07103441845124285</v>
+        <v>0.03663954466915496</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1537089175920405</v>
+        <v>0.157592270281482</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0708469893351764</v>
+        <v>0.03660687249665242</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02167823153901703</v>
+        <v>0.01549738788969842</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07175826325215985</v>
+        <v>0.02206704254970496</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0405072456632016</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07237952097868855</v>
+        <v>0.03828353959609761</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09756997552650129</v>
+        <v>0.09884405136456501</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0726863816710392</v>
+        <v>0.03749162710332136</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1532215920062928</v>
+        <v>0.1573922702814819</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07249459373832003</v>
+        <v>0.03745819511285364</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02255503790044335</v>
+        <v>0.015602410793956</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07338913287152712</v>
+        <v>0.02256856624401644</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04020991559465015</v>
+        <v>0.04139583244764802</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07402451009184056</v>
+        <v>0.03915362004146346</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09631506489396188</v>
+        <v>0.099644051364565</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07433834489083554</v>
+        <v>0.03834370953748775</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1520837019982909</v>
+        <v>0.156192270281482</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07414219814146367</v>
+        <v>0.03830951772905486</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02242675215240294</v>
+        <v>0.01570530540682246</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07502000249089438</v>
+        <v>0.02307008993832791</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04010145885154205</v>
+        <v>0.04159583244764803</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07566949920499257</v>
+        <v>0.04002370048682932</v>
       </c>
       <c r="L111" t="n">
-        <v>0.095730528890065</v>
+        <v>0.099144051364565</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07599030811063189</v>
+        <v>0.03919579197165415</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1524018756486137</v>
+        <v>0.156492270281482</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07578980254460731</v>
+        <v>0.03916084034525608</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02129436950769645</v>
+        <v>0.01580607925246146</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07665087211026166</v>
+        <v>0.02357161363263939</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03968361546672351</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07731448831814458</v>
+        <v>0.04089378093219518</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09582058905608959</v>
+        <v>0.09904405136456501</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07764227133042823</v>
+        <v>0.04004787440582054</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1514827410378402</v>
+        <v>0.1563922702814819</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07743740694775095</v>
+        <v>0.04001216296145729</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02215888517912452</v>
+        <v>0.01590473985503662</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07828174172962893</v>
+        <v>0.02407313732695086</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03965812547304069</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0789594774312966</v>
+        <v>0.04176386137756103</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09488946693331432</v>
+        <v>0.09934405136456501</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07929423455022458</v>
+        <v>0.04089995683998694</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1498329262465493</v>
+        <v>0.157592270281482</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07908501135089459</v>
+        <v>0.04086348557765852</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02102129437948779</v>
+        <v>0.01600129473871158</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07991261134899619</v>
+        <v>0.02457466102126234</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03932672890333976</v>
+        <v>0.04149583244764803</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08060446654444861</v>
+        <v>0.04263394182292688</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09494138406301808</v>
+        <v>0.09884405136456501</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08094619777002092</v>
+        <v>0.04175203927415333</v>
       </c>
       <c r="N114" t="n">
-        <v>0.14985905935532</v>
+        <v>0.156192270281482</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08073261575403821</v>
+        <v>0.04171480819385973</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02288259232158692</v>
+        <v>0.01609575142764998</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08154348096836346</v>
+        <v>0.02507618471557382</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03929116579046692</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08224945565760063</v>
+        <v>0.04350402226829274</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09368056198647962</v>
+        <v>0.09924405136456499</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08259816098981726</v>
+        <v>0.04260412170831972</v>
       </c>
       <c r="N115" t="n">
-        <v>0.148267768444731</v>
+        <v>0.156192270281482</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08238022015718185</v>
+        <v>0.04256613081006095</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02074377421822254</v>
+        <v>0.01618811744601547</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08317435058773075</v>
+        <v>0.02557770840988529</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03905317616726829</v>
+        <v>0.04139583244764802</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08389444477075263</v>
+        <v>0.0443741027136586</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09321122224497777</v>
+        <v>0.09954405136456501</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0842501242096136</v>
+        <v>0.04345620414248613</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1479656815953615</v>
+        <v>0.157092270281482</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0840278245603255</v>
+        <v>0.04341745342626217</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02260583528219531</v>
+        <v>0.01627840031797168</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08480522020709801</v>
+        <v>0.02607923210419677</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03841450006659011</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08553943388390466</v>
+        <v>0.04524418315902445</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09303758637979137</v>
+        <v>0.09954405136456501</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08590208742940995</v>
+        <v>0.04430828657665251</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1460594268877903</v>
+        <v>0.156992270281482</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08567542896346914</v>
+        <v>0.04426877604246339</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0224686581606163</v>
+        <v>0.01636660756768223</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08643608982646528</v>
+        <v>0.02658075579850825</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03857687752127854</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08718442299705666</v>
+        <v>0.0461142636043903</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09256387593219914</v>
+        <v>0.09954405136456501</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08755405064920631</v>
+        <v>0.04516036901081891</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1461556324025965</v>
+        <v>0.156592270281482</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08732303336661276</v>
+        <v>0.04512009865866461</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02231583938842908</v>
+        <v>0.0164527467193108</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08806695944583255</v>
+        <v>0.02708227949281972</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03814201306867303</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08882941211020867</v>
+        <v>0.04698434404975616</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09149431244347994</v>
+        <v>0.099644051364565</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08920601386900265</v>
+        <v>0.04601245144498531</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1449609262203589</v>
+        <v>0.156692270281482</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0889706377697564</v>
+        <v>0.04597142127486582</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02014412211256941</v>
+        <v>0.016536825297021</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08969782906519981</v>
+        <v>0.0275838031871312</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03808842318270141</v>
+        <v>0.04159583244764803</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09047440122336069</v>
+        <v>0.04785442449512202</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09112341010068839</v>
+        <v>0.09894405136456499</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09085797708879899</v>
+        <v>0.0468645338791517</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1438277717761361</v>
+        <v>0.157292270281482</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09061824217290004</v>
+        <v>0.04682274389106705</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01995674885530479</v>
+        <v>0.01661885082497647</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09132869868456708</v>
+        <v>0.02808532688144268</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03740068810993699</v>
+        <v>0.04139583244764802</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09211939033651269</v>
+        <v>0.04872450494048787</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09047956425977424</v>
+        <v>0.09904405136456501</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09250994030859534</v>
+        <v>0.04771661631331809</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1423629036466649</v>
+        <v>0.156492270281482</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09226584657604368</v>
+        <v>0.04767406650726826</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01975696213890268</v>
+        <v>0.01669883082734086</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09295956830393436</v>
+        <v>0.02858685057575415</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03708447708538784</v>
+        <v>0.04139583244764802</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09376437944966472</v>
+        <v>0.04959458538585373</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08975862027428266</v>
+        <v>0.099144051364565</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09416190352839168</v>
+        <v>0.04856869874748449</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1416848361343194</v>
+        <v>0.157592270281482</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09391345097918732</v>
+        <v>0.04852538912346948</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01954800448563059</v>
+        <v>0.0167767728282778</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09459043792330162</v>
+        <v>0.02908837427006563</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03714545934406205</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09540936856281672</v>
+        <v>0.05046466583121958</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08917433243032291</v>
+        <v>0.09924405136456499</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09581386674818802</v>
+        <v>0.04942078118165089</v>
       </c>
       <c r="N123" t="n">
-        <v>0.141115164317915</v>
+        <v>0.156592270281482</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09556105538233095</v>
+        <v>0.0493767117396707</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02133311841775598</v>
+        <v>0.01685268435195092</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09622130754266889</v>
+        <v>0.02958989796437711</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03668930412096763</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09705435767596873</v>
+        <v>0.05133474627658543</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08824045501400424</v>
+        <v>0.09924405136456499</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09746582996798436</v>
+        <v>0.05027286361581727</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1396754832762671</v>
+        <v>0.1573922702814819</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09720865978547459</v>
+        <v>0.05022803435587192</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01911554645754634</v>
+        <v>0.01692657292252388</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09785217716203616</v>
+        <v>0.03009142165868858</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03622168065111268</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09869934678912075</v>
+        <v>0.05220482672195129</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08727074231143583</v>
+        <v>0.09904405136456501</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09911779318778073</v>
+        <v>0.05112494604998367</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1374873880881908</v>
+        <v>0.157192270281482</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09885626418861823</v>
+        <v>0.05107935697207314</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02089853112726917</v>
+        <v>0.01699844606416031</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09948304678140343</v>
+        <v>0.03059294535300006</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03594825816950525</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1003443359022728</v>
+        <v>0.05307490716731714</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08677894860872698</v>
+        <v>0.09884405136456501</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1007697564075771</v>
+        <v>0.05197702848415007</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1359724738325015</v>
+        <v>0.157592270281482</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1005038685917619</v>
+        <v>0.05193067958827436</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01868531494919193</v>
+        <v>0.01706831130102384</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1011139164007707</v>
+        <v>0.03109446904731153</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03567470591115339</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1019893250154248</v>
+        <v>0.05394498761268299</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08577882819198684</v>
+        <v>0.09934405136456501</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1024217196273734</v>
+        <v>0.05282911091831646</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1342523355880144</v>
+        <v>0.1568922702814819</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1021514729949055</v>
+        <v>0.05278200220447558</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01947914044558212</v>
+        <v>0.01713617615727813</v>
       </c>
       <c r="G128" t="n">
-        <v>0.102744786020138</v>
+        <v>0.03159599274162301</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03500669311106513</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1036343141285768</v>
+        <v>0.05481506805804886</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08498413534732471</v>
+        <v>0.099144051364565</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1040736828471698</v>
+        <v>0.05368119335248285</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1332485684335449</v>
+        <v>0.157292270281482</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1037990773980491</v>
+        <v>0.05363332482067679</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01828259342148855</v>
+        <v>0.01720204815708679</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1043756556395052</v>
+        <v>0.03209751643593448</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03454988900424856</v>
+        <v>0.04149583244764803</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1052793032417288</v>
+        <v>0.05568514850341471</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08420862436084978</v>
+        <v>0.099144051364565</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1057256460669661</v>
+        <v>0.05453327578664925</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1327827674479082</v>
+        <v>0.157192270281482</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1054466818011928</v>
+        <v>0.05448464743687802</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01907578437496803</v>
+        <v>0.01726593482461349</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1060065252588725</v>
+        <v>0.03259904013024596</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03420993280074228</v>
+        <v>0.04149583244764803</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1069242923548808</v>
+        <v>0.05655522894878056</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08246604951867126</v>
+        <v>0.099644051364565</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1073776092867625</v>
+        <v>0.05538535822081565</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1309765277099197</v>
+        <v>0.156492270281482</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1070942862043364</v>
+        <v>0.05533597005307924</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01785148989443867</v>
+        <v>0.01732784368402185</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1076373948782398</v>
+        <v>0.03310056382455744</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0339599333433559</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1085692814680328</v>
+        <v>0.05742530939414642</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08175398600659253</v>
+        <v>0.09944405136456499</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1090295725065588</v>
+        <v>0.05623744065498203</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1292730085928683</v>
+        <v>0.156792270281482</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1087418906074801</v>
+        <v>0.05618729266928046</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01961435165147625</v>
+        <v>0.0173877822594755</v>
       </c>
       <c r="G132" t="n">
-        <v>0.109268264497607</v>
+        <v>0.03360208751886892</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03357840602845952</v>
+        <v>0.04159583244764803</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1102142705811848</v>
+        <v>0.05829538983951227</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08147636127346566</v>
+        <v>0.09944405136456499</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1106815357263551</v>
+        <v>0.05708952308914843</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1277469768542022</v>
+        <v>0.156192270281482</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1103894950106237</v>
+        <v>0.05703861528548167</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0183690113176566</v>
+        <v>0.0174457580751381</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1108991341169743</v>
+        <v>0.03410361121318039</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03347346636762802</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1118592596943368</v>
+        <v>0.05916547028487812</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08073120285868837</v>
+        <v>0.09884405136456501</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1123334989461515</v>
+        <v>0.05794160552331483</v>
       </c>
       <c r="N133" t="n">
-        <v>0.126825427878324</v>
+        <v>0.156692270281482</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1120370994137673</v>
+        <v>0.05788993790168289</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0181201105645555</v>
+        <v>0.01750177865517327</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1125300037363416</v>
+        <v>0.03460513490749186</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03305322987243622</v>
+        <v>0.04139583244764802</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1135042488074888</v>
+        <v>0.06003555073024398</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07953820002685538</v>
+        <v>0.09934405136456501</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1139854621659478</v>
+        <v>0.05879368795748122</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1242392750268839</v>
+        <v>0.157092270281482</v>
       </c>
       <c r="O134" t="n">
-        <v>0.113684703816911</v>
+        <v>0.05874126051788411</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01687229106374877</v>
+        <v>0.01755585152374467</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1141608733557088</v>
+        <v>0.03510665860180334</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03262581205445896</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1151492379206409</v>
+        <v>0.06090563117560983</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07851704204256138</v>
+        <v>0.09894405136456499</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1156374253857442</v>
+        <v>0.05964577039164762</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1230194316615326</v>
+        <v>0.157092270281482</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1153323082200546</v>
+        <v>0.05959258313408533</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01663019448681223</v>
+        <v>0.01760798420501591</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1157917429750761</v>
+        <v>0.03560818229611482</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03179932842527108</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1167942270337929</v>
+        <v>0.0617757116209757</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07768741817040101</v>
+        <v>0.09894405136456499</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1172893886055405</v>
+        <v>0.06049785282581401</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1208968111439201</v>
+        <v>0.156992270281482</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1169799126231982</v>
+        <v>0.06044390575028655</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01639846250532165</v>
+        <v>0.01765818422315066</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1174226125944434</v>
+        <v>0.0361097059904263</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03168189449644743</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1184392161469449</v>
+        <v>0.06264579206634155</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07626901767496902</v>
+        <v>0.09954405136456501</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1189413518253369</v>
+        <v>0.0613499352599804</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1206023268356973</v>
+        <v>0.1563922702814819</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1186275170263419</v>
+        <v>0.06129522836648777</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01818173679085285</v>
+        <v>0.01770645910231253</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1190534822138107</v>
+        <v>0.03661122968473778</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03128162577956285</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1200842052600969</v>
+        <v>0.0635158725117074</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0748815298208601</v>
+        <v>0.09924405136456499</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1205933150451332</v>
+        <v>0.0622020176941468</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1191668920985142</v>
+        <v>0.156692270281482</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1202751214294855</v>
+        <v>0.06214655098268898</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01598465901498164</v>
+        <v>0.0177528163666652</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1206843518331779</v>
+        <v>0.03711275337904925</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03070663778619219</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1217291943732489</v>
+        <v>0.06438595295707326</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07394464387266891</v>
+        <v>0.09894405136456499</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1222452782649296</v>
+        <v>0.0630541001283132</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1177214202940213</v>
+        <v>0.1573922702814819</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1219227258326292</v>
+        <v>0.0629978735988902</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01781187084928382</v>
+        <v>0.01779726354037225</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1223152214525452</v>
+        <v>0.03761427707336072</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03066504602791027</v>
+        <v>0.04159583244764803</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1233741834864009</v>
+        <v>0.06525603340243911</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07347804909499017</v>
+        <v>0.09874405136456499</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1238972414847259</v>
+        <v>0.06390618256247958</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1149968247838689</v>
+        <v>0.157592270281482</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1235703302357728</v>
+        <v>0.06384919621509143</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01566801396533518</v>
+        <v>0.01783980814759736</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1239460910719125</v>
+        <v>0.0381158007676722</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03026496601629194</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1250191725995529</v>
+        <v>0.06612611384780497</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07270143475241858</v>
+        <v>0.09874405136456499</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1255492047045222</v>
+        <v>0.06475826499664598</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1147240189297075</v>
+        <v>0.157592270281482</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1252179346389164</v>
+        <v>0.06470051883129264</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01755773003471155</v>
+        <v>0.01788045771250418</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1255769606912797</v>
+        <v>0.03861732446198368</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03001451326291209</v>
+        <v>0.04149583244764803</v>
       </c>
       <c r="K142" t="n">
-        <v>0.126664161712705</v>
+        <v>0.06699619429317083</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07223449010954888</v>
+        <v>0.09874405136456499</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1272011679243186</v>
+        <v>0.06561034743081239</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1143339160931875</v>
+        <v>0.157092270281482</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1268655390420601</v>
+        <v>0.06555184144749386</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01648566072898873</v>
+        <v>0.01791921975925631</v>
       </c>
       <c r="G143" t="n">
-        <v>0.127207830310647</v>
+        <v>0.03911884815629516</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02972180327934548</v>
+        <v>0.04149583244764803</v>
       </c>
       <c r="K143" t="n">
-        <v>0.128309150825857</v>
+        <v>0.06786627473853668</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07109690443097572</v>
+        <v>0.09884405136456501</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1288531311441149</v>
+        <v>0.06646242986497877</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1132574296359593</v>
+        <v>0.157592270281482</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1285131434452037</v>
+        <v>0.06640316406369509</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01745644771974251</v>
+        <v>0.01795610181201741</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1288386999300143</v>
+        <v>0.03962037185060663</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02959495157716704</v>
+        <v>0.04119583244764803</v>
       </c>
       <c r="K144" t="n">
-        <v>0.129954139939009</v>
+        <v>0.06873635518390253</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07090836698129374</v>
+        <v>0.09874405136456499</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1305050943639113</v>
+        <v>0.06731451229914516</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1118254729196732</v>
+        <v>0.156192270281482</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1301607478483473</v>
+        <v>0.06725448667989629</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01645865412478097</v>
+        <v>0.01799111139495112</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1304695695493815</v>
+        <v>0.04012189554491811</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02944207366795155</v>
+        <v>0.04159583244764803</v>
       </c>
       <c r="K145" t="n">
-        <v>0.131599129052161</v>
+        <v>0.06960643562926838</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07088856702509772</v>
+        <v>0.09934405136456501</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1321570575837076</v>
+        <v>0.06816659473331156</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1116689593059796</v>
+        <v>0.157192270281482</v>
       </c>
       <c r="O145" t="n">
-        <v>0.131808352251491</v>
+        <v>0.06810580929609751</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01546792641075138</v>
+        <v>0.01802425603222107</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1321004391687488</v>
+        <v>0.04062341923922958</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02954525720238964</v>
+        <v>0.04159583244764803</v>
       </c>
       <c r="K146" t="n">
-        <v>0.133244118165313</v>
+        <v>0.07047651607463423</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07044717437492393</v>
+        <v>0.099144051364565</v>
       </c>
       <c r="M146" t="n">
-        <v>0.133809020803504</v>
+        <v>0.06901867716747795</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1123596966933207</v>
+        <v>0.157092270281482</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1334559566546346</v>
+        <v>0.06895713191229874</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01648357551626007</v>
+        <v>0.0180555432479909</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1337313087881161</v>
+        <v>0.04112494293354105</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02956099691713028</v>
+        <v>0.04149583244764803</v>
       </c>
       <c r="K147" t="n">
-        <v>0.134889107278465</v>
+        <v>0.07134659652000008</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07087124759399988</v>
+        <v>0.09894405136456499</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1354609840233003</v>
+        <v>0.06987075960164435</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1117113644627462</v>
+        <v>0.156492270281482</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1351035610577782</v>
+        <v>0.06980845452849996</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01750526037297045</v>
+        <v>0.01808498056642426</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1353621784074834</v>
+        <v>0.04162646662785254</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02958779783625388</v>
+        <v>0.04149583244764803</v>
       </c>
       <c r="K148" t="n">
-        <v>0.136534096391617</v>
+        <v>0.07221667696536595</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07052275802268329</v>
+        <v>0.09934405136456501</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1371129472430967</v>
+        <v>0.07072284203581075</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1125055212151195</v>
+        <v>0.1573922702814819</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1367511654609219</v>
+        <v>0.07065977714470117</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01553263991254595</v>
+        <v>0.01811257551168477</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1369930480268506</v>
+        <v>0.04212799032216401</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02972506363492614</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K149" t="n">
-        <v>0.138179085504769</v>
+        <v>0.0730867574107318</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0713002589009839</v>
+        <v>0.09914378997168258</v>
       </c>
       <c r="M149" t="n">
-        <v>0.138764910462893</v>
+        <v>0.07157492446997714</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1115398954478872</v>
+        <v>0.1566915008302974</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1383987698640655</v>
+        <v>0.07151109976090241</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01656537306664999</v>
+        <v>0.01813833560793608</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1386239176462179</v>
+        <v>0.04262951401647549</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02977219798831274</v>
+        <v>0.04129583244764803</v>
       </c>
       <c r="K150" t="n">
-        <v>0.139824074617921</v>
+        <v>0.07395683785609766</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07090230346891144</v>
+        <v>0.09923869265138047</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1404168736826893</v>
+        <v>0.07242700690414354</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1128122156584961</v>
+        <v>0.1564824034972222</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1400463742672092</v>
+        <v>0.07236242237710361</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.016603118766946</v>
+        <v>0.01816226837934184</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1402547872655852</v>
+        <v>0.04313103771078697</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02982860457157936</v>
+        <v>0.04149583244764803</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1414690637310731</v>
+        <v>0.07482691830146351</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07072744496647565</v>
+        <v>0.09902728007876832</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1420688369024857</v>
+        <v>0.07327908933830993</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1128202103443929</v>
+        <v>0.1567633700301416</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1416939786703528</v>
+        <v>0.07321374499330484</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01764553594509739</v>
+        <v>0.01818438135006567</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1418856568849524</v>
+        <v>0.04363256140509844</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02989368705989176</v>
+        <v>0.04139468494279219</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1431140528442251</v>
+        <v>0.07569699874682936</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0708742366336863</v>
+        <v>0.09900980313548716</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1437208001222821</v>
+        <v>0.07413117177247631</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1122616080030241</v>
+        <v>0.1569347964020675</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1433415830734964</v>
+        <v>0.07406506760950606</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0156922835327676</v>
+        <v>0.01820468204427122</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1435165265043197</v>
+        <v>0.04413408509940991</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02996684912841563</v>
+        <v>0.04119076417981832</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1447590419573771</v>
+        <v>0.07656707919219523</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07164123171055323</v>
+        <v>0.0987865127031782</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1453727633420784</v>
+        <v>0.07498325420664272</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1137341371318366</v>
+        <v>0.1574970785860112</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1449891874766401</v>
+        <v>0.07491639022570727</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01674302046162005</v>
+        <v>0.01822317798612211</v>
       </c>
       <c r="G154" t="n">
-        <v>0.145147396123687</v>
+        <v>0.04463560879372139</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02994749445231665</v>
+        <v>0.04158416617814423</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1464040310705291</v>
+        <v>0.07743715963756108</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07152698343708608</v>
+        <v>0.09875765966348252</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1470247265618747</v>
+        <v>0.07583533664080912</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1129355262282769</v>
+        <v>0.1567506125549845</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1466367918797837</v>
+        <v>0.07576771284190849</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01679740566331814</v>
+        <v>0.01823987669978202</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1467782657430542</v>
+        <v>0.04513713248803287</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03013502670676052</v>
+        <v>0.04137500244440556</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1480490201836811</v>
+        <v>0.07830724008292693</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07193004505329456</v>
+        <v>0.09952349489804124</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1486766897816711</v>
+        <v>0.0766874190749755</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1132635037897918</v>
+        <v>0.1567957942819989</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1482843962829273</v>
+        <v>0.07661903545810972</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01585509806952531</v>
+        <v>0.01825478570941454</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1484091353624215</v>
+        <v>0.04563865618234435</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03032884956691297</v>
+        <v>0.04156338448523807</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1496940092968331</v>
+        <v>0.07917732052829279</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0725489697991886</v>
+        <v>0.09908426928849542</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1503286530014674</v>
+        <v>0.07753950150914191</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1149157983138279</v>
+        <v>0.1560330197400659</v>
       </c>
       <c r="O156" t="n">
-        <v>0.149932000686071</v>
+        <v>0.07747035807431092</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01793506817675281</v>
+        <v>0.01826791253918335</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1500400049817888</v>
+        <v>0.04614017987665582</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03042836670793966</v>
+        <v>0.0415494238072774</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1513389984099851</v>
+        <v>0.08004740097365864</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0719823109147778</v>
+        <v>0.0994402337164863</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1519806162212638</v>
+        <v>0.07839158394330829</v>
       </c>
       <c r="N157" t="n">
-        <v>0.114690138297832</v>
+        <v>0.1569626849021974</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1515796050892146</v>
+        <v>0.07832168069051215</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01806955328595464</v>
+        <v>0.01827926471325204</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1516708746011561</v>
+        <v>0.0466417035709673</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03037269062922525</v>
+        <v>0.04143323191715925</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1529839875231372</v>
+        <v>0.0809174814190245</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07235243453262008</v>
+        <v>0.09849163906365485</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1536325794410601</v>
+        <v>0.07924366637747468</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1142840394704284</v>
+        <v>0.1560851857414049</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1532272094923583</v>
+        <v>0.07917300330671337</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01824932998473375</v>
+        <v>0.01828884975578431</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1533017442205233</v>
+        <v>0.04714322726527877</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03061123460923651</v>
+        <v>0.04131492032151932</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1546289766362892</v>
+        <v>0.08178756186439036</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07282953495794656</v>
+        <v>0.0990387362116423</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1552845426608565</v>
+        <v>0.08009574881164108</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1159341417619813</v>
+        <v>0.1559009182306998</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1548748138955019</v>
+        <v>0.08002432592291459</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01846410224320664</v>
+        <v>0.01829667519094376</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1549326138398906</v>
+        <v>0.04764475095959025</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03082666369412346</v>
+        <v>0.04139460052699326</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1562739657494412</v>
+        <v>0.08265764230975621</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07421174081887441</v>
+        <v>0.09918177604208972</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1569365058806528</v>
+        <v>0.08094783124580748</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1170880763212396</v>
+        <v>0.1565102783430941</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1565224182986455</v>
+        <v>0.08087564853911582</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01670357403148982</v>
+        <v>0.01830274854289402</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1565634834592579</v>
+        <v>0.04814627465390173</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03140097627641984</v>
+        <v>0.0413723840402168</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1579189548625932</v>
+        <v>0.08352772275512206</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07505537792317771</v>
+        <v>0.09852100943663816</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1585884691004492</v>
+        <v>0.08179991367997387</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1183772719685855</v>
+        <v>0.155913662051599</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1581700227017892</v>
+        <v>0.08172697115531703</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01895744931969982</v>
+        <v>0.01830707733579876</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1581943530786251</v>
+        <v>0.04864779834821321</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03191617074865964</v>
+        <v>0.04104838236782561</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1595639439757452</v>
+        <v>0.08439780320048791</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07591677207863068</v>
+        <v>0.09865668727692881</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1602404323202455</v>
+        <v>0.08265199611414027</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1204331575244011</v>
+        <v>0.1564114653292263</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1598176271049328</v>
+        <v>0.08257829377151824</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01721543207795311</v>
+        <v>0.0183096690938216</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1598252226979924</v>
+        <v>0.04914932204252468</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03205424550337663</v>
+        <v>0.04122270701645538</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1612089330888972</v>
+        <v>0.08526788364585376</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07625224909300737</v>
+        <v>0.09838906044460277</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1618923955400418</v>
+        <v>0.08350407854830666</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1218871618090689</v>
+        <v>0.1566040841489875</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1614652315080764</v>
+        <v>0.08342961638771947</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01846722627636625</v>
+        <v>0.01831053134112617</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1614560923173597</v>
+        <v>0.04965084573683615</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0324971989331047</v>
+        <v>0.0409954694927418</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1628539222020492</v>
+        <v>0.08613796409121963</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07751813477408206</v>
+        <v>0.09841837982130117</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1635443587598382</v>
+        <v>0.08435616098247306</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1237707136429706</v>
+        <v>0.1556919144838944</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1631128359112201</v>
+        <v>0.08428093900392068</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01870253588505572</v>
+        <v>0.01831053134112619</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1630869619367269</v>
+        <v>0.04965084573683615</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03292702943037767</v>
+        <v>0.04116678130332053</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1644989113152013</v>
+        <v>0.08700804453658548</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07877075492962882</v>
+        <v>0.09854489628866506</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1651963219796345</v>
+        <v>0.08520824341663945</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1256152418464887</v>
+        <v>0.1560753523069584</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1647604403143637</v>
+        <v>0.0851322616201219</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01891106487413804</v>
+        <v>0.01788421473385741</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1647178315560942</v>
+        <v>0.04965057720837214</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03332573538772945</v>
+        <v>0.0411367539548273</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1661439004283533</v>
+        <v>0.08787812498195133</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07946643536742184</v>
+        <v>0.09806886072833565</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1668482851994309</v>
+        <v>0.08606032585080585</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1260521752400052</v>
+        <v>0.1550547935911912</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1664080447175074</v>
+        <v>0.08598358423632313</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01909367369353821</v>
+        <v>0.01746284468741184</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1663487011754615</v>
+        <v>0.04965030867990812</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03397531519769387</v>
+        <v>0.04090549895389776</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1677888895415053</v>
+        <v>0.08874820542731719</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08036150189523528</v>
+        <v>0.09849052402195396</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1685002484192272</v>
+        <v>0.08691240828497225</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1284129426439022</v>
+        <v>0.1552306343096045</v>
       </c>
       <c r="O167" t="n">
-        <v>0.168055649120651</v>
+        <v>0.08683490685252433</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02027085062569672</v>
+        <v>0.01704693363049102</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1679795707948287</v>
+        <v>0.04965004015144411</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03408643838219351</v>
+        <v>0.04097312780716765</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1694338786546573</v>
+        <v>0.08961828587268304</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08143330286611208</v>
+        <v>0.09781013705116112</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1701522116390236</v>
+        <v>0.08776449071913864</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1287039475330679</v>
+        <v>0.1556032704352097</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1697032535237946</v>
+        <v>0.08768622946872555</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0194437925734477</v>
+        <v>0.01663699399176007</v>
       </c>
       <c r="G169" t="n">
-        <v>0.169610440414196</v>
+        <v>0.04964977162298009</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03448961973998682</v>
+        <v>0.04083975202127259</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1710788677678093</v>
+        <v>0.09048836631804889</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08197010544412867</v>
+        <v>0.09822795069759829</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1718041748588199</v>
+        <v>0.08861657315330503</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1306595174948202</v>
+        <v>0.1554730979410185</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1713508579269383</v>
+        <v>0.08853755208492678</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02061282615784787</v>
+        <v>0.01623353819992003</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1712413100335633</v>
+        <v>0.04964950309451607</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03478556070148235</v>
+        <v>0.04100548310284831</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1727238568809613</v>
+        <v>0.09135844676341476</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08318886039521464</v>
+        <v>0.0980442158429066</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1734561380786163</v>
+        <v>0.08946865558747143</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1308872233113025</v>
+        <v>0.1559405128000425</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1729984623300819</v>
+        <v>0.089388874701128</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02077827799995396</v>
+        <v>0.01583707868363656</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1728721796529306</v>
+        <v>0.04964923456605205</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03497483233184986</v>
+        <v>0.04117043255853048</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1743688459941133</v>
+        <v>0.09222852720878061</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08329095319619725</v>
+        <v>0.09775918336872708</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1751081012984126</v>
+        <v>0.09032073802163781</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1317892402667167</v>
+        <v>0.1555059109852934</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1746460667332255</v>
+        <v>0.09024019731732921</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02094047472082269</v>
+        <v>0.01544812787161012</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1745030492722978</v>
+        <v>0.04964896603758804</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03525800569625918</v>
+        <v>0.04113471189495481</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1760138351072653</v>
+        <v>0.09309860765414646</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08407776932390384</v>
+        <v>0.09747310415670088</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1767600645182089</v>
+        <v>0.09117282045580422</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1337677436452648</v>
+        <v>0.1553696884697827</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1762936711363692</v>
+        <v>0.09109151993353044</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01909974294151078</v>
+        <v>0.01506719819250701</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1761339188916651</v>
+        <v>0.04964869750912402</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03533565185988005</v>
+        <v>0.04099843261875696</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1776588242204173</v>
+        <v>0.09396868809951232</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08525069425516166</v>
+        <v>0.09738622908846914</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1784120277380053</v>
+        <v>0.09202490288997062</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1343249087311485</v>
+        <v>0.154932241226522</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1779412755395128</v>
+        <v>0.09194284254973165</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02025640928307496</v>
+        <v>0.014694802075027</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1777647885110324</v>
+        <v>0.04964842898066</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03600834188788223</v>
+        <v>0.04096170623657264</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1793038133335693</v>
+        <v>0.09483876854487817</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08541111346679792</v>
+        <v>0.09759880904567295</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1800639909578016</v>
+        <v>0.092876985324137</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1359629108085698</v>
+        <v>0.1549939652285229</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1795888799426565</v>
+        <v>0.09279416516593286</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02041080036657197</v>
+        <v>0.01433145194783712</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1793956581303996</v>
+        <v>0.04964816045219598</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03597664684543549</v>
+        <v>0.04092464425503752</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1809488024467214</v>
+        <v>0.09570884899024404</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08616041243563996</v>
+        <v>0.0976087945889603</v>
       </c>
       <c r="M175" t="n">
-        <v>0.181715954177598</v>
+        <v>0.09372906775830341</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1371839251617307</v>
+        <v>0.1546501846128666</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1812364843458001</v>
+        <v>0.09364548778213409</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02156324281305853</v>
+        <v>0.01397766023963636</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1810265277497669</v>
+        <v>0.04964789192373197</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03624113779770959</v>
+        <v>0.04058735818078729</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1825937915598734</v>
+        <v>0.09657892943560989</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08669997663851503</v>
+        <v>0.09779922480448888</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1833679173973943</v>
+        <v>0.09458115019246979</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1368901270748328</v>
+        <v>0.1547741797400718</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1828840887489437</v>
+        <v>0.09449681039833531</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02171406324359136</v>
+        <v>0.01363393937909257</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1826573973691342</v>
+        <v>0.04964762339526795</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03650238580987433</v>
+        <v>0.04084816135626959</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1842387806730254</v>
+        <v>0.09744900988097574</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08703119155225036</v>
+        <v>0.09766874668077982</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1850198806171907</v>
+        <v>0.09543323262663618</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1392836918320783</v>
+        <v>0.1533654687371821</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1845316931520874</v>
+        <v>0.09534813301453653</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01986506309727665</v>
+        <v>0.01330080179490389</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1842882669885015</v>
+        <v>0.04964735486680393</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03706096194709946</v>
+        <v>0.0408998373151446</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1858837697861774</v>
+        <v>0.0983190903263416</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08805544265367335</v>
+        <v>0.09701996983541644</v>
       </c>
       <c r="M178" t="n">
-        <v>0.186671843836987</v>
+        <v>0.09628531506080258</v>
       </c>
       <c r="N178" t="n">
-        <v>0.139266794717669</v>
+        <v>0.1534281704314219</v>
       </c>
       <c r="O178" t="n">
-        <v>0.186179297555231</v>
+        <v>0.09619945563073776</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02102472602678992</v>
+        <v>0.01297875991573905</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1859191366078687</v>
+        <v>0.04964708633833991</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03702339300416055</v>
+        <v>0.0407426210046463</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1875287588993294</v>
+        <v>0.09918917077170745</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08897788360962358</v>
+        <v>0.09715550388598201</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1883238070567834</v>
+        <v>0.09713739749496898</v>
       </c>
       <c r="N179" t="n">
-        <v>0.14115682750751</v>
+        <v>0.153766403650016</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1878269019583746</v>
+        <v>0.09705077824693896</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0201897010752641</v>
+        <v>0.01266832617029529</v>
       </c>
       <c r="G180" t="n">
-        <v>0.187550006227236</v>
+        <v>0.0496468178098759</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0373011667544542</v>
+        <v>0.04047767229313275</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1891737480124814</v>
+        <v>0.1000592512170733</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08953472049883465</v>
+        <v>0.0969779584500598</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1899757702765797</v>
+        <v>0.09798947992913537</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1420053714561576</v>
+        <v>0.1538842872201891</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1894745063615183</v>
+        <v>0.09790210086314018</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02235437746901545</v>
+        <v>0.01237001298724229</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1891808758466032</v>
+        <v>0.04964654928141188</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03788549575232596</v>
+        <v>0.04050615104896196</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1908187371256334</v>
+        <v>0.1009293316624392</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09051583416813014</v>
+        <v>0.09718994314523316</v>
       </c>
       <c r="M181" t="n">
-        <v>0.191627733496376</v>
+        <v>0.09884156236330177</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1427838282452848</v>
+        <v>0.1522859399691658</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1911221107646619</v>
+        <v>0.09875342347934141</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02051314443436018</v>
+        <v>0.01208433279527623</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1908117454659705</v>
+        <v>0.04964628075294786</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03776657010536297</v>
+        <v>0.04042921714049202</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1924637262387855</v>
+        <v>0.101799412107805</v>
       </c>
       <c r="L182" t="n">
-        <v>0.09039742456922217</v>
+        <v>0.09659406758908534</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1932796967161724</v>
+        <v>0.09969364479746816</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1437548303289133</v>
+        <v>0.1526754807241709</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1927697151678055</v>
+        <v>0.09960474609554262</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02266039119761455</v>
+        <v>0.01181179802307372</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1924426150853378</v>
+        <v>0.04964601222448385</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03813457992115236</v>
+        <v>0.040348030436081</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1941087153519375</v>
+        <v>0.1026694925531709</v>
       </c>
       <c r="L183" t="n">
-        <v>0.09165569165382292</v>
+        <v>0.09589294139919965</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1949316599359687</v>
+        <v>0.1005457272316345</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1441810101610649</v>
+        <v>0.152157028312429</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1944173195709492</v>
+        <v>0.1004560687117438</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02179050698509478</v>
+        <v>0.01155292109931245</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1940734847047051</v>
+        <v>0.04964574369601983</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03837971530728133</v>
+        <v>0.0404637508040869</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1957537044650895</v>
+        <v>0.1035395729985367</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09166683537364448</v>
+        <v>0.09568917419315937</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1965836231557651</v>
+        <v>0.1013978096658009</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1451250001957615</v>
+        <v>0.1521347015611649</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1960649239740928</v>
+        <v>0.1013073913279451</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0228978810231171</v>
+        <v>0.01130821445268688</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1957043543240723</v>
+        <v>0.04964547516755582</v>
       </c>
       <c r="J185" t="n">
-        <v>0.038692166371337</v>
+        <v>0.04007753811286779</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1973986935782415</v>
+        <v>0.1044096534439026</v>
       </c>
       <c r="L185" t="n">
-        <v>0.09300705568039894</v>
+        <v>0.09568537558854776</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1982355863755615</v>
+        <v>0.1022498920999673</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1458494328870247</v>
+        <v>0.1524126192976032</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1977125283772365</v>
+        <v>0.1021587139441463</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02097690253799776</v>
+        <v>0.01107819051186961</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1973352239434396</v>
+        <v>0.0496452066390918</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03906212322090653</v>
+        <v>0.03989055223078174</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1990436826913935</v>
+        <v>0.1052797338892684</v>
       </c>
       <c r="L186" t="n">
-        <v>0.09325255252579848</v>
+        <v>0.0957841552029482</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1998875495953578</v>
+        <v>0.1031019745341337</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1467169406888764</v>
+        <v>0.1510949003489686</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1993601327803801</v>
+        <v>0.1030100365603475</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02203716199333051</v>
+        <v>0.01086336170555383</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1989660935628069</v>
+        <v>0.04964493811062778</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03918183090007925</v>
+        <v>0.03980395302618676</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2006886718045455</v>
+        <v>0.1061498143346343</v>
       </c>
       <c r="L187" t="n">
-        <v>0.09287952586155521</v>
+        <v>0.09568812265394391</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2015395128151541</v>
+        <v>0.1039540569683001</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1471924079313775</v>
+        <v>0.1506856635424857</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2010077371835237</v>
+        <v>0.1038613591765487</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02309605418724514</v>
+        <v>0.01066424046241342</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2005969631821741</v>
+        <v>0.04964466958216376</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03908451857998814</v>
+        <v>0.04011890036744092</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2023336609176976</v>
+        <v>0.1070198947800001</v>
       </c>
       <c r="L188" t="n">
-        <v>0.09332855670427334</v>
+        <v>0.09499988755911817</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2031914760349505</v>
+        <v>0.1048061394024665</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1485833566630428</v>
+        <v>0.1509890277053794</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2026553415866674</v>
+        <v>0.1047126817927499</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02315362851648007</v>
+        <v>0.01048133921114025</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2022278328015414</v>
+        <v>0.04964440105369974</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03928494542933596</v>
+        <v>0.0400365541229023</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2039786500308496</v>
+        <v>0.107889975225366</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09407190249076133</v>
+        <v>0.09532205953605433</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2048434392547468</v>
+        <v>0.1056582218366329</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1488657237668089</v>
+        <v>0.1501091116648743</v>
       </c>
       <c r="O189" t="n">
-        <v>0.204302945989811</v>
+        <v>0.1055640044089512</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02320986433262894</v>
+        <v>0.0103130779632865</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2038587024209087</v>
+        <v>0.04964413252523572</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03918307534639121</v>
+        <v>0.0397580741609289</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2056236391440016</v>
+        <v>0.1087600556707318</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09390972688572805</v>
+        <v>0.0950572482023356</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2064954024745431</v>
+        <v>0.1065103042707993</v>
       </c>
       <c r="N190" t="n">
-        <v>0.14913937172505</v>
+        <v>0.150650034248195</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2059505503929546</v>
+        <v>0.1064153270251524</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02226474098728533</v>
+        <v>0.01014741464480419</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2054895720402759</v>
+        <v>0.04964386399677171</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03917887222942236</v>
+        <v>0.03948462034987882</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2072686282571536</v>
+        <v>0.1096301361160977</v>
       </c>
       <c r="L191" t="n">
-        <v>0.09444194230177524</v>
+        <v>0.09530806317554538</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2081473656943395</v>
+        <v>0.1073623867049657</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1497041630201404</v>
+        <v>0.1497159142825664</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2075981547960983</v>
+        <v>0.1072666496413536</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02331823783204288</v>
+        <v>0.009982769267246096</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2071204416596432</v>
+        <v>0.04964359546830769</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03967229997669788</v>
+        <v>0.03941735255811007</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2089136173703056</v>
+        <v>0.1105002165614636</v>
       </c>
       <c r="L192" t="n">
-        <v>0.09426846115150464</v>
+        <v>0.09477711407326689</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2097993289141359</v>
+        <v>0.1082144691391321</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1501599601344548</v>
+        <v>0.1492108705952129</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2092457591992419</v>
+        <v>0.1081179722575548</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02237033421849518</v>
+        <v>0.00981965425930257</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2087513112790105</v>
+        <v>0.04964332693984368</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03956332248648624</v>
+        <v>0.03955743065398074</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2105586064834576</v>
+        <v>0.1113702970068294</v>
       </c>
       <c r="L193" t="n">
-        <v>0.09478919584751799</v>
+        <v>0.09426701051308345</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2114512921339322</v>
+        <v>0.1090665515732985</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1497066255503671</v>
+        <v>0.1495390220133593</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2108933636023856</v>
+        <v>0.108969294873756</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02142100949823584</v>
+        <v>0.009658582049649735</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2103821808983778</v>
+        <v>0.04964305841137966</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03965190365705593</v>
+        <v>0.03930601450584884</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2122035955966096</v>
+        <v>0.1122403774521953</v>
       </c>
       <c r="L194" t="n">
-        <v>0.09510405880241707</v>
+        <v>0.09437869957528644</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2131032553537286</v>
+        <v>0.1099186340074649</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1505440217502518</v>
+        <v>0.1503009197757446</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2125409680055292</v>
+        <v>0.1098206174899573</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02347024302285849</v>
+        <v>0.009500065066977814</v>
       </c>
       <c r="G195" t="n">
-        <v>0.212013050517745</v>
+        <v>0.04964278988291564</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03983800738667542</v>
+        <v>0.03926426398207244</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2138485847097616</v>
+        <v>0.1131104578975611</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09551296242880364</v>
+        <v>0.0943972343649897</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2147552185735249</v>
+        <v>0.1107707164416313</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1512720112164833</v>
+        <v>0.1499723715924393</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2141885724086728</v>
+        <v>0.1106719401061585</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02251801414395672</v>
+        <v>0.009344615739963119</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2136439201371123</v>
+        <v>0.04964252135445162</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03982159757361318</v>
+        <v>0.03952900295840452</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2154935738229136</v>
+        <v>0.113980538342927</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0957158191392794</v>
+        <v>0.09441838410525558</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2164071817933212</v>
+        <v>0.1116227988757977</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1513904564314357</v>
+        <v>0.1485479462091719</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2158361768118164</v>
+        <v>0.1115232627223597</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02156430221312416</v>
+        <v>0.00919274649729563</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2152747897564795</v>
+        <v>0.04964225282598761</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0399026381161377</v>
+        <v>0.03929492183670835</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2171385629360657</v>
+        <v>0.1148506187882928</v>
       </c>
       <c r="L197" t="n">
-        <v>0.09591254134644611</v>
+        <v>0.0940420651737788</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2180591450131176</v>
+        <v>0.1124748813099641</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1515992198774836</v>
+        <v>0.1484275116426857</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2174837812149601</v>
+        <v>0.1123745853385609</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0236090865819544</v>
+        <v>0.00904496976765512</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2169056593758469</v>
+        <v>0.04964198429752359</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03988109291251744</v>
+        <v>0.03916195762672706</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2187835520492176</v>
+        <v>0.1157206992336587</v>
       </c>
       <c r="L198" t="n">
-        <v>0.09570304146290554</v>
+        <v>0.09416819394825399</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2197111082329139</v>
+        <v>0.1133269637441305</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1516981640370013</v>
+        <v>0.1496109359097239</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2191313856181037</v>
+        <v>0.1132259079547621</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02265234660204107</v>
+        <v>0.00890179797972173</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2185365289952141</v>
+        <v>0.04964171576905957</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04025692586102088</v>
+        <v>0.03913007316176366</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2204285411623697</v>
+        <v>0.1165907796790245</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09628723190125946</v>
+        <v>0.09429668680637593</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2213630714527103</v>
+        <v>0.1141790461782969</v>
       </c>
       <c r="N199" t="n">
-        <v>0.151787151392363</v>
+        <v>0.1487980870270293</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2207789900212474</v>
+        <v>0.1140772305709633</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02169406162497776</v>
+        <v>0.008763743562184879</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2201673986145813</v>
+        <v>0.04964144724059556</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0399301008599165</v>
+        <v>0.03929923127512114</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2220735302755217</v>
+        <v>0.1174608601243904</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09596502507410953</v>
+        <v>0.09422746012583921</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2230150346725066</v>
+        <v>0.1150311286124633</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1520660444259432</v>
+        <v>0.1493888330113456</v>
       </c>
       <c r="O200" t="n">
-        <v>0.222426594424391</v>
+        <v>0.1149285531871646</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0217342110023581</v>
+        <v>0.008631318943721794</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2217982682339486</v>
+        <v>0.04964117871213154</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04010058180747275</v>
+        <v>0.03936939480010257</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2237185193886737</v>
+        <v>0.1183309405697562</v>
       </c>
       <c r="L201" t="n">
-        <v>0.09643633339405761</v>
+        <v>0.09386043028433858</v>
       </c>
       <c r="M201" t="n">
-        <v>0.224666997892303</v>
+        <v>0.1158832110466297</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1526347056201161</v>
+        <v>0.1491830418794155</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2240741988275347</v>
+        <v>0.1157798758033658</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02377277408577568</v>
+        <v>0.008505036553021442</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2234291378533159</v>
+        <v>0.04964091018366752</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04046833260195816</v>
+        <v>0.03914052657001094</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2253635085018257</v>
+        <v>0.1192010210151221</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09670106927370536</v>
+        <v>0.09349551365956865</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2263189611120993</v>
+        <v>0.1167352934807961</v>
       </c>
       <c r="N202" t="n">
-        <v>0.152192997457256</v>
+        <v>0.1491805816479825</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2257218032306783</v>
+        <v>0.116631198419567</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02280973022682414</v>
+        <v>0.008385408818761542</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2250600074726832</v>
+        <v>0.0496406416552035</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04023331714164113</v>
+        <v>0.03941258941814924</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2270084976149777</v>
+        <v>0.120071101460488</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09625914512565462</v>
+        <v>0.09373262662922421</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2279709243318957</v>
+        <v>0.1175873759149624</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1531407824197374</v>
+        <v>0.1487813203337897</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2273694076338219</v>
+        <v>0.1174825210357682</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02384505877709705</v>
+        <v>0.00827294816963052</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2266908770920504</v>
+        <v>0.04964037312673949</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0404954993247902</v>
+        <v>0.03928554617782051</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2286534867281297</v>
+        <v>0.1209411819058538</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09701047336250704</v>
+        <v>0.09357168557099985</v>
       </c>
       <c r="M204" t="n">
-        <v>0.229622887551692</v>
+        <v>0.1184394583491288</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1534779229899345</v>
+        <v>0.1489851259535801</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2290170120369656</v>
+        <v>0.1183338436519694</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02387873908818806</v>
+        <v>0.00816816703430668</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2283217467114177</v>
+        <v>0.04964010459827547</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04045484304967381</v>
+        <v>0.03935935968232777</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2302984758412817</v>
+        <v>0.1218112623512197</v>
       </c>
       <c r="L205" t="n">
-        <v>0.09665496639686444</v>
+        <v>0.09341260686259031</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2312748507714883</v>
+        <v>0.1192915407832952</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1530042816502217</v>
+        <v>0.148191866524097</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2306646164401092</v>
+        <v>0.1191851662681707</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02391075051169077</v>
+        <v>0.008071577841477807</v>
       </c>
       <c r="G206" t="n">
-        <v>0.229952616330785</v>
+        <v>0.04963983606981145</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04071131221456045</v>
+        <v>0.03893399276497403</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2319434649544337</v>
+        <v>0.1226813427965855</v>
       </c>
       <c r="L206" t="n">
-        <v>0.09699253664132851</v>
+        <v>0.09405530688169028</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2329268139912847</v>
+        <v>0.1201436232174616</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1530197208829733</v>
+        <v>0.1477014100620837</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2323122208432528</v>
+        <v>0.1200364888843719</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02294107239919877</v>
+        <v>0.0079836930198229</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2315834859501522</v>
+        <v>0.04963956754134743</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04076487071771863</v>
+        <v>0.03910940825906231</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2335884540675858</v>
+        <v>0.1235514232419514</v>
       </c>
       <c r="L207" t="n">
-        <v>0.09762309650850104</v>
+        <v>0.09329970200599441</v>
       </c>
       <c r="M207" t="n">
-        <v>0.234578777211081</v>
+        <v>0.120995705651628</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1541241031705637</v>
+        <v>0.1478136245842832</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2339598252463965</v>
+        <v>0.1208878115005731</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0239696841023057</v>
+        <v>0.007905024998028996</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2332143555695195</v>
+        <v>0.04963929901288342</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04041548245741675</v>
+        <v>0.03898556899789564</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2352334431807378</v>
+        <v>0.1244215036873172</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09744655841098379</v>
+        <v>0.09344570861319745</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2362307404308774</v>
+        <v>0.1218477880857944</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1540172909953673</v>
+        <v>0.1477283781074387</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2356074296495401</v>
+        <v>0.1217391341167743</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02199656497260514</v>
+        <v>0.007836086204775904</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2348452251888868</v>
+        <v>0.0496390304844194</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04046311133192332</v>
+        <v>0.03926243781477702</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2368784322938898</v>
+        <v>0.1252915841326831</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09736283476137847</v>
+        <v>0.09349324308099399</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2378827036506737</v>
+        <v>0.1226998705199608</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1547991468397582</v>
+        <v>0.1477455386482934</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2372550340526837</v>
+        <v>0.1225904567329755</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02202169436169071</v>
+        <v>0.007777389068749814</v>
       </c>
       <c r="G210" t="n">
-        <v>0.236476094808254</v>
+        <v>0.04963876195595538</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04060772123950683</v>
+        <v>0.03923997754300944</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2385234214070418</v>
+        <v>0.1261616645780489</v>
       </c>
       <c r="L210" t="n">
-        <v>0.09727183797228683</v>
+        <v>0.09314222178707879</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2395346668704701</v>
+        <v>0.1235519529541272</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1535695331861108</v>
+        <v>0.1481649742235904</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2389026384558274</v>
+        <v>0.1234417793491768</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02304505162115605</v>
+        <v>0.007729446018631403</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2381069644276213</v>
+        <v>0.04963849342749136</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04054927607843574</v>
+        <v>0.03881815101589599</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2401684105201938</v>
+        <v>0.1270317450234148</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09777348045631068</v>
+        <v>0.0931925611091465</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2411866300902664</v>
+        <v>0.1244040353882936</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1538283125167996</v>
+        <v>0.147686552850073</v>
       </c>
       <c r="O211" t="n">
-        <v>0.240550242858971</v>
+        <v>0.124293101965378</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02406661610259474</v>
+        <v>0.007692769483105939</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2397378340469886</v>
+        <v>0.04963822489902735</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04088773974697853</v>
+        <v>0.03879692106673961</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2418133996333458</v>
+        <v>0.1279018254687806</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0978676746260517</v>
+        <v>0.09304417742489185</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2428385933100628</v>
+        <v>0.12525611782246</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1550753473141988</v>
+        <v>0.1482101425444842</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2421978472621146</v>
+        <v>0.1251444245815792</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02208636715760041</v>
+        <v>0.007667871890855084</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2413687036663559</v>
+        <v>0.04963795637056333</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04062307614340366</v>
+        <v>0.03897625052884335</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2434583887464978</v>
+        <v>0.1287719059141465</v>
       </c>
       <c r="L213" t="n">
-        <v>0.09805433289411167</v>
+        <v>0.09319698711200949</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2444905565298591</v>
+        <v>0.1261082002566264</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1540105000606827</v>
+        <v>0.1481356113235673</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2438454516652583</v>
+        <v>0.1259957471977804</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02410428413776663</v>
+        <v>0.007655265670563093</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2429995732857231</v>
+        <v>0.04963768784209931</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04095524916597963</v>
+        <v>0.03895610223551021</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2451033778596499</v>
+        <v>0.1296419863595124</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09743336767309232</v>
+        <v>0.09285090654819406</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2461425197496554</v>
+        <v>0.1269602826907928</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1549336332386257</v>
+        <v>0.1478628272040656</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2454930560684019</v>
+        <v>0.1268470698139816</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02212034639468704</v>
+        <v>0.007655265670563093</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2446304429050904</v>
+        <v>0.04963768784209931</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0408842227129749</v>
+        <v>0.03893643902004323</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2467483669728019</v>
+        <v>0.1305120668048782</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09750469137559545</v>
+        <v>0.09320585211114038</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2477944829694518</v>
+        <v>0.1278123651249592</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1553446093304022</v>
+        <v>0.146891658202722</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2471406604715456</v>
+        <v>0.1276983924301829</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02413453327995527</v>
+        <v>0.007418709834681743</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2462613125244577</v>
+        <v>0.04960763669580581</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04080996068265795</v>
+        <v>0.03891722371574545</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2483933560859539</v>
+        <v>0.1313821472502441</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09756821641422272</v>
+        <v>0.09286174017854301</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2494464461892481</v>
+        <v>0.1286644475591256</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1555432908183864</v>
+        <v>0.1474219723362798</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2487882648746892</v>
+        <v>0.1285497150463841</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02414682414516491</v>
+        <v>0.007185782281871035</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2478921821438249</v>
+        <v>0.04957758554951231</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04083242697329728</v>
+        <v>0.03869841915591983</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2500383451991059</v>
+        <v>0.1322522276956099</v>
       </c>
       <c r="L217" t="n">
-        <v>0.09792385520157601</v>
+        <v>0.09351848712809671</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2510984094090445</v>
+        <v>0.129516529993292</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1550295401849527</v>
+        <v>0.1471536376214822</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2504358692778328</v>
+        <v>0.1294010376625853</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02415719834190957</v>
+        <v>0.00695702467739033</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2495230517631922</v>
+        <v>0.04954753440321882</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0407515854831613</v>
+        <v>0.03867998817386942</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2516833343122579</v>
+        <v>0.1331223081409758</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09837152015025688</v>
+        <v>0.09297600933749608</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2527503726288409</v>
+        <v>0.1303686124274584</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1553032199124756</v>
+        <v>0.1466865220750723</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2520834736809765</v>
+        <v>0.1302523602787865</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02316563522178285</v>
+        <v>0.006732978686498851</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2511539213825595</v>
+        <v>0.04951748325692531</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04106740011051856</v>
+        <v>0.03896189360289722</v>
       </c>
       <c r="K219" t="n">
-        <v>0.25332832342541</v>
+        <v>0.1339923885863417</v>
       </c>
       <c r="L219" t="n">
-        <v>0.09811112367286728</v>
+        <v>0.09303422318443591</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2544023358486371</v>
+        <v>0.1312206948616248</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1556641924833291</v>
+        <v>0.1472204937137933</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2537310780841202</v>
+        <v>0.1311036828949877</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02217211413637837</v>
+        <v>0.006514185974455973</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2527847910019267</v>
+        <v>0.04948743211063181</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04077983475363747</v>
+        <v>0.03864409827630627</v>
       </c>
       <c r="K220" t="n">
-        <v>0.254973312538562</v>
+        <v>0.1348624690317075</v>
       </c>
       <c r="L220" t="n">
-        <v>0.09774257818200882</v>
+        <v>0.09289304504661083</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2560542990684335</v>
+        <v>0.1320727772957912</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1554123203798878</v>
+        <v>0.1477554205543885</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2553786824872638</v>
+        <v>0.131955005511189</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02317661443728975</v>
+        <v>0.006301188206521001</v>
       </c>
       <c r="G221" t="n">
-        <v>0.254415660621294</v>
+        <v>0.04945738096433831</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04108885331078654</v>
+        <v>0.03892656502739954</v>
       </c>
       <c r="K221" t="n">
-        <v>0.256618301651714</v>
+        <v>0.1357325494770734</v>
       </c>
       <c r="L221" t="n">
-        <v>0.09856579609028332</v>
+        <v>0.09315239130171557</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2577062622882298</v>
+        <v>0.1329248597299575</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1557474660845259</v>
+        <v>0.1474911706136007</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2570262868904074</v>
+        <v>0.1328063281273902</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02417911547611059</v>
+        <v>0.006094527047953269</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2560465302406613</v>
+        <v>0.0494273298180448</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04109441968023426</v>
+        <v>0.03890925668948009</v>
       </c>
       <c r="K222" t="n">
-        <v>0.258263290764866</v>
+        <v>0.1366026299224392</v>
       </c>
       <c r="L222" t="n">
-        <v>0.09828068981029253</v>
+        <v>0.09321217832744469</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2593582255080262</v>
+        <v>0.1337769421641239</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1558694920796179</v>
+        <v>0.1468276119081735</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2586738912935511</v>
+        <v>0.1336576507435914</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02317746121837429</v>
+        <v>0.00589474416401211</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2576773998600286</v>
+        <v>0.04939727867175131</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04109649776024908</v>
+        <v>0.03889213609585093</v>
       </c>
       <c r="K223" t="n">
-        <v>0.259908279878018</v>
+        <v>0.1374727103678051</v>
       </c>
       <c r="L223" t="n">
-        <v>0.09828717175463811</v>
+        <v>0.09247232250149304</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2610101887278226</v>
+        <v>0.1346290245982903</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1550782608475379</v>
+        <v>0.1475646124548499</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2603214956966947</v>
+        <v>0.1345089733597926</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.0221304721681894</v>
+        <v>0.005702381219956788</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2593082694793958</v>
+        <v>0.0493672275254578</v>
       </c>
       <c r="J224" t="n">
-        <v>0.0408518296587676</v>
+        <v>0.03887516607981509</v>
       </c>
       <c r="K224" t="n">
-        <v>0.26155326899117</v>
+        <v>0.1383427908131709</v>
       </c>
       <c r="L224" t="n">
-        <v>0.09771623683858141</v>
+        <v>0.09273274020155525</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2626621519476189</v>
+        <v>0.1354811070324567</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1552315863023997</v>
+        <v>0.146602040270373</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2619691000998383</v>
+        <v>0.1353602959759938</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02302721113372757</v>
+        <v>0.005517979881046652</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2609391390987631</v>
+        <v>0.0493371763791643</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04060620782945223</v>
+        <v>0.03855830947467553</v>
       </c>
       <c r="K225" t="n">
-        <v>0.263198258104322</v>
+        <v>0.1392128712585368</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09810489165556127</v>
+        <v>0.09249334780532595</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2643141151674153</v>
+        <v>0.1363331894666231</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1552015762749333</v>
+        <v>0.1469397633714861</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2636167045029819</v>
+        <v>0.136211618592195</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02287411511903998</v>
+        <v>0.005342081812541019</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2625700087181304</v>
+        <v>0.0493071252328708</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04077043482431379</v>
+        <v>0.03884152911373533</v>
       </c>
       <c r="K226" t="n">
-        <v>0.264843247217474</v>
+        <v>0.1400829517039026</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09727125596210012</v>
+        <v>0.09255406169049987</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2659660783872116</v>
+        <v>0.1371852719007895</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1542260562853843</v>
+        <v>0.1463776497749323</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2652643089061256</v>
+        <v>0.1370629412083963</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02267762112817791</v>
+        <v>0.005175228679699197</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2642008783374976</v>
+        <v>0.0492770740865773</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04045576511925215</v>
+        <v>0.03852478783029746</v>
       </c>
       <c r="K227" t="n">
-        <v>0.266488236330626</v>
+        <v>0.1409530321492685</v>
       </c>
       <c r="L227" t="n">
-        <v>0.09644263454999369</v>
+        <v>0.09321479823477172</v>
       </c>
       <c r="M227" t="n">
-        <v>0.267618041607008</v>
+        <v>0.1380373543349559</v>
       </c>
       <c r="N227" t="n">
-        <v>0.152247896543532</v>
+        <v>0.1469155674974548</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2669119133092692</v>
+        <v>0.1379142638245975</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02244416616519256</v>
+        <v>0.005017962147780552</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2658317479568649</v>
+        <v>0.0492470229402838</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03977345319016722</v>
+        <v>0.03870804845766497</v>
       </c>
       <c r="K228" t="n">
-        <v>0.268133225443778</v>
+        <v>0.1418231125946343</v>
       </c>
       <c r="L228" t="n">
-        <v>0.09564633221103777</v>
+        <v>0.09307547381583611</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2692700048268042</v>
+        <v>0.1388894367691223</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1520099672591553</v>
+        <v>0.1462533845557967</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2685595177124129</v>
+        <v>0.1387655864407987</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02118018723413517</v>
+        <v>0.004870823882044337</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2674626175762322</v>
+        <v>0.0492169717939903</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03963475351295886</v>
+        <v>0.03849127382914087</v>
       </c>
       <c r="K229" t="n">
-        <v>0.26977821455693</v>
+        <v>0.1426931930400002</v>
       </c>
       <c r="L229" t="n">
-        <v>0.09440965373702817</v>
+        <v>0.09313600481138781</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2709219680466006</v>
+        <v>0.1397415192032887</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1497551386420335</v>
+        <v>0.1464909689667013</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2702071221155565</v>
+        <v>0.1396169090569999</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02289212133905698</v>
+        <v>0.00473435554774989</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2690934871955994</v>
+        <v>0.04918692064769679</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03915092056352695</v>
+        <v>0.03857442677802814</v>
       </c>
       <c r="K230" t="n">
-        <v>0.271423203670082</v>
+        <v>0.143563273485366</v>
       </c>
       <c r="L230" t="n">
-        <v>0.09375990391976072</v>
+        <v>0.09249630759912147</v>
       </c>
       <c r="M230" t="n">
-        <v>0.272573931266397</v>
+        <v>0.1405936016374551</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1482262809019458</v>
+        <v>0.1461281887469116</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2718547265187001</v>
+        <v>0.1404682316732011</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02258640548400923</v>
+        <v>0.004609098810156545</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2707243568149667</v>
+        <v>0.04915686950140329</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03863320881777141</v>
+        <v>0.03885747013762986</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2730681927832341</v>
+        <v>0.1444333539307319</v>
       </c>
       <c r="L231" t="n">
-        <v>0.09242438755103119</v>
+        <v>0.09285629855673175</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2742258944861933</v>
+        <v>0.1414456840716215</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1461662642486712</v>
+        <v>0.147064911913171</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2735023309218438</v>
+        <v>0.1413195542894023</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02126947667304312</v>
+        <v>0.004495595334523601</v>
       </c>
       <c r="G232" t="n">
-        <v>0.272355226434334</v>
+        <v>0.04912681835510979</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0379928727515921</v>
+        <v>0.03874036674124898</v>
       </c>
       <c r="K232" t="n">
-        <v>0.274713181896386</v>
+        <v>0.1453034343760977</v>
       </c>
       <c r="L232" t="n">
-        <v>0.09113040942263542</v>
+        <v>0.09291589406191342</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2758778577059897</v>
+        <v>0.1422977665057879</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1431179588919892</v>
+        <v>0.1464010064822224</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2751499353249874</v>
+        <v>0.1421708769056036</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01994777191020989</v>
+        <v>0.004394386786110413</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2739860960537013</v>
+        <v>0.0490967672088163</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03744116684088891</v>
+        <v>0.03862307942218857</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2763581710095381</v>
+        <v>0.1461735148214636</v>
       </c>
       <c r="L233" t="n">
-        <v>0.09000527432636915</v>
+        <v>0.09257514704052208</v>
       </c>
       <c r="M233" t="n">
-        <v>0.277529820925786</v>
+        <v>0.1431498489399543</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1421242350416786</v>
+        <v>0.1462365788258571</v>
       </c>
       <c r="O233" t="n">
-        <v>0.276797539728131</v>
+        <v>0.1430221995218048</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02062772819956079</v>
+        <v>0.004306014830176251</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2756169656730685</v>
+        <v>0.0490667160625228</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03668934556156174</v>
+        <v>0.0387057299103967</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2780031601226901</v>
+        <v>0.1470435952668294</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0880762870540282</v>
+        <v>0.09293467109087489</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2791817841455824</v>
+        <v>0.1440019313741207</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1399279629075189</v>
+        <v>0.1464725959386756</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2784451441312747</v>
+        <v>0.143873522138006</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02131578254514703</v>
+        <v>0.004231021131980456</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2772478352924358</v>
+        <v>0.04903666491622929</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03634866338951045</v>
+        <v>0.03868853446714053</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2796481492358421</v>
+        <v>0.1479136757121953</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0866707523974084</v>
+        <v>0.09269455777635846</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2808337473653787</v>
+        <v>0.1448540138082871</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1382720126992888</v>
+        <v>0.1466091862254545</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2800927485344183</v>
+        <v>0.1447248447542072</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02101837195101986</v>
+        <v>0.00416994735678234</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2788787049118031</v>
+        <v>0.04900661376993579</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03563037480063497</v>
+        <v>0.03877149809018957</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2812931383489941</v>
+        <v>0.1487837561575612</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08551597514830553</v>
+        <v>0.09215481435380185</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2824857105851751</v>
+        <v>0.1457060962424535</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1357992546267681</v>
+        <v>0.1468463611398356</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2817403529375619</v>
+        <v>0.1455761673704084</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02074193342123049</v>
+        <v>0.004123335169841237</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2805095745311704</v>
+        <v>0.04897656262364228</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03514573427083512</v>
+        <v>0.03875462400490766</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2829381274621461</v>
+        <v>0.149653836602927</v>
       </c>
       <c r="L237" t="n">
-        <v>0.08433926009851536</v>
+        <v>0.09261544808003405</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2841376738049714</v>
+        <v>0.1465581786766199</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1332525588997353</v>
+        <v>0.1453841321354606</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2833879573407056</v>
+        <v>0.1464274899866097</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01848721448991764</v>
+        <v>0.004091726236416453</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2821404441505376</v>
+        <v>0.04894651147734879</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03490231272551696</v>
+        <v>0.03853791543665876</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2845831165752982</v>
+        <v>0.1505239170482929</v>
       </c>
       <c r="L238" t="n">
-        <v>0.08336363664960325</v>
+        <v>0.09187646621188417</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2857896370247677</v>
+        <v>0.1474102611107863</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1324638394976191</v>
+        <v>0.1456225106659714</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2850355617438492</v>
+        <v>0.1472788126028109</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01823402748841795</v>
+        <v>0.0040756622217673</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2837713137699048</v>
+        <v>0.04891646033105529</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03416756768811095</v>
+        <v>0.03832137561080677</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2862281056884502</v>
+        <v>0.1513939974936587</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08281820477640817</v>
+        <v>0.09213787600618129</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2874416002445641</v>
+        <v>0.1482623435449526</v>
       </c>
       <c r="N239" t="n">
-        <v>0.130313328463258</v>
+        <v>0.1463615081850096</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2866831661469929</v>
+        <v>0.1481301352190121</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01797987904337693</v>
+        <v>0.004073636703402155</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2854021833892721</v>
+        <v>0.04888640918476178</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03383116180991329</v>
+        <v>0.03860500775271561</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2878730948016022</v>
+        <v>0.1522640779390246</v>
       </c>
       <c r="L240" t="n">
-        <v>0.08186876733008439</v>
+        <v>0.09269968471975432</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2890935634643604</v>
+        <v>0.149114425979119</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1286565050766894</v>
+        <v>0.1464011361462172</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2883307705501365</v>
+        <v>0.1489814578352133</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01872475390529332</v>
+        <v>0.004073841428052907</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2870330530086394</v>
+        <v>0.04885635803846828</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03339306842865317</v>
+        <v>0.03828881508774917</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2895180839147542</v>
+        <v>0.1531341583843905</v>
       </c>
       <c r="L241" t="n">
-        <v>0.08071525962456763</v>
+        <v>0.09266189960943233</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2907455266841568</v>
+        <v>0.1499665084132854</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1267932677767966</v>
+        <v>0.1466414060032358</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2899783749532801</v>
+        <v>0.1498327804514145</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0174686368246658</v>
+        <v>0.004074613082505736</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2886639226280067</v>
+        <v>0.04882630689217479</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03325326088205988</v>
+        <v>0.03867280084127139</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2911630730279062</v>
+        <v>0.1540042388297563</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0796576169737935</v>
+        <v>0.09232452793204449</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2923974899039531</v>
+        <v>0.1508185908474518</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1250235150024626</v>
+        <v>0.1452823292097075</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2916259793564238</v>
+        <v>0.1506841030676158</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01721151255199307</v>
+        <v>0.004076329619962037</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2902947922473739</v>
+        <v>0.04879625574588128</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03261171250786264</v>
+        <v>0.03865696823864621</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2928080621410582</v>
+        <v>0.1548743192751222</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07819577469169769</v>
+        <v>0.09238757694441974</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2940494531237495</v>
+        <v>0.1516706732816182</v>
       </c>
       <c r="N243" t="n">
-        <v>0.124447145192571</v>
+        <v>0.1450239172192739</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2932735837595674</v>
+        <v>0.151535425683817</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01895336583777382</v>
+        <v>0.004079368993623177</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2919256618667412</v>
+        <v>0.04876620459958778</v>
       </c>
       <c r="J244" t="n">
-        <v>0.0323683966437907</v>
+        <v>0.03854132050523749</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2944530512542102</v>
+        <v>0.155744399720488</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07702966809221595</v>
+        <v>0.09235105390338708</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2957014163435458</v>
+        <v>0.1525227557157846</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1216640567860048</v>
+        <v>0.1455661814855767</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2949211881627111</v>
+        <v>0.1523867483000182</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01769418143250675</v>
+        <v>0.004084109156690566</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2935565314861085</v>
+        <v>0.04873615345329427</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03192328662757328</v>
+        <v>0.0383258608664092</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2960980403673623</v>
+        <v>0.1566144801658539</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07565923248928386</v>
+        <v>0.09181496606577566</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2973533795633422</v>
+        <v>0.153374838149951</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1208741482216474</v>
+        <v>0.1453091334622578</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2965687925658547</v>
+        <v>0.1532380709162194</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01843394408669055</v>
+        <v>0.004090928062365579</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2951874011054758</v>
+        <v>0.04870610230700077</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03117635579693964</v>
+        <v>0.03861059254752519</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2977430294805142</v>
+        <v>0.1574845606112197</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07528440319683721</v>
+        <v>0.09187932068841448</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2990053427831385</v>
+        <v>0.1542269205841174</v>
       </c>
       <c r="N246" t="n">
-        <v>0.118177317938382</v>
+        <v>0.1462527846029592</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2982163969689983</v>
+        <v>0.1540893935324206</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01717263855082393</v>
+        <v>0.004100203663849604</v>
       </c>
       <c r="G247" t="n">
-        <v>0.296818270724843</v>
+        <v>0.04867605116070728</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03082757748961898</v>
+        <v>0.03849551877394944</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2993880185936663</v>
+        <v>0.1583546410565856</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07430511552881156</v>
+        <v>0.09244412502813257</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3006573060029348</v>
+        <v>0.1550790030182838</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1163734643750919</v>
+        <v>0.1447971463613223</v>
       </c>
       <c r="O247" t="n">
-        <v>0.299864001372142</v>
+        <v>0.1549407161486218</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01691024957540557</v>
+        <v>0.004112313914344017</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2984491403442103</v>
+        <v>0.04864600001441378</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03037692504334059</v>
+        <v>0.03818064277104584</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3010330077068183</v>
+        <v>0.1592247215019514</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07242130479914263</v>
+        <v>0.09220938634175896</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3023092692227312</v>
+        <v>0.1559310854524502</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1157624859706603</v>
+        <v>0.1447422301909891</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3015116057752856</v>
+        <v>0.1557920387648231</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01664676191093418</v>
+        <v>0.004127636767050219</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3000800099635775</v>
+        <v>0.04861594886812028</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02982437179583368</v>
+        <v>0.0385659677641783</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3026779968199703</v>
+        <v>0.1600948019473173</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07193290632176613</v>
+        <v>0.09167511188612273</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3039612324425275</v>
+        <v>0.1567831678866166</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1134442811639704</v>
+        <v>0.1447880475456015</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3031592101784292</v>
+        <v>0.1566433613810243</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01538216030790843</v>
+        <v>0.0041465501751696</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3017108795829448</v>
+        <v>0.04858589772182677</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02966989108482747</v>
+        <v>0.03825149697871073</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3043229859331223</v>
+        <v>0.1609648823926831</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07103985541061777</v>
+        <v>0.09234130891805289</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3056131956623239</v>
+        <v>0.157635250320783</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1115187483939056</v>
+        <v>0.1460346098788011</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3048068145815728</v>
+        <v>0.1574946839972255</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01511642951682706</v>
+        <v>0.004169432091903527</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3033417492023121</v>
+        <v>0.04855584657553327</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02921345624805123</v>
+        <v>0.03813723364000708</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3059679750462743</v>
+        <v>0.161834962838049</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06924208737963314</v>
+        <v>0.0921079846943785</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3072651588821202</v>
+        <v>0.1584873327549494</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1106857860993491</v>
+        <v>0.1448819286442298</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3064544189847165</v>
+        <v>0.1583460066134267</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01684955428818872</v>
+        <v>0.004196660470453396</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3049726188216794</v>
+        <v>0.04852579542923977</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02835504062323418</v>
+        <v>0.03832318097343121</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3076129641594263</v>
+        <v>0.1627050432834149</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06863953754274796</v>
+        <v>0.09227514647192861</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3089171221019166</v>
+        <v>0.1593394151891158</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1081452927191842</v>
+        <v>0.1447300152955294</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3081020233878601</v>
+        <v>0.159197329229628</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01558151937249214</v>
+        <v>0.004228613264020596</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3066034884410466</v>
+        <v>0.04849574428294627</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02809461754810555</v>
+        <v>0.0385093422043471</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3092579532725783</v>
+        <v>0.1635751237287807</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06713214121389788</v>
+        <v>0.09194280150753223</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3105690853217129</v>
+        <v>0.1601914976232822</v>
       </c>
       <c r="N253" t="n">
-        <v>0.106497166692294</v>
+        <v>0.1453788812863417</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3097496277910038</v>
+        <v>0.1600486518458292</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01431230952023601</v>
+        <v>0.004265668425806515</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3082343580604139</v>
+        <v>0.04846569313665277</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02783216036039461</v>
+        <v>0.03849572055811859</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3109029423857304</v>
+        <v>0.1644452041741466</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06621983370701864</v>
+        <v>0.09191095705801841</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3122210485415093</v>
+        <v>0.1610435800574486</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1046413064575619</v>
+        <v>0.1456285380703084</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3113972321941474</v>
+        <v>0.1608999744620304</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01504190948191901</v>
+        <v>0.004308203909012535</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3098652276797812</v>
+        <v>0.04843564199035927</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02706764239783059</v>
+        <v>0.03838231926010964</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3125479314988824</v>
+        <v>0.1653152846195124</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06510255033604592</v>
+        <v>0.09127962038021623</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3138730117613056</v>
+        <v>0.161895662491615</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1030776104538711</v>
+        <v>0.1458789971010714</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3130448365972911</v>
+        <v>0.1617512970782316</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01577030400803986</v>
+        <v>0.004356597666840038</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3114960972991485</v>
+        <v>0.04840559084406576</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02670103699814268</v>
+        <v>0.0382691415356842</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3141929206120344</v>
+        <v>0.1661853650648783</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0644802264149153</v>
+        <v>0.09144879873095471</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3155249749811019</v>
+        <v>0.1627477449257814</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1006059771201049</v>
+        <v>0.1444302698322725</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3146924410004347</v>
+        <v>0.1626026196944328</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01449747784909722</v>
+        <v>0.004411227652490413</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3131269669185157</v>
+        <v>0.04837553969777227</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0261323174990602</v>
+        <v>0.03835619061020611</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3158379097251864</v>
+        <v>0.1670554455102441</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06245279725756253</v>
+        <v>0.09201849936706291</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3171769382008983</v>
+        <v>0.1635998273599477</v>
       </c>
       <c r="N257" t="n">
-        <v>0.09952630489514647</v>
+        <v>0.1453823677175535</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3163400454035784</v>
+        <v>0.1634539423106341</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01322341575558983</v>
+        <v>0.004472471819165054</v>
       </c>
       <c r="G258" t="n">
-        <v>0.314757836537883</v>
+        <v>0.04834548855147876</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02596145723831231</v>
+        <v>0.03834346970903935</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3174828988383384</v>
+        <v>0.16792552595561</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06162019817792336</v>
+        <v>0.0914887295453698</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3188289014206946</v>
+        <v>0.1644519097941141</v>
       </c>
       <c r="N258" t="n">
-        <v>0.09783849221787921</v>
+        <v>0.1445353022105561</v>
       </c>
       <c r="O258" t="n">
-        <v>0.317987649806722</v>
+        <v>0.1643052649268353</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01394810247801635</v>
+        <v>0.004540708120065344</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3163887061572503</v>
+        <v>0.04831543740518526</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02538842955362827</v>
+        <v>0.03813098205754779</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3191278879514904</v>
+        <v>0.1687956064009758</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06028236448993329</v>
+        <v>0.0918594965227045</v>
       </c>
       <c r="M259" t="n">
-        <v>0.320480864640491</v>
+        <v>0.1653039922282805</v>
       </c>
       <c r="N259" t="n">
-        <v>0.09594243752718629</v>
+        <v>0.1450890847649221</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3196352542098656</v>
+        <v>0.1651565875430365</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01467152276687549</v>
+        <v>0.004616314508392665</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3180195757766175</v>
+        <v>0.04828538625889176</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02501320778273738</v>
+        <v>0.03811873088109538</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3207728770646424</v>
+        <v>0.1696656868463417</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05973923150752819</v>
+        <v>0.091630807555896</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3221328278602873</v>
+        <v>0.1661560746624469</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09473803926195096</v>
+        <v>0.1449437268342935</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3212828586130093</v>
+        <v>0.1660079101592377</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01239366137266595</v>
+        <v>0.004699668937348411</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3196504453959848</v>
+        <v>0.04825533511259825</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02453576526336879</v>
+        <v>0.038206719405046</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3224178661777944</v>
+        <v>0.1705357672917075</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05839073454464358</v>
+        <v>0.09150266990177339</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3237847910800837</v>
+        <v>0.1670081570966133</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09252519586105651</v>
+        <v>0.1452992398723117</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3229304630161529</v>
+        <v>0.1668592327754389</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01211450304588642</v>
+        <v>0.004791149360133938</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3212813150153521</v>
+        <v>0.04822528396630476</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02385607533325175</v>
+        <v>0.03839495085476359</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3240628552909465</v>
+        <v>0.1714058477370734</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05703680891521526</v>
+        <v>0.0912750908171657</v>
       </c>
       <c r="M262" t="n">
-        <v>0.32543675429988</v>
+        <v>0.1678602395307797</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09100380576338607</v>
+        <v>0.144255635332619</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3245780674192965</v>
+        <v>0.1677105553916401</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01183403253703561</v>
+        <v>0.004891133729950675</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3229121846347193</v>
+        <v>0.04819523282001126</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02337411133011558</v>
+        <v>0.03838342845561205</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3257078444040984</v>
+        <v>0.1722759281824393</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05617738993317883</v>
+        <v>0.09114807755890197</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3270887175196764</v>
+        <v>0.1687123219649461</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08867376740782312</v>
+        <v>0.1445129246688568</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3262256718224402</v>
+        <v>0.1685618780078414</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01355223459661219</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3245430542540866</v>
+        <v>0.04816518167371776</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02268984659168943</v>
+        <v>0.03837215543295533</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3273528335172505</v>
+        <v>0.1731460086278051</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05471241291247003</v>
+        <v>0.09192163738381121</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3287406807394727</v>
+        <v>0.1695644043991125</v>
       </c>
       <c r="N264" t="n">
-        <v>0.08623497923325063</v>
+        <v>0.1449711193346672</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3278732762255838</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1694132006240426</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04815202377898092</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005296238828521586</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04815229230744493</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.00558973583272402</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04815256083590895</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005880417224001795</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04815282936437296</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006168209213774839</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04815309789283698</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006453038013437891</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.048153366421301</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006734829834410622</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04815363494976502</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007013510888088034</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04815390347822903</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007289007385889529</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04815417200669305</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007561245539210386</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04815444053515707</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007830151559469728</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04815470906362109</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008095651658063127</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0481549775920851</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008357672046409408</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04815524612054913</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008616138935904433</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04815551464901314</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008870978537966707</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04815578317747716</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009122117063992449</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04815605170594117</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.00936948072539983</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04815632023440519</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009612995733585365</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04815658876286921</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009852588299961745</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04815685729133322</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01008818463594133</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04815712581979724</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01031971095292115</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04815739434826125</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01054709346231853</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04815766287672527</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01077025837553087</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04815793140518929</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01098913190397512</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04815819993365331</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01120364025904907</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04815846846211733</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01141401095558959</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04815873699058135</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01162197802551665</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04815900551904536</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01182776898366689</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04815927404750938</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01203131004143864</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04815954257597339</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01223252741024802</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04815981110443741</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01243134730149354</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04816007963290143</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01262769592659112</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04816034816136545</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0128214994969395</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04816061668982946</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01301268422395026</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04816088521829348</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01320117631903472</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.0481611537467575</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01338690199359197</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04816142227522151</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01356978745903734</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04816169080368553</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01374975892677015</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04816195933214955</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01392674260820553</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04816222786061357</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01410066471474302</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04816249638907758</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01427145145779746</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.0481627649175416</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0144390290487687</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04816303344600562</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.0146033236990713</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04816330197446964</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01476426162010539</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04816357050293365</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01492176902328523</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04816383903139767</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01507577212001123</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04816410755986169</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01522619712169739</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04816437608832571</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01537297023974441</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04816464461678972</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01551601768556597</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04816491314525374</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01565526567056309</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04816518167371776</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01565526567056309</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04815202377898092</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01577870888309909</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04818261198220245</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01590089123140633</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04821320018542399</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01602147504685961</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04824378838864552</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01614012266083363</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04827437659186706</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01625649640470313</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04830496479508859</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01637025860984282</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04833555299831013</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.0164810716076275</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04836614120153166</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01658859772943185</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0483967294047532</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01669249930663064</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04842731760797474</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01679243867059858</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04845790581119627</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01688807815271044</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04848849401441781</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01697908008434094</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04851908221763934</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01706510679686481</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04854967042086088</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01714582062165679</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04858025862408241</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01722088389009165</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04861084682730395</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.0172899589335441</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04864143503052548</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01735270808338885</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04867202323374702</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01740879367100068</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04870261143696855</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01745787802775433</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04873319964019009</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01749962348502451</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04876378784341163</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01753369237418596</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04879437604663316</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01755974702661344</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0488249642498547</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01757744977368167</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04885555245307623</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01758646294676539</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04888614065629777</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01758760306652684</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.0489167288595193</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01758754183416538</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04894731706274084</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01758731103526451</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04897790526596237</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01758679762546463</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04900849346918391</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01758588856040611</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04903908167240544</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01758447079572935</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04906966987562698</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01758243128707475</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04910025807884852</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01757965699008268</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04913084628207005</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01757603486039356</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04916143448529159</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01757145185364776</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04919202268851312</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01756579492548568</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04922261089173466</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01755895103154771</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04925319909495619</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01755080712747424</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04928378729817773</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01754125016890567</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04931437550139926</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01753016711148237</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0493449637046208</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01751744491084475</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04937555190784233</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01750297052263321</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04940614011106387</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01748663090248812</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04943672831428541</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01746831300604987</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04946731651750694</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01744790378895887</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04949790472072848</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.0174252902068555</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04952849292395001</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01740035921538016</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04955908112717155</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01737299777017322</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04958966933039308</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01734309282687511</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04962025753361462</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01731053134112618</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04965084573683615</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01731053134112618</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04965084573683615</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01765834238751531</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05123319023807376</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.0179992196304476</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05281553473931135</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.0183330153707499</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05439787924054896</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01865958190924907</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05598022374178656</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01897877154677199</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05756256824302415</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01929043658414554</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05914491274426176</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01959442932219656</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06072725724549936</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01989060206175195</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06230960174673696</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02017880710363856</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06389194624797456</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02045889674868327</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06547429074921216</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02073072329771293</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06705663525044976</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02099413905155442</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06863897975168735</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02124899631103461</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07022132425292496</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02149514737698038</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07180366875416257</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02173244455021857</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07338601325540016</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02196074013157606</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07496835775663775</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02217988642187975</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07655070225787536</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02238973572195646</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07813304675911295</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02259014033263309</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.07971539126035057</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02278095255473649</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08129773576158816</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02296202468909354</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08288008026282576</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02313320903653111</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08446242476406336</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02329435789787606</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08604476926530095</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02344532357395526</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08762711376653858</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.0235859583655956</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08920945826777615</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02371611457362393</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09079180276901376</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02383564449886711</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09237414727025137</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02394440044215202</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09395649177148896</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02404223470430551</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09553883627272657</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02412899958615448</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09712118077396416</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02420454738852578</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09870352527520175</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0242687304122463</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1002858697764394</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02432140095814288</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.101868214277677</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.0243624113270424</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1034505587789146</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02439161381977172</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1050329032801522</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02441404178816824</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1066152477813898</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02441402468601183</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1081975922826274</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02441086472501968</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.109779936783865</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02440252158463854</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1113622812851025</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02438938891960202</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1129446257863402</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02437186038464372</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1145269702875778</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02435032963449727</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1161093147888154</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02432519032389625</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.117691659290053</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02429683610757426</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1192740037912906</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02426566064026493</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1208563482925282</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02423205757670183</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1224386927937658</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.0241964205716186</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1240210372950034</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02415914327974884</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.125603381796241</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02412061935582614</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1271857262974786</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.0240812424545841</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1287680707987162</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02404114074636613</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1303504152999538</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0239885174998617</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1319327598011914</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02391981436174218</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.133515104302429</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.0238391260449965</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1350974488036666</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02375054726261364</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1366797933049042</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02365817272758256</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1382621378061418</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02356609715289223</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1398444823073794</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02347841525153162</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.141426826808617</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02339922173648969</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1430091713098545</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.0233326113207554</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1445915158110922</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02328267871731773</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1461738603123298</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02324534817320246</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1477562048135674</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02321029890221356</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02317730742682576</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1509208938160426</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02314624253649619</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1525032383172802</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02311697302068199</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1540855828185178</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02308936766884034</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1556679273197553</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02306329527042838</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.157250271820993</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02303862461490324</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1588326163222306</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02301522449172209</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1604149608234682</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02299296369034207</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1619973053247058</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02297171100022034</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1635796498259434</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02295133521081403</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.165161994327181</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0229317051115803</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1667443388284186</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02291268949197631</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1683266833296562</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.0228941571414592</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1699090278308938</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0228759768494861</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1714913723321314</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.0228580174055142</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1730737168333689</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02284014759900061</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1746560613346066</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02282223621940251</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1762384058358442</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02280415205617704</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1778207503370818</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02278576389878133</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1794030948383194</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02276732485006218</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.180985439339557</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02274919394952685</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1825677838407946</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02273138260416277</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1841501283420321</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02271390220055484</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1857324728432698</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02269676412528795</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1873148173445074</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02267997976494698</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.188897161845745</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02266356050611681</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1904795063469826</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02264751773538234</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1920618508482202</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02263186283932846</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1936441953494578</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02261660720454007</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1952265398506954</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02260176221760203</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.196808884351933</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02258733926509925</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1983912288531706</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.0225733497336166</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1999735733544082</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02255980500973899</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2015559178556458</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.0225467164800513</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2031382623568834</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02253409553113839</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.204720606858121</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0225219535495852</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2063029513593586</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
